--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>FirstName</t>
   </si>
@@ -749,6 +749,366 @@
   </si>
   <si>
     <t>27720</t>
+  </si>
+  <si>
+    <t>Proctor66783</t>
+  </si>
+  <si>
+    <t>Automation66783</t>
+  </si>
+  <si>
+    <t>proctorautomation66783@gmail.com</t>
+  </si>
+  <si>
+    <t>66783</t>
+  </si>
+  <si>
+    <t>Proctor20305</t>
+  </si>
+  <si>
+    <t>Automation20305</t>
+  </si>
+  <si>
+    <t>proctorautomation20305@gmail.com</t>
+  </si>
+  <si>
+    <t>20305</t>
+  </si>
+  <si>
+    <t>Proctor35557</t>
+  </si>
+  <si>
+    <t>Automation35557</t>
+  </si>
+  <si>
+    <t>proctorautomation35557@gmail.com</t>
+  </si>
+  <si>
+    <t>35557</t>
+  </si>
+  <si>
+    <t>Proctor69732</t>
+  </si>
+  <si>
+    <t>Automation69732</t>
+  </si>
+  <si>
+    <t>proctorautomation69732@gmail.com</t>
+  </si>
+  <si>
+    <t>69732</t>
+  </si>
+  <si>
+    <t>Proctor80170</t>
+  </si>
+  <si>
+    <t>Automation80170</t>
+  </si>
+  <si>
+    <t>proctorautomation80170@gmail.com</t>
+  </si>
+  <si>
+    <t>80170</t>
+  </si>
+  <si>
+    <t>Proctor25107</t>
+  </si>
+  <si>
+    <t>Automation25107</t>
+  </si>
+  <si>
+    <t>proctorautomation25107@gmail.com</t>
+  </si>
+  <si>
+    <t>25107</t>
+  </si>
+  <si>
+    <t>Proctor56119</t>
+  </si>
+  <si>
+    <t>Automation56119</t>
+  </si>
+  <si>
+    <t>proctorautomation56119@gmail.com</t>
+  </si>
+  <si>
+    <t>56119</t>
+  </si>
+  <si>
+    <t>Proctor55471</t>
+  </si>
+  <si>
+    <t>Automation55471</t>
+  </si>
+  <si>
+    <t>proctorautomation55471@gmail.com</t>
+  </si>
+  <si>
+    <t>55471</t>
+  </si>
+  <si>
+    <t>Proctor19851</t>
+  </si>
+  <si>
+    <t>Automation19851</t>
+  </si>
+  <si>
+    <t>proctorautomation19851@gmail.com</t>
+  </si>
+  <si>
+    <t>19851</t>
+  </si>
+  <si>
+    <t>Proctor51868</t>
+  </si>
+  <si>
+    <t>Automation51868</t>
+  </si>
+  <si>
+    <t>proctorautomation51868@gmail.com</t>
+  </si>
+  <si>
+    <t>51868</t>
+  </si>
+  <si>
+    <t>Proctor33137</t>
+  </si>
+  <si>
+    <t>Automation33137</t>
+  </si>
+  <si>
+    <t>proctorautomation33137@gmail.com</t>
+  </si>
+  <si>
+    <t>33137</t>
+  </si>
+  <si>
+    <t>Proctor57154</t>
+  </si>
+  <si>
+    <t>Automation57154</t>
+  </si>
+  <si>
+    <t>proctorautomation57154@gmail.com</t>
+  </si>
+  <si>
+    <t>57154</t>
+  </si>
+  <si>
+    <t>Proctor62732</t>
+  </si>
+  <si>
+    <t>Automation62732</t>
+  </si>
+  <si>
+    <t>proctorautomation62732@gmail.com</t>
+  </si>
+  <si>
+    <t>62732</t>
+  </si>
+  <si>
+    <t>Proctor76947</t>
+  </si>
+  <si>
+    <t>Automation76947</t>
+  </si>
+  <si>
+    <t>proctorautomation76947@gmail.com</t>
+  </si>
+  <si>
+    <t>76947</t>
+  </si>
+  <si>
+    <t>Proctor19887</t>
+  </si>
+  <si>
+    <t>Automation19887</t>
+  </si>
+  <si>
+    <t>proctorautomation19887@gmail.com</t>
+  </si>
+  <si>
+    <t>19887</t>
+  </si>
+  <si>
+    <t>Proctor87654</t>
+  </si>
+  <si>
+    <t>Automation87654</t>
+  </si>
+  <si>
+    <t>proctorautomation87654@gmail.com</t>
+  </si>
+  <si>
+    <t>87654</t>
+  </si>
+  <si>
+    <t>Proctor70339</t>
+  </si>
+  <si>
+    <t>Automation70339</t>
+  </si>
+  <si>
+    <t>proctorautomation70339@gmail.com</t>
+  </si>
+  <si>
+    <t>70339</t>
+  </si>
+  <si>
+    <t>Proctor06015</t>
+  </si>
+  <si>
+    <t>Automation06015</t>
+  </si>
+  <si>
+    <t>proctorautomation06015@gmail.com</t>
+  </si>
+  <si>
+    <t>06015</t>
+  </si>
+  <si>
+    <t>Proctor79412</t>
+  </si>
+  <si>
+    <t>Automation79412</t>
+  </si>
+  <si>
+    <t>proctorautomation79412@gmail.com</t>
+  </si>
+  <si>
+    <t>79412</t>
+  </si>
+  <si>
+    <t>Proctor89009</t>
+  </si>
+  <si>
+    <t>Automation89009</t>
+  </si>
+  <si>
+    <t>proctorautomation89009@gmail.com</t>
+  </si>
+  <si>
+    <t>89009</t>
+  </si>
+  <si>
+    <t>Proctor52298</t>
+  </si>
+  <si>
+    <t>Automation52298</t>
+  </si>
+  <si>
+    <t>proctorautomation52298@gmail.com</t>
+  </si>
+  <si>
+    <t>52298</t>
+  </si>
+  <si>
+    <t>Proctor70595</t>
+  </si>
+  <si>
+    <t>Automation70595</t>
+  </si>
+  <si>
+    <t>proctorautomation70595@gmail.com</t>
+  </si>
+  <si>
+    <t>70595</t>
+  </si>
+  <si>
+    <t>Proctor60576</t>
+  </si>
+  <si>
+    <t>Automation60576</t>
+  </si>
+  <si>
+    <t>proctorautomation60576@gmail.com</t>
+  </si>
+  <si>
+    <t>60576</t>
+  </si>
+  <si>
+    <t>Proctor47712</t>
+  </si>
+  <si>
+    <t>Automation47712</t>
+  </si>
+  <si>
+    <t>proctorautomation47712@gmail.com</t>
+  </si>
+  <si>
+    <t>47712</t>
+  </si>
+  <si>
+    <t>Proctor76108</t>
+  </si>
+  <si>
+    <t>Automation76108</t>
+  </si>
+  <si>
+    <t>proctorautomation76108@gmail.com</t>
+  </si>
+  <si>
+    <t>76108</t>
+  </si>
+  <si>
+    <t>Proctor06476</t>
+  </si>
+  <si>
+    <t>Automation06476</t>
+  </si>
+  <si>
+    <t>proctorautomation06476@gmail.com</t>
+  </si>
+  <si>
+    <t>06476</t>
+  </si>
+  <si>
+    <t>Proctor97659</t>
+  </si>
+  <si>
+    <t>Automation97659</t>
+  </si>
+  <si>
+    <t>proctorautomation97659@gmail.com</t>
+  </si>
+  <si>
+    <t>97659</t>
+  </si>
+  <si>
+    <t>Proctor74639</t>
+  </si>
+  <si>
+    <t>Automation74639</t>
+  </si>
+  <si>
+    <t>proctorautomation74639@gmail.com</t>
+  </si>
+  <si>
+    <t>74639</t>
+  </si>
+  <si>
+    <t>Proctor30431</t>
+  </si>
+  <si>
+    <t>Automation30431</t>
+  </si>
+  <si>
+    <t>proctorautomation30431@gmail.com</t>
+  </si>
+  <si>
+    <t>30431</t>
+  </si>
+  <si>
+    <t>Proctor03337</t>
+  </si>
+  <si>
+    <t>Automation03337</t>
+  </si>
+  <si>
+    <t>proctorautomation03337@gmail.com</t>
+  </si>
+  <si>
+    <t>03337</t>
   </si>
 </sst>
 </file>
@@ -1156,422 +1516,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>311</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>315</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>319</v>
       </c>
       <c r="D20" t="s">
-        <v>200</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>321</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>326</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>327</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>216</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>337</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="D25" t="s">
-        <v>220</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>343</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>225</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>346</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>347</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>349</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>351</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>362</v>
       </c>
       <c r="C31" t="s">
-        <v>243</v>
+        <v>363</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
   <si>
     <t>FirstName</t>
   </si>
@@ -1109,6 +1109,366 @@
   </si>
   <si>
     <t>03337</t>
+  </si>
+  <si>
+    <t>Proctor08585</t>
+  </si>
+  <si>
+    <t>Automation08585</t>
+  </si>
+  <si>
+    <t>proctorautomation08585@gmail.com</t>
+  </si>
+  <si>
+    <t>08585</t>
+  </si>
+  <si>
+    <t>Proctor59350</t>
+  </si>
+  <si>
+    <t>Automation59350</t>
+  </si>
+  <si>
+    <t>proctorautomation59350@gmail.com</t>
+  </si>
+  <si>
+    <t>59350</t>
+  </si>
+  <si>
+    <t>Proctor00477</t>
+  </si>
+  <si>
+    <t>Automation00477</t>
+  </si>
+  <si>
+    <t>proctorautomation00477@gmail.com</t>
+  </si>
+  <si>
+    <t>00477</t>
+  </si>
+  <si>
+    <t>Proctor21499</t>
+  </si>
+  <si>
+    <t>Automation21499</t>
+  </si>
+  <si>
+    <t>proctorautomation21499@gmail.com</t>
+  </si>
+  <si>
+    <t>21499</t>
+  </si>
+  <si>
+    <t>Proctor29959</t>
+  </si>
+  <si>
+    <t>Automation29959</t>
+  </si>
+  <si>
+    <t>proctorautomation29959@gmail.com</t>
+  </si>
+  <si>
+    <t>29959</t>
+  </si>
+  <si>
+    <t>Proctor29280</t>
+  </si>
+  <si>
+    <t>Automation29280</t>
+  </si>
+  <si>
+    <t>proctorautomation29280@gmail.com</t>
+  </si>
+  <si>
+    <t>29280</t>
+  </si>
+  <si>
+    <t>Proctor22528</t>
+  </si>
+  <si>
+    <t>Automation22528</t>
+  </si>
+  <si>
+    <t>proctorautomation22528@gmail.com</t>
+  </si>
+  <si>
+    <t>22528</t>
+  </si>
+  <si>
+    <t>Proctor80625</t>
+  </si>
+  <si>
+    <t>Automation80625</t>
+  </si>
+  <si>
+    <t>proctorautomation80625@gmail.com</t>
+  </si>
+  <si>
+    <t>80625</t>
+  </si>
+  <si>
+    <t>Proctor12961</t>
+  </si>
+  <si>
+    <t>Automation12961</t>
+  </si>
+  <si>
+    <t>proctorautomation12961@gmail.com</t>
+  </si>
+  <si>
+    <t>12961</t>
+  </si>
+  <si>
+    <t>Proctor36758</t>
+  </si>
+  <si>
+    <t>Automation36758</t>
+  </si>
+  <si>
+    <t>proctorautomation36758@gmail.com</t>
+  </si>
+  <si>
+    <t>36758</t>
+  </si>
+  <si>
+    <t>Proctor50433</t>
+  </si>
+  <si>
+    <t>Automation50433</t>
+  </si>
+  <si>
+    <t>proctorautomation50433@gmail.com</t>
+  </si>
+  <si>
+    <t>50433</t>
+  </si>
+  <si>
+    <t>Proctor48286</t>
+  </si>
+  <si>
+    <t>Automation48286</t>
+  </si>
+  <si>
+    <t>proctorautomation48286@gmail.com</t>
+  </si>
+  <si>
+    <t>48286</t>
+  </si>
+  <si>
+    <t>Proctor45318</t>
+  </si>
+  <si>
+    <t>Automation45318</t>
+  </si>
+  <si>
+    <t>proctorautomation45318@gmail.com</t>
+  </si>
+  <si>
+    <t>45318</t>
+  </si>
+  <si>
+    <t>Proctor79288</t>
+  </si>
+  <si>
+    <t>Automation79288</t>
+  </si>
+  <si>
+    <t>proctorautomation79288@gmail.com</t>
+  </si>
+  <si>
+    <t>79288</t>
+  </si>
+  <si>
+    <t>Proctor39503</t>
+  </si>
+  <si>
+    <t>Automation39503</t>
+  </si>
+  <si>
+    <t>proctorautomation39503@gmail.com</t>
+  </si>
+  <si>
+    <t>39503</t>
+  </si>
+  <si>
+    <t>Proctor48235</t>
+  </si>
+  <si>
+    <t>Automation48235</t>
+  </si>
+  <si>
+    <t>proctorautomation48235@gmail.com</t>
+  </si>
+  <si>
+    <t>48235</t>
+  </si>
+  <si>
+    <t>Proctor15585</t>
+  </si>
+  <si>
+    <t>Automation15585</t>
+  </si>
+  <si>
+    <t>proctorautomation15585@gmail.com</t>
+  </si>
+  <si>
+    <t>15585</t>
+  </si>
+  <si>
+    <t>Proctor10556</t>
+  </si>
+  <si>
+    <t>Automation10556</t>
+  </si>
+  <si>
+    <t>proctorautomation10556@gmail.com</t>
+  </si>
+  <si>
+    <t>10556</t>
+  </si>
+  <si>
+    <t>Proctor29091</t>
+  </si>
+  <si>
+    <t>Automation29091</t>
+  </si>
+  <si>
+    <t>proctorautomation29091@gmail.com</t>
+  </si>
+  <si>
+    <t>29091</t>
+  </si>
+  <si>
+    <t>Proctor73299</t>
+  </si>
+  <si>
+    <t>Automation73299</t>
+  </si>
+  <si>
+    <t>proctorautomation73299@gmail.com</t>
+  </si>
+  <si>
+    <t>73299</t>
+  </si>
+  <si>
+    <t>Proctor94128</t>
+  </si>
+  <si>
+    <t>Automation94128</t>
+  </si>
+  <si>
+    <t>proctorautomation94128@gmail.com</t>
+  </si>
+  <si>
+    <t>94128</t>
+  </si>
+  <si>
+    <t>Proctor88742</t>
+  </si>
+  <si>
+    <t>Automation88742</t>
+  </si>
+  <si>
+    <t>proctorautomation88742@gmail.com</t>
+  </si>
+  <si>
+    <t>88742</t>
+  </si>
+  <si>
+    <t>Proctor41863</t>
+  </si>
+  <si>
+    <t>Automation41863</t>
+  </si>
+  <si>
+    <t>proctorautomation41863@gmail.com</t>
+  </si>
+  <si>
+    <t>41863</t>
+  </si>
+  <si>
+    <t>Proctor29685</t>
+  </si>
+  <si>
+    <t>Automation29685</t>
+  </si>
+  <si>
+    <t>proctorautomation29685@gmail.com</t>
+  </si>
+  <si>
+    <t>29685</t>
+  </si>
+  <si>
+    <t>Proctor11339</t>
+  </si>
+  <si>
+    <t>Automation11339</t>
+  </si>
+  <si>
+    <t>proctorautomation11339@gmail.com</t>
+  </si>
+  <si>
+    <t>11339</t>
+  </si>
+  <si>
+    <t>Proctor27409</t>
+  </si>
+  <si>
+    <t>Automation27409</t>
+  </si>
+  <si>
+    <t>proctorautomation27409@gmail.com</t>
+  </si>
+  <si>
+    <t>27409</t>
+  </si>
+  <si>
+    <t>Proctor07476</t>
+  </si>
+  <si>
+    <t>Automation07476</t>
+  </si>
+  <si>
+    <t>proctorautomation07476@gmail.com</t>
+  </si>
+  <si>
+    <t>07476</t>
+  </si>
+  <si>
+    <t>Proctor61224</t>
+  </si>
+  <si>
+    <t>Automation61224</t>
+  </si>
+  <si>
+    <t>proctorautomation61224@gmail.com</t>
+  </si>
+  <si>
+    <t>61224</t>
+  </si>
+  <si>
+    <t>Proctor32501</t>
+  </si>
+  <si>
+    <t>Automation32501</t>
+  </si>
+  <si>
+    <t>proctorautomation32501@gmail.com</t>
+  </si>
+  <si>
+    <t>32501</t>
+  </si>
+  <si>
+    <t>Proctor85926</t>
+  </si>
+  <si>
+    <t>Automation85926</t>
+  </si>
+  <si>
+    <t>proctorautomation85926@gmail.com</t>
+  </si>
+  <si>
+    <t>85926</t>
   </si>
 </sst>
 </file>
@@ -1516,422 +1876,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>367</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>379</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>386</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>391</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>399</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>401</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>284</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s">
-        <v>294</v>
+        <v>414</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>415</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>418</v>
       </c>
       <c r="C15" t="s">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
-        <v>302</v>
+        <v>422</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="D16" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>430</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>431</v>
       </c>
       <c r="D18" t="s">
-        <v>312</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>434</v>
       </c>
       <c r="C19" t="s">
-        <v>315</v>
+        <v>435</v>
       </c>
       <c r="D19" t="s">
-        <v>316</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>437</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>438</v>
       </c>
       <c r="C20" t="s">
-        <v>319</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>441</v>
       </c>
       <c r="B21" t="s">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="C21" t="s">
-        <v>323</v>
+        <v>443</v>
       </c>
       <c r="D21" t="s">
-        <v>324</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>445</v>
       </c>
       <c r="B22" t="s">
-        <v>326</v>
+        <v>446</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>447</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>449</v>
       </c>
       <c r="B23" t="s">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>451</v>
       </c>
       <c r="D23" t="s">
-        <v>332</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>453</v>
       </c>
       <c r="B24" t="s">
-        <v>334</v>
+        <v>454</v>
       </c>
       <c r="C24" t="s">
-        <v>335</v>
+        <v>455</v>
       </c>
       <c r="D24" t="s">
-        <v>336</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>337</v>
+        <v>457</v>
       </c>
       <c r="B25" t="s">
-        <v>338</v>
+        <v>458</v>
       </c>
       <c r="C25" t="s">
-        <v>339</v>
+        <v>459</v>
       </c>
       <c r="D25" t="s">
-        <v>340</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>341</v>
+        <v>461</v>
       </c>
       <c r="B26" t="s">
-        <v>342</v>
+        <v>462</v>
       </c>
       <c r="C26" t="s">
-        <v>343</v>
+        <v>463</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>345</v>
+        <v>465</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
       <c r="C27" t="s">
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="D27" t="s">
-        <v>348</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>469</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>470</v>
       </c>
       <c r="C28" t="s">
-        <v>351</v>
+        <v>471</v>
       </c>
       <c r="D28" t="s">
-        <v>352</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>473</v>
       </c>
       <c r="B29" t="s">
-        <v>354</v>
+        <v>474</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>475</v>
       </c>
       <c r="D29" t="s">
-        <v>356</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>477</v>
       </c>
       <c r="B30" t="s">
-        <v>358</v>
+        <v>478</v>
       </c>
       <c r="C30" t="s">
-        <v>359</v>
+        <v>479</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>361</v>
+        <v>481</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>482</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="D31" t="s">
-        <v>364</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="845">
   <si>
     <t>FirstName</t>
   </si>
@@ -1469,6 +1469,1086 @@
   </si>
   <si>
     <t>85926</t>
+  </si>
+  <si>
+    <t>Proctor81017</t>
+  </si>
+  <si>
+    <t>Automation81017</t>
+  </si>
+  <si>
+    <t>proctorautomation81017@gmail.com</t>
+  </si>
+  <si>
+    <t>81017</t>
+  </si>
+  <si>
+    <t>Proctor63294</t>
+  </si>
+  <si>
+    <t>Automation63294</t>
+  </si>
+  <si>
+    <t>proctorautomation63294@gmail.com</t>
+  </si>
+  <si>
+    <t>63294</t>
+  </si>
+  <si>
+    <t>Proctor34782</t>
+  </si>
+  <si>
+    <t>Automation34782</t>
+  </si>
+  <si>
+    <t>proctorautomation34782@gmail.com</t>
+  </si>
+  <si>
+    <t>34782</t>
+  </si>
+  <si>
+    <t>Proctor01984</t>
+  </si>
+  <si>
+    <t>Automation01984</t>
+  </si>
+  <si>
+    <t>proctorautomation01984@gmail.com</t>
+  </si>
+  <si>
+    <t>01984</t>
+  </si>
+  <si>
+    <t>Proctor55987</t>
+  </si>
+  <si>
+    <t>Automation55987</t>
+  </si>
+  <si>
+    <t>proctorautomation55987@gmail.com</t>
+  </si>
+  <si>
+    <t>55987</t>
+  </si>
+  <si>
+    <t>Proctor36644</t>
+  </si>
+  <si>
+    <t>Automation36644</t>
+  </si>
+  <si>
+    <t>proctorautomation36644@gmail.com</t>
+  </si>
+  <si>
+    <t>36644</t>
+  </si>
+  <si>
+    <t>Proctor18252</t>
+  </si>
+  <si>
+    <t>Automation18252</t>
+  </si>
+  <si>
+    <t>proctorautomation18252@gmail.com</t>
+  </si>
+  <si>
+    <t>18252</t>
+  </si>
+  <si>
+    <t>Proctor79305</t>
+  </si>
+  <si>
+    <t>Automation79305</t>
+  </si>
+  <si>
+    <t>proctorautomation79305@gmail.com</t>
+  </si>
+  <si>
+    <t>79305</t>
+  </si>
+  <si>
+    <t>Proctor01173</t>
+  </si>
+  <si>
+    <t>Automation01173</t>
+  </si>
+  <si>
+    <t>proctorautomation01173@gmail.com</t>
+  </si>
+  <si>
+    <t>01173</t>
+  </si>
+  <si>
+    <t>Proctor86326</t>
+  </si>
+  <si>
+    <t>Automation86326</t>
+  </si>
+  <si>
+    <t>proctorautomation86326@gmail.com</t>
+  </si>
+  <si>
+    <t>86326</t>
+  </si>
+  <si>
+    <t>Proctor53861</t>
+  </si>
+  <si>
+    <t>Automation53861</t>
+  </si>
+  <si>
+    <t>proctorautomation53861@gmail.com</t>
+  </si>
+  <si>
+    <t>53861</t>
+  </si>
+  <si>
+    <t>Proctor53601</t>
+  </si>
+  <si>
+    <t>Automation53601</t>
+  </si>
+  <si>
+    <t>proctorautomation53601@gmail.com</t>
+  </si>
+  <si>
+    <t>53601</t>
+  </si>
+  <si>
+    <t>Proctor00783</t>
+  </si>
+  <si>
+    <t>Automation00783</t>
+  </si>
+  <si>
+    <t>proctorautomation00783@gmail.com</t>
+  </si>
+  <si>
+    <t>00783</t>
+  </si>
+  <si>
+    <t>Proctor36610</t>
+  </si>
+  <si>
+    <t>Automation36610</t>
+  </si>
+  <si>
+    <t>proctorautomation36610@gmail.com</t>
+  </si>
+  <si>
+    <t>36610</t>
+  </si>
+  <si>
+    <t>Proctor38299</t>
+  </si>
+  <si>
+    <t>Automation38299</t>
+  </si>
+  <si>
+    <t>proctorautomation38299@gmail.com</t>
+  </si>
+  <si>
+    <t>38299</t>
+  </si>
+  <si>
+    <t>Proctor48121</t>
+  </si>
+  <si>
+    <t>Automation48121</t>
+  </si>
+  <si>
+    <t>proctorautomation48121@gmail.com</t>
+  </si>
+  <si>
+    <t>48121</t>
+  </si>
+  <si>
+    <t>Proctor85183</t>
+  </si>
+  <si>
+    <t>Automation85183</t>
+  </si>
+  <si>
+    <t>proctorautomation85183@gmail.com</t>
+  </si>
+  <si>
+    <t>85183</t>
+  </si>
+  <si>
+    <t>Proctor12364</t>
+  </si>
+  <si>
+    <t>Automation12364</t>
+  </si>
+  <si>
+    <t>proctorautomation12364@gmail.com</t>
+  </si>
+  <si>
+    <t>12364</t>
+  </si>
+  <si>
+    <t>Proctor47444</t>
+  </si>
+  <si>
+    <t>Automation47444</t>
+  </si>
+  <si>
+    <t>proctorautomation47444@gmail.com</t>
+  </si>
+  <si>
+    <t>47444</t>
+  </si>
+  <si>
+    <t>Proctor03840</t>
+  </si>
+  <si>
+    <t>Automation03840</t>
+  </si>
+  <si>
+    <t>proctorautomation03840@gmail.com</t>
+  </si>
+  <si>
+    <t>03840</t>
+  </si>
+  <si>
+    <t>Proctor01633</t>
+  </si>
+  <si>
+    <t>Automation01633</t>
+  </si>
+  <si>
+    <t>proctorautomation01633@gmail.com</t>
+  </si>
+  <si>
+    <t>01633</t>
+  </si>
+  <si>
+    <t>Proctor41242</t>
+  </si>
+  <si>
+    <t>Automation41242</t>
+  </si>
+  <si>
+    <t>proctorautomation41242@gmail.com</t>
+  </si>
+  <si>
+    <t>41242</t>
+  </si>
+  <si>
+    <t>Proctor65396</t>
+  </si>
+  <si>
+    <t>Automation65396</t>
+  </si>
+  <si>
+    <t>proctorautomation65396@gmail.com</t>
+  </si>
+  <si>
+    <t>65396</t>
+  </si>
+  <si>
+    <t>Proctor44028</t>
+  </si>
+  <si>
+    <t>Automation44028</t>
+  </si>
+  <si>
+    <t>proctorautomation44028@gmail.com</t>
+  </si>
+  <si>
+    <t>44028</t>
+  </si>
+  <si>
+    <t>Proctor88384</t>
+  </si>
+  <si>
+    <t>Automation88384</t>
+  </si>
+  <si>
+    <t>proctorautomation88384@gmail.com</t>
+  </si>
+  <si>
+    <t>88384</t>
+  </si>
+  <si>
+    <t>Proctor08857</t>
+  </si>
+  <si>
+    <t>Automation08857</t>
+  </si>
+  <si>
+    <t>proctorautomation08857@gmail.com</t>
+  </si>
+  <si>
+    <t>08857</t>
+  </si>
+  <si>
+    <t>Proctor96547</t>
+  </si>
+  <si>
+    <t>Automation96547</t>
+  </si>
+  <si>
+    <t>proctorautomation96547@gmail.com</t>
+  </si>
+  <si>
+    <t>96547</t>
+  </si>
+  <si>
+    <t>Proctor68390</t>
+  </si>
+  <si>
+    <t>Automation68390</t>
+  </si>
+  <si>
+    <t>proctorautomation68390@gmail.com</t>
+  </si>
+  <si>
+    <t>68390</t>
+  </si>
+  <si>
+    <t>Proctor90860</t>
+  </si>
+  <si>
+    <t>Automation90860</t>
+  </si>
+  <si>
+    <t>proctorautomation90860@gmail.com</t>
+  </si>
+  <si>
+    <t>90860</t>
+  </si>
+  <si>
+    <t>Proctor44258</t>
+  </si>
+  <si>
+    <t>Automation44258</t>
+  </si>
+  <si>
+    <t>proctorautomation44258@gmail.com</t>
+  </si>
+  <si>
+    <t>44258</t>
+  </si>
+  <si>
+    <t>Proctor70951</t>
+  </si>
+  <si>
+    <t>Automation70951</t>
+  </si>
+  <si>
+    <t>proctorautomation70951@gmail.com</t>
+  </si>
+  <si>
+    <t>70951</t>
+  </si>
+  <si>
+    <t>Proctor22954</t>
+  </si>
+  <si>
+    <t>Automation22954</t>
+  </si>
+  <si>
+    <t>proctorautomation22954@gmail.com</t>
+  </si>
+  <si>
+    <t>22954</t>
+  </si>
+  <si>
+    <t>Proctor16396</t>
+  </si>
+  <si>
+    <t>Automation16396</t>
+  </si>
+  <si>
+    <t>proctorautomation16396@gmail.com</t>
+  </si>
+  <si>
+    <t>16396</t>
+  </si>
+  <si>
+    <t>Proctor81459</t>
+  </si>
+  <si>
+    <t>Automation81459</t>
+  </si>
+  <si>
+    <t>proctorautomation81459@gmail.com</t>
+  </si>
+  <si>
+    <t>81459</t>
+  </si>
+  <si>
+    <t>Proctor64976</t>
+  </si>
+  <si>
+    <t>Automation64976</t>
+  </si>
+  <si>
+    <t>proctorautomation64976@gmail.com</t>
+  </si>
+  <si>
+    <t>64976</t>
+  </si>
+  <si>
+    <t>Proctor96736</t>
+  </si>
+  <si>
+    <t>Automation96736</t>
+  </si>
+  <si>
+    <t>proctorautomation96736@gmail.com</t>
+  </si>
+  <si>
+    <t>96736</t>
+  </si>
+  <si>
+    <t>Proctor14986</t>
+  </si>
+  <si>
+    <t>Automation14986</t>
+  </si>
+  <si>
+    <t>proctorautomation14986@gmail.com</t>
+  </si>
+  <si>
+    <t>14986</t>
+  </si>
+  <si>
+    <t>Proctor32392</t>
+  </si>
+  <si>
+    <t>Automation32392</t>
+  </si>
+  <si>
+    <t>proctorautomation32392@gmail.com</t>
+  </si>
+  <si>
+    <t>32392</t>
+  </si>
+  <si>
+    <t>Proctor04577</t>
+  </si>
+  <si>
+    <t>Automation04577</t>
+  </si>
+  <si>
+    <t>proctorautomation04577@gmail.com</t>
+  </si>
+  <si>
+    <t>04577</t>
+  </si>
+  <si>
+    <t>Proctor04142</t>
+  </si>
+  <si>
+    <t>Automation04142</t>
+  </si>
+  <si>
+    <t>proctorautomation04142@gmail.com</t>
+  </si>
+  <si>
+    <t>04142</t>
+  </si>
+  <si>
+    <t>Proctor35432</t>
+  </si>
+  <si>
+    <t>Automation35432</t>
+  </si>
+  <si>
+    <t>proctorautomation35432@gmail.com</t>
+  </si>
+  <si>
+    <t>35432</t>
+  </si>
+  <si>
+    <t>Proctor71238</t>
+  </si>
+  <si>
+    <t>Automation71238</t>
+  </si>
+  <si>
+    <t>proctorautomation71238@gmail.com</t>
+  </si>
+  <si>
+    <t>71238</t>
+  </si>
+  <si>
+    <t>Proctor82494</t>
+  </si>
+  <si>
+    <t>Automation82494</t>
+  </si>
+  <si>
+    <t>proctorautomation82494@gmail.com</t>
+  </si>
+  <si>
+    <t>82494</t>
+  </si>
+  <si>
+    <t>Proctor19352</t>
+  </si>
+  <si>
+    <t>Automation19352</t>
+  </si>
+  <si>
+    <t>proctorautomation19352@gmail.com</t>
+  </si>
+  <si>
+    <t>19352</t>
+  </si>
+  <si>
+    <t>Proctor90356</t>
+  </si>
+  <si>
+    <t>Automation90356</t>
+  </si>
+  <si>
+    <t>proctorautomation90356@gmail.com</t>
+  </si>
+  <si>
+    <t>90356</t>
+  </si>
+  <si>
+    <t>Proctor57839</t>
+  </si>
+  <si>
+    <t>Automation57839</t>
+  </si>
+  <si>
+    <t>proctorautomation57839@gmail.com</t>
+  </si>
+  <si>
+    <t>57839</t>
+  </si>
+  <si>
+    <t>Proctor04316</t>
+  </si>
+  <si>
+    <t>Automation04316</t>
+  </si>
+  <si>
+    <t>proctorautomation04316@gmail.com</t>
+  </si>
+  <si>
+    <t>04316</t>
+  </si>
+  <si>
+    <t>Proctor33567</t>
+  </si>
+  <si>
+    <t>Automation33567</t>
+  </si>
+  <si>
+    <t>proctorautomation33567@gmail.com</t>
+  </si>
+  <si>
+    <t>33567</t>
+  </si>
+  <si>
+    <t>Proctor23094</t>
+  </si>
+  <si>
+    <t>Automation23094</t>
+  </si>
+  <si>
+    <t>proctorautomation23094@gmail.com</t>
+  </si>
+  <si>
+    <t>23094</t>
+  </si>
+  <si>
+    <t>Proctor17767</t>
+  </si>
+  <si>
+    <t>Automation17767</t>
+  </si>
+  <si>
+    <t>proctorautomation17767@gmail.com</t>
+  </si>
+  <si>
+    <t>17767</t>
+  </si>
+  <si>
+    <t>Proctor98873</t>
+  </si>
+  <si>
+    <t>Automation98873</t>
+  </si>
+  <si>
+    <t>proctorautomation98873@gmail.com</t>
+  </si>
+  <si>
+    <t>98873</t>
+  </si>
+  <si>
+    <t>Proctor88184</t>
+  </si>
+  <si>
+    <t>Automation88184</t>
+  </si>
+  <si>
+    <t>proctorautomation88184@gmail.com</t>
+  </si>
+  <si>
+    <t>88184</t>
+  </si>
+  <si>
+    <t>Proctor04725</t>
+  </si>
+  <si>
+    <t>Automation04725</t>
+  </si>
+  <si>
+    <t>proctorautomation04725@gmail.com</t>
+  </si>
+  <si>
+    <t>04725</t>
+  </si>
+  <si>
+    <t>Proctor84198</t>
+  </si>
+  <si>
+    <t>Automation84198</t>
+  </si>
+  <si>
+    <t>proctorautomation84198@gmail.com</t>
+  </si>
+  <si>
+    <t>84198</t>
+  </si>
+  <si>
+    <t>Proctor14341</t>
+  </si>
+  <si>
+    <t>Automation14341</t>
+  </si>
+  <si>
+    <t>proctorautomation14341@gmail.com</t>
+  </si>
+  <si>
+    <t>14341</t>
+  </si>
+  <si>
+    <t>Proctor21022</t>
+  </si>
+  <si>
+    <t>Automation21022</t>
+  </si>
+  <si>
+    <t>proctorautomation21022@gmail.com</t>
+  </si>
+  <si>
+    <t>21022</t>
+  </si>
+  <si>
+    <t>Proctor65153</t>
+  </si>
+  <si>
+    <t>Automation65153</t>
+  </si>
+  <si>
+    <t>proctorautomation65153@gmail.com</t>
+  </si>
+  <si>
+    <t>65153</t>
+  </si>
+  <si>
+    <t>Proctor07399</t>
+  </si>
+  <si>
+    <t>Automation07399</t>
+  </si>
+  <si>
+    <t>proctorautomation07399@gmail.com</t>
+  </si>
+  <si>
+    <t>07399</t>
+  </si>
+  <si>
+    <t>Proctor86200</t>
+  </si>
+  <si>
+    <t>Automation86200</t>
+  </si>
+  <si>
+    <t>proctorautomation86200@gmail.com</t>
+  </si>
+  <si>
+    <t>86200</t>
+  </si>
+  <si>
+    <t>Proctor74939</t>
+  </si>
+  <si>
+    <t>Automation74939</t>
+  </si>
+  <si>
+    <t>proctorautomation74939@gmail.com</t>
+  </si>
+  <si>
+    <t>74939</t>
+  </si>
+  <si>
+    <t>Proctor51396</t>
+  </si>
+  <si>
+    <t>Automation51396</t>
+  </si>
+  <si>
+    <t>proctorautomation51396@gmail.com</t>
+  </si>
+  <si>
+    <t>51396</t>
+  </si>
+  <si>
+    <t>Proctor58160</t>
+  </si>
+  <si>
+    <t>Automation58160</t>
+  </si>
+  <si>
+    <t>proctorautomation58160@gmail.com</t>
+  </si>
+  <si>
+    <t>58160</t>
+  </si>
+  <si>
+    <t>Proctor36131</t>
+  </si>
+  <si>
+    <t>Automation36131</t>
+  </si>
+  <si>
+    <t>proctorautomation36131@gmail.com</t>
+  </si>
+  <si>
+    <t>36131</t>
+  </si>
+  <si>
+    <t>Proctor92170</t>
+  </si>
+  <si>
+    <t>Automation92170</t>
+  </si>
+  <si>
+    <t>proctorautomation92170@gmail.com</t>
+  </si>
+  <si>
+    <t>92170</t>
+  </si>
+  <si>
+    <t>Proctor14326</t>
+  </si>
+  <si>
+    <t>Automation14326</t>
+  </si>
+  <si>
+    <t>proctorautomation14326@gmail.com</t>
+  </si>
+  <si>
+    <t>14326</t>
+  </si>
+  <si>
+    <t>Proctor63396</t>
+  </si>
+  <si>
+    <t>Automation63396</t>
+  </si>
+  <si>
+    <t>proctorautomation63396@gmail.com</t>
+  </si>
+  <si>
+    <t>63396</t>
+  </si>
+  <si>
+    <t>Proctor71462</t>
+  </si>
+  <si>
+    <t>Automation71462</t>
+  </si>
+  <si>
+    <t>proctorautomation71462@gmail.com</t>
+  </si>
+  <si>
+    <t>71462</t>
+  </si>
+  <si>
+    <t>Proctor00277</t>
+  </si>
+  <si>
+    <t>Automation00277</t>
+  </si>
+  <si>
+    <t>proctorautomation00277@gmail.com</t>
+  </si>
+  <si>
+    <t>00277</t>
+  </si>
+  <si>
+    <t>Proctor60489</t>
+  </si>
+  <si>
+    <t>Automation60489</t>
+  </si>
+  <si>
+    <t>proctorautomation60489@gmail.com</t>
+  </si>
+  <si>
+    <t>60489</t>
+  </si>
+  <si>
+    <t>Proctor89516</t>
+  </si>
+  <si>
+    <t>Automation89516</t>
+  </si>
+  <si>
+    <t>proctorautomation89516@gmail.com</t>
+  </si>
+  <si>
+    <t>89516</t>
+  </si>
+  <si>
+    <t>Proctor25469</t>
+  </si>
+  <si>
+    <t>Automation25469</t>
+  </si>
+  <si>
+    <t>proctorautomation25469@gmail.com</t>
+  </si>
+  <si>
+    <t>25469</t>
+  </si>
+  <si>
+    <t>Proctor66294</t>
+  </si>
+  <si>
+    <t>Automation66294</t>
+  </si>
+  <si>
+    <t>proctorautomation66294@gmail.com</t>
+  </si>
+  <si>
+    <t>66294</t>
+  </si>
+  <si>
+    <t>Proctor56455</t>
+  </si>
+  <si>
+    <t>Automation56455</t>
+  </si>
+  <si>
+    <t>proctorautomation56455@gmail.com</t>
+  </si>
+  <si>
+    <t>56455</t>
+  </si>
+  <si>
+    <t>Proctor65870</t>
+  </si>
+  <si>
+    <t>Automation65870</t>
+  </si>
+  <si>
+    <t>proctorautomation65870@gmail.com</t>
+  </si>
+  <si>
+    <t>65870</t>
+  </si>
+  <si>
+    <t>Proctor04288</t>
+  </si>
+  <si>
+    <t>Automation04288</t>
+  </si>
+  <si>
+    <t>proctorautomation04288@gmail.com</t>
+  </si>
+  <si>
+    <t>04288</t>
+  </si>
+  <si>
+    <t>Proctor62811</t>
+  </si>
+  <si>
+    <t>Automation62811</t>
+  </si>
+  <si>
+    <t>proctorautomation62811@gmail.com</t>
+  </si>
+  <si>
+    <t>62811</t>
+  </si>
+  <si>
+    <t>Proctor16231</t>
+  </si>
+  <si>
+    <t>Automation16231</t>
+  </si>
+  <si>
+    <t>proctorautomation16231@gmail.com</t>
+  </si>
+  <si>
+    <t>16231</t>
+  </si>
+  <si>
+    <t>Proctor06399</t>
+  </si>
+  <si>
+    <t>Automation06399</t>
+  </si>
+  <si>
+    <t>proctorautomation06399@gmail.com</t>
+  </si>
+  <si>
+    <t>06399</t>
+  </si>
+  <si>
+    <t>Proctor67180</t>
+  </si>
+  <si>
+    <t>Automation67180</t>
+  </si>
+  <si>
+    <t>proctorautomation67180@gmail.com</t>
+  </si>
+  <si>
+    <t>67180</t>
+  </si>
+  <si>
+    <t>Proctor46798</t>
+  </si>
+  <si>
+    <t>Automation46798</t>
+  </si>
+  <si>
+    <t>proctorautomation46798@gmail.com</t>
+  </si>
+  <si>
+    <t>46798</t>
+  </si>
+  <si>
+    <t>Proctor74749</t>
+  </si>
+  <si>
+    <t>Automation74749</t>
+  </si>
+  <si>
+    <t>proctorautomation74749@gmail.com</t>
+  </si>
+  <si>
+    <t>74749</t>
+  </si>
+  <si>
+    <t>Proctor92778</t>
+  </si>
+  <si>
+    <t>Automation92778</t>
+  </si>
+  <si>
+    <t>proctorautomation92778@gmail.com</t>
+  </si>
+  <si>
+    <t>92778</t>
+  </si>
+  <si>
+    <t>Proctor29759</t>
+  </si>
+  <si>
+    <t>Automation29759</t>
+  </si>
+  <si>
+    <t>proctorautomation29759@gmail.com</t>
+  </si>
+  <si>
+    <t>29759</t>
+  </si>
+  <si>
+    <t>Proctor29255</t>
+  </si>
+  <si>
+    <t>Automation29255</t>
+  </si>
+  <si>
+    <t>proctorautomation29255@gmail.com</t>
+  </si>
+  <si>
+    <t>29255</t>
+  </si>
+  <si>
+    <t>Proctor78562</t>
+  </si>
+  <si>
+    <t>Automation78562</t>
+  </si>
+  <si>
+    <t>proctorautomation78562@gmail.com</t>
+  </si>
+  <si>
+    <t>78562</t>
+  </si>
+  <si>
+    <t>Proctor07039</t>
+  </si>
+  <si>
+    <t>Automation07039</t>
+  </si>
+  <si>
+    <t>proctorautomation07039@gmail.com</t>
+  </si>
+  <si>
+    <t>07039</t>
+  </si>
+  <si>
+    <t>Proctor42281</t>
+  </si>
+  <si>
+    <t>Automation42281</t>
+  </si>
+  <si>
+    <t>proctorautomation42281@gmail.com</t>
+  </si>
+  <si>
+    <t>42281</t>
+  </si>
+  <si>
+    <t>Proctor85209</t>
+  </si>
+  <si>
+    <t>Automation85209</t>
+  </si>
+  <si>
+    <t>proctorautomation85209@gmail.com</t>
+  </si>
+  <si>
+    <t>85209</t>
+  </si>
+  <si>
+    <t>Proctor90713</t>
+  </si>
+  <si>
+    <t>Automation90713</t>
+  </si>
+  <si>
+    <t>proctorautomation90713@gmail.com</t>
+  </si>
+  <si>
+    <t>90713</t>
+  </si>
+  <si>
+    <t>Proctor50874</t>
+  </si>
+  <si>
+    <t>Automation50874</t>
+  </si>
+  <si>
+    <t>proctorautomation50874@gmail.com</t>
+  </si>
+  <si>
+    <t>50874</t>
   </si>
 </sst>
 </file>
@@ -1876,422 +2956,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>725</v>
       </c>
       <c r="B2" t="s">
-        <v>366</v>
+        <v>726</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>727</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>728</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>369</v>
+        <v>729</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>730</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>731</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>733</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>735</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>737</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>738</v>
       </c>
       <c r="C5" t="s">
-        <v>379</v>
+        <v>739</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>741</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>742</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>743</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>745</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>746</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>747</v>
       </c>
       <c r="D7" t="s">
-        <v>388</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>749</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>750</v>
       </c>
       <c r="C8" t="s">
-        <v>391</v>
+        <v>751</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>753</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>754</v>
       </c>
       <c r="C9" t="s">
-        <v>395</v>
+        <v>755</v>
       </c>
       <c r="D9" t="s">
-        <v>396</v>
+        <v>756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>757</v>
       </c>
       <c r="B10" t="s">
-        <v>398</v>
+        <v>758</v>
       </c>
       <c r="C10" t="s">
-        <v>399</v>
+        <v>759</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>761</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>762</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>763</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>765</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
+        <v>766</v>
       </c>
       <c r="C12" t="s">
-        <v>407</v>
+        <v>767</v>
       </c>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>409</v>
+        <v>769</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>770</v>
       </c>
       <c r="C13" t="s">
-        <v>411</v>
+        <v>771</v>
       </c>
       <c r="D13" t="s">
-        <v>412</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>413</v>
+        <v>773</v>
       </c>
       <c r="B14" t="s">
-        <v>414</v>
+        <v>774</v>
       </c>
       <c r="C14" t="s">
-        <v>415</v>
+        <v>775</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>777</v>
       </c>
       <c r="B15" t="s">
-        <v>418</v>
+        <v>778</v>
       </c>
       <c r="C15" t="s">
-        <v>419</v>
+        <v>779</v>
       </c>
       <c r="D15" t="s">
-        <v>420</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>781</v>
       </c>
       <c r="B16" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>783</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>785</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>786</v>
       </c>
       <c r="C17" t="s">
-        <v>427</v>
+        <v>787</v>
       </c>
       <c r="D17" t="s">
-        <v>428</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>789</v>
       </c>
       <c r="B18" t="s">
-        <v>430</v>
+        <v>790</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>791</v>
       </c>
       <c r="D18" t="s">
-        <v>432</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>793</v>
       </c>
       <c r="B19" t="s">
-        <v>434</v>
+        <v>794</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>795</v>
       </c>
       <c r="D19" t="s">
-        <v>436</v>
+        <v>796</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>437</v>
+        <v>797</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>798</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>799</v>
       </c>
       <c r="D20" t="s">
-        <v>440</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>441</v>
+        <v>801</v>
       </c>
       <c r="B21" t="s">
-        <v>442</v>
+        <v>802</v>
       </c>
       <c r="C21" t="s">
-        <v>443</v>
+        <v>803</v>
       </c>
       <c r="D21" t="s">
-        <v>444</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>445</v>
+        <v>805</v>
       </c>
       <c r="B22" t="s">
-        <v>446</v>
+        <v>806</v>
       </c>
       <c r="C22" t="s">
-        <v>447</v>
+        <v>807</v>
       </c>
       <c r="D22" t="s">
-        <v>448</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>449</v>
+        <v>809</v>
       </c>
       <c r="B23" t="s">
-        <v>450</v>
+        <v>810</v>
       </c>
       <c r="C23" t="s">
-        <v>451</v>
+        <v>811</v>
       </c>
       <c r="D23" t="s">
-        <v>452</v>
+        <v>812</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>453</v>
+        <v>813</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>814</v>
       </c>
       <c r="C24" t="s">
-        <v>455</v>
+        <v>815</v>
       </c>
       <c r="D24" t="s">
-        <v>456</v>
+        <v>816</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>457</v>
+        <v>817</v>
       </c>
       <c r="B25" t="s">
-        <v>458</v>
+        <v>818</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>819</v>
       </c>
       <c r="D25" t="s">
-        <v>460</v>
+        <v>820</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>821</v>
       </c>
       <c r="B26" t="s">
-        <v>462</v>
+        <v>822</v>
       </c>
       <c r="C26" t="s">
-        <v>463</v>
+        <v>823</v>
       </c>
       <c r="D26" t="s">
-        <v>464</v>
+        <v>824</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>465</v>
+        <v>825</v>
       </c>
       <c r="B27" t="s">
-        <v>466</v>
+        <v>826</v>
       </c>
       <c r="C27" t="s">
-        <v>467</v>
+        <v>827</v>
       </c>
       <c r="D27" t="s">
-        <v>468</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>469</v>
+        <v>829</v>
       </c>
       <c r="B28" t="s">
-        <v>470</v>
+        <v>830</v>
       </c>
       <c r="C28" t="s">
-        <v>471</v>
+        <v>831</v>
       </c>
       <c r="D28" t="s">
-        <v>472</v>
+        <v>832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>473</v>
+        <v>833</v>
       </c>
       <c r="B29" t="s">
-        <v>474</v>
+        <v>834</v>
       </c>
       <c r="C29" t="s">
-        <v>475</v>
+        <v>835</v>
       </c>
       <c r="D29" t="s">
-        <v>476</v>
+        <v>836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>477</v>
+        <v>837</v>
       </c>
       <c r="B30" t="s">
-        <v>478</v>
+        <v>838</v>
       </c>
       <c r="C30" t="s">
-        <v>479</v>
+        <v>839</v>
       </c>
       <c r="D30" t="s">
-        <v>480</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>481</v>
+        <v>841</v>
       </c>
       <c r="B31" t="s">
-        <v>482</v>
+        <v>842</v>
       </c>
       <c r="C31" t="s">
-        <v>483</v>
+        <v>843</v>
       </c>
       <c r="D31" t="s">
-        <v>484</v>
+        <v>844</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1085">
   <si>
     <t>FirstName</t>
   </si>
@@ -2549,6 +2549,726 @@
   </si>
   <si>
     <t>50874</t>
+  </si>
+  <si>
+    <t>Proctor15597</t>
+  </si>
+  <si>
+    <t>Automation15597</t>
+  </si>
+  <si>
+    <t>proctorautomation15597@gmail.com</t>
+  </si>
+  <si>
+    <t>15597</t>
+  </si>
+  <si>
+    <t>Proctor45586</t>
+  </si>
+  <si>
+    <t>Automation45586</t>
+  </si>
+  <si>
+    <t>proctorautomation45586@gmail.com</t>
+  </si>
+  <si>
+    <t>45586</t>
+  </si>
+  <si>
+    <t>Proctor57541</t>
+  </si>
+  <si>
+    <t>Automation57541</t>
+  </si>
+  <si>
+    <t>proctorautomation57541@gmail.com</t>
+  </si>
+  <si>
+    <t>57541</t>
+  </si>
+  <si>
+    <t>Proctor64039</t>
+  </si>
+  <si>
+    <t>Automation64039</t>
+  </si>
+  <si>
+    <t>proctorautomation64039@gmail.com</t>
+  </si>
+  <si>
+    <t>64039</t>
+  </si>
+  <si>
+    <t>Proctor80146</t>
+  </si>
+  <si>
+    <t>Automation80146</t>
+  </si>
+  <si>
+    <t>proctorautomation80146@gmail.com</t>
+  </si>
+  <si>
+    <t>80146</t>
+  </si>
+  <si>
+    <t>Proctor27003</t>
+  </si>
+  <si>
+    <t>Automation27003</t>
+  </si>
+  <si>
+    <t>proctorautomation27003@gmail.com</t>
+  </si>
+  <si>
+    <t>27003</t>
+  </si>
+  <si>
+    <t>Proctor53813</t>
+  </si>
+  <si>
+    <t>Automation53813</t>
+  </si>
+  <si>
+    <t>proctorautomation53813@gmail.com</t>
+  </si>
+  <si>
+    <t>53813</t>
+  </si>
+  <si>
+    <t>Proctor78130</t>
+  </si>
+  <si>
+    <t>Automation78130</t>
+  </si>
+  <si>
+    <t>proctorautomation78130@gmail.com</t>
+  </si>
+  <si>
+    <t>78130</t>
+  </si>
+  <si>
+    <t>Proctor90789</t>
+  </si>
+  <si>
+    <t>Automation90789</t>
+  </si>
+  <si>
+    <t>proctorautomation90789@gmail.com</t>
+  </si>
+  <si>
+    <t>90789</t>
+  </si>
+  <si>
+    <t>Proctor28922</t>
+  </si>
+  <si>
+    <t>Automation28922</t>
+  </si>
+  <si>
+    <t>proctorautomation28922@gmail.com</t>
+  </si>
+  <si>
+    <t>28922</t>
+  </si>
+  <si>
+    <t>Proctor30605</t>
+  </si>
+  <si>
+    <t>Automation30605</t>
+  </si>
+  <si>
+    <t>proctorautomation30605@gmail.com</t>
+  </si>
+  <si>
+    <t>30605</t>
+  </si>
+  <si>
+    <t>Proctor85357</t>
+  </si>
+  <si>
+    <t>Automation85357</t>
+  </si>
+  <si>
+    <t>proctorautomation85357@gmail.com</t>
+  </si>
+  <si>
+    <t>85357</t>
+  </si>
+  <si>
+    <t>Proctor26002</t>
+  </si>
+  <si>
+    <t>Automation26002</t>
+  </si>
+  <si>
+    <t>proctorautomation26002@gmail.com</t>
+  </si>
+  <si>
+    <t>26002</t>
+  </si>
+  <si>
+    <t>Proctor17000</t>
+  </si>
+  <si>
+    <t>Automation17000</t>
+  </si>
+  <si>
+    <t>proctorautomation17000@gmail.com</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>Proctor43810</t>
+  </si>
+  <si>
+    <t>Automation43810</t>
+  </si>
+  <si>
+    <t>proctorautomation43810@gmail.com</t>
+  </si>
+  <si>
+    <t>43810</t>
+  </si>
+  <si>
+    <t>Proctor04347</t>
+  </si>
+  <si>
+    <t>Automation04347</t>
+  </si>
+  <si>
+    <t>proctorautomation04347@gmail.com</t>
+  </si>
+  <si>
+    <t>04347</t>
+  </si>
+  <si>
+    <t>Proctor61063</t>
+  </si>
+  <si>
+    <t>Automation61063</t>
+  </si>
+  <si>
+    <t>proctorautomation61063@gmail.com</t>
+  </si>
+  <si>
+    <t>61063</t>
+  </si>
+  <si>
+    <t>Proctor65395</t>
+  </si>
+  <si>
+    <t>Automation65395</t>
+  </si>
+  <si>
+    <t>proctorautomation65395@gmail.com</t>
+  </si>
+  <si>
+    <t>65395</t>
+  </si>
+  <si>
+    <t>Proctor53604</t>
+  </si>
+  <si>
+    <t>Automation53604</t>
+  </si>
+  <si>
+    <t>proctorautomation53604@gmail.com</t>
+  </si>
+  <si>
+    <t>53604</t>
+  </si>
+  <si>
+    <t>Proctor25471</t>
+  </si>
+  <si>
+    <t>Automation25471</t>
+  </si>
+  <si>
+    <t>proctorautomation25471@gmail.com</t>
+  </si>
+  <si>
+    <t>25471</t>
+  </si>
+  <si>
+    <t>Proctor23933</t>
+  </si>
+  <si>
+    <t>Automation23933</t>
+  </si>
+  <si>
+    <t>proctorautomation23933@gmail.com</t>
+  </si>
+  <si>
+    <t>23933</t>
+  </si>
+  <si>
+    <t>Proctor32133</t>
+  </si>
+  <si>
+    <t>Automation32133</t>
+  </si>
+  <si>
+    <t>proctorautomation32133@gmail.com</t>
+  </si>
+  <si>
+    <t>32133</t>
+  </si>
+  <si>
+    <t>Proctor81571</t>
+  </si>
+  <si>
+    <t>Automation81571</t>
+  </si>
+  <si>
+    <t>proctorautomation81571@gmail.com</t>
+  </si>
+  <si>
+    <t>81571</t>
+  </si>
+  <si>
+    <t>Proctor15118</t>
+  </si>
+  <si>
+    <t>Automation15118</t>
+  </si>
+  <si>
+    <t>proctorautomation15118@gmail.com</t>
+  </si>
+  <si>
+    <t>15118</t>
+  </si>
+  <si>
+    <t>Proctor82492</t>
+  </si>
+  <si>
+    <t>Automation82492</t>
+  </si>
+  <si>
+    <t>proctorautomation82492@gmail.com</t>
+  </si>
+  <si>
+    <t>82492</t>
+  </si>
+  <si>
+    <t>Proctor27345</t>
+  </si>
+  <si>
+    <t>Automation27345</t>
+  </si>
+  <si>
+    <t>proctorautomation27345@gmail.com</t>
+  </si>
+  <si>
+    <t>27345</t>
+  </si>
+  <si>
+    <t>Proctor14877</t>
+  </si>
+  <si>
+    <t>Automation14877</t>
+  </si>
+  <si>
+    <t>proctorautomation14877@gmail.com</t>
+  </si>
+  <si>
+    <t>14877</t>
+  </si>
+  <si>
+    <t>Proctor85678</t>
+  </si>
+  <si>
+    <t>Automation85678</t>
+  </si>
+  <si>
+    <t>proctorautomation85678@gmail.com</t>
+  </si>
+  <si>
+    <t>85678</t>
+  </si>
+  <si>
+    <t>Proctor72386</t>
+  </si>
+  <si>
+    <t>Automation72386</t>
+  </si>
+  <si>
+    <t>proctorautomation72386@gmail.com</t>
+  </si>
+  <si>
+    <t>72386</t>
+  </si>
+  <si>
+    <t>Proctor10061</t>
+  </si>
+  <si>
+    <t>Automation10061</t>
+  </si>
+  <si>
+    <t>proctorautomation10061@gmail.com</t>
+  </si>
+  <si>
+    <t>10061</t>
+  </si>
+  <si>
+    <t>Proctor44143</t>
+  </si>
+  <si>
+    <t>Automation44143</t>
+  </si>
+  <si>
+    <t>proctorautomation44143@gmail.com</t>
+  </si>
+  <si>
+    <t>44143</t>
+  </si>
+  <si>
+    <t>Proctor09201</t>
+  </si>
+  <si>
+    <t>Automation09201</t>
+  </si>
+  <si>
+    <t>proctorautomation09201@gmail.com</t>
+  </si>
+  <si>
+    <t>09201</t>
+  </si>
+  <si>
+    <t>Proctor29544</t>
+  </si>
+  <si>
+    <t>Automation29544</t>
+  </si>
+  <si>
+    <t>proctorautomation29544@gmail.com</t>
+  </si>
+  <si>
+    <t>29544</t>
+  </si>
+  <si>
+    <t>Proctor78719</t>
+  </si>
+  <si>
+    <t>Automation78719</t>
+  </si>
+  <si>
+    <t>proctorautomation78719@gmail.com</t>
+  </si>
+  <si>
+    <t>78719</t>
+  </si>
+  <si>
+    <t>Proctor85406</t>
+  </si>
+  <si>
+    <t>Automation85406</t>
+  </si>
+  <si>
+    <t>proctorautomation85406@gmail.com</t>
+  </si>
+  <si>
+    <t>85406</t>
+  </si>
+  <si>
+    <t>Proctor43828</t>
+  </si>
+  <si>
+    <t>Automation43828</t>
+  </si>
+  <si>
+    <t>proctorautomation43828@gmail.com</t>
+  </si>
+  <si>
+    <t>43828</t>
+  </si>
+  <si>
+    <t>Proctor76382</t>
+  </si>
+  <si>
+    <t>Automation76382</t>
+  </si>
+  <si>
+    <t>proctorautomation76382@gmail.com</t>
+  </si>
+  <si>
+    <t>76382</t>
+  </si>
+  <si>
+    <t>Proctor43694</t>
+  </si>
+  <si>
+    <t>Automation43694</t>
+  </si>
+  <si>
+    <t>proctorautomation43694@gmail.com</t>
+  </si>
+  <si>
+    <t>43694</t>
+  </si>
+  <si>
+    <t>Proctor12498</t>
+  </si>
+  <si>
+    <t>Automation12498</t>
+  </si>
+  <si>
+    <t>proctorautomation12498@gmail.com</t>
+  </si>
+  <si>
+    <t>12498</t>
+  </si>
+  <si>
+    <t>Proctor93448</t>
+  </si>
+  <si>
+    <t>Automation93448</t>
+  </si>
+  <si>
+    <t>proctorautomation93448@gmail.com</t>
+  </si>
+  <si>
+    <t>93448</t>
+  </si>
+  <si>
+    <t>Proctor21145</t>
+  </si>
+  <si>
+    <t>Automation21145</t>
+  </si>
+  <si>
+    <t>proctorautomation21145@gmail.com</t>
+  </si>
+  <si>
+    <t>21145</t>
+  </si>
+  <si>
+    <t>Proctor22176</t>
+  </si>
+  <si>
+    <t>Automation22176</t>
+  </si>
+  <si>
+    <t>proctorautomation22176@gmail.com</t>
+  </si>
+  <si>
+    <t>22176</t>
+  </si>
+  <si>
+    <t>Proctor13242</t>
+  </si>
+  <si>
+    <t>Automation13242</t>
+  </si>
+  <si>
+    <t>proctorautomation13242@gmail.com</t>
+  </si>
+  <si>
+    <t>13242</t>
+  </si>
+  <si>
+    <t>Proctor18017</t>
+  </si>
+  <si>
+    <t>Automation18017</t>
+  </si>
+  <si>
+    <t>proctorautomation18017@gmail.com</t>
+  </si>
+  <si>
+    <t>18017</t>
+  </si>
+  <si>
+    <t>Proctor62907</t>
+  </si>
+  <si>
+    <t>Automation62907</t>
+  </si>
+  <si>
+    <t>proctorautomation62907@gmail.com</t>
+  </si>
+  <si>
+    <t>62907</t>
+  </si>
+  <si>
+    <t>Proctor83774</t>
+  </si>
+  <si>
+    <t>Automation83774</t>
+  </si>
+  <si>
+    <t>proctorautomation83774@gmail.com</t>
+  </si>
+  <si>
+    <t>83774</t>
+  </si>
+  <si>
+    <t>Proctor70984</t>
+  </si>
+  <si>
+    <t>Automation70984</t>
+  </si>
+  <si>
+    <t>proctorautomation70984@gmail.com</t>
+  </si>
+  <si>
+    <t>70984</t>
+  </si>
+  <si>
+    <t>Proctor52186</t>
+  </si>
+  <si>
+    <t>Automation52186</t>
+  </si>
+  <si>
+    <t>proctorautomation52186@gmail.com</t>
+  </si>
+  <si>
+    <t>52186</t>
+  </si>
+  <si>
+    <t>Proctor07467</t>
+  </si>
+  <si>
+    <t>Automation07467</t>
+  </si>
+  <si>
+    <t>proctorautomation07467@gmail.com</t>
+  </si>
+  <si>
+    <t>07467</t>
+  </si>
+  <si>
+    <t>Proctor49207</t>
+  </si>
+  <si>
+    <t>Automation49207</t>
+  </si>
+  <si>
+    <t>proctorautomation49207@gmail.com</t>
+  </si>
+  <si>
+    <t>49207</t>
+  </si>
+  <si>
+    <t>Proctor74337</t>
+  </si>
+  <si>
+    <t>Automation74337</t>
+  </si>
+  <si>
+    <t>proctorautomation74337@gmail.com</t>
+  </si>
+  <si>
+    <t>74337</t>
+  </si>
+  <si>
+    <t>Proctor11708</t>
+  </si>
+  <si>
+    <t>Automation11708</t>
+  </si>
+  <si>
+    <t>proctorautomation11708@gmail.com</t>
+  </si>
+  <si>
+    <t>11708</t>
+  </si>
+  <si>
+    <t>Proctor04159</t>
+  </si>
+  <si>
+    <t>Automation04159</t>
+  </si>
+  <si>
+    <t>proctorautomation04159@gmail.com</t>
+  </si>
+  <si>
+    <t>04159</t>
+  </si>
+  <si>
+    <t>Proctor19308</t>
+  </si>
+  <si>
+    <t>Automation19308</t>
+  </si>
+  <si>
+    <t>proctorautomation19308@gmail.com</t>
+  </si>
+  <si>
+    <t>19308</t>
+  </si>
+  <si>
+    <t>Proctor73696</t>
+  </si>
+  <si>
+    <t>Automation73696</t>
+  </si>
+  <si>
+    <t>proctorautomation73696@gmail.com</t>
+  </si>
+  <si>
+    <t>73696</t>
+  </si>
+  <si>
+    <t>Proctor07711</t>
+  </si>
+  <si>
+    <t>Automation07711</t>
+  </si>
+  <si>
+    <t>proctorautomation07711@gmail.com</t>
+  </si>
+  <si>
+    <t>07711</t>
+  </si>
+  <si>
+    <t>Proctor32355</t>
+  </si>
+  <si>
+    <t>Automation32355</t>
+  </si>
+  <si>
+    <t>proctorautomation32355@gmail.com</t>
+  </si>
+  <si>
+    <t>32355</t>
+  </si>
+  <si>
+    <t>Proctor63231</t>
+  </si>
+  <si>
+    <t>Automation63231</t>
+  </si>
+  <si>
+    <t>proctorautomation63231@gmail.com</t>
+  </si>
+  <si>
+    <t>63231</t>
+  </si>
+  <si>
+    <t>Proctor81924</t>
+  </si>
+  <si>
+    <t>Automation81924</t>
+  </si>
+  <si>
+    <t>proctorautomation81924@gmail.com</t>
+  </si>
+  <si>
+    <t>81924</t>
+  </si>
+  <si>
+    <t>Proctor74585</t>
+  </si>
+  <si>
+    <t>Automation74585</t>
+  </si>
+  <si>
+    <t>proctorautomation74585@gmail.com</t>
+  </si>
+  <si>
+    <t>74585</t>
   </si>
 </sst>
 </file>
@@ -2956,422 +3676,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>725</v>
+        <v>965</v>
       </c>
       <c r="B2" t="s">
-        <v>726</v>
+        <v>966</v>
       </c>
       <c r="C2" t="s">
-        <v>727</v>
+        <v>967</v>
       </c>
       <c r="D2" t="s">
-        <v>728</v>
+        <v>968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>729</v>
+        <v>969</v>
       </c>
       <c r="B3" t="s">
-        <v>730</v>
+        <v>970</v>
       </c>
       <c r="C3" t="s">
-        <v>731</v>
+        <v>971</v>
       </c>
       <c r="D3" t="s">
-        <v>732</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>733</v>
+        <v>973</v>
       </c>
       <c r="B4" t="s">
-        <v>734</v>
+        <v>974</v>
       </c>
       <c r="C4" t="s">
-        <v>735</v>
+        <v>975</v>
       </c>
       <c r="D4" t="s">
-        <v>736</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>737</v>
+        <v>977</v>
       </c>
       <c r="B5" t="s">
-        <v>738</v>
+        <v>978</v>
       </c>
       <c r="C5" t="s">
-        <v>739</v>
+        <v>979</v>
       </c>
       <c r="D5" t="s">
-        <v>740</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>741</v>
+        <v>981</v>
       </c>
       <c r="B6" t="s">
-        <v>742</v>
+        <v>982</v>
       </c>
       <c r="C6" t="s">
-        <v>743</v>
+        <v>983</v>
       </c>
       <c r="D6" t="s">
-        <v>744</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>745</v>
+        <v>985</v>
       </c>
       <c r="B7" t="s">
-        <v>746</v>
+        <v>986</v>
       </c>
       <c r="C7" t="s">
-        <v>747</v>
+        <v>987</v>
       </c>
       <c r="D7" t="s">
-        <v>748</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>989</v>
       </c>
       <c r="B8" t="s">
-        <v>750</v>
+        <v>990</v>
       </c>
       <c r="C8" t="s">
-        <v>751</v>
+        <v>991</v>
       </c>
       <c r="D8" t="s">
-        <v>752</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>753</v>
+        <v>993</v>
       </c>
       <c r="B9" t="s">
-        <v>754</v>
+        <v>994</v>
       </c>
       <c r="C9" t="s">
-        <v>755</v>
+        <v>995</v>
       </c>
       <c r="D9" t="s">
-        <v>756</v>
+        <v>996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>757</v>
+        <v>997</v>
       </c>
       <c r="B10" t="s">
-        <v>758</v>
+        <v>998</v>
       </c>
       <c r="C10" t="s">
-        <v>759</v>
+        <v>999</v>
       </c>
       <c r="D10" t="s">
-        <v>760</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>761</v>
+        <v>1001</v>
       </c>
       <c r="B11" t="s">
-        <v>762</v>
+        <v>1002</v>
       </c>
       <c r="C11" t="s">
-        <v>763</v>
+        <v>1003</v>
       </c>
       <c r="D11" t="s">
-        <v>764</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>765</v>
+        <v>1005</v>
       </c>
       <c r="B12" t="s">
-        <v>766</v>
+        <v>1006</v>
       </c>
       <c r="C12" t="s">
-        <v>767</v>
+        <v>1007</v>
       </c>
       <c r="D12" t="s">
-        <v>768</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>769</v>
+        <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>770</v>
+        <v>1010</v>
       </c>
       <c r="C13" t="s">
-        <v>771</v>
+        <v>1011</v>
       </c>
       <c r="D13" t="s">
-        <v>772</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>773</v>
+        <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>774</v>
+        <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>775</v>
+        <v>1015</v>
       </c>
       <c r="D14" t="s">
-        <v>776</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>777</v>
+        <v>1017</v>
       </c>
       <c r="B15" t="s">
-        <v>778</v>
+        <v>1018</v>
       </c>
       <c r="C15" t="s">
-        <v>779</v>
+        <v>1019</v>
       </c>
       <c r="D15" t="s">
-        <v>780</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>781</v>
+        <v>1021</v>
       </c>
       <c r="B16" t="s">
-        <v>782</v>
+        <v>1022</v>
       </c>
       <c r="C16" t="s">
-        <v>783</v>
+        <v>1023</v>
       </c>
       <c r="D16" t="s">
-        <v>784</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>785</v>
+        <v>1025</v>
       </c>
       <c r="B17" t="s">
-        <v>786</v>
+        <v>1026</v>
       </c>
       <c r="C17" t="s">
-        <v>787</v>
+        <v>1027</v>
       </c>
       <c r="D17" t="s">
-        <v>788</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>789</v>
+        <v>1029</v>
       </c>
       <c r="B18" t="s">
-        <v>790</v>
+        <v>1030</v>
       </c>
       <c r="C18" t="s">
-        <v>791</v>
+        <v>1031</v>
       </c>
       <c r="D18" t="s">
-        <v>792</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>793</v>
+        <v>1033</v>
       </c>
       <c r="B19" t="s">
-        <v>794</v>
+        <v>1034</v>
       </c>
       <c r="C19" t="s">
-        <v>795</v>
+        <v>1035</v>
       </c>
       <c r="D19" t="s">
-        <v>796</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>797</v>
+        <v>1037</v>
       </c>
       <c r="B20" t="s">
-        <v>798</v>
+        <v>1038</v>
       </c>
       <c r="C20" t="s">
-        <v>799</v>
+        <v>1039</v>
       </c>
       <c r="D20" t="s">
-        <v>800</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>801</v>
+        <v>1041</v>
       </c>
       <c r="B21" t="s">
-        <v>802</v>
+        <v>1042</v>
       </c>
       <c r="C21" t="s">
-        <v>803</v>
+        <v>1043</v>
       </c>
       <c r="D21" t="s">
-        <v>804</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>805</v>
+        <v>1045</v>
       </c>
       <c r="B22" t="s">
-        <v>806</v>
+        <v>1046</v>
       </c>
       <c r="C22" t="s">
-        <v>807</v>
+        <v>1047</v>
       </c>
       <c r="D22" t="s">
-        <v>808</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>809</v>
+        <v>1049</v>
       </c>
       <c r="B23" t="s">
-        <v>810</v>
+        <v>1050</v>
       </c>
       <c r="C23" t="s">
-        <v>811</v>
+        <v>1051</v>
       </c>
       <c r="D23" t="s">
-        <v>812</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>813</v>
+        <v>1053</v>
       </c>
       <c r="B24" t="s">
-        <v>814</v>
+        <v>1054</v>
       </c>
       <c r="C24" t="s">
-        <v>815</v>
+        <v>1055</v>
       </c>
       <c r="D24" t="s">
-        <v>816</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>817</v>
+        <v>1057</v>
       </c>
       <c r="B25" t="s">
-        <v>818</v>
+        <v>1058</v>
       </c>
       <c r="C25" t="s">
-        <v>819</v>
+        <v>1059</v>
       </c>
       <c r="D25" t="s">
-        <v>820</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>821</v>
+        <v>1061</v>
       </c>
       <c r="B26" t="s">
-        <v>822</v>
+        <v>1062</v>
       </c>
       <c r="C26" t="s">
-        <v>823</v>
+        <v>1063</v>
       </c>
       <c r="D26" t="s">
-        <v>824</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>825</v>
+        <v>1065</v>
       </c>
       <c r="B27" t="s">
-        <v>826</v>
+        <v>1066</v>
       </c>
       <c r="C27" t="s">
-        <v>827</v>
+        <v>1067</v>
       </c>
       <c r="D27" t="s">
-        <v>828</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>829</v>
+        <v>1069</v>
       </c>
       <c r="B28" t="s">
-        <v>830</v>
+        <v>1070</v>
       </c>
       <c r="C28" t="s">
-        <v>831</v>
+        <v>1071</v>
       </c>
       <c r="D28" t="s">
-        <v>832</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>833</v>
+        <v>1073</v>
       </c>
       <c r="B29" t="s">
-        <v>834</v>
+        <v>1074</v>
       </c>
       <c r="C29" t="s">
-        <v>835</v>
+        <v>1075</v>
       </c>
       <c r="D29" t="s">
-        <v>836</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>837</v>
+        <v>1077</v>
       </c>
       <c r="B30" t="s">
-        <v>838</v>
+        <v>1078</v>
       </c>
       <c r="C30" t="s">
-        <v>839</v>
+        <v>1079</v>
       </c>
       <c r="D30" t="s">
-        <v>840</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>841</v>
+        <v>1081</v>
       </c>
       <c r="B31" t="s">
-        <v>842</v>
+        <v>1082</v>
       </c>
       <c r="C31" t="s">
-        <v>843</v>
+        <v>1083</v>
       </c>
       <c r="D31" t="s">
-        <v>844</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1205">
   <si>
     <t>FirstName</t>
   </si>
@@ -3269,6 +3269,366 @@
   </si>
   <si>
     <t>74585</t>
+  </si>
+  <si>
+    <t>Proctor77336</t>
+  </si>
+  <si>
+    <t>Automation77336</t>
+  </si>
+  <si>
+    <t>proctorautomation77336@gmail.com</t>
+  </si>
+  <si>
+    <t>77336</t>
+  </si>
+  <si>
+    <t>Proctor67642</t>
+  </si>
+  <si>
+    <t>Automation67642</t>
+  </si>
+  <si>
+    <t>proctorautomation67642@gmail.com</t>
+  </si>
+  <si>
+    <t>67642</t>
+  </si>
+  <si>
+    <t>Proctor07470</t>
+  </si>
+  <si>
+    <t>Automation07470</t>
+  </si>
+  <si>
+    <t>proctorautomation07470@gmail.com</t>
+  </si>
+  <si>
+    <t>07470</t>
+  </si>
+  <si>
+    <t>Proctor96714</t>
+  </si>
+  <si>
+    <t>Automation96714</t>
+  </si>
+  <si>
+    <t>proctorautomation96714@gmail.com</t>
+  </si>
+  <si>
+    <t>96714</t>
+  </si>
+  <si>
+    <t>Proctor59210</t>
+  </si>
+  <si>
+    <t>Automation59210</t>
+  </si>
+  <si>
+    <t>proctorautomation59210@gmail.com</t>
+  </si>
+  <si>
+    <t>59210</t>
+  </si>
+  <si>
+    <t>Proctor51964</t>
+  </si>
+  <si>
+    <t>Automation51964</t>
+  </si>
+  <si>
+    <t>proctorautomation51964@gmail.com</t>
+  </si>
+  <si>
+    <t>51964</t>
+  </si>
+  <si>
+    <t>Proctor55274</t>
+  </si>
+  <si>
+    <t>Automation55274</t>
+  </si>
+  <si>
+    <t>proctorautomation55274@gmail.com</t>
+  </si>
+  <si>
+    <t>55274</t>
+  </si>
+  <si>
+    <t>Proctor29495</t>
+  </si>
+  <si>
+    <t>Automation29495</t>
+  </si>
+  <si>
+    <t>proctorautomation29495@gmail.com</t>
+  </si>
+  <si>
+    <t>29495</t>
+  </si>
+  <si>
+    <t>Proctor95318</t>
+  </si>
+  <si>
+    <t>Automation95318</t>
+  </si>
+  <si>
+    <t>proctorautomation95318@gmail.com</t>
+  </si>
+  <si>
+    <t>95318</t>
+  </si>
+  <si>
+    <t>Proctor61256</t>
+  </si>
+  <si>
+    <t>Automation61256</t>
+  </si>
+  <si>
+    <t>proctorautomation61256@gmail.com</t>
+  </si>
+  <si>
+    <t>61256</t>
+  </si>
+  <si>
+    <t>Proctor46216</t>
+  </si>
+  <si>
+    <t>Automation46216</t>
+  </si>
+  <si>
+    <t>proctorautomation46216@gmail.com</t>
+  </si>
+  <si>
+    <t>46216</t>
+  </si>
+  <si>
+    <t>Proctor78351</t>
+  </si>
+  <si>
+    <t>Automation78351</t>
+  </si>
+  <si>
+    <t>proctorautomation78351@gmail.com</t>
+  </si>
+  <si>
+    <t>78351</t>
+  </si>
+  <si>
+    <t>Proctor01799</t>
+  </si>
+  <si>
+    <t>Automation01799</t>
+  </si>
+  <si>
+    <t>proctorautomation01799@gmail.com</t>
+  </si>
+  <si>
+    <t>01799</t>
+  </si>
+  <si>
+    <t>Proctor80782</t>
+  </si>
+  <si>
+    <t>Automation80782</t>
+  </si>
+  <si>
+    <t>proctorautomation80782@gmail.com</t>
+  </si>
+  <si>
+    <t>80782</t>
+  </si>
+  <si>
+    <t>Proctor54002</t>
+  </si>
+  <si>
+    <t>Automation54002</t>
+  </si>
+  <si>
+    <t>proctorautomation54002@gmail.com</t>
+  </si>
+  <si>
+    <t>54002</t>
+  </si>
+  <si>
+    <t>Proctor18080</t>
+  </si>
+  <si>
+    <t>Automation18080</t>
+  </si>
+  <si>
+    <t>proctorautomation18080@gmail.com</t>
+  </si>
+  <si>
+    <t>18080</t>
+  </si>
+  <si>
+    <t>Proctor81141</t>
+  </si>
+  <si>
+    <t>Automation81141</t>
+  </si>
+  <si>
+    <t>proctorautomation81141@gmail.com</t>
+  </si>
+  <si>
+    <t>81141</t>
+  </si>
+  <si>
+    <t>Proctor27963</t>
+  </si>
+  <si>
+    <t>Automation27963</t>
+  </si>
+  <si>
+    <t>proctorautomation27963@gmail.com</t>
+  </si>
+  <si>
+    <t>27963</t>
+  </si>
+  <si>
+    <t>Proctor18675</t>
+  </si>
+  <si>
+    <t>Automation18675</t>
+  </si>
+  <si>
+    <t>proctorautomation18675@gmail.com</t>
+  </si>
+  <si>
+    <t>18675</t>
+  </si>
+  <si>
+    <t>Proctor42985</t>
+  </si>
+  <si>
+    <t>Automation42985</t>
+  </si>
+  <si>
+    <t>proctorautomation42985@gmail.com</t>
+  </si>
+  <si>
+    <t>42985</t>
+  </si>
+  <si>
+    <t>Proctor77460</t>
+  </si>
+  <si>
+    <t>Automation77460</t>
+  </si>
+  <si>
+    <t>proctorautomation77460@gmail.com</t>
+  </si>
+  <si>
+    <t>77460</t>
+  </si>
+  <si>
+    <t>Proctor81747</t>
+  </si>
+  <si>
+    <t>Automation81747</t>
+  </si>
+  <si>
+    <t>proctorautomation81747@gmail.com</t>
+  </si>
+  <si>
+    <t>81747</t>
+  </si>
+  <si>
+    <t>Proctor40887</t>
+  </si>
+  <si>
+    <t>Automation40887</t>
+  </si>
+  <si>
+    <t>proctorautomation40887@gmail.com</t>
+  </si>
+  <si>
+    <t>40887</t>
+  </si>
+  <si>
+    <t>Proctor44536</t>
+  </si>
+  <si>
+    <t>Automation44536</t>
+  </si>
+  <si>
+    <t>proctorautomation44536@gmail.com</t>
+  </si>
+  <si>
+    <t>44536</t>
+  </si>
+  <si>
+    <t>Proctor72162</t>
+  </si>
+  <si>
+    <t>Automation72162</t>
+  </si>
+  <si>
+    <t>proctorautomation72162@gmail.com</t>
+  </si>
+  <si>
+    <t>72162</t>
+  </si>
+  <si>
+    <t>Proctor59104</t>
+  </si>
+  <si>
+    <t>Automation59104</t>
+  </si>
+  <si>
+    <t>proctorautomation59104@gmail.com</t>
+  </si>
+  <si>
+    <t>59104</t>
+  </si>
+  <si>
+    <t>Proctor92133</t>
+  </si>
+  <si>
+    <t>Automation92133</t>
+  </si>
+  <si>
+    <t>proctorautomation92133@gmail.com</t>
+  </si>
+  <si>
+    <t>92133</t>
+  </si>
+  <si>
+    <t>Proctor79629</t>
+  </si>
+  <si>
+    <t>Automation79629</t>
+  </si>
+  <si>
+    <t>proctorautomation79629@gmail.com</t>
+  </si>
+  <si>
+    <t>79629</t>
+  </si>
+  <si>
+    <t>Proctor43589</t>
+  </si>
+  <si>
+    <t>Automation43589</t>
+  </si>
+  <si>
+    <t>proctorautomation43589@gmail.com</t>
+  </si>
+  <si>
+    <t>43589</t>
+  </si>
+  <si>
+    <t>Proctor09591</t>
+  </si>
+  <si>
+    <t>Automation09591</t>
+  </si>
+  <si>
+    <t>proctorautomation09591@gmail.com</t>
+  </si>
+  <si>
+    <t>09591</t>
   </si>
 </sst>
 </file>
@@ -3676,422 +4036,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>965</v>
+        <v>1085</v>
       </c>
       <c r="B2" t="s">
-        <v>966</v>
+        <v>1086</v>
       </c>
       <c r="C2" t="s">
-        <v>967</v>
+        <v>1087</v>
       </c>
       <c r="D2" t="s">
-        <v>968</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>969</v>
+        <v>1089</v>
       </c>
       <c r="B3" t="s">
-        <v>970</v>
+        <v>1090</v>
       </c>
       <c r="C3" t="s">
-        <v>971</v>
+        <v>1091</v>
       </c>
       <c r="D3" t="s">
-        <v>972</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>973</v>
+        <v>1093</v>
       </c>
       <c r="B4" t="s">
-        <v>974</v>
+        <v>1094</v>
       </c>
       <c r="C4" t="s">
-        <v>975</v>
+        <v>1095</v>
       </c>
       <c r="D4" t="s">
-        <v>976</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>977</v>
+        <v>1097</v>
       </c>
       <c r="B5" t="s">
-        <v>978</v>
+        <v>1098</v>
       </c>
       <c r="C5" t="s">
-        <v>979</v>
+        <v>1099</v>
       </c>
       <c r="D5" t="s">
-        <v>980</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>981</v>
+        <v>1101</v>
       </c>
       <c r="B6" t="s">
-        <v>982</v>
+        <v>1102</v>
       </c>
       <c r="C6" t="s">
-        <v>983</v>
+        <v>1103</v>
       </c>
       <c r="D6" t="s">
-        <v>984</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>985</v>
+        <v>1105</v>
       </c>
       <c r="B7" t="s">
-        <v>986</v>
+        <v>1106</v>
       </c>
       <c r="C7" t="s">
-        <v>987</v>
+        <v>1107</v>
       </c>
       <c r="D7" t="s">
-        <v>988</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>989</v>
+        <v>1109</v>
       </c>
       <c r="B8" t="s">
-        <v>990</v>
+        <v>1110</v>
       </c>
       <c r="C8" t="s">
-        <v>991</v>
+        <v>1111</v>
       </c>
       <c r="D8" t="s">
-        <v>992</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>993</v>
+        <v>1113</v>
       </c>
       <c r="B9" t="s">
-        <v>994</v>
+        <v>1114</v>
       </c>
       <c r="C9" t="s">
-        <v>995</v>
+        <v>1115</v>
       </c>
       <c r="D9" t="s">
-        <v>996</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>997</v>
+        <v>1117</v>
       </c>
       <c r="B10" t="s">
-        <v>998</v>
+        <v>1118</v>
       </c>
       <c r="C10" t="s">
-        <v>999</v>
+        <v>1119</v>
       </c>
       <c r="D10" t="s">
-        <v>1000</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1001</v>
+        <v>1121</v>
       </c>
       <c r="B11" t="s">
-        <v>1002</v>
+        <v>1122</v>
       </c>
       <c r="C11" t="s">
-        <v>1003</v>
+        <v>1123</v>
       </c>
       <c r="D11" t="s">
-        <v>1004</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1005</v>
+        <v>1125</v>
       </c>
       <c r="B12" t="s">
-        <v>1006</v>
+        <v>1126</v>
       </c>
       <c r="C12" t="s">
-        <v>1007</v>
+        <v>1127</v>
       </c>
       <c r="D12" t="s">
-        <v>1008</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1009</v>
+        <v>1129</v>
       </c>
       <c r="B13" t="s">
-        <v>1010</v>
+        <v>1130</v>
       </c>
       <c r="C13" t="s">
-        <v>1011</v>
+        <v>1131</v>
       </c>
       <c r="D13" t="s">
-        <v>1012</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1013</v>
+        <v>1133</v>
       </c>
       <c r="B14" t="s">
-        <v>1014</v>
+        <v>1134</v>
       </c>
       <c r="C14" t="s">
-        <v>1015</v>
+        <v>1135</v>
       </c>
       <c r="D14" t="s">
-        <v>1016</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1017</v>
+        <v>1137</v>
       </c>
       <c r="B15" t="s">
-        <v>1018</v>
+        <v>1138</v>
       </c>
       <c r="C15" t="s">
-        <v>1019</v>
+        <v>1139</v>
       </c>
       <c r="D15" t="s">
-        <v>1020</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1021</v>
+        <v>1141</v>
       </c>
       <c r="B16" t="s">
-        <v>1022</v>
+        <v>1142</v>
       </c>
       <c r="C16" t="s">
-        <v>1023</v>
+        <v>1143</v>
       </c>
       <c r="D16" t="s">
-        <v>1024</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1025</v>
+        <v>1145</v>
       </c>
       <c r="B17" t="s">
-        <v>1026</v>
+        <v>1146</v>
       </c>
       <c r="C17" t="s">
-        <v>1027</v>
+        <v>1147</v>
       </c>
       <c r="D17" t="s">
-        <v>1028</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1029</v>
+        <v>1149</v>
       </c>
       <c r="B18" t="s">
-        <v>1030</v>
+        <v>1150</v>
       </c>
       <c r="C18" t="s">
-        <v>1031</v>
+        <v>1151</v>
       </c>
       <c r="D18" t="s">
-        <v>1032</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1033</v>
+        <v>1153</v>
       </c>
       <c r="B19" t="s">
-        <v>1034</v>
+        <v>1154</v>
       </c>
       <c r="C19" t="s">
-        <v>1035</v>
+        <v>1155</v>
       </c>
       <c r="D19" t="s">
-        <v>1036</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1037</v>
+        <v>1157</v>
       </c>
       <c r="B20" t="s">
-        <v>1038</v>
+        <v>1158</v>
       </c>
       <c r="C20" t="s">
-        <v>1039</v>
+        <v>1159</v>
       </c>
       <c r="D20" t="s">
-        <v>1040</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1041</v>
+        <v>1161</v>
       </c>
       <c r="B21" t="s">
-        <v>1042</v>
+        <v>1162</v>
       </c>
       <c r="C21" t="s">
-        <v>1043</v>
+        <v>1163</v>
       </c>
       <c r="D21" t="s">
-        <v>1044</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1045</v>
+        <v>1165</v>
       </c>
       <c r="B22" t="s">
-        <v>1046</v>
+        <v>1166</v>
       </c>
       <c r="C22" t="s">
-        <v>1047</v>
+        <v>1167</v>
       </c>
       <c r="D22" t="s">
-        <v>1048</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1049</v>
+        <v>1169</v>
       </c>
       <c r="B23" t="s">
-        <v>1050</v>
+        <v>1170</v>
       </c>
       <c r="C23" t="s">
-        <v>1051</v>
+        <v>1171</v>
       </c>
       <c r="D23" t="s">
-        <v>1052</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>1053</v>
+        <v>1173</v>
       </c>
       <c r="B24" t="s">
-        <v>1054</v>
+        <v>1174</v>
       </c>
       <c r="C24" t="s">
-        <v>1055</v>
+        <v>1175</v>
       </c>
       <c r="D24" t="s">
-        <v>1056</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1057</v>
+        <v>1177</v>
       </c>
       <c r="B25" t="s">
-        <v>1058</v>
+        <v>1178</v>
       </c>
       <c r="C25" t="s">
-        <v>1059</v>
+        <v>1179</v>
       </c>
       <c r="D25" t="s">
-        <v>1060</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1061</v>
+        <v>1181</v>
       </c>
       <c r="B26" t="s">
-        <v>1062</v>
+        <v>1182</v>
       </c>
       <c r="C26" t="s">
-        <v>1063</v>
+        <v>1183</v>
       </c>
       <c r="D26" t="s">
-        <v>1064</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1065</v>
+        <v>1185</v>
       </c>
       <c r="B27" t="s">
-        <v>1066</v>
+        <v>1186</v>
       </c>
       <c r="C27" t="s">
-        <v>1067</v>
+        <v>1187</v>
       </c>
       <c r="D27" t="s">
-        <v>1068</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1069</v>
+        <v>1189</v>
       </c>
       <c r="B28" t="s">
-        <v>1070</v>
+        <v>1190</v>
       </c>
       <c r="C28" t="s">
-        <v>1071</v>
+        <v>1191</v>
       </c>
       <c r="D28" t="s">
-        <v>1072</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1073</v>
+        <v>1193</v>
       </c>
       <c r="B29" t="s">
-        <v>1074</v>
+        <v>1194</v>
       </c>
       <c r="C29" t="s">
-        <v>1075</v>
+        <v>1195</v>
       </c>
       <c r="D29" t="s">
-        <v>1076</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>1077</v>
+        <v>1197</v>
       </c>
       <c r="B30" t="s">
-        <v>1078</v>
+        <v>1198</v>
       </c>
       <c r="C30" t="s">
-        <v>1079</v>
+        <v>1199</v>
       </c>
       <c r="D30" t="s">
-        <v>1080</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1081</v>
+        <v>1201</v>
       </c>
       <c r="B31" t="s">
-        <v>1082</v>
+        <v>1202</v>
       </c>
       <c r="C31" t="s">
-        <v>1083</v>
+        <v>1203</v>
       </c>
       <c r="D31" t="s">
-        <v>1084</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1568">
   <si>
     <t>FirstName</t>
   </si>
@@ -3629,6 +3629,1095 @@
   </si>
   <si>
     <t>09591</t>
+  </si>
+  <si>
+    <t>Proctor06922</t>
+  </si>
+  <si>
+    <t>Proctor27212</t>
+  </si>
+  <si>
+    <t>Proctor68246</t>
+  </si>
+  <si>
+    <t>Proctor65119</t>
+  </si>
+  <si>
+    <t>Automation65119</t>
+  </si>
+  <si>
+    <t>proctorautomation65119@gmail.com</t>
+  </si>
+  <si>
+    <t>65119</t>
+  </si>
+  <si>
+    <t>Proctor29521</t>
+  </si>
+  <si>
+    <t>Automation29521</t>
+  </si>
+  <si>
+    <t>proctorautomation29521@gmail.com</t>
+  </si>
+  <si>
+    <t>29521</t>
+  </si>
+  <si>
+    <t>Proctor60362</t>
+  </si>
+  <si>
+    <t>Automation60362</t>
+  </si>
+  <si>
+    <t>proctorautomation60362@gmail.com</t>
+  </si>
+  <si>
+    <t>60362</t>
+  </si>
+  <si>
+    <t>Proctor18175</t>
+  </si>
+  <si>
+    <t>Automation18175</t>
+  </si>
+  <si>
+    <t>proctorautomation18175@gmail.com</t>
+  </si>
+  <si>
+    <t>18175</t>
+  </si>
+  <si>
+    <t>Proctor20936</t>
+  </si>
+  <si>
+    <t>Automation20936</t>
+  </si>
+  <si>
+    <t>proctorautomation20936@gmail.com</t>
+  </si>
+  <si>
+    <t>20936</t>
+  </si>
+  <si>
+    <t>Proctor10829</t>
+  </si>
+  <si>
+    <t>Automation10829</t>
+  </si>
+  <si>
+    <t>proctorautomation10829@gmail.com</t>
+  </si>
+  <si>
+    <t>10829</t>
+  </si>
+  <si>
+    <t>Proctor03255</t>
+  </si>
+  <si>
+    <t>Automation03255</t>
+  </si>
+  <si>
+    <t>proctorautomation03255@gmail.com</t>
+  </si>
+  <si>
+    <t>03255</t>
+  </si>
+  <si>
+    <t>Proctor62598</t>
+  </si>
+  <si>
+    <t>Automation62598</t>
+  </si>
+  <si>
+    <t>proctorautomation62598@gmail.com</t>
+  </si>
+  <si>
+    <t>62598</t>
+  </si>
+  <si>
+    <t>Proctor79341</t>
+  </si>
+  <si>
+    <t>Automation79341</t>
+  </si>
+  <si>
+    <t>proctorautomation79341@gmail.com</t>
+  </si>
+  <si>
+    <t>79341</t>
+  </si>
+  <si>
+    <t>Proctor91875</t>
+  </si>
+  <si>
+    <t>Automation91875</t>
+  </si>
+  <si>
+    <t>proctorautomation91875@gmail.com</t>
+  </si>
+  <si>
+    <t>91875</t>
+  </si>
+  <si>
+    <t>Proctor55305</t>
+  </si>
+  <si>
+    <t>Automation55305</t>
+  </si>
+  <si>
+    <t>proctorautomation55305@gmail.com</t>
+  </si>
+  <si>
+    <t>55305</t>
+  </si>
+  <si>
+    <t>Proctor16468</t>
+  </si>
+  <si>
+    <t>Automation16468</t>
+  </si>
+  <si>
+    <t>proctorautomation16468@gmail.com</t>
+  </si>
+  <si>
+    <t>16468</t>
+  </si>
+  <si>
+    <t>Proctor66393</t>
+  </si>
+  <si>
+    <t>Automation66393</t>
+  </si>
+  <si>
+    <t>proctorautomation66393@gmail.com</t>
+  </si>
+  <si>
+    <t>66393</t>
+  </si>
+  <si>
+    <t>Proctor89004</t>
+  </si>
+  <si>
+    <t>Automation89004</t>
+  </si>
+  <si>
+    <t>proctorautomation89004@gmail.com</t>
+  </si>
+  <si>
+    <t>89004</t>
+  </si>
+  <si>
+    <t>Proctor76857</t>
+  </si>
+  <si>
+    <t>Automation76857</t>
+  </si>
+  <si>
+    <t>proctorautomation76857@gmail.com</t>
+  </si>
+  <si>
+    <t>76857</t>
+  </si>
+  <si>
+    <t>Proctor92356</t>
+  </si>
+  <si>
+    <t>Automation92356</t>
+  </si>
+  <si>
+    <t>proctorautomation92356@gmail.com</t>
+  </si>
+  <si>
+    <t>92356</t>
+  </si>
+  <si>
+    <t>Proctor89448</t>
+  </si>
+  <si>
+    <t>Automation89448</t>
+  </si>
+  <si>
+    <t>proctorautomation89448@gmail.com</t>
+  </si>
+  <si>
+    <t>89448</t>
+  </si>
+  <si>
+    <t>Proctor33529</t>
+  </si>
+  <si>
+    <t>Automation33529</t>
+  </si>
+  <si>
+    <t>proctorautomation33529@gmail.com</t>
+  </si>
+  <si>
+    <t>33529</t>
+  </si>
+  <si>
+    <t>Proctor07001</t>
+  </si>
+  <si>
+    <t>Automation07001</t>
+  </si>
+  <si>
+    <t>proctorautomation07001@gmail.com</t>
+  </si>
+  <si>
+    <t>07001</t>
+  </si>
+  <si>
+    <t>Proctor94843</t>
+  </si>
+  <si>
+    <t>Automation94843</t>
+  </si>
+  <si>
+    <t>proctorautomation94843@gmail.com</t>
+  </si>
+  <si>
+    <t>94843</t>
+  </si>
+  <si>
+    <t>Proctor80336</t>
+  </si>
+  <si>
+    <t>Automation80336</t>
+  </si>
+  <si>
+    <t>proctorautomation80336@gmail.com</t>
+  </si>
+  <si>
+    <t>80336</t>
+  </si>
+  <si>
+    <t>Proctor80847</t>
+  </si>
+  <si>
+    <t>Automation80847</t>
+  </si>
+  <si>
+    <t>proctorautomation80847@gmail.com</t>
+  </si>
+  <si>
+    <t>80847</t>
+  </si>
+  <si>
+    <t>Proctor99716</t>
+  </si>
+  <si>
+    <t>Automation99716</t>
+  </si>
+  <si>
+    <t>proctorautomation99716@gmail.com</t>
+  </si>
+  <si>
+    <t>99716</t>
+  </si>
+  <si>
+    <t>Proctor43811</t>
+  </si>
+  <si>
+    <t>Automation43811</t>
+  </si>
+  <si>
+    <t>proctorautomation43811@gmail.com</t>
+  </si>
+  <si>
+    <t>43811</t>
+  </si>
+  <si>
+    <t>Proctor89292</t>
+  </si>
+  <si>
+    <t>Automation89292</t>
+  </si>
+  <si>
+    <t>proctorautomation89292@gmail.com</t>
+  </si>
+  <si>
+    <t>89292</t>
+  </si>
+  <si>
+    <t>Proctor43334</t>
+  </si>
+  <si>
+    <t>Automation43334</t>
+  </si>
+  <si>
+    <t>proctorautomation43334@gmail.com</t>
+  </si>
+  <si>
+    <t>43334</t>
+  </si>
+  <si>
+    <t>Proctor62709</t>
+  </si>
+  <si>
+    <t>Automation62709</t>
+  </si>
+  <si>
+    <t>proctorautomation62709@gmail.com</t>
+  </si>
+  <si>
+    <t>62709</t>
+  </si>
+  <si>
+    <t>Proctor19071</t>
+  </si>
+  <si>
+    <t>Automation19071</t>
+  </si>
+  <si>
+    <t>proctorautomation19071@gmail.com</t>
+  </si>
+  <si>
+    <t>19071</t>
+  </si>
+  <si>
+    <t>Proctor58816</t>
+  </si>
+  <si>
+    <t>Automation58816</t>
+  </si>
+  <si>
+    <t>proctorautomation58816@gmail.com</t>
+  </si>
+  <si>
+    <t>58816</t>
+  </si>
+  <si>
+    <t>Proctor57215</t>
+  </si>
+  <si>
+    <t>Automation57215</t>
+  </si>
+  <si>
+    <t>proctorautomation57215@gmail.com</t>
+  </si>
+  <si>
+    <t>57215</t>
+  </si>
+  <si>
+    <t>Proctor63241</t>
+  </si>
+  <si>
+    <t>Automation63241</t>
+  </si>
+  <si>
+    <t>proctorautomation63241@gmail.com</t>
+  </si>
+  <si>
+    <t>63241</t>
+  </si>
+  <si>
+    <t>Proctor35063</t>
+  </si>
+  <si>
+    <t>Automation35063</t>
+  </si>
+  <si>
+    <t>proctorautomation35063@gmail.com</t>
+  </si>
+  <si>
+    <t>35063</t>
+  </si>
+  <si>
+    <t>Proctor50305</t>
+  </si>
+  <si>
+    <t>Automation50305</t>
+  </si>
+  <si>
+    <t>proctorautomation50305@gmail.com</t>
+  </si>
+  <si>
+    <t>50305</t>
+  </si>
+  <si>
+    <t>Proctor99982</t>
+  </si>
+  <si>
+    <t>Automation99982</t>
+  </si>
+  <si>
+    <t>proctorautomation99982@gmail.com</t>
+  </si>
+  <si>
+    <t>99982</t>
+  </si>
+  <si>
+    <t>Proctor71990</t>
+  </si>
+  <si>
+    <t>Automation71990</t>
+  </si>
+  <si>
+    <t>proctorautomation71990@gmail.com</t>
+  </si>
+  <si>
+    <t>71990</t>
+  </si>
+  <si>
+    <t>Proctor02520</t>
+  </si>
+  <si>
+    <t>Automation02520</t>
+  </si>
+  <si>
+    <t>proctorautomation02520@gmail.com</t>
+  </si>
+  <si>
+    <t>02520</t>
+  </si>
+  <si>
+    <t>Proctor23932</t>
+  </si>
+  <si>
+    <t>Automation23932</t>
+  </si>
+  <si>
+    <t>proctorautomation23932@gmail.com</t>
+  </si>
+  <si>
+    <t>23932</t>
+  </si>
+  <si>
+    <t>Proctor45360</t>
+  </si>
+  <si>
+    <t>Automation45360</t>
+  </si>
+  <si>
+    <t>proctorautomation45360@gmail.com</t>
+  </si>
+  <si>
+    <t>45360</t>
+  </si>
+  <si>
+    <t>Proctor70574</t>
+  </si>
+  <si>
+    <t>Automation70574</t>
+  </si>
+  <si>
+    <t>proctorautomation70574@gmail.com</t>
+  </si>
+  <si>
+    <t>70574</t>
+  </si>
+  <si>
+    <t>Proctor70276</t>
+  </si>
+  <si>
+    <t>Automation70276</t>
+  </si>
+  <si>
+    <t>proctorautomation70276@gmail.com</t>
+  </si>
+  <si>
+    <t>70276</t>
+  </si>
+  <si>
+    <t>Proctor51362</t>
+  </si>
+  <si>
+    <t>Automation51362</t>
+  </si>
+  <si>
+    <t>proctorautomation51362@gmail.com</t>
+  </si>
+  <si>
+    <t>51362</t>
+  </si>
+  <si>
+    <t>Proctor31313</t>
+  </si>
+  <si>
+    <t>Automation31313</t>
+  </si>
+  <si>
+    <t>proctorautomation31313@gmail.com</t>
+  </si>
+  <si>
+    <t>31313</t>
+  </si>
+  <si>
+    <t>Proctor01643</t>
+  </si>
+  <si>
+    <t>Automation01643</t>
+  </si>
+  <si>
+    <t>proctorautomation01643@gmail.com</t>
+  </si>
+  <si>
+    <t>01643</t>
+  </si>
+  <si>
+    <t>Proctor42904</t>
+  </si>
+  <si>
+    <t>Automation42904</t>
+  </si>
+  <si>
+    <t>proctorautomation42904@gmail.com</t>
+  </si>
+  <si>
+    <t>42904</t>
+  </si>
+  <si>
+    <t>Proctor59822</t>
+  </si>
+  <si>
+    <t>Automation59822</t>
+  </si>
+  <si>
+    <t>proctorautomation59822@gmail.com</t>
+  </si>
+  <si>
+    <t>59822</t>
+  </si>
+  <si>
+    <t>Proctor59306</t>
+  </si>
+  <si>
+    <t>Automation59306</t>
+  </si>
+  <si>
+    <t>proctorautomation59306@gmail.com</t>
+  </si>
+  <si>
+    <t>59306</t>
+  </si>
+  <si>
+    <t>Proctor33106</t>
+  </si>
+  <si>
+    <t>Automation33106</t>
+  </si>
+  <si>
+    <t>proctorautomation33106@gmail.com</t>
+  </si>
+  <si>
+    <t>33106</t>
+  </si>
+  <si>
+    <t>Proctor17787</t>
+  </si>
+  <si>
+    <t>Automation17787</t>
+  </si>
+  <si>
+    <t>proctorautomation17787@gmail.com</t>
+  </si>
+  <si>
+    <t>17787</t>
+  </si>
+  <si>
+    <t>Proctor82659</t>
+  </si>
+  <si>
+    <t>Automation82659</t>
+  </si>
+  <si>
+    <t>proctorautomation82659@gmail.com</t>
+  </si>
+  <si>
+    <t>82659</t>
+  </si>
+  <si>
+    <t>Proctor07397</t>
+  </si>
+  <si>
+    <t>Automation07397</t>
+  </si>
+  <si>
+    <t>proctorautomation07397@gmail.com</t>
+  </si>
+  <si>
+    <t>07397</t>
+  </si>
+  <si>
+    <t>Proctor11735</t>
+  </si>
+  <si>
+    <t>Automation11735</t>
+  </si>
+  <si>
+    <t>proctorautomation11735@gmail.com</t>
+  </si>
+  <si>
+    <t>11735</t>
+  </si>
+  <si>
+    <t>Proctor02253</t>
+  </si>
+  <si>
+    <t>Automation02253</t>
+  </si>
+  <si>
+    <t>proctorautomation02253@gmail.com</t>
+  </si>
+  <si>
+    <t>02253</t>
+  </si>
+  <si>
+    <t>Proctor27718</t>
+  </si>
+  <si>
+    <t>Automation27718</t>
+  </si>
+  <si>
+    <t>proctorautomation27718@gmail.com</t>
+  </si>
+  <si>
+    <t>27718</t>
+  </si>
+  <si>
+    <t>Proctor42038</t>
+  </si>
+  <si>
+    <t>Automation42038</t>
+  </si>
+  <si>
+    <t>proctorautomation42038@gmail.com</t>
+  </si>
+  <si>
+    <t>42038</t>
+  </si>
+  <si>
+    <t>Proctor45829</t>
+  </si>
+  <si>
+    <t>Automation45829</t>
+  </si>
+  <si>
+    <t>proctorautomation45829@gmail.com</t>
+  </si>
+  <si>
+    <t>45829</t>
+  </si>
+  <si>
+    <t>Proctor89270</t>
+  </si>
+  <si>
+    <t>Automation89270</t>
+  </si>
+  <si>
+    <t>proctorautomation89270@gmail.com</t>
+  </si>
+  <si>
+    <t>89270</t>
+  </si>
+  <si>
+    <t>Proctor42875</t>
+  </si>
+  <si>
+    <t>Automation42875</t>
+  </si>
+  <si>
+    <t>proctorautomation42875@gmail.com</t>
+  </si>
+  <si>
+    <t>42875</t>
+  </si>
+  <si>
+    <t>Proctor46182</t>
+  </si>
+  <si>
+    <t>Automation46182</t>
+  </si>
+  <si>
+    <t>proctorautomation46182@gmail.com</t>
+  </si>
+  <si>
+    <t>46182</t>
+  </si>
+  <si>
+    <t>Proctor26960</t>
+  </si>
+  <si>
+    <t>Automation26960</t>
+  </si>
+  <si>
+    <t>proctorautomation26960@gmail.com</t>
+  </si>
+  <si>
+    <t>26960</t>
+  </si>
+  <si>
+    <t>Proctor95598</t>
+  </si>
+  <si>
+    <t>Automation95598</t>
+  </si>
+  <si>
+    <t>proctorautomation95598@gmail.com</t>
+  </si>
+  <si>
+    <t>95598</t>
+  </si>
+  <si>
+    <t>Proctor35126</t>
+  </si>
+  <si>
+    <t>Automation35126</t>
+  </si>
+  <si>
+    <t>proctorautomation35126@gmail.com</t>
+  </si>
+  <si>
+    <t>35126</t>
+  </si>
+  <si>
+    <t>Proctor77903</t>
+  </si>
+  <si>
+    <t>Automation77903</t>
+  </si>
+  <si>
+    <t>proctorautomation77903@gmail.com</t>
+  </si>
+  <si>
+    <t>77903</t>
+  </si>
+  <si>
+    <t>Proctor31757</t>
+  </si>
+  <si>
+    <t>Automation31757</t>
+  </si>
+  <si>
+    <t>proctorautomation31757@gmail.com</t>
+  </si>
+  <si>
+    <t>31757</t>
+  </si>
+  <si>
+    <t>Proctor42176</t>
+  </si>
+  <si>
+    <t>Automation42176</t>
+  </si>
+  <si>
+    <t>proctorautomation42176@gmail.com</t>
+  </si>
+  <si>
+    <t>42176</t>
+  </si>
+  <si>
+    <t>Proctor50350</t>
+  </si>
+  <si>
+    <t>Automation50350</t>
+  </si>
+  <si>
+    <t>proctorautomation50350@gmail.com</t>
+  </si>
+  <si>
+    <t>50350</t>
+  </si>
+  <si>
+    <t>Proctor77566</t>
+  </si>
+  <si>
+    <t>Automation77566</t>
+  </si>
+  <si>
+    <t>proctorautomation77566@gmail.com</t>
+  </si>
+  <si>
+    <t>77566</t>
+  </si>
+  <si>
+    <t>Proctor28642</t>
+  </si>
+  <si>
+    <t>Automation28642</t>
+  </si>
+  <si>
+    <t>proctorautomation28642@gmail.com</t>
+  </si>
+  <si>
+    <t>28642</t>
+  </si>
+  <si>
+    <t>Proctor35451</t>
+  </si>
+  <si>
+    <t>Automation35451</t>
+  </si>
+  <si>
+    <t>proctorautomation35451@gmail.com</t>
+  </si>
+  <si>
+    <t>35451</t>
+  </si>
+  <si>
+    <t>Proctor49405</t>
+  </si>
+  <si>
+    <t>Automation49405</t>
+  </si>
+  <si>
+    <t>proctorautomation49405@gmail.com</t>
+  </si>
+  <si>
+    <t>49405</t>
+  </si>
+  <si>
+    <t>Proctor05755</t>
+  </si>
+  <si>
+    <t>Automation05755</t>
+  </si>
+  <si>
+    <t>proctorautomation05755@gmail.com</t>
+  </si>
+  <si>
+    <t>05755</t>
+  </si>
+  <si>
+    <t>Proctor90079</t>
+  </si>
+  <si>
+    <t>Automation90079</t>
+  </si>
+  <si>
+    <t>proctorautomation90079@gmail.com</t>
+  </si>
+  <si>
+    <t>90079</t>
+  </si>
+  <si>
+    <t>Proctor64733</t>
+  </si>
+  <si>
+    <t>Automation64733</t>
+  </si>
+  <si>
+    <t>proctorautomation64733@gmail.com</t>
+  </si>
+  <si>
+    <t>64733</t>
+  </si>
+  <si>
+    <t>Proctor73026</t>
+  </si>
+  <si>
+    <t>Automation73026</t>
+  </si>
+  <si>
+    <t>proctorautomation73026@gmail.com</t>
+  </si>
+  <si>
+    <t>73026</t>
+  </si>
+  <si>
+    <t>Proctor52504</t>
+  </si>
+  <si>
+    <t>Automation52504</t>
+  </si>
+  <si>
+    <t>proctorautomation52504@gmail.com</t>
+  </si>
+  <si>
+    <t>52504</t>
+  </si>
+  <si>
+    <t>Proctor79291</t>
+  </si>
+  <si>
+    <t>Automation79291</t>
+  </si>
+  <si>
+    <t>proctorautomation79291@gmail.com</t>
+  </si>
+  <si>
+    <t>79291</t>
+  </si>
+  <si>
+    <t>Proctor84835</t>
+  </si>
+  <si>
+    <t>Automation84835</t>
+  </si>
+  <si>
+    <t>proctorautomation84835@gmail.com</t>
+  </si>
+  <si>
+    <t>84835</t>
+  </si>
+  <si>
+    <t>Proctor87497</t>
+  </si>
+  <si>
+    <t>Automation87497</t>
+  </si>
+  <si>
+    <t>proctorautomation87497@gmail.com</t>
+  </si>
+  <si>
+    <t>87497</t>
+  </si>
+  <si>
+    <t>Proctor33607</t>
+  </si>
+  <si>
+    <t>Automation33607</t>
+  </si>
+  <si>
+    <t>proctorautomation33607@gmail.com</t>
+  </si>
+  <si>
+    <t>33607</t>
+  </si>
+  <si>
+    <t>Proctor70538</t>
+  </si>
+  <si>
+    <t>Automation70538</t>
+  </si>
+  <si>
+    <t>proctorautomation70538@gmail.com</t>
+  </si>
+  <si>
+    <t>70538</t>
+  </si>
+  <si>
+    <t>Proctor35951</t>
+  </si>
+  <si>
+    <t>Automation35951</t>
+  </si>
+  <si>
+    <t>proctorautomation35951@gmail.com</t>
+  </si>
+  <si>
+    <t>35951</t>
+  </si>
+  <si>
+    <t>Proctor02415</t>
+  </si>
+  <si>
+    <t>Automation02415</t>
+  </si>
+  <si>
+    <t>proctorautomation02415@gmail.com</t>
+  </si>
+  <si>
+    <t>02415</t>
+  </si>
+  <si>
+    <t>Proctor59135</t>
+  </si>
+  <si>
+    <t>Automation59135</t>
+  </si>
+  <si>
+    <t>proctorautomation59135@gmail.com</t>
+  </si>
+  <si>
+    <t>59135</t>
+  </si>
+  <si>
+    <t>Proctor03070</t>
+  </si>
+  <si>
+    <t>Automation03070</t>
+  </si>
+  <si>
+    <t>proctorautomation03070@gmail.com</t>
+  </si>
+  <si>
+    <t>03070</t>
+  </si>
+  <si>
+    <t>Proctor81916</t>
+  </si>
+  <si>
+    <t>Automation81916</t>
+  </si>
+  <si>
+    <t>proctorautomation81916@gmail.com</t>
+  </si>
+  <si>
+    <t>81916</t>
+  </si>
+  <si>
+    <t>Proctor51353</t>
+  </si>
+  <si>
+    <t>Automation51353</t>
+  </si>
+  <si>
+    <t>proctorautomation51353@gmail.com</t>
+  </si>
+  <si>
+    <t>51353</t>
+  </si>
+  <si>
+    <t>Proctor00441</t>
+  </si>
+  <si>
+    <t>Automation00441</t>
+  </si>
+  <si>
+    <t>proctorautomation00441@gmail.com</t>
+  </si>
+  <si>
+    <t>00441</t>
+  </si>
+  <si>
+    <t>Proctor16980</t>
+  </si>
+  <si>
+    <t>Automation16980</t>
+  </si>
+  <si>
+    <t>proctorautomation16980@gmail.com</t>
+  </si>
+  <si>
+    <t>16980</t>
+  </si>
+  <si>
+    <t>Proctor22818</t>
+  </si>
+  <si>
+    <t>Automation22818</t>
+  </si>
+  <si>
+    <t>proctorautomation22818@gmail.com</t>
+  </si>
+  <si>
+    <t>22818</t>
+  </si>
+  <si>
+    <t>Proctor61101</t>
+  </si>
+  <si>
+    <t>Automation61101</t>
+  </si>
+  <si>
+    <t>proctorautomation61101@gmail.com</t>
+  </si>
+  <si>
+    <t>61101</t>
+  </si>
+  <si>
+    <t>Proctor06551</t>
+  </si>
+  <si>
+    <t>Automation06551</t>
+  </si>
+  <si>
+    <t>proctorautomation06551@gmail.com</t>
+  </si>
+  <si>
+    <t>06551</t>
   </si>
 </sst>
 </file>
@@ -4035,423 +5124,423 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1088</v>
+      <c r="A2" t="s" s="0">
+        <v>1448</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>1450</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>1451</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1092</v>
+      <c r="A3" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1453</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>1454</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>1455</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1096</v>
+      <c r="A4" t="s" s="0">
+        <v>1456</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1457</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>1458</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>1459</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1100</v>
+      <c r="A5" t="s" s="0">
+        <v>1460</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>1462</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>1463</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1104</v>
+      <c r="A6" t="s" s="0">
+        <v>1464</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>1465</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>1466</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>1467</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1108</v>
+      <c r="A7" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>1469</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>1471</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1112</v>
+      <c r="A8" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>1475</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1116</v>
+      <c r="A9" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>1477</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>1479</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1120</v>
+      <c r="A10" t="s" s="0">
+        <v>1480</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>1481</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>1482</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>1483</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1124</v>
+      <c r="A11" t="s" s="0">
+        <v>1484</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>1485</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>1486</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>1487</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1128</v>
+      <c r="A12" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>1491</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1132</v>
+      <c r="A13" t="s" s="0">
+        <v>1492</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>1493</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>1494</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>1495</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1136</v>
+      <c r="A14" t="s" s="0">
+        <v>1496</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>1497</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>1499</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1140</v>
+      <c r="A15" t="s" s="0">
+        <v>1500</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>1501</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>1502</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>1503</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1143</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1144</v>
+      <c r="A16" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1505</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>1506</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>1507</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1148</v>
+      <c r="A17" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>1509</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>1510</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>1511</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1152</v>
+      <c r="A18" t="s" s="0">
+        <v>1512</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>1513</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>1514</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>1515</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1156</v>
+      <c r="A19" t="s" s="0">
+        <v>1516</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>1517</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>1518</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>1519</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1160</v>
+      <c r="A20" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>1521</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>1522</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>1523</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1164</v>
+      <c r="A21" t="s" s="0">
+        <v>1524</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>1525</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>1527</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1168</v>
+      <c r="A22" t="s" s="0">
+        <v>1528</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>1529</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>1530</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>1531</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1172</v>
+      <c r="A23" t="s" s="0">
+        <v>1532</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>1533</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>1534</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>1535</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1176</v>
+      <c r="A24" t="s" s="0">
+        <v>1536</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>1537</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>1538</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>1539</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1180</v>
+      <c r="A25" t="s" s="0">
+        <v>1540</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>1542</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>1543</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1184</v>
+      <c r="A26" t="s" s="0">
+        <v>1544</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>1545</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>1546</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>1547</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1188</v>
+      <c r="A27" t="s" s="0">
+        <v>1548</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>1549</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>1550</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>1551</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1192</v>
+      <c r="A28" t="s" s="0">
+        <v>1552</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>1553</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>1555</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1196</v>
+      <c r="A29" t="s" s="0">
+        <v>1556</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>1557</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>1558</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>1559</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>1197</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1200</v>
+      <c r="A30" t="s" s="0">
+        <v>1560</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>1561</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>1562</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>1563</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1204</v>
+      <c r="A31" t="s" s="0">
+        <v>1564</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>1565</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>1566</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>1567</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1928">
   <si>
     <t>FirstName</t>
   </si>
@@ -4718,6 +4718,1086 @@
   </si>
   <si>
     <t>06551</t>
+  </si>
+  <si>
+    <t>Proctor52052</t>
+  </si>
+  <si>
+    <t>Automation52052</t>
+  </si>
+  <si>
+    <t>proctorautomation52052@gmail.com</t>
+  </si>
+  <si>
+    <t>52052</t>
+  </si>
+  <si>
+    <t>Proctor22376</t>
+  </si>
+  <si>
+    <t>Automation22376</t>
+  </si>
+  <si>
+    <t>proctorautomation22376@gmail.com</t>
+  </si>
+  <si>
+    <t>22376</t>
+  </si>
+  <si>
+    <t>Proctor88164</t>
+  </si>
+  <si>
+    <t>Automation88164</t>
+  </si>
+  <si>
+    <t>proctorautomation88164@gmail.com</t>
+  </si>
+  <si>
+    <t>88164</t>
+  </si>
+  <si>
+    <t>Proctor93193</t>
+  </si>
+  <si>
+    <t>Automation93193</t>
+  </si>
+  <si>
+    <t>proctorautomation93193@gmail.com</t>
+  </si>
+  <si>
+    <t>93193</t>
+  </si>
+  <si>
+    <t>Proctor43598</t>
+  </si>
+  <si>
+    <t>Automation43598</t>
+  </si>
+  <si>
+    <t>proctorautomation43598@gmail.com</t>
+  </si>
+  <si>
+    <t>43598</t>
+  </si>
+  <si>
+    <t>Proctor58339</t>
+  </si>
+  <si>
+    <t>Automation58339</t>
+  </si>
+  <si>
+    <t>proctorautomation58339@gmail.com</t>
+  </si>
+  <si>
+    <t>58339</t>
+  </si>
+  <si>
+    <t>Proctor76703</t>
+  </si>
+  <si>
+    <t>Automation76703</t>
+  </si>
+  <si>
+    <t>proctorautomation76703@gmail.com</t>
+  </si>
+  <si>
+    <t>76703</t>
+  </si>
+  <si>
+    <t>Proctor37892</t>
+  </si>
+  <si>
+    <t>Automation37892</t>
+  </si>
+  <si>
+    <t>proctorautomation37892@gmail.com</t>
+  </si>
+  <si>
+    <t>37892</t>
+  </si>
+  <si>
+    <t>Proctor20420</t>
+  </si>
+  <si>
+    <t>Automation20420</t>
+  </si>
+  <si>
+    <t>proctorautomation20420@gmail.com</t>
+  </si>
+  <si>
+    <t>20420</t>
+  </si>
+  <si>
+    <t>Proctor30565</t>
+  </si>
+  <si>
+    <t>Automation30565</t>
+  </si>
+  <si>
+    <t>proctorautomation30565@gmail.com</t>
+  </si>
+  <si>
+    <t>30565</t>
+  </si>
+  <si>
+    <t>Proctor65194</t>
+  </si>
+  <si>
+    <t>Automation65194</t>
+  </si>
+  <si>
+    <t>proctorautomation65194@gmail.com</t>
+  </si>
+  <si>
+    <t>65194</t>
+  </si>
+  <si>
+    <t>Proctor30312</t>
+  </si>
+  <si>
+    <t>Automation30312</t>
+  </si>
+  <si>
+    <t>proctorautomation30312@gmail.com</t>
+  </si>
+  <si>
+    <t>30312</t>
+  </si>
+  <si>
+    <t>Proctor75322</t>
+  </si>
+  <si>
+    <t>Automation75322</t>
+  </si>
+  <si>
+    <t>proctorautomation75322@gmail.com</t>
+  </si>
+  <si>
+    <t>75322</t>
+  </si>
+  <si>
+    <t>Proctor07068</t>
+  </si>
+  <si>
+    <t>Automation07068</t>
+  </si>
+  <si>
+    <t>proctorautomation07068@gmail.com</t>
+  </si>
+  <si>
+    <t>07068</t>
+  </si>
+  <si>
+    <t>Proctor38529</t>
+  </si>
+  <si>
+    <t>Automation38529</t>
+  </si>
+  <si>
+    <t>proctorautomation38529@gmail.com</t>
+  </si>
+  <si>
+    <t>38529</t>
+  </si>
+  <si>
+    <t>Proctor48357</t>
+  </si>
+  <si>
+    <t>Automation48357</t>
+  </si>
+  <si>
+    <t>proctorautomation48357@gmail.com</t>
+  </si>
+  <si>
+    <t>48357</t>
+  </si>
+  <si>
+    <t>Proctor30262</t>
+  </si>
+  <si>
+    <t>Automation30262</t>
+  </si>
+  <si>
+    <t>proctorautomation30262@gmail.com</t>
+  </si>
+  <si>
+    <t>30262</t>
+  </si>
+  <si>
+    <t>Proctor86220</t>
+  </si>
+  <si>
+    <t>Automation86220</t>
+  </si>
+  <si>
+    <t>proctorautomation86220@gmail.com</t>
+  </si>
+  <si>
+    <t>86220</t>
+  </si>
+  <si>
+    <t>Proctor90761</t>
+  </si>
+  <si>
+    <t>Automation90761</t>
+  </si>
+  <si>
+    <t>proctorautomation90761@gmail.com</t>
+  </si>
+  <si>
+    <t>90761</t>
+  </si>
+  <si>
+    <t>Proctor31691</t>
+  </si>
+  <si>
+    <t>Automation31691</t>
+  </si>
+  <si>
+    <t>proctorautomation31691@gmail.com</t>
+  </si>
+  <si>
+    <t>31691</t>
+  </si>
+  <si>
+    <t>Proctor59821</t>
+  </si>
+  <si>
+    <t>Automation59821</t>
+  </si>
+  <si>
+    <t>proctorautomation59821@gmail.com</t>
+  </si>
+  <si>
+    <t>59821</t>
+  </si>
+  <si>
+    <t>Proctor92667</t>
+  </si>
+  <si>
+    <t>Automation92667</t>
+  </si>
+  <si>
+    <t>proctorautomation92667@gmail.com</t>
+  </si>
+  <si>
+    <t>92667</t>
+  </si>
+  <si>
+    <t>Proctor85626</t>
+  </si>
+  <si>
+    <t>Automation85626</t>
+  </si>
+  <si>
+    <t>proctorautomation85626@gmail.com</t>
+  </si>
+  <si>
+    <t>85626</t>
+  </si>
+  <si>
+    <t>Proctor04764</t>
+  </si>
+  <si>
+    <t>Automation04764</t>
+  </si>
+  <si>
+    <t>proctorautomation04764@gmail.com</t>
+  </si>
+  <si>
+    <t>04764</t>
+  </si>
+  <si>
+    <t>Proctor84486</t>
+  </si>
+  <si>
+    <t>Automation84486</t>
+  </si>
+  <si>
+    <t>proctorautomation84486@gmail.com</t>
+  </si>
+  <si>
+    <t>84486</t>
+  </si>
+  <si>
+    <t>Proctor21080</t>
+  </si>
+  <si>
+    <t>Automation21080</t>
+  </si>
+  <si>
+    <t>proctorautomation21080@gmail.com</t>
+  </si>
+  <si>
+    <t>21080</t>
+  </si>
+  <si>
+    <t>Proctor35702</t>
+  </si>
+  <si>
+    <t>Automation35702</t>
+  </si>
+  <si>
+    <t>proctorautomation35702@gmail.com</t>
+  </si>
+  <si>
+    <t>35702</t>
+  </si>
+  <si>
+    <t>Proctor18086</t>
+  </si>
+  <si>
+    <t>Automation18086</t>
+  </si>
+  <si>
+    <t>proctorautomation18086@gmail.com</t>
+  </si>
+  <si>
+    <t>18086</t>
+  </si>
+  <si>
+    <t>Proctor00940</t>
+  </si>
+  <si>
+    <t>Automation00940</t>
+  </si>
+  <si>
+    <t>proctorautomation00940@gmail.com</t>
+  </si>
+  <si>
+    <t>00940</t>
+  </si>
+  <si>
+    <t>Proctor24378</t>
+  </si>
+  <si>
+    <t>Automation24378</t>
+  </si>
+  <si>
+    <t>proctorautomation24378@gmail.com</t>
+  </si>
+  <si>
+    <t>24378</t>
+  </si>
+  <si>
+    <t>Proctor20679</t>
+  </si>
+  <si>
+    <t>Automation20679</t>
+  </si>
+  <si>
+    <t>proctorautomation20679@gmail.com</t>
+  </si>
+  <si>
+    <t>20679</t>
+  </si>
+  <si>
+    <t>Proctor23947</t>
+  </si>
+  <si>
+    <t>Automation23947</t>
+  </si>
+  <si>
+    <t>proctorautomation23947@gmail.com</t>
+  </si>
+  <si>
+    <t>23947</t>
+  </si>
+  <si>
+    <t>Proctor97579</t>
+  </si>
+  <si>
+    <t>Automation97579</t>
+  </si>
+  <si>
+    <t>proctorautomation97579@gmail.com</t>
+  </si>
+  <si>
+    <t>97579</t>
+  </si>
+  <si>
+    <t>Proctor87125</t>
+  </si>
+  <si>
+    <t>Automation87125</t>
+  </si>
+  <si>
+    <t>proctorautomation87125@gmail.com</t>
+  </si>
+  <si>
+    <t>87125</t>
+  </si>
+  <si>
+    <t>Proctor03211</t>
+  </si>
+  <si>
+    <t>Automation03211</t>
+  </si>
+  <si>
+    <t>proctorautomation03211@gmail.com</t>
+  </si>
+  <si>
+    <t>03211</t>
+  </si>
+  <si>
+    <t>Proctor67238</t>
+  </si>
+  <si>
+    <t>Automation67238</t>
+  </si>
+  <si>
+    <t>proctorautomation67238@gmail.com</t>
+  </si>
+  <si>
+    <t>67238</t>
+  </si>
+  <si>
+    <t>Proctor69534</t>
+  </si>
+  <si>
+    <t>Automation69534</t>
+  </si>
+  <si>
+    <t>proctorautomation69534@gmail.com</t>
+  </si>
+  <si>
+    <t>69534</t>
+  </si>
+  <si>
+    <t>Proctor14779</t>
+  </si>
+  <si>
+    <t>Automation14779</t>
+  </si>
+  <si>
+    <t>proctorautomation14779@gmail.com</t>
+  </si>
+  <si>
+    <t>14779</t>
+  </si>
+  <si>
+    <t>Proctor01537</t>
+  </si>
+  <si>
+    <t>Automation01537</t>
+  </si>
+  <si>
+    <t>proctorautomation01537@gmail.com</t>
+  </si>
+  <si>
+    <t>01537</t>
+  </si>
+  <si>
+    <t>Proctor84832</t>
+  </si>
+  <si>
+    <t>Automation84832</t>
+  </si>
+  <si>
+    <t>proctorautomation84832@gmail.com</t>
+  </si>
+  <si>
+    <t>84832</t>
+  </si>
+  <si>
+    <t>Proctor71624</t>
+  </si>
+  <si>
+    <t>Automation71624</t>
+  </si>
+  <si>
+    <t>proctorautomation71624@gmail.com</t>
+  </si>
+  <si>
+    <t>71624</t>
+  </si>
+  <si>
+    <t>Proctor24357</t>
+  </si>
+  <si>
+    <t>Automation24357</t>
+  </si>
+  <si>
+    <t>proctorautomation24357@gmail.com</t>
+  </si>
+  <si>
+    <t>24357</t>
+  </si>
+  <si>
+    <t>Proctor88456</t>
+  </si>
+  <si>
+    <t>Automation88456</t>
+  </si>
+  <si>
+    <t>proctorautomation88456@gmail.com</t>
+  </si>
+  <si>
+    <t>88456</t>
+  </si>
+  <si>
+    <t>Proctor86260</t>
+  </si>
+  <si>
+    <t>Automation86260</t>
+  </si>
+  <si>
+    <t>proctorautomation86260@gmail.com</t>
+  </si>
+  <si>
+    <t>86260</t>
+  </si>
+  <si>
+    <t>Proctor24857</t>
+  </si>
+  <si>
+    <t>Automation24857</t>
+  </si>
+  <si>
+    <t>proctorautomation24857@gmail.com</t>
+  </si>
+  <si>
+    <t>24857</t>
+  </si>
+  <si>
+    <t>Proctor49356</t>
+  </si>
+  <si>
+    <t>Automation49356</t>
+  </si>
+  <si>
+    <t>proctorautomation49356@gmail.com</t>
+  </si>
+  <si>
+    <t>49356</t>
+  </si>
+  <si>
+    <t>Proctor61407</t>
+  </si>
+  <si>
+    <t>Automation61407</t>
+  </si>
+  <si>
+    <t>proctorautomation61407@gmail.com</t>
+  </si>
+  <si>
+    <t>61407</t>
+  </si>
+  <si>
+    <t>Proctor29183</t>
+  </si>
+  <si>
+    <t>Automation29183</t>
+  </si>
+  <si>
+    <t>proctorautomation29183@gmail.com</t>
+  </si>
+  <si>
+    <t>29183</t>
+  </si>
+  <si>
+    <t>Proctor08545</t>
+  </si>
+  <si>
+    <t>Automation08545</t>
+  </si>
+  <si>
+    <t>proctorautomation08545@gmail.com</t>
+  </si>
+  <si>
+    <t>08545</t>
+  </si>
+  <si>
+    <t>Proctor09050</t>
+  </si>
+  <si>
+    <t>Automation09050</t>
+  </si>
+  <si>
+    <t>proctorautomation09050@gmail.com</t>
+  </si>
+  <si>
+    <t>09050</t>
+  </si>
+  <si>
+    <t>Proctor48530</t>
+  </si>
+  <si>
+    <t>Automation48530</t>
+  </si>
+  <si>
+    <t>proctorautomation48530@gmail.com</t>
+  </si>
+  <si>
+    <t>48530</t>
+  </si>
+  <si>
+    <t>Proctor12147</t>
+  </si>
+  <si>
+    <t>Automation12147</t>
+  </si>
+  <si>
+    <t>proctorautomation12147@gmail.com</t>
+  </si>
+  <si>
+    <t>12147</t>
+  </si>
+  <si>
+    <t>Proctor76061</t>
+  </si>
+  <si>
+    <t>Automation76061</t>
+  </si>
+  <si>
+    <t>proctorautomation76061@gmail.com</t>
+  </si>
+  <si>
+    <t>76061</t>
+  </si>
+  <si>
+    <t>Proctor61303</t>
+  </si>
+  <si>
+    <t>Automation61303</t>
+  </si>
+  <si>
+    <t>proctorautomation61303@gmail.com</t>
+  </si>
+  <si>
+    <t>61303</t>
+  </si>
+  <si>
+    <t>Proctor42234</t>
+  </si>
+  <si>
+    <t>Automation42234</t>
+  </si>
+  <si>
+    <t>proctorautomation42234@gmail.com</t>
+  </si>
+  <si>
+    <t>42234</t>
+  </si>
+  <si>
+    <t>Proctor76124</t>
+  </si>
+  <si>
+    <t>Automation76124</t>
+  </si>
+  <si>
+    <t>proctorautomation76124@gmail.com</t>
+  </si>
+  <si>
+    <t>76124</t>
+  </si>
+  <si>
+    <t>Proctor41362</t>
+  </si>
+  <si>
+    <t>Automation41362</t>
+  </si>
+  <si>
+    <t>proctorautomation41362@gmail.com</t>
+  </si>
+  <si>
+    <t>41362</t>
+  </si>
+  <si>
+    <t>Proctor49666</t>
+  </si>
+  <si>
+    <t>Automation49666</t>
+  </si>
+  <si>
+    <t>proctorautomation49666@gmail.com</t>
+  </si>
+  <si>
+    <t>49666</t>
+  </si>
+  <si>
+    <t>Proctor93203</t>
+  </si>
+  <si>
+    <t>Automation93203</t>
+  </si>
+  <si>
+    <t>proctorautomation93203@gmail.com</t>
+  </si>
+  <si>
+    <t>93203</t>
+  </si>
+  <si>
+    <t>Proctor92986</t>
+  </si>
+  <si>
+    <t>Automation92986</t>
+  </si>
+  <si>
+    <t>proctorautomation92986@gmail.com</t>
+  </si>
+  <si>
+    <t>92986</t>
+  </si>
+  <si>
+    <t>Proctor85570</t>
+  </si>
+  <si>
+    <t>Automation85570</t>
+  </si>
+  <si>
+    <t>proctorautomation85570@gmail.com</t>
+  </si>
+  <si>
+    <t>85570</t>
+  </si>
+  <si>
+    <t>Proctor68539</t>
+  </si>
+  <si>
+    <t>Automation68539</t>
+  </si>
+  <si>
+    <t>proctorautomation68539@gmail.com</t>
+  </si>
+  <si>
+    <t>68539</t>
+  </si>
+  <si>
+    <t>Proctor26461</t>
+  </si>
+  <si>
+    <t>Automation26461</t>
+  </si>
+  <si>
+    <t>proctorautomation26461@gmail.com</t>
+  </si>
+  <si>
+    <t>26461</t>
+  </si>
+  <si>
+    <t>Proctor92378</t>
+  </si>
+  <si>
+    <t>Automation92378</t>
+  </si>
+  <si>
+    <t>proctorautomation92378@gmail.com</t>
+  </si>
+  <si>
+    <t>92378</t>
+  </si>
+  <si>
+    <t>Proctor58666</t>
+  </si>
+  <si>
+    <t>Automation58666</t>
+  </si>
+  <si>
+    <t>proctorautomation58666@gmail.com</t>
+  </si>
+  <si>
+    <t>58666</t>
+  </si>
+  <si>
+    <t>Proctor97668</t>
+  </si>
+  <si>
+    <t>Automation97668</t>
+  </si>
+  <si>
+    <t>proctorautomation97668@gmail.com</t>
+  </si>
+  <si>
+    <t>97668</t>
+  </si>
+  <si>
+    <t>Proctor78926</t>
+  </si>
+  <si>
+    <t>Automation78926</t>
+  </si>
+  <si>
+    <t>proctorautomation78926@gmail.com</t>
+  </si>
+  <si>
+    <t>78926</t>
+  </si>
+  <si>
+    <t>Proctor57795</t>
+  </si>
+  <si>
+    <t>Automation57795</t>
+  </si>
+  <si>
+    <t>proctorautomation57795@gmail.com</t>
+  </si>
+  <si>
+    <t>57795</t>
+  </si>
+  <si>
+    <t>Proctor29105</t>
+  </si>
+  <si>
+    <t>Automation29105</t>
+  </si>
+  <si>
+    <t>proctorautomation29105@gmail.com</t>
+  </si>
+  <si>
+    <t>29105</t>
+  </si>
+  <si>
+    <t>Proctor55556</t>
+  </si>
+  <si>
+    <t>Automation55556</t>
+  </si>
+  <si>
+    <t>proctorautomation55556@gmail.com</t>
+  </si>
+  <si>
+    <t>55556</t>
+  </si>
+  <si>
+    <t>Proctor89166</t>
+  </si>
+  <si>
+    <t>Automation89166</t>
+  </si>
+  <si>
+    <t>proctorautomation89166@gmail.com</t>
+  </si>
+  <si>
+    <t>89166</t>
+  </si>
+  <si>
+    <t>Proctor24044</t>
+  </si>
+  <si>
+    <t>Automation24044</t>
+  </si>
+  <si>
+    <t>proctorautomation24044@gmail.com</t>
+  </si>
+  <si>
+    <t>24044</t>
+  </si>
+  <si>
+    <t>Proctor70934</t>
+  </si>
+  <si>
+    <t>Automation70934</t>
+  </si>
+  <si>
+    <t>proctorautomation70934@gmail.com</t>
+  </si>
+  <si>
+    <t>70934</t>
+  </si>
+  <si>
+    <t>Proctor49446</t>
+  </si>
+  <si>
+    <t>Automation49446</t>
+  </si>
+  <si>
+    <t>proctorautomation49446@gmail.com</t>
+  </si>
+  <si>
+    <t>49446</t>
+  </si>
+  <si>
+    <t>Proctor77145</t>
+  </si>
+  <si>
+    <t>Automation77145</t>
+  </si>
+  <si>
+    <t>proctorautomation77145@gmail.com</t>
+  </si>
+  <si>
+    <t>77145</t>
+  </si>
+  <si>
+    <t>Proctor46059</t>
+  </si>
+  <si>
+    <t>Automation46059</t>
+  </si>
+  <si>
+    <t>proctorautomation46059@gmail.com</t>
+  </si>
+  <si>
+    <t>46059</t>
+  </si>
+  <si>
+    <t>Proctor90080</t>
+  </si>
+  <si>
+    <t>Automation90080</t>
+  </si>
+  <si>
+    <t>proctorautomation90080@gmail.com</t>
+  </si>
+  <si>
+    <t>90080</t>
+  </si>
+  <si>
+    <t>Proctor92658</t>
+  </si>
+  <si>
+    <t>Automation92658</t>
+  </si>
+  <si>
+    <t>proctorautomation92658@gmail.com</t>
+  </si>
+  <si>
+    <t>92658</t>
+  </si>
+  <si>
+    <t>Proctor83152</t>
+  </si>
+  <si>
+    <t>Automation83152</t>
+  </si>
+  <si>
+    <t>proctorautomation83152@gmail.com</t>
+  </si>
+  <si>
+    <t>83152</t>
+  </si>
+  <si>
+    <t>Proctor91397</t>
+  </si>
+  <si>
+    <t>Automation91397</t>
+  </si>
+  <si>
+    <t>proctorautomation91397@gmail.com</t>
+  </si>
+  <si>
+    <t>91397</t>
+  </si>
+  <si>
+    <t>Proctor89430</t>
+  </si>
+  <si>
+    <t>Automation89430</t>
+  </si>
+  <si>
+    <t>proctorautomation89430@gmail.com</t>
+  </si>
+  <si>
+    <t>89430</t>
+  </si>
+  <si>
+    <t>Proctor69540</t>
+  </si>
+  <si>
+    <t>Automation69540</t>
+  </si>
+  <si>
+    <t>proctorautomation69540@gmail.com</t>
+  </si>
+  <si>
+    <t>69540</t>
+  </si>
+  <si>
+    <t>Proctor70388</t>
+  </si>
+  <si>
+    <t>Automation70388</t>
+  </si>
+  <si>
+    <t>proctorautomation70388@gmail.com</t>
+  </si>
+  <si>
+    <t>70388</t>
+  </si>
+  <si>
+    <t>Proctor68071</t>
+  </si>
+  <si>
+    <t>Automation68071</t>
+  </si>
+  <si>
+    <t>proctorautomation68071@gmail.com</t>
+  </si>
+  <si>
+    <t>68071</t>
+  </si>
+  <si>
+    <t>Proctor19442</t>
+  </si>
+  <si>
+    <t>Automation19442</t>
+  </si>
+  <si>
+    <t>proctorautomation19442@gmail.com</t>
+  </si>
+  <si>
+    <t>19442</t>
+  </si>
+  <si>
+    <t>Proctor74463</t>
+  </si>
+  <si>
+    <t>Automation74463</t>
+  </si>
+  <si>
+    <t>proctorautomation74463@gmail.com</t>
+  </si>
+  <si>
+    <t>74463</t>
+  </si>
+  <si>
+    <t>Proctor55298</t>
+  </si>
+  <si>
+    <t>Automation55298</t>
+  </si>
+  <si>
+    <t>proctorautomation55298@gmail.com</t>
+  </si>
+  <si>
+    <t>55298</t>
+  </si>
+  <si>
+    <t>Proctor86171</t>
+  </si>
+  <si>
+    <t>Automation86171</t>
+  </si>
+  <si>
+    <t>proctorautomation86171@gmail.com</t>
+  </si>
+  <si>
+    <t>86171</t>
+  </si>
+  <si>
+    <t>Proctor25681</t>
+  </si>
+  <si>
+    <t>Automation25681</t>
+  </si>
+  <si>
+    <t>proctorautomation25681@gmail.com</t>
+  </si>
+  <si>
+    <t>25681</t>
+  </si>
+  <si>
+    <t>Proctor18044</t>
+  </si>
+  <si>
+    <t>Automation18044</t>
+  </si>
+  <si>
+    <t>proctorautomation18044@gmail.com</t>
+  </si>
+  <si>
+    <t>18044</t>
   </si>
 </sst>
 </file>
@@ -5125,422 +6205,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1448</v>
+        <v>1808</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1449</v>
+        <v>1809</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1450</v>
+        <v>1810</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1451</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1452</v>
+        <v>1812</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1453</v>
+        <v>1813</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1454</v>
+        <v>1814</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1455</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1456</v>
+        <v>1816</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1457</v>
+        <v>1817</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1458</v>
+        <v>1818</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1459</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1460</v>
+        <v>1820</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>1461</v>
+        <v>1821</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>1462</v>
+        <v>1822</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>1463</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1464</v>
+        <v>1824</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1465</v>
+        <v>1825</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>1466</v>
+        <v>1826</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>1467</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1468</v>
+        <v>1828</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>1469</v>
+        <v>1829</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>1470</v>
+        <v>1830</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>1471</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1472</v>
+        <v>1832</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>1473</v>
+        <v>1833</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>1474</v>
+        <v>1834</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>1475</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1476</v>
+        <v>1836</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1477</v>
+        <v>1837</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>1478</v>
+        <v>1838</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>1479</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1480</v>
+        <v>1840</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>1481</v>
+        <v>1841</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>1482</v>
+        <v>1842</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>1483</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1484</v>
+        <v>1844</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>1485</v>
+        <v>1845</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>1486</v>
+        <v>1846</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>1487</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1488</v>
+        <v>1848</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>1489</v>
+        <v>1849</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>1490</v>
+        <v>1850</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>1491</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1492</v>
+        <v>1852</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>1493</v>
+        <v>1853</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>1494</v>
+        <v>1854</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>1495</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1496</v>
+        <v>1856</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>1497</v>
+        <v>1857</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>1498</v>
+        <v>1858</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>1499</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1500</v>
+        <v>1860</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1501</v>
+        <v>1861</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>1502</v>
+        <v>1862</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>1503</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1504</v>
+        <v>1864</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1505</v>
+        <v>1865</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>1506</v>
+        <v>1866</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>1507</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1508</v>
+        <v>1868</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>1509</v>
+        <v>1869</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>1510</v>
+        <v>1870</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>1511</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1512</v>
+        <v>1872</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>1513</v>
+        <v>1873</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>1514</v>
+        <v>1874</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>1515</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1516</v>
+        <v>1876</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1517</v>
+        <v>1877</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1518</v>
+        <v>1878</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>1519</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1520</v>
+        <v>1880</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1521</v>
+        <v>1881</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>1522</v>
+        <v>1882</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>1523</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1524</v>
+        <v>1884</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>1525</v>
+        <v>1885</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>1526</v>
+        <v>1886</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>1527</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1528</v>
+        <v>1888</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>1529</v>
+        <v>1889</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>1530</v>
+        <v>1890</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>1531</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1532</v>
+        <v>1892</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>1533</v>
+        <v>1893</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>1534</v>
+        <v>1894</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>1535</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1536</v>
+        <v>1896</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>1537</v>
+        <v>1897</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>1538</v>
+        <v>1898</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>1539</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>1540</v>
+        <v>1900</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>1541</v>
+        <v>1901</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>1542</v>
+        <v>1902</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>1543</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>1544</v>
+        <v>1904</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>1545</v>
+        <v>1905</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>1546</v>
+        <v>1906</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>1547</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>1548</v>
+        <v>1908</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>1549</v>
+        <v>1909</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>1550</v>
+        <v>1910</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>1551</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>1552</v>
+        <v>1912</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>1553</v>
+        <v>1913</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>1554</v>
+        <v>1914</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>1555</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>1556</v>
+        <v>1916</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>1557</v>
+        <v>1917</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>1558</v>
+        <v>1918</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>1559</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>1560</v>
+        <v>1920</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>1561</v>
+        <v>1921</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>1562</v>
+        <v>1922</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>1563</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>1564</v>
+        <v>1924</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>1565</v>
+        <v>1925</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>1566</v>
+        <v>1926</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>1567</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="2044">
   <si>
     <t>FirstName</t>
   </si>
@@ -5798,6 +5798,354 @@
   </si>
   <si>
     <t>18044</t>
+  </si>
+  <si>
+    <t>Proctor42514</t>
+  </si>
+  <si>
+    <t>Automation42514</t>
+  </si>
+  <si>
+    <t>proctorautomation42514@gmail.com</t>
+  </si>
+  <si>
+    <t>42514</t>
+  </si>
+  <si>
+    <t>Proctor02850</t>
+  </si>
+  <si>
+    <t>Automation02850</t>
+  </si>
+  <si>
+    <t>proctorautomation02850@gmail.com</t>
+  </si>
+  <si>
+    <t>02850</t>
+  </si>
+  <si>
+    <t>Proctor49024</t>
+  </si>
+  <si>
+    <t>Automation49024</t>
+  </si>
+  <si>
+    <t>proctorautomation49024@gmail.com</t>
+  </si>
+  <si>
+    <t>49024</t>
+  </si>
+  <si>
+    <t>Proctor59341</t>
+  </si>
+  <si>
+    <t>Automation59341</t>
+  </si>
+  <si>
+    <t>proctorautomation59341@gmail.com</t>
+  </si>
+  <si>
+    <t>59341</t>
+  </si>
+  <si>
+    <t>Proctor76320</t>
+  </si>
+  <si>
+    <t>Automation76320</t>
+  </si>
+  <si>
+    <t>proctorautomation76320@gmail.com</t>
+  </si>
+  <si>
+    <t>76320</t>
+  </si>
+  <si>
+    <t>Proctor18794</t>
+  </si>
+  <si>
+    <t>Automation18794</t>
+  </si>
+  <si>
+    <t>proctorautomation18794@gmail.com</t>
+  </si>
+  <si>
+    <t>18794</t>
+  </si>
+  <si>
+    <t>Proctor26951</t>
+  </si>
+  <si>
+    <t>Automation26951</t>
+  </si>
+  <si>
+    <t>proctorautomation26951@gmail.com</t>
+  </si>
+  <si>
+    <t>26951</t>
+  </si>
+  <si>
+    <t>Proctor20743</t>
+  </si>
+  <si>
+    <t>Automation20743</t>
+  </si>
+  <si>
+    <t>proctorautomation20743@gmail.com</t>
+  </si>
+  <si>
+    <t>20743</t>
+  </si>
+  <si>
+    <t>Proctor83676</t>
+  </si>
+  <si>
+    <t>Automation83676</t>
+  </si>
+  <si>
+    <t>proctorautomation83676@gmail.com</t>
+  </si>
+  <si>
+    <t>83676</t>
+  </si>
+  <si>
+    <t>Proctor74603</t>
+  </si>
+  <si>
+    <t>Automation74603</t>
+  </si>
+  <si>
+    <t>proctorautomation74603@gmail.com</t>
+  </si>
+  <si>
+    <t>74603</t>
+  </si>
+  <si>
+    <t>Proctor33911</t>
+  </si>
+  <si>
+    <t>Automation33911</t>
+  </si>
+  <si>
+    <t>proctorautomation33911@gmail.com</t>
+  </si>
+  <si>
+    <t>33911</t>
+  </si>
+  <si>
+    <t>Proctor84649</t>
+  </si>
+  <si>
+    <t>Automation84649</t>
+  </si>
+  <si>
+    <t>proctorautomation84649@gmail.com</t>
+  </si>
+  <si>
+    <t>84649</t>
+  </si>
+  <si>
+    <t>Proctor13411</t>
+  </si>
+  <si>
+    <t>Automation13411</t>
+  </si>
+  <si>
+    <t>proctorautomation13411@gmail.com</t>
+  </si>
+  <si>
+    <t>13411</t>
+  </si>
+  <si>
+    <t>Proctor35508</t>
+  </si>
+  <si>
+    <t>Automation35508</t>
+  </si>
+  <si>
+    <t>proctorautomation35508@gmail.com</t>
+  </si>
+  <si>
+    <t>35508</t>
+  </si>
+  <si>
+    <t>Proctor15471</t>
+  </si>
+  <si>
+    <t>Automation15471</t>
+  </si>
+  <si>
+    <t>proctorautomation15471@gmail.com</t>
+  </si>
+  <si>
+    <t>15471</t>
+  </si>
+  <si>
+    <t>Proctor60460</t>
+  </si>
+  <si>
+    <t>Automation60460</t>
+  </si>
+  <si>
+    <t>proctorautomation60460@gmail.com</t>
+  </si>
+  <si>
+    <t>60460</t>
+  </si>
+  <si>
+    <t>Proctor83378</t>
+  </si>
+  <si>
+    <t>Automation83378</t>
+  </si>
+  <si>
+    <t>proctorautomation83378@gmail.com</t>
+  </si>
+  <si>
+    <t>83378</t>
+  </si>
+  <si>
+    <t>Proctor65313</t>
+  </si>
+  <si>
+    <t>Automation65313</t>
+  </si>
+  <si>
+    <t>proctorautomation65313@gmail.com</t>
+  </si>
+  <si>
+    <t>65313</t>
+  </si>
+  <si>
+    <t>Proctor99397</t>
+  </si>
+  <si>
+    <t>Automation99397</t>
+  </si>
+  <si>
+    <t>proctorautomation99397@gmail.com</t>
+  </si>
+  <si>
+    <t>99397</t>
+  </si>
+  <si>
+    <t>Proctor96618</t>
+  </si>
+  <si>
+    <t>Automation96618</t>
+  </si>
+  <si>
+    <t>proctorautomation96618@gmail.com</t>
+  </si>
+  <si>
+    <t>96618</t>
+  </si>
+  <si>
+    <t>Proctor73272</t>
+  </si>
+  <si>
+    <t>Automation73272</t>
+  </si>
+  <si>
+    <t>proctorautomation73272@gmail.com</t>
+  </si>
+  <si>
+    <t>73272</t>
+  </si>
+  <si>
+    <t>Proctor06496</t>
+  </si>
+  <si>
+    <t>Automation06496</t>
+  </si>
+  <si>
+    <t>proctorautomation06496@gmail.com</t>
+  </si>
+  <si>
+    <t>06496</t>
+  </si>
+  <si>
+    <t>Proctor63706</t>
+  </si>
+  <si>
+    <t>Automation63706</t>
+  </si>
+  <si>
+    <t>proctorautomation63706@gmail.com</t>
+  </si>
+  <si>
+    <t>63706</t>
+  </si>
+  <si>
+    <t>Proctor55272</t>
+  </si>
+  <si>
+    <t>Automation55272</t>
+  </si>
+  <si>
+    <t>proctorautomation55272@gmail.com</t>
+  </si>
+  <si>
+    <t>55272</t>
+  </si>
+  <si>
+    <t>Proctor30201</t>
+  </si>
+  <si>
+    <t>Automation30201</t>
+  </si>
+  <si>
+    <t>proctorautomation30201@gmail.com</t>
+  </si>
+  <si>
+    <t>30201</t>
+  </si>
+  <si>
+    <t>Proctor15554</t>
+  </si>
+  <si>
+    <t>Automation15554</t>
+  </si>
+  <si>
+    <t>proctorautomation15554@gmail.com</t>
+  </si>
+  <si>
+    <t>15554</t>
+  </si>
+  <si>
+    <t>Proctor99833</t>
+  </si>
+  <si>
+    <t>Automation99833</t>
+  </si>
+  <si>
+    <t>proctorautomation99833@gmail.com</t>
+  </si>
+  <si>
+    <t>99833</t>
+  </si>
+  <si>
+    <t>Proctor58524</t>
+  </si>
+  <si>
+    <t>Automation58524</t>
+  </si>
+  <si>
+    <t>proctorautomation58524@gmail.com</t>
+  </si>
+  <si>
+    <t>58524</t>
+  </si>
+  <si>
+    <t>Proctor01048</t>
+  </si>
+  <si>
+    <t>Automation01048</t>
+  </si>
+  <si>
+    <t>proctorautomation01048@gmail.com</t>
+  </si>
+  <si>
+    <t>01048</t>
   </si>
 </sst>
 </file>
@@ -6205,422 +6553,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1808</v>
+        <v>1928</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1809</v>
+        <v>1929</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1810</v>
+        <v>1930</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1811</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1812</v>
+        <v>1932</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1813</v>
+        <v>1933</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1814</v>
+        <v>1934</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1815</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1816</v>
+        <v>1936</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1817</v>
+        <v>1937</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1818</v>
+        <v>1938</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1819</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1820</v>
+        <v>1940</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>1821</v>
+        <v>1941</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>1822</v>
+        <v>1942</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>1823</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1824</v>
+        <v>1944</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1825</v>
+        <v>1945</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>1826</v>
+        <v>1946</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>1827</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1828</v>
+        <v>1948</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>1829</v>
+        <v>1949</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>1830</v>
+        <v>1950</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>1831</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1832</v>
+        <v>1952</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>1833</v>
+        <v>1953</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>1834</v>
+        <v>1954</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>1835</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1836</v>
+        <v>1956</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1837</v>
+        <v>1957</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>1838</v>
+        <v>1958</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>1839</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1840</v>
+        <v>1960</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>1841</v>
+        <v>1961</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>1842</v>
+        <v>1962</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>1843</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1844</v>
+        <v>1964</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>1845</v>
+        <v>1965</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>1846</v>
+        <v>1966</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>1847</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1848</v>
+        <v>1968</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>1849</v>
+        <v>1969</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>1850</v>
+        <v>1970</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>1851</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1852</v>
+        <v>1972</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>1853</v>
+        <v>1973</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>1854</v>
+        <v>1974</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>1855</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>1856</v>
+        <v>473</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>1857</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>1858</v>
+        <v>475</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>1859</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1860</v>
+        <v>1976</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1861</v>
+        <v>1977</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>1862</v>
+        <v>1978</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>1863</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1864</v>
+        <v>1980</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1865</v>
+        <v>1981</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>1866</v>
+        <v>1982</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>1867</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1868</v>
+        <v>1984</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>1869</v>
+        <v>1985</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>1870</v>
+        <v>1986</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>1871</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1872</v>
+        <v>1988</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>1873</v>
+        <v>1989</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>1874</v>
+        <v>1990</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>1875</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1876</v>
+        <v>1992</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1877</v>
+        <v>1993</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1878</v>
+        <v>1994</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>1879</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1880</v>
+        <v>1996</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1881</v>
+        <v>1997</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>1882</v>
+        <v>1998</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>1883</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>1884</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>1885</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>1886</v>
+        <v>2002</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>1887</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>1888</v>
+        <v>2004</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>1889</v>
+        <v>2005</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>1890</v>
+        <v>2006</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>1891</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>1892</v>
+        <v>2008</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>1893</v>
+        <v>2009</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>1894</v>
+        <v>2010</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>1895</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>1896</v>
+        <v>2012</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>1897</v>
+        <v>2013</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>1898</v>
+        <v>2014</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>1899</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>1900</v>
+        <v>2016</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>1901</v>
+        <v>2017</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>1902</v>
+        <v>2018</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>1903</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>1904</v>
+        <v>2020</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>1905</v>
+        <v>2021</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>1906</v>
+        <v>2022</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>1907</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>1908</v>
+        <v>2024</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>1909</v>
+        <v>2025</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>1910</v>
+        <v>2026</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>1911</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>1912</v>
+        <v>2028</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>1913</v>
+        <v>2029</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>1914</v>
+        <v>2030</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>1915</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>1916</v>
+        <v>2032</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>1917</v>
+        <v>2033</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>1918</v>
+        <v>2034</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>1919</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>1920</v>
+        <v>2036</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>1921</v>
+        <v>2037</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>1922</v>
+        <v>2038</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>1923</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>1924</v>
+        <v>2040</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>1925</v>
+        <v>2041</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>1926</v>
+        <v>2042</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>1927</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="2044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="2164">
   <si>
     <t>FirstName</t>
   </si>
@@ -6146,6 +6146,366 @@
   </si>
   <si>
     <t>01048</t>
+  </si>
+  <si>
+    <t>Proctor79464</t>
+  </si>
+  <si>
+    <t>Automation79464</t>
+  </si>
+  <si>
+    <t>proctorautomation79464@gmail.com</t>
+  </si>
+  <si>
+    <t>79464</t>
+  </si>
+  <si>
+    <t>Proctor16581</t>
+  </si>
+  <si>
+    <t>Automation16581</t>
+  </si>
+  <si>
+    <t>proctorautomation16581@gmail.com</t>
+  </si>
+  <si>
+    <t>16581</t>
+  </si>
+  <si>
+    <t>Proctor98143</t>
+  </si>
+  <si>
+    <t>Automation98143</t>
+  </si>
+  <si>
+    <t>proctorautomation98143@gmail.com</t>
+  </si>
+  <si>
+    <t>98143</t>
+  </si>
+  <si>
+    <t>Proctor60597</t>
+  </si>
+  <si>
+    <t>Automation60597</t>
+  </si>
+  <si>
+    <t>proctorautomation60597@gmail.com</t>
+  </si>
+  <si>
+    <t>60597</t>
+  </si>
+  <si>
+    <t>Proctor51881</t>
+  </si>
+  <si>
+    <t>Automation51881</t>
+  </si>
+  <si>
+    <t>proctorautomation51881@gmail.com</t>
+  </si>
+  <si>
+    <t>51881</t>
+  </si>
+  <si>
+    <t>Proctor13771</t>
+  </si>
+  <si>
+    <t>Automation13771</t>
+  </si>
+  <si>
+    <t>proctorautomation13771@gmail.com</t>
+  </si>
+  <si>
+    <t>13771</t>
+  </si>
+  <si>
+    <t>Proctor68207</t>
+  </si>
+  <si>
+    <t>Automation68207</t>
+  </si>
+  <si>
+    <t>proctorautomation68207@gmail.com</t>
+  </si>
+  <si>
+    <t>68207</t>
+  </si>
+  <si>
+    <t>Proctor08163</t>
+  </si>
+  <si>
+    <t>Automation08163</t>
+  </si>
+  <si>
+    <t>proctorautomation08163@gmail.com</t>
+  </si>
+  <si>
+    <t>08163</t>
+  </si>
+  <si>
+    <t>Proctor17291</t>
+  </si>
+  <si>
+    <t>Automation17291</t>
+  </si>
+  <si>
+    <t>proctorautomation17291@gmail.com</t>
+  </si>
+  <si>
+    <t>17291</t>
+  </si>
+  <si>
+    <t>Proctor65364</t>
+  </si>
+  <si>
+    <t>Automation65364</t>
+  </si>
+  <si>
+    <t>proctorautomation65364@gmail.com</t>
+  </si>
+  <si>
+    <t>65364</t>
+  </si>
+  <si>
+    <t>Proctor91100</t>
+  </si>
+  <si>
+    <t>Automation91100</t>
+  </si>
+  <si>
+    <t>proctorautomation91100@gmail.com</t>
+  </si>
+  <si>
+    <t>91100</t>
+  </si>
+  <si>
+    <t>Proctor50520</t>
+  </si>
+  <si>
+    <t>Automation50520</t>
+  </si>
+  <si>
+    <t>proctorautomation50520@gmail.com</t>
+  </si>
+  <si>
+    <t>50520</t>
+  </si>
+  <si>
+    <t>Proctor40704</t>
+  </si>
+  <si>
+    <t>Automation40704</t>
+  </si>
+  <si>
+    <t>proctorautomation40704@gmail.com</t>
+  </si>
+  <si>
+    <t>40704</t>
+  </si>
+  <si>
+    <t>Proctor87750</t>
+  </si>
+  <si>
+    <t>Automation87750</t>
+  </si>
+  <si>
+    <t>proctorautomation87750@gmail.com</t>
+  </si>
+  <si>
+    <t>87750</t>
+  </si>
+  <si>
+    <t>Proctor19471</t>
+  </si>
+  <si>
+    <t>Automation19471</t>
+  </si>
+  <si>
+    <t>proctorautomation19471@gmail.com</t>
+  </si>
+  <si>
+    <t>19471</t>
+  </si>
+  <si>
+    <t>Proctor73243</t>
+  </si>
+  <si>
+    <t>Automation73243</t>
+  </si>
+  <si>
+    <t>proctorautomation73243@gmail.com</t>
+  </si>
+  <si>
+    <t>73243</t>
+  </si>
+  <si>
+    <t>Proctor12965</t>
+  </si>
+  <si>
+    <t>Automation12965</t>
+  </si>
+  <si>
+    <t>proctorautomation12965@gmail.com</t>
+  </si>
+  <si>
+    <t>12965</t>
+  </si>
+  <si>
+    <t>Proctor28342</t>
+  </si>
+  <si>
+    <t>Automation28342</t>
+  </si>
+  <si>
+    <t>proctorautomation28342@gmail.com</t>
+  </si>
+  <si>
+    <t>28342</t>
+  </si>
+  <si>
+    <t>Proctor15270</t>
+  </si>
+  <si>
+    <t>Automation15270</t>
+  </si>
+  <si>
+    <t>proctorautomation15270@gmail.com</t>
+  </si>
+  <si>
+    <t>15270</t>
+  </si>
+  <si>
+    <t>Proctor75861</t>
+  </si>
+  <si>
+    <t>Automation75861</t>
+  </si>
+  <si>
+    <t>proctorautomation75861@gmail.com</t>
+  </si>
+  <si>
+    <t>75861</t>
+  </si>
+  <si>
+    <t>Proctor76521</t>
+  </si>
+  <si>
+    <t>Automation76521</t>
+  </si>
+  <si>
+    <t>proctorautomation76521@gmail.com</t>
+  </si>
+  <si>
+    <t>76521</t>
+  </si>
+  <si>
+    <t>Proctor70313</t>
+  </si>
+  <si>
+    <t>Automation70313</t>
+  </si>
+  <si>
+    <t>proctorautomation70313@gmail.com</t>
+  </si>
+  <si>
+    <t>70313</t>
+  </si>
+  <si>
+    <t>Proctor55980</t>
+  </si>
+  <si>
+    <t>Automation55980</t>
+  </si>
+  <si>
+    <t>proctorautomation55980@gmail.com</t>
+  </si>
+  <si>
+    <t>55980</t>
+  </si>
+  <si>
+    <t>Proctor76778</t>
+  </si>
+  <si>
+    <t>Automation76778</t>
+  </si>
+  <si>
+    <t>proctorautomation76778@gmail.com</t>
+  </si>
+  <si>
+    <t>76778</t>
+  </si>
+  <si>
+    <t>Proctor91816</t>
+  </si>
+  <si>
+    <t>Automation91816</t>
+  </si>
+  <si>
+    <t>proctorautomation91816@gmail.com</t>
+  </si>
+  <si>
+    <t>91816</t>
+  </si>
+  <si>
+    <t>Proctor20184</t>
+  </si>
+  <si>
+    <t>Automation20184</t>
+  </si>
+  <si>
+    <t>proctorautomation20184@gmail.com</t>
+  </si>
+  <si>
+    <t>20184</t>
+  </si>
+  <si>
+    <t>Proctor80929</t>
+  </si>
+  <si>
+    <t>Automation80929</t>
+  </si>
+  <si>
+    <t>proctorautomation80929@gmail.com</t>
+  </si>
+  <si>
+    <t>80929</t>
+  </si>
+  <si>
+    <t>Proctor44541</t>
+  </si>
+  <si>
+    <t>Automation44541</t>
+  </si>
+  <si>
+    <t>proctorautomation44541@gmail.com</t>
+  </si>
+  <si>
+    <t>44541</t>
+  </si>
+  <si>
+    <t>Proctor85065</t>
+  </si>
+  <si>
+    <t>Automation85065</t>
+  </si>
+  <si>
+    <t>proctorautomation85065@gmail.com</t>
+  </si>
+  <si>
+    <t>85065</t>
+  </si>
+  <si>
+    <t>Proctor12056</t>
+  </si>
+  <si>
+    <t>Automation12056</t>
+  </si>
+  <si>
+    <t>proctorautomation12056@gmail.com</t>
+  </si>
+  <si>
+    <t>12056</t>
   </si>
 </sst>
 </file>
@@ -6553,422 +6913,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>1928</v>
+        <v>2044</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1929</v>
+        <v>2045</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1930</v>
+        <v>2046</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1931</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1932</v>
+        <v>2048</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1933</v>
+        <v>2049</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1934</v>
+        <v>2050</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1935</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>1936</v>
+        <v>2052</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1937</v>
+        <v>2053</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1938</v>
+        <v>2054</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1939</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>1940</v>
+        <v>2056</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>1941</v>
+        <v>2057</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>1942</v>
+        <v>2058</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>1943</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>1944</v>
+        <v>2060</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>1945</v>
+        <v>2061</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>1946</v>
+        <v>2062</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>1947</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>1948</v>
+        <v>2064</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>1949</v>
+        <v>2065</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>1950</v>
+        <v>2066</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>1951</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>1952</v>
+        <v>2068</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>1953</v>
+        <v>2069</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>1954</v>
+        <v>2070</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>1955</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>1956</v>
+        <v>2072</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>1957</v>
+        <v>2073</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>1958</v>
+        <v>2074</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>1959</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>1960</v>
+        <v>2076</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>1961</v>
+        <v>2077</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>1962</v>
+        <v>2078</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>1963</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>1964</v>
+        <v>2080</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>1965</v>
+        <v>2081</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>1966</v>
+        <v>2082</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>1967</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>1968</v>
+        <v>2084</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>1969</v>
+        <v>2085</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>1970</v>
+        <v>2086</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>1971</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>1972</v>
+        <v>2088</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>1973</v>
+        <v>2089</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>1974</v>
+        <v>2090</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>1975</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>473</v>
+        <v>2092</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>474</v>
+        <v>2093</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>475</v>
+        <v>2094</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>476</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>1976</v>
+        <v>2096</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>1977</v>
+        <v>2097</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>1978</v>
+        <v>2098</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>1979</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>1980</v>
+        <v>2100</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1981</v>
+        <v>2101</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>1982</v>
+        <v>2102</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>1983</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>1984</v>
+        <v>2104</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>1985</v>
+        <v>2105</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>1986</v>
+        <v>2106</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>1987</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>1988</v>
+        <v>2108</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>1989</v>
+        <v>2109</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>1990</v>
+        <v>2110</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>1991</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1992</v>
+        <v>2112</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1993</v>
+        <v>2113</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1994</v>
+        <v>2114</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>1995</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>1996</v>
+        <v>2116</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1997</v>
+        <v>2117</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>1998</v>
+        <v>2118</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>1999</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>2000</v>
+        <v>2120</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>2001</v>
+        <v>2121</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>2002</v>
+        <v>2122</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>2003</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>2004</v>
+        <v>2124</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>2005</v>
+        <v>2125</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>2006</v>
+        <v>2126</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>2007</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>2008</v>
+        <v>2128</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>2009</v>
+        <v>2129</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>2010</v>
+        <v>2130</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>2011</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>2012</v>
+        <v>2132</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>2013</v>
+        <v>2133</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>2014</v>
+        <v>2134</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>2015</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>2016</v>
+        <v>2136</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>2017</v>
+        <v>2137</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>2018</v>
+        <v>2138</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>2019</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>2020</v>
+        <v>2140</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>2021</v>
+        <v>2141</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>2022</v>
+        <v>2142</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>2023</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>2024</v>
+        <v>2144</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>2025</v>
+        <v>2145</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>2026</v>
+        <v>2146</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>2027</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>2028</v>
+        <v>2148</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>2029</v>
+        <v>2149</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>2030</v>
+        <v>2150</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>2031</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>2032</v>
+        <v>2152</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>2033</v>
+        <v>2153</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>2034</v>
+        <v>2154</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>2035</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>2036</v>
+        <v>2156</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>2037</v>
+        <v>2157</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>2038</v>
+        <v>2158</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>2039</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>2040</v>
+        <v>2160</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>2041</v>
+        <v>2161</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>2042</v>
+        <v>2162</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>2043</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="2164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="3000">
   <si>
     <t>FirstName</t>
   </si>
@@ -6506,6 +6506,2514 @@
   </si>
   <si>
     <t>12056</t>
+  </si>
+  <si>
+    <t>Proctor25351</t>
+  </si>
+  <si>
+    <t>Automation25351</t>
+  </si>
+  <si>
+    <t>proctorautomation25351@gmail.com</t>
+  </si>
+  <si>
+    <t>25351</t>
+  </si>
+  <si>
+    <t>Proctor29010</t>
+  </si>
+  <si>
+    <t>Automation29010</t>
+  </si>
+  <si>
+    <t>proctorautomation29010@gmail.com</t>
+  </si>
+  <si>
+    <t>29010</t>
+  </si>
+  <si>
+    <t>Proctor43253</t>
+  </si>
+  <si>
+    <t>Automation43253</t>
+  </si>
+  <si>
+    <t>proctorautomation43253@gmail.com</t>
+  </si>
+  <si>
+    <t>43253</t>
+  </si>
+  <si>
+    <t>Proctor60418</t>
+  </si>
+  <si>
+    <t>Automation60418</t>
+  </si>
+  <si>
+    <t>proctorautomation60418@gmail.com</t>
+  </si>
+  <si>
+    <t>60418</t>
+  </si>
+  <si>
+    <t>Proctor13195</t>
+  </si>
+  <si>
+    <t>Automation13195</t>
+  </si>
+  <si>
+    <t>proctorautomation13195@gmail.com</t>
+  </si>
+  <si>
+    <t>13195</t>
+  </si>
+  <si>
+    <t>Proctor73169</t>
+  </si>
+  <si>
+    <t>Automation73169</t>
+  </si>
+  <si>
+    <t>proctorautomation73169@gmail.com</t>
+  </si>
+  <si>
+    <t>73169</t>
+  </si>
+  <si>
+    <t>Proctor31764</t>
+  </si>
+  <si>
+    <t>Automation31764</t>
+  </si>
+  <si>
+    <t>proctorautomation31764@gmail.com</t>
+  </si>
+  <si>
+    <t>31764</t>
+  </si>
+  <si>
+    <t>Proctor07777</t>
+  </si>
+  <si>
+    <t>Automation07777</t>
+  </si>
+  <si>
+    <t>proctorautomation07777@gmail.com</t>
+  </si>
+  <si>
+    <t>07777</t>
+  </si>
+  <si>
+    <t>Proctor49235</t>
+  </si>
+  <si>
+    <t>Automation49235</t>
+  </si>
+  <si>
+    <t>proctorautomation49235@gmail.com</t>
+  </si>
+  <si>
+    <t>49235</t>
+  </si>
+  <si>
+    <t>Proctor91649</t>
+  </si>
+  <si>
+    <t>Automation91649</t>
+  </si>
+  <si>
+    <t>proctorautomation91649@gmail.com</t>
+  </si>
+  <si>
+    <t>91649</t>
+  </si>
+  <si>
+    <t>Proctor53968</t>
+  </si>
+  <si>
+    <t>Automation53968</t>
+  </si>
+  <si>
+    <t>proctorautomation53968@gmail.com</t>
+  </si>
+  <si>
+    <t>53968</t>
+  </si>
+  <si>
+    <t>Proctor25068</t>
+  </si>
+  <si>
+    <t>Automation25068</t>
+  </si>
+  <si>
+    <t>proctorautomation25068@gmail.com</t>
+  </si>
+  <si>
+    <t>25068</t>
+  </si>
+  <si>
+    <t>Proctor98846</t>
+  </si>
+  <si>
+    <t>Automation98846</t>
+  </si>
+  <si>
+    <t>proctorautomation98846@gmail.com</t>
+  </si>
+  <si>
+    <t>98846</t>
+  </si>
+  <si>
+    <t>Proctor35208</t>
+  </si>
+  <si>
+    <t>Automation35208</t>
+  </si>
+  <si>
+    <t>proctorautomation35208@gmail.com</t>
+  </si>
+  <si>
+    <t>35208</t>
+  </si>
+  <si>
+    <t>Proctor45378</t>
+  </si>
+  <si>
+    <t>Automation45378</t>
+  </si>
+  <si>
+    <t>proctorautomation45378@gmail.com</t>
+  </si>
+  <si>
+    <t>45378</t>
+  </si>
+  <si>
+    <t>Proctor01398</t>
+  </si>
+  <si>
+    <t>Automation01398</t>
+  </si>
+  <si>
+    <t>proctorautomation01398@gmail.com</t>
+  </si>
+  <si>
+    <t>01398</t>
+  </si>
+  <si>
+    <t>Proctor44949</t>
+  </si>
+  <si>
+    <t>Automation44949</t>
+  </si>
+  <si>
+    <t>proctorautomation44949@gmail.com</t>
+  </si>
+  <si>
+    <t>44949</t>
+  </si>
+  <si>
+    <t>Proctor64708</t>
+  </si>
+  <si>
+    <t>Automation64708</t>
+  </si>
+  <si>
+    <t>proctorautomation64708@gmail.com</t>
+  </si>
+  <si>
+    <t>64708</t>
+  </si>
+  <si>
+    <t>Proctor79507</t>
+  </si>
+  <si>
+    <t>Automation79507</t>
+  </si>
+  <si>
+    <t>proctorautomation79507@gmail.com</t>
+  </si>
+  <si>
+    <t>79507</t>
+  </si>
+  <si>
+    <t>Proctor97377</t>
+  </si>
+  <si>
+    <t>Automation97377</t>
+  </si>
+  <si>
+    <t>proctorautomation97377@gmail.com</t>
+  </si>
+  <si>
+    <t>97377</t>
+  </si>
+  <si>
+    <t>Proctor98949</t>
+  </si>
+  <si>
+    <t>Automation98949</t>
+  </si>
+  <si>
+    <t>proctorautomation98949@gmail.com</t>
+  </si>
+  <si>
+    <t>98949</t>
+  </si>
+  <si>
+    <t>Proctor65733</t>
+  </si>
+  <si>
+    <t>Automation65733</t>
+  </si>
+  <si>
+    <t>proctorautomation65733@gmail.com</t>
+  </si>
+  <si>
+    <t>65733</t>
+  </si>
+  <si>
+    <t>Proctor79453</t>
+  </si>
+  <si>
+    <t>Automation79453</t>
+  </si>
+  <si>
+    <t>proctorautomation79453@gmail.com</t>
+  </si>
+  <si>
+    <t>79453</t>
+  </si>
+  <si>
+    <t>Proctor73186</t>
+  </si>
+  <si>
+    <t>Automation73186</t>
+  </si>
+  <si>
+    <t>proctorautomation73186@gmail.com</t>
+  </si>
+  <si>
+    <t>73186</t>
+  </si>
+  <si>
+    <t>Proctor94548</t>
+  </si>
+  <si>
+    <t>Automation94548</t>
+  </si>
+  <si>
+    <t>proctorautomation94548@gmail.com</t>
+  </si>
+  <si>
+    <t>94548</t>
+  </si>
+  <si>
+    <t>Proctor05296</t>
+  </si>
+  <si>
+    <t>Automation05296</t>
+  </si>
+  <si>
+    <t>proctorautomation05296@gmail.com</t>
+  </si>
+  <si>
+    <t>05296</t>
+  </si>
+  <si>
+    <t>Proctor93520</t>
+  </si>
+  <si>
+    <t>Automation93520</t>
+  </si>
+  <si>
+    <t>proctorautomation93520@gmail.com</t>
+  </si>
+  <si>
+    <t>93520</t>
+  </si>
+  <si>
+    <t>Proctor44244</t>
+  </si>
+  <si>
+    <t>Automation44244</t>
+  </si>
+  <si>
+    <t>proctorautomation44244@gmail.com</t>
+  </si>
+  <si>
+    <t>44244</t>
+  </si>
+  <si>
+    <t>Proctor87480</t>
+  </si>
+  <si>
+    <t>Automation87480</t>
+  </si>
+  <si>
+    <t>proctorautomation87480@gmail.com</t>
+  </si>
+  <si>
+    <t>87480</t>
+  </si>
+  <si>
+    <t>Proctor48123</t>
+  </si>
+  <si>
+    <t>Automation48123</t>
+  </si>
+  <si>
+    <t>proctorautomation48123@gmail.com</t>
+  </si>
+  <si>
+    <t>48123</t>
+  </si>
+  <si>
+    <t>Proctor08759</t>
+  </si>
+  <si>
+    <t>Automation08759</t>
+  </si>
+  <si>
+    <t>proctorautomation08759@gmail.com</t>
+  </si>
+  <si>
+    <t>08759</t>
+  </si>
+  <si>
+    <t>Proctor83525</t>
+  </si>
+  <si>
+    <t>Automation83525</t>
+  </si>
+  <si>
+    <t>proctorautomation83525@gmail.com</t>
+  </si>
+  <si>
+    <t>83525</t>
+  </si>
+  <si>
+    <t>Proctor75272</t>
+  </si>
+  <si>
+    <t>Automation75272</t>
+  </si>
+  <si>
+    <t>proctorautomation75272@gmail.com</t>
+  </si>
+  <si>
+    <t>75272</t>
+  </si>
+  <si>
+    <t>Proctor59040</t>
+  </si>
+  <si>
+    <t>Automation59040</t>
+  </si>
+  <si>
+    <t>proctorautomation59040@gmail.com</t>
+  </si>
+  <si>
+    <t>59040</t>
+  </si>
+  <si>
+    <t>Proctor99036</t>
+  </si>
+  <si>
+    <t>Automation99036</t>
+  </si>
+  <si>
+    <t>proctorautomation99036@gmail.com</t>
+  </si>
+  <si>
+    <t>99036</t>
+  </si>
+  <si>
+    <t>Proctor80009</t>
+  </si>
+  <si>
+    <t>Automation80009</t>
+  </si>
+  <si>
+    <t>proctorautomation80009@gmail.com</t>
+  </si>
+  <si>
+    <t>80009</t>
+  </si>
+  <si>
+    <t>Proctor43529</t>
+  </si>
+  <si>
+    <t>Automation43529</t>
+  </si>
+  <si>
+    <t>proctorautomation43529@gmail.com</t>
+  </si>
+  <si>
+    <t>43529</t>
+  </si>
+  <si>
+    <t>Proctor45384</t>
+  </si>
+  <si>
+    <t>Automation45384</t>
+  </si>
+  <si>
+    <t>proctorautomation45384@gmail.com</t>
+  </si>
+  <si>
+    <t>45384</t>
+  </si>
+  <si>
+    <t>Proctor49170</t>
+  </si>
+  <si>
+    <t>Automation49170</t>
+  </si>
+  <si>
+    <t>proctorautomation49170@gmail.com</t>
+  </si>
+  <si>
+    <t>49170</t>
+  </si>
+  <si>
+    <t>Proctor92903</t>
+  </si>
+  <si>
+    <t>Automation92903</t>
+  </si>
+  <si>
+    <t>proctorautomation92903@gmail.com</t>
+  </si>
+  <si>
+    <t>92903</t>
+  </si>
+  <si>
+    <t>Proctor45896</t>
+  </si>
+  <si>
+    <t>Automation45896</t>
+  </si>
+  <si>
+    <t>proctorautomation45896@gmail.com</t>
+  </si>
+  <si>
+    <t>45896</t>
+  </si>
+  <si>
+    <t>Proctor94998</t>
+  </si>
+  <si>
+    <t>Automation94998</t>
+  </si>
+  <si>
+    <t>proctorautomation94998@gmail.com</t>
+  </si>
+  <si>
+    <t>94998</t>
+  </si>
+  <si>
+    <t>Proctor89783</t>
+  </si>
+  <si>
+    <t>Automation89783</t>
+  </si>
+  <si>
+    <t>proctorautomation89783@gmail.com</t>
+  </si>
+  <si>
+    <t>89783</t>
+  </si>
+  <si>
+    <t>Proctor27556</t>
+  </si>
+  <si>
+    <t>Automation27556</t>
+  </si>
+  <si>
+    <t>proctorautomation27556@gmail.com</t>
+  </si>
+  <si>
+    <t>27556</t>
+  </si>
+  <si>
+    <t>Proctor80186</t>
+  </si>
+  <si>
+    <t>Automation80186</t>
+  </si>
+  <si>
+    <t>proctorautomation80186@gmail.com</t>
+  </si>
+  <si>
+    <t>80186</t>
+  </si>
+  <si>
+    <t>Proctor41420</t>
+  </si>
+  <si>
+    <t>Automation41420</t>
+  </si>
+  <si>
+    <t>proctorautomation41420@gmail.com</t>
+  </si>
+  <si>
+    <t>41420</t>
+  </si>
+  <si>
+    <t>Proctor94184</t>
+  </si>
+  <si>
+    <t>Automation94184</t>
+  </si>
+  <si>
+    <t>proctorautomation94184@gmail.com</t>
+  </si>
+  <si>
+    <t>94184</t>
+  </si>
+  <si>
+    <t>Proctor30715</t>
+  </si>
+  <si>
+    <t>Automation30715</t>
+  </si>
+  <si>
+    <t>proctorautomation30715@gmail.com</t>
+  </si>
+  <si>
+    <t>30715</t>
+  </si>
+  <si>
+    <t>Proctor60153</t>
+  </si>
+  <si>
+    <t>Automation60153</t>
+  </si>
+  <si>
+    <t>proctorautomation60153@gmail.com</t>
+  </si>
+  <si>
+    <t>60153</t>
+  </si>
+  <si>
+    <t>Proctor21840</t>
+  </si>
+  <si>
+    <t>Automation21840</t>
+  </si>
+  <si>
+    <t>proctorautomation21840@gmail.com</t>
+  </si>
+  <si>
+    <t>21840</t>
+  </si>
+  <si>
+    <t>Proctor80312</t>
+  </si>
+  <si>
+    <t>Automation80312</t>
+  </si>
+  <si>
+    <t>proctorautomation80312@gmail.com</t>
+  </si>
+  <si>
+    <t>80312</t>
+  </si>
+  <si>
+    <t>Proctor33837</t>
+  </si>
+  <si>
+    <t>Automation33837</t>
+  </si>
+  <si>
+    <t>proctorautomation33837@gmail.com</t>
+  </si>
+  <si>
+    <t>33837</t>
+  </si>
+  <si>
+    <t>Proctor26359</t>
+  </si>
+  <si>
+    <t>Automation26359</t>
+  </si>
+  <si>
+    <t>proctorautomation26359@gmail.com</t>
+  </si>
+  <si>
+    <t>26359</t>
+  </si>
+  <si>
+    <t>Proctor05943</t>
+  </si>
+  <si>
+    <t>Automation05943</t>
+  </si>
+  <si>
+    <t>proctorautomation05943@gmail.com</t>
+  </si>
+  <si>
+    <t>05943</t>
+  </si>
+  <si>
+    <t>Proctor44586</t>
+  </si>
+  <si>
+    <t>Automation44586</t>
+  </si>
+  <si>
+    <t>proctorautomation44586@gmail.com</t>
+  </si>
+  <si>
+    <t>44586</t>
+  </si>
+  <si>
+    <t>Proctor08264</t>
+  </si>
+  <si>
+    <t>Automation08264</t>
+  </si>
+  <si>
+    <t>proctorautomation08264@gmail.com</t>
+  </si>
+  <si>
+    <t>08264</t>
+  </si>
+  <si>
+    <t>Proctor53780</t>
+  </si>
+  <si>
+    <t>Automation53780</t>
+  </si>
+  <si>
+    <t>proctorautomation53780@gmail.com</t>
+  </si>
+  <si>
+    <t>53780</t>
+  </si>
+  <si>
+    <t>Proctor35887</t>
+  </si>
+  <si>
+    <t>Automation35887</t>
+  </si>
+  <si>
+    <t>proctorautomation35887@gmail.com</t>
+  </si>
+  <si>
+    <t>35887</t>
+  </si>
+  <si>
+    <t>Proctor92696</t>
+  </si>
+  <si>
+    <t>Automation92696</t>
+  </si>
+  <si>
+    <t>proctorautomation92696@gmail.com</t>
+  </si>
+  <si>
+    <t>92696</t>
+  </si>
+  <si>
+    <t>Proctor44390</t>
+  </si>
+  <si>
+    <t>Automation44390</t>
+  </si>
+  <si>
+    <t>proctorautomation44390@gmail.com</t>
+  </si>
+  <si>
+    <t>44390</t>
+  </si>
+  <si>
+    <t>Proctor12806</t>
+  </si>
+  <si>
+    <t>Automation12806</t>
+  </si>
+  <si>
+    <t>proctorautomation12806@gmail.com</t>
+  </si>
+  <si>
+    <t>12806</t>
+  </si>
+  <si>
+    <t>Proctor37162</t>
+  </si>
+  <si>
+    <t>Automation37162</t>
+  </si>
+  <si>
+    <t>proctorautomation37162@gmail.com</t>
+  </si>
+  <si>
+    <t>37162</t>
+  </si>
+  <si>
+    <t>Proctor04549</t>
+  </si>
+  <si>
+    <t>Automation04549</t>
+  </si>
+  <si>
+    <t>proctorautomation04549@gmail.com</t>
+  </si>
+  <si>
+    <t>04549</t>
+  </si>
+  <si>
+    <t>Proctor16602</t>
+  </si>
+  <si>
+    <t>Automation16602</t>
+  </si>
+  <si>
+    <t>proctorautomation16602@gmail.com</t>
+  </si>
+  <si>
+    <t>16602</t>
+  </si>
+  <si>
+    <t>Proctor70830</t>
+  </si>
+  <si>
+    <t>Automation70830</t>
+  </si>
+  <si>
+    <t>proctorautomation70830@gmail.com</t>
+  </si>
+  <si>
+    <t>70830</t>
+  </si>
+  <si>
+    <t>Proctor76845</t>
+  </si>
+  <si>
+    <t>Automation76845</t>
+  </si>
+  <si>
+    <t>proctorautomation76845@gmail.com</t>
+  </si>
+  <si>
+    <t>76845</t>
+  </si>
+  <si>
+    <t>Proctor12527</t>
+  </si>
+  <si>
+    <t>Automation12527</t>
+  </si>
+  <si>
+    <t>proctorautomation12527@gmail.com</t>
+  </si>
+  <si>
+    <t>12527</t>
+  </si>
+  <si>
+    <t>Proctor70587</t>
+  </si>
+  <si>
+    <t>Automation70587</t>
+  </si>
+  <si>
+    <t>proctorautomation70587@gmail.com</t>
+  </si>
+  <si>
+    <t>70587</t>
+  </si>
+  <si>
+    <t>Proctor57408</t>
+  </si>
+  <si>
+    <t>Automation57408</t>
+  </si>
+  <si>
+    <t>proctorautomation57408@gmail.com</t>
+  </si>
+  <si>
+    <t>57408</t>
+  </si>
+  <si>
+    <t>Proctor61746</t>
+  </si>
+  <si>
+    <t>Automation61746</t>
+  </si>
+  <si>
+    <t>proctorautomation61746@gmail.com</t>
+  </si>
+  <si>
+    <t>61746</t>
+  </si>
+  <si>
+    <t>Proctor82442</t>
+  </si>
+  <si>
+    <t>Automation82442</t>
+  </si>
+  <si>
+    <t>proctorautomation82442@gmail.com</t>
+  </si>
+  <si>
+    <t>82442</t>
+  </si>
+  <si>
+    <t>Proctor20838</t>
+  </si>
+  <si>
+    <t>Automation20838</t>
+  </si>
+  <si>
+    <t>proctorautomation20838@gmail.com</t>
+  </si>
+  <si>
+    <t>20838</t>
+  </si>
+  <si>
+    <t>Proctor47798</t>
+  </si>
+  <si>
+    <t>Automation47798</t>
+  </si>
+  <si>
+    <t>proctorautomation47798@gmail.com</t>
+  </si>
+  <si>
+    <t>47798</t>
+  </si>
+  <si>
+    <t>Proctor45908</t>
+  </si>
+  <si>
+    <t>Automation45908</t>
+  </si>
+  <si>
+    <t>proctorautomation45908@gmail.com</t>
+  </si>
+  <si>
+    <t>45908</t>
+  </si>
+  <si>
+    <t>Proctor28994</t>
+  </si>
+  <si>
+    <t>Automation28994</t>
+  </si>
+  <si>
+    <t>proctorautomation28994@gmail.com</t>
+  </si>
+  <si>
+    <t>28994</t>
+  </si>
+  <si>
+    <t>Proctor86205</t>
+  </si>
+  <si>
+    <t>Automation86205</t>
+  </si>
+  <si>
+    <t>proctorautomation86205@gmail.com</t>
+  </si>
+  <si>
+    <t>86205</t>
+  </si>
+  <si>
+    <t>Proctor93573</t>
+  </si>
+  <si>
+    <t>Automation93573</t>
+  </si>
+  <si>
+    <t>proctorautomation93573@gmail.com</t>
+  </si>
+  <si>
+    <t>93573</t>
+  </si>
+  <si>
+    <t>Proctor78907</t>
+  </si>
+  <si>
+    <t>Automation78907</t>
+  </si>
+  <si>
+    <t>proctorautomation78907@gmail.com</t>
+  </si>
+  <si>
+    <t>78907</t>
+  </si>
+  <si>
+    <t>Proctor92357</t>
+  </si>
+  <si>
+    <t>Automation92357</t>
+  </si>
+  <si>
+    <t>proctorautomation92357@gmail.com</t>
+  </si>
+  <si>
+    <t>92357</t>
+  </si>
+  <si>
+    <t>Proctor22023</t>
+  </si>
+  <si>
+    <t>Automation22023</t>
+  </si>
+  <si>
+    <t>proctorautomation22023@gmail.com</t>
+  </si>
+  <si>
+    <t>22023</t>
+  </si>
+  <si>
+    <t>Proctor23261</t>
+  </si>
+  <si>
+    <t>Automation23261</t>
+  </si>
+  <si>
+    <t>proctorautomation23261@gmail.com</t>
+  </si>
+  <si>
+    <t>23261</t>
+  </si>
+  <si>
+    <t>Proctor81228</t>
+  </si>
+  <si>
+    <t>Automation81228</t>
+  </si>
+  <si>
+    <t>proctorautomation81228@gmail.com</t>
+  </si>
+  <si>
+    <t>81228</t>
+  </si>
+  <si>
+    <t>Proctor68962</t>
+  </si>
+  <si>
+    <t>Automation68962</t>
+  </si>
+  <si>
+    <t>proctorautomation68962@gmail.com</t>
+  </si>
+  <si>
+    <t>68962</t>
+  </si>
+  <si>
+    <t>Proctor46658</t>
+  </si>
+  <si>
+    <t>Automation46658</t>
+  </si>
+  <si>
+    <t>proctorautomation46658@gmail.com</t>
+  </si>
+  <si>
+    <t>46658</t>
+  </si>
+  <si>
+    <t>Proctor64461</t>
+  </si>
+  <si>
+    <t>Automation64461</t>
+  </si>
+  <si>
+    <t>proctorautomation64461@gmail.com</t>
+  </si>
+  <si>
+    <t>64461</t>
+  </si>
+  <si>
+    <t>Proctor06464</t>
+  </si>
+  <si>
+    <t>Automation06464</t>
+  </si>
+  <si>
+    <t>proctorautomation06464@gmail.com</t>
+  </si>
+  <si>
+    <t>06464</t>
+  </si>
+  <si>
+    <t>Proctor62128</t>
+  </si>
+  <si>
+    <t>Automation62128</t>
+  </si>
+  <si>
+    <t>proctorautomation62128@gmail.com</t>
+  </si>
+  <si>
+    <t>62128</t>
+  </si>
+  <si>
+    <t>Proctor21205</t>
+  </si>
+  <si>
+    <t>Automation21205</t>
+  </si>
+  <si>
+    <t>proctorautomation21205@gmail.com</t>
+  </si>
+  <si>
+    <t>21205</t>
+  </si>
+  <si>
+    <t>Proctor20134</t>
+  </si>
+  <si>
+    <t>Automation20134</t>
+  </si>
+  <si>
+    <t>proctorautomation20134@gmail.com</t>
+  </si>
+  <si>
+    <t>20134</t>
+  </si>
+  <si>
+    <t>Proctor36004</t>
+  </si>
+  <si>
+    <t>Automation36004</t>
+  </si>
+  <si>
+    <t>proctorautomation36004@gmail.com</t>
+  </si>
+  <si>
+    <t>36004</t>
+  </si>
+  <si>
+    <t>Proctor06136</t>
+  </si>
+  <si>
+    <t>Automation06136</t>
+  </si>
+  <si>
+    <t>proctorautomation06136@gmail.com</t>
+  </si>
+  <si>
+    <t>06136</t>
+  </si>
+  <si>
+    <t>Proctor37395</t>
+  </si>
+  <si>
+    <t>Automation37395</t>
+  </si>
+  <si>
+    <t>proctorautomation37395@gmail.com</t>
+  </si>
+  <si>
+    <t>37395</t>
+  </si>
+  <si>
+    <t>Proctor95406</t>
+  </si>
+  <si>
+    <t>Automation95406</t>
+  </si>
+  <si>
+    <t>proctorautomation95406@gmail.com</t>
+  </si>
+  <si>
+    <t>95406</t>
+  </si>
+  <si>
+    <t>Proctor47181</t>
+  </si>
+  <si>
+    <t>Automation47181</t>
+  </si>
+  <si>
+    <t>proctorautomation47181@gmail.com</t>
+  </si>
+  <si>
+    <t>47181</t>
+  </si>
+  <si>
+    <t>Proctor18302</t>
+  </si>
+  <si>
+    <t>Automation18302</t>
+  </si>
+  <si>
+    <t>proctorautomation18302@gmail.com</t>
+  </si>
+  <si>
+    <t>18302</t>
+  </si>
+  <si>
+    <t>Proctor97326</t>
+  </si>
+  <si>
+    <t>Automation97326</t>
+  </si>
+  <si>
+    <t>proctorautomation97326@gmail.com</t>
+  </si>
+  <si>
+    <t>97326</t>
+  </si>
+  <si>
+    <t>Proctor09306</t>
+  </si>
+  <si>
+    <t>Automation09306</t>
+  </si>
+  <si>
+    <t>proctorautomation09306@gmail.com</t>
+  </si>
+  <si>
+    <t>09306</t>
+  </si>
+  <si>
+    <t>Proctor39281</t>
+  </si>
+  <si>
+    <t>Automation39281</t>
+  </si>
+  <si>
+    <t>proctorautomation39281@gmail.com</t>
+  </si>
+  <si>
+    <t>39281</t>
+  </si>
+  <si>
+    <t>Proctor35124</t>
+  </si>
+  <si>
+    <t>Automation35124</t>
+  </si>
+  <si>
+    <t>proctorautomation35124@gmail.com</t>
+  </si>
+  <si>
+    <t>35124</t>
+  </si>
+  <si>
+    <t>Proctor37800</t>
+  </si>
+  <si>
+    <t>Automation37800</t>
+  </si>
+  <si>
+    <t>proctorautomation37800@gmail.com</t>
+  </si>
+  <si>
+    <t>37800</t>
+  </si>
+  <si>
+    <t>Proctor63645</t>
+  </si>
+  <si>
+    <t>Automation63645</t>
+  </si>
+  <si>
+    <t>proctorautomation63645@gmail.com</t>
+  </si>
+  <si>
+    <t>63645</t>
+  </si>
+  <si>
+    <t>Proctor30694</t>
+  </si>
+  <si>
+    <t>Automation30694</t>
+  </si>
+  <si>
+    <t>proctorautomation30694@gmail.com</t>
+  </si>
+  <si>
+    <t>30694</t>
+  </si>
+  <si>
+    <t>Proctor87212</t>
+  </si>
+  <si>
+    <t>Automation87212</t>
+  </si>
+  <si>
+    <t>proctorautomation87212@gmail.com</t>
+  </si>
+  <si>
+    <t>87212</t>
+  </si>
+  <si>
+    <t>Proctor21606</t>
+  </si>
+  <si>
+    <t>Automation21606</t>
+  </si>
+  <si>
+    <t>proctorautomation21606@gmail.com</t>
+  </si>
+  <si>
+    <t>21606</t>
+  </si>
+  <si>
+    <t>Proctor51134</t>
+  </si>
+  <si>
+    <t>Automation51134</t>
+  </si>
+  <si>
+    <t>proctorautomation51134@gmail.com</t>
+  </si>
+  <si>
+    <t>51134</t>
+  </si>
+  <si>
+    <t>Proctor19376</t>
+  </si>
+  <si>
+    <t>Automation19376</t>
+  </si>
+  <si>
+    <t>proctorautomation19376@gmail.com</t>
+  </si>
+  <si>
+    <t>19376</t>
+  </si>
+  <si>
+    <t>Proctor46579</t>
+  </si>
+  <si>
+    <t>Automation46579</t>
+  </si>
+  <si>
+    <t>proctorautomation46579@gmail.com</t>
+  </si>
+  <si>
+    <t>46579</t>
+  </si>
+  <si>
+    <t>Proctor23727</t>
+  </si>
+  <si>
+    <t>Automation23727</t>
+  </si>
+  <si>
+    <t>proctorautomation23727@gmail.com</t>
+  </si>
+  <si>
+    <t>23727</t>
+  </si>
+  <si>
+    <t>Proctor30463</t>
+  </si>
+  <si>
+    <t>Automation30463</t>
+  </si>
+  <si>
+    <t>proctorautomation30463@gmail.com</t>
+  </si>
+  <si>
+    <t>30463</t>
+  </si>
+  <si>
+    <t>Proctor17036</t>
+  </si>
+  <si>
+    <t>Automation17036</t>
+  </si>
+  <si>
+    <t>proctorautomation17036@gmail.com</t>
+  </si>
+  <si>
+    <t>17036</t>
+  </si>
+  <si>
+    <t>Proctor05043</t>
+  </si>
+  <si>
+    <t>Automation05043</t>
+  </si>
+  <si>
+    <t>proctorautomation05043@gmail.com</t>
+  </si>
+  <si>
+    <t>05043</t>
+  </si>
+  <si>
+    <t>Proctor43719</t>
+  </si>
+  <si>
+    <t>Automation43719</t>
+  </si>
+  <si>
+    <t>proctorautomation43719@gmail.com</t>
+  </si>
+  <si>
+    <t>43719</t>
+  </si>
+  <si>
+    <t>Proctor81547</t>
+  </si>
+  <si>
+    <t>Automation81547</t>
+  </si>
+  <si>
+    <t>proctorautomation81547@gmail.com</t>
+  </si>
+  <si>
+    <t>81547</t>
+  </si>
+  <si>
+    <t>Proctor67597</t>
+  </si>
+  <si>
+    <t>Automation67597</t>
+  </si>
+  <si>
+    <t>proctorautomation67597@gmail.com</t>
+  </si>
+  <si>
+    <t>67597</t>
+  </si>
+  <si>
+    <t>Proctor63673</t>
+  </si>
+  <si>
+    <t>Automation63673</t>
+  </si>
+  <si>
+    <t>proctorautomation63673@gmail.com</t>
+  </si>
+  <si>
+    <t>63673</t>
+  </si>
+  <si>
+    <t>Proctor95651</t>
+  </si>
+  <si>
+    <t>Automation95651</t>
+  </si>
+  <si>
+    <t>proctorautomation95651@gmail.com</t>
+  </si>
+  <si>
+    <t>95651</t>
+  </si>
+  <si>
+    <t>Proctor96264</t>
+  </si>
+  <si>
+    <t>Automation96264</t>
+  </si>
+  <si>
+    <t>proctorautomation96264@gmail.com</t>
+  </si>
+  <si>
+    <t>96264</t>
+  </si>
+  <si>
+    <t>Proctor31286</t>
+  </si>
+  <si>
+    <t>Automation31286</t>
+  </si>
+  <si>
+    <t>proctorautomation31286@gmail.com</t>
+  </si>
+  <si>
+    <t>31286</t>
+  </si>
+  <si>
+    <t>Proctor97453</t>
+  </si>
+  <si>
+    <t>Automation97453</t>
+  </si>
+  <si>
+    <t>proctorautomation97453@gmail.com</t>
+  </si>
+  <si>
+    <t>97453</t>
+  </si>
+  <si>
+    <t>Proctor17942</t>
+  </si>
+  <si>
+    <t>Automation17942</t>
+  </si>
+  <si>
+    <t>proctorautomation17942@gmail.com</t>
+  </si>
+  <si>
+    <t>17942</t>
+  </si>
+  <si>
+    <t>Proctor52106</t>
+  </si>
+  <si>
+    <t>Automation52106</t>
+  </si>
+  <si>
+    <t>proctorautomation52106@gmail.com</t>
+  </si>
+  <si>
+    <t>52106</t>
+  </si>
+  <si>
+    <t>Proctor91858</t>
+  </si>
+  <si>
+    <t>Automation91858</t>
+  </si>
+  <si>
+    <t>proctorautomation91858@gmail.com</t>
+  </si>
+  <si>
+    <t>91858</t>
+  </si>
+  <si>
+    <t>Proctor70074</t>
+  </si>
+  <si>
+    <t>Automation70074</t>
+  </si>
+  <si>
+    <t>proctorautomation70074@gmail.com</t>
+  </si>
+  <si>
+    <t>70074</t>
+  </si>
+  <si>
+    <t>Proctor53217</t>
+  </si>
+  <si>
+    <t>Automation53217</t>
+  </si>
+  <si>
+    <t>proctorautomation53217@gmail.com</t>
+  </si>
+  <si>
+    <t>53217</t>
+  </si>
+  <si>
+    <t>Proctor06498</t>
+  </si>
+  <si>
+    <t>Automation06498</t>
+  </si>
+  <si>
+    <t>proctorautomation06498@gmail.com</t>
+  </si>
+  <si>
+    <t>06498</t>
+  </si>
+  <si>
+    <t>Proctor49829</t>
+  </si>
+  <si>
+    <t>Automation49829</t>
+  </si>
+  <si>
+    <t>proctorautomation49829@gmail.com</t>
+  </si>
+  <si>
+    <t>49829</t>
+  </si>
+  <si>
+    <t>Proctor80131</t>
+  </si>
+  <si>
+    <t>Automation80131</t>
+  </si>
+  <si>
+    <t>proctorautomation80131@gmail.com</t>
+  </si>
+  <si>
+    <t>80131</t>
+  </si>
+  <si>
+    <t>Proctor20526</t>
+  </si>
+  <si>
+    <t>Automation20526</t>
+  </si>
+  <si>
+    <t>proctorautomation20526@gmail.com</t>
+  </si>
+  <si>
+    <t>20526</t>
+  </si>
+  <si>
+    <t>Proctor18669</t>
+  </si>
+  <si>
+    <t>Automation18669</t>
+  </si>
+  <si>
+    <t>proctorautomation18669@gmail.com</t>
+  </si>
+  <si>
+    <t>18669</t>
+  </si>
+  <si>
+    <t>Proctor56648</t>
+  </si>
+  <si>
+    <t>Automation56648</t>
+  </si>
+  <si>
+    <t>proctorautomation56648@gmail.com</t>
+  </si>
+  <si>
+    <t>56648</t>
+  </si>
+  <si>
+    <t>Proctor54128</t>
+  </si>
+  <si>
+    <t>Automation54128</t>
+  </si>
+  <si>
+    <t>proctorautomation54128@gmail.com</t>
+  </si>
+  <si>
+    <t>54128</t>
+  </si>
+  <si>
+    <t>Proctor97081</t>
+  </si>
+  <si>
+    <t>Automation97081</t>
+  </si>
+  <si>
+    <t>proctorautomation97081@gmail.com</t>
+  </si>
+  <si>
+    <t>97081</t>
+  </si>
+  <si>
+    <t>Proctor90912</t>
+  </si>
+  <si>
+    <t>Automation90912</t>
+  </si>
+  <si>
+    <t>proctorautomation90912@gmail.com</t>
+  </si>
+  <si>
+    <t>90912</t>
+  </si>
+  <si>
+    <t>Proctor80349</t>
+  </si>
+  <si>
+    <t>Automation80349</t>
+  </si>
+  <si>
+    <t>proctorautomation80349@gmail.com</t>
+  </si>
+  <si>
+    <t>80349</t>
+  </si>
+  <si>
+    <t>Proctor17864</t>
+  </si>
+  <si>
+    <t>Automation17864</t>
+  </si>
+  <si>
+    <t>proctorautomation17864@gmail.com</t>
+  </si>
+  <si>
+    <t>17864</t>
+  </si>
+  <si>
+    <t>Proctor26201</t>
+  </si>
+  <si>
+    <t>Automation26201</t>
+  </si>
+  <si>
+    <t>proctorautomation26201@gmail.com</t>
+  </si>
+  <si>
+    <t>26201</t>
+  </si>
+  <si>
+    <t>Proctor60248</t>
+  </si>
+  <si>
+    <t>Automation60248</t>
+  </si>
+  <si>
+    <t>proctorautomation60248@gmail.com</t>
+  </si>
+  <si>
+    <t>60248</t>
+  </si>
+  <si>
+    <t>Proctor07082</t>
+  </si>
+  <si>
+    <t>Automation07082</t>
+  </si>
+  <si>
+    <t>proctorautomation07082@gmail.com</t>
+  </si>
+  <si>
+    <t>07082</t>
+  </si>
+  <si>
+    <t>Proctor25395</t>
+  </si>
+  <si>
+    <t>Automation25395</t>
+  </si>
+  <si>
+    <t>proctorautomation25395@gmail.com</t>
+  </si>
+  <si>
+    <t>25395</t>
+  </si>
+  <si>
+    <t>Proctor39353</t>
+  </si>
+  <si>
+    <t>Automation39353</t>
+  </si>
+  <si>
+    <t>proctorautomation39353@gmail.com</t>
+  </si>
+  <si>
+    <t>39353</t>
+  </si>
+  <si>
+    <t>Proctor44325</t>
+  </si>
+  <si>
+    <t>Automation44325</t>
+  </si>
+  <si>
+    <t>proctorautomation44325@gmail.com</t>
+  </si>
+  <si>
+    <t>44325</t>
+  </si>
+  <si>
+    <t>Proctor64953</t>
+  </si>
+  <si>
+    <t>Automation64953</t>
+  </si>
+  <si>
+    <t>proctorautomation64953@gmail.com</t>
+  </si>
+  <si>
+    <t>64953</t>
+  </si>
+  <si>
+    <t>Proctor20489</t>
+  </si>
+  <si>
+    <t>Automation20489</t>
+  </si>
+  <si>
+    <t>proctorautomation20489@gmail.com</t>
+  </si>
+  <si>
+    <t>20489</t>
+  </si>
+  <si>
+    <t>Proctor95311</t>
+  </si>
+  <si>
+    <t>Automation95311</t>
+  </si>
+  <si>
+    <t>proctorautomation95311@gmail.com</t>
+  </si>
+  <si>
+    <t>95311</t>
+  </si>
+  <si>
+    <t>Proctor05120</t>
+  </si>
+  <si>
+    <t>Automation05120</t>
+  </si>
+  <si>
+    <t>proctorautomation05120@gmail.com</t>
+  </si>
+  <si>
+    <t>05120</t>
+  </si>
+  <si>
+    <t>Proctor58388</t>
+  </si>
+  <si>
+    <t>Automation58388</t>
+  </si>
+  <si>
+    <t>proctorautomation58388@gmail.com</t>
+  </si>
+  <si>
+    <t>58388</t>
+  </si>
+  <si>
+    <t>Proctor63929</t>
+  </si>
+  <si>
+    <t>Automation63929</t>
+  </si>
+  <si>
+    <t>proctorautomation63929@gmail.com</t>
+  </si>
+  <si>
+    <t>63929</t>
+  </si>
+  <si>
+    <t>Proctor86398</t>
+  </si>
+  <si>
+    <t>Automation86398</t>
+  </si>
+  <si>
+    <t>proctorautomation86398@gmail.com</t>
+  </si>
+  <si>
+    <t>86398</t>
+  </si>
+  <si>
+    <t>Proctor31073</t>
+  </si>
+  <si>
+    <t>Automation31073</t>
+  </si>
+  <si>
+    <t>proctorautomation31073@gmail.com</t>
+  </si>
+  <si>
+    <t>31073</t>
+  </si>
+  <si>
+    <t>Proctor28396</t>
+  </si>
+  <si>
+    <t>Automation28396</t>
+  </si>
+  <si>
+    <t>proctorautomation28396@gmail.com</t>
+  </si>
+  <si>
+    <t>28396</t>
+  </si>
+  <si>
+    <t>Proctor54474</t>
+  </si>
+  <si>
+    <t>Automation54474</t>
+  </si>
+  <si>
+    <t>proctorautomation54474@gmail.com</t>
+  </si>
+  <si>
+    <t>54474</t>
+  </si>
+  <si>
+    <t>Proctor64797</t>
+  </si>
+  <si>
+    <t>Automation64797</t>
+  </si>
+  <si>
+    <t>proctorautomation64797@gmail.com</t>
+  </si>
+  <si>
+    <t>64797</t>
+  </si>
+  <si>
+    <t>Proctor37657</t>
+  </si>
+  <si>
+    <t>Automation37657</t>
+  </si>
+  <si>
+    <t>proctorautomation37657@gmail.com</t>
+  </si>
+  <si>
+    <t>37657</t>
+  </si>
+  <si>
+    <t>Proctor44538</t>
+  </si>
+  <si>
+    <t>Automation44538</t>
+  </si>
+  <si>
+    <t>proctorautomation44538@gmail.com</t>
+  </si>
+  <si>
+    <t>44538</t>
+  </si>
+  <si>
+    <t>Proctor91292</t>
+  </si>
+  <si>
+    <t>Automation91292</t>
+  </si>
+  <si>
+    <t>proctorautomation91292@gmail.com</t>
+  </si>
+  <si>
+    <t>91292</t>
+  </si>
+  <si>
+    <t>Proctor14643</t>
+  </si>
+  <si>
+    <t>Automation14643</t>
+  </si>
+  <si>
+    <t>proctorautomation14643@gmail.com</t>
+  </si>
+  <si>
+    <t>14643</t>
+  </si>
+  <si>
+    <t>Proctor89762</t>
+  </si>
+  <si>
+    <t>Automation89762</t>
+  </si>
+  <si>
+    <t>proctorautomation89762@gmail.com</t>
+  </si>
+  <si>
+    <t>89762</t>
+  </si>
+  <si>
+    <t>Proctor20845</t>
+  </si>
+  <si>
+    <t>Automation20845</t>
+  </si>
+  <si>
+    <t>proctorautomation20845@gmail.com</t>
+  </si>
+  <si>
+    <t>20845</t>
+  </si>
+  <si>
+    <t>Proctor95677</t>
+  </si>
+  <si>
+    <t>Automation95677</t>
+  </si>
+  <si>
+    <t>proctorautomation95677@gmail.com</t>
+  </si>
+  <si>
+    <t>95677</t>
+  </si>
+  <si>
+    <t>Proctor08167</t>
+  </si>
+  <si>
+    <t>Automation08167</t>
+  </si>
+  <si>
+    <t>proctorautomation08167@gmail.com</t>
+  </si>
+  <si>
+    <t>08167</t>
+  </si>
+  <si>
+    <t>Proctor88827</t>
+  </si>
+  <si>
+    <t>Automation88827</t>
+  </si>
+  <si>
+    <t>proctorautomation88827@gmail.com</t>
+  </si>
+  <si>
+    <t>88827</t>
+  </si>
+  <si>
+    <t>Proctor69845</t>
+  </si>
+  <si>
+    <t>Automation69845</t>
+  </si>
+  <si>
+    <t>proctorautomation69845@gmail.com</t>
+  </si>
+  <si>
+    <t>69845</t>
+  </si>
+  <si>
+    <t>Proctor64995</t>
+  </si>
+  <si>
+    <t>Automation64995</t>
+  </si>
+  <si>
+    <t>proctorautomation64995@gmail.com</t>
+  </si>
+  <si>
+    <t>64995</t>
+  </si>
+  <si>
+    <t>Proctor69672</t>
+  </si>
+  <si>
+    <t>Automation69672</t>
+  </si>
+  <si>
+    <t>proctorautomation69672@gmail.com</t>
+  </si>
+  <si>
+    <t>69672</t>
+  </si>
+  <si>
+    <t>Proctor28260</t>
+  </si>
+  <si>
+    <t>Automation28260</t>
+  </si>
+  <si>
+    <t>proctorautomation28260@gmail.com</t>
+  </si>
+  <si>
+    <t>28260</t>
+  </si>
+  <si>
+    <t>Proctor48607</t>
+  </si>
+  <si>
+    <t>Automation48607</t>
+  </si>
+  <si>
+    <t>proctorautomation48607@gmail.com</t>
+  </si>
+  <si>
+    <t>48607</t>
+  </si>
+  <si>
+    <t>Proctor43316</t>
+  </si>
+  <si>
+    <t>Automation43316</t>
+  </si>
+  <si>
+    <t>proctorautomation43316@gmail.com</t>
+  </si>
+  <si>
+    <t>43316</t>
+  </si>
+  <si>
+    <t>Proctor67263</t>
+  </si>
+  <si>
+    <t>Automation67263</t>
+  </si>
+  <si>
+    <t>proctorautomation67263@gmail.com</t>
+  </si>
+  <si>
+    <t>67263</t>
+  </si>
+  <si>
+    <t>Proctor39204</t>
+  </si>
+  <si>
+    <t>Automation39204</t>
+  </si>
+  <si>
+    <t>proctorautomation39204@gmail.com</t>
+  </si>
+  <si>
+    <t>39204</t>
+  </si>
+  <si>
+    <t>Proctor87283</t>
+  </si>
+  <si>
+    <t>Automation87283</t>
+  </si>
+  <si>
+    <t>proctorautomation87283@gmail.com</t>
+  </si>
+  <si>
+    <t>87283</t>
+  </si>
+  <si>
+    <t>Proctor94008</t>
+  </si>
+  <si>
+    <t>Automation94008</t>
+  </si>
+  <si>
+    <t>proctorautomation94008@gmail.com</t>
+  </si>
+  <si>
+    <t>94008</t>
+  </si>
+  <si>
+    <t>Proctor29880</t>
+  </si>
+  <si>
+    <t>Automation29880</t>
+  </si>
+  <si>
+    <t>proctorautomation29880@gmail.com</t>
+  </si>
+  <si>
+    <t>29880</t>
+  </si>
+  <si>
+    <t>Proctor15559</t>
+  </si>
+  <si>
+    <t>Automation15559</t>
+  </si>
+  <si>
+    <t>proctorautomation15559@gmail.com</t>
+  </si>
+  <si>
+    <t>15559</t>
+  </si>
+  <si>
+    <t>Proctor49203</t>
+  </si>
+  <si>
+    <t>Automation49203</t>
+  </si>
+  <si>
+    <t>proctorautomation49203@gmail.com</t>
+  </si>
+  <si>
+    <t>49203</t>
+  </si>
+  <si>
+    <t>Proctor11983</t>
+  </si>
+  <si>
+    <t>Automation11983</t>
+  </si>
+  <si>
+    <t>proctorautomation11983@gmail.com</t>
+  </si>
+  <si>
+    <t>11983</t>
+  </si>
+  <si>
+    <t>Proctor68258</t>
+  </si>
+  <si>
+    <t>Automation68258</t>
+  </si>
+  <si>
+    <t>proctorautomation68258@gmail.com</t>
+  </si>
+  <si>
+    <t>68258</t>
+  </si>
+  <si>
+    <t>Proctor02150</t>
+  </si>
+  <si>
+    <t>Automation02150</t>
+  </si>
+  <si>
+    <t>proctorautomation02150@gmail.com</t>
+  </si>
+  <si>
+    <t>02150</t>
+  </si>
+  <si>
+    <t>Proctor30192</t>
+  </si>
+  <si>
+    <t>Automation30192</t>
+  </si>
+  <si>
+    <t>proctorautomation30192@gmail.com</t>
+  </si>
+  <si>
+    <t>30192</t>
+  </si>
+  <si>
+    <t>Proctor65577</t>
+  </si>
+  <si>
+    <t>Automation65577</t>
+  </si>
+  <si>
+    <t>proctorautomation65577@gmail.com</t>
+  </si>
+  <si>
+    <t>65577</t>
+  </si>
+  <si>
+    <t>Proctor29799</t>
+  </si>
+  <si>
+    <t>Automation29799</t>
+  </si>
+  <si>
+    <t>proctorautomation29799@gmail.com</t>
+  </si>
+  <si>
+    <t>29799</t>
+  </si>
+  <si>
+    <t>Proctor26139</t>
+  </si>
+  <si>
+    <t>Automation26139</t>
+  </si>
+  <si>
+    <t>proctorautomation26139@gmail.com</t>
+  </si>
+  <si>
+    <t>26139</t>
+  </si>
+  <si>
+    <t>Proctor89262</t>
+  </si>
+  <si>
+    <t>Automation89262</t>
+  </si>
+  <si>
+    <t>proctorautomation89262@gmail.com</t>
+  </si>
+  <si>
+    <t>89262</t>
+  </si>
+  <si>
+    <t>Proctor47016</t>
+  </si>
+  <si>
+    <t>Automation47016</t>
+  </si>
+  <si>
+    <t>proctorautomation47016@gmail.com</t>
+  </si>
+  <si>
+    <t>47016</t>
+  </si>
+  <si>
+    <t>Proctor24861</t>
+  </si>
+  <si>
+    <t>Automation24861</t>
+  </si>
+  <si>
+    <t>proctorautomation24861@gmail.com</t>
+  </si>
+  <si>
+    <t>24861</t>
+  </si>
+  <si>
+    <t>Proctor87640</t>
+  </si>
+  <si>
+    <t>Automation87640</t>
+  </si>
+  <si>
+    <t>proctorautomation87640@gmail.com</t>
+  </si>
+  <si>
+    <t>87640</t>
+  </si>
+  <si>
+    <t>Proctor27876</t>
+  </si>
+  <si>
+    <t>Automation27876</t>
+  </si>
+  <si>
+    <t>proctorautomation27876@gmail.com</t>
+  </si>
+  <si>
+    <t>27876</t>
+  </si>
+  <si>
+    <t>Proctor23518</t>
+  </si>
+  <si>
+    <t>Automation23518</t>
+  </si>
+  <si>
+    <t>proctorautomation23518@gmail.com</t>
+  </si>
+  <si>
+    <t>23518</t>
+  </si>
+  <si>
+    <t>Proctor77408</t>
+  </si>
+  <si>
+    <t>Automation77408</t>
+  </si>
+  <si>
+    <t>proctorautomation77408@gmail.com</t>
+  </si>
+  <si>
+    <t>77408</t>
+  </si>
+  <si>
+    <t>Proctor12053</t>
+  </si>
+  <si>
+    <t>Automation12053</t>
+  </si>
+  <si>
+    <t>proctorautomation12053@gmail.com</t>
+  </si>
+  <si>
+    <t>12053</t>
+  </si>
+  <si>
+    <t>Proctor08425</t>
+  </si>
+  <si>
+    <t>Automation08425</t>
+  </si>
+  <si>
+    <t>proctorautomation08425@gmail.com</t>
+  </si>
+  <si>
+    <t>08425</t>
+  </si>
+  <si>
+    <t>Proctor23833</t>
+  </si>
+  <si>
+    <t>Automation23833</t>
+  </si>
+  <si>
+    <t>proctorautomation23833@gmail.com</t>
+  </si>
+  <si>
+    <t>23833</t>
+  </si>
+  <si>
+    <t>Proctor29965</t>
+  </si>
+  <si>
+    <t>Automation29965</t>
+  </si>
+  <si>
+    <t>proctorautomation29965@gmail.com</t>
+  </si>
+  <si>
+    <t>29965</t>
+  </si>
+  <si>
+    <t>Proctor01805</t>
+  </si>
+  <si>
+    <t>Automation01805</t>
+  </si>
+  <si>
+    <t>proctorautomation01805@gmail.com</t>
+  </si>
+  <si>
+    <t>01805</t>
+  </si>
+  <si>
+    <t>Proctor34610</t>
+  </si>
+  <si>
+    <t>Automation34610</t>
+  </si>
+  <si>
+    <t>proctorautomation34610@gmail.com</t>
+  </si>
+  <si>
+    <t>34610</t>
+  </si>
+  <si>
+    <t>Proctor57571</t>
+  </si>
+  <si>
+    <t>Automation57571</t>
+  </si>
+  <si>
+    <t>proctorautomation57571@gmail.com</t>
+  </si>
+  <si>
+    <t>57571</t>
+  </si>
+  <si>
+    <t>Proctor20835</t>
+  </si>
+  <si>
+    <t>Automation20835</t>
+  </si>
+  <si>
+    <t>proctorautomation20835@gmail.com</t>
+  </si>
+  <si>
+    <t>20835</t>
+  </si>
+  <si>
+    <t>Proctor40798</t>
+  </si>
+  <si>
+    <t>Automation40798</t>
+  </si>
+  <si>
+    <t>proctorautomation40798@gmail.com</t>
+  </si>
+  <si>
+    <t>40798</t>
+  </si>
+  <si>
+    <t>Proctor45043</t>
+  </si>
+  <si>
+    <t>Automation45043</t>
+  </si>
+  <si>
+    <t>proctorautomation45043@gmail.com</t>
+  </si>
+  <si>
+    <t>45043</t>
+  </si>
+  <si>
+    <t>Proctor39746</t>
+  </si>
+  <si>
+    <t>Automation39746</t>
+  </si>
+  <si>
+    <t>proctorautomation39746@gmail.com</t>
+  </si>
+  <si>
+    <t>39746</t>
+  </si>
+  <si>
+    <t>Proctor89851</t>
+  </si>
+  <si>
+    <t>Automation89851</t>
+  </si>
+  <si>
+    <t>proctorautomation89851@gmail.com</t>
+  </si>
+  <si>
+    <t>89851</t>
+  </si>
+  <si>
+    <t>Proctor55622</t>
+  </si>
+  <si>
+    <t>Automation55622</t>
+  </si>
+  <si>
+    <t>proctorautomation55622@gmail.com</t>
+  </si>
+  <si>
+    <t>55622</t>
+  </si>
+  <si>
+    <t>Proctor28033</t>
+  </si>
+  <si>
+    <t>Automation28033</t>
+  </si>
+  <si>
+    <t>proctorautomation28033@gmail.com</t>
+  </si>
+  <si>
+    <t>28033</t>
+  </si>
+  <si>
+    <t>Proctor25265</t>
+  </si>
+  <si>
+    <t>Automation25265</t>
+  </si>
+  <si>
+    <t>proctorautomation25265@gmail.com</t>
+  </si>
+  <si>
+    <t>25265</t>
+  </si>
+  <si>
+    <t>Proctor68079</t>
+  </si>
+  <si>
+    <t>Automation68079</t>
+  </si>
+  <si>
+    <t>proctorautomation68079@gmail.com</t>
+  </si>
+  <si>
+    <t>68079</t>
+  </si>
+  <si>
+    <t>Proctor93337</t>
+  </si>
+  <si>
+    <t>Automation93337</t>
+  </si>
+  <si>
+    <t>proctorautomation93337@gmail.com</t>
+  </si>
+  <si>
+    <t>93337</t>
+  </si>
+  <si>
+    <t>Proctor18917</t>
+  </si>
+  <si>
+    <t>Automation18917</t>
+  </si>
+  <si>
+    <t>proctorautomation18917@gmail.com</t>
+  </si>
+  <si>
+    <t>18917</t>
+  </si>
+  <si>
+    <t>Proctor90476</t>
+  </si>
+  <si>
+    <t>Automation90476</t>
+  </si>
+  <si>
+    <t>proctorautomation90476@gmail.com</t>
+  </si>
+  <si>
+    <t>90476</t>
+  </si>
+  <si>
+    <t>Proctor59783</t>
+  </si>
+  <si>
+    <t>Automation59783</t>
+  </si>
+  <si>
+    <t>proctorautomation59783@gmail.com</t>
+  </si>
+  <si>
+    <t>59783</t>
+  </si>
+  <si>
+    <t>Proctor15830</t>
+  </si>
+  <si>
+    <t>Automation15830</t>
+  </si>
+  <si>
+    <t>proctorautomation15830@gmail.com</t>
+  </si>
+  <si>
+    <t>15830</t>
   </si>
 </sst>
 </file>
@@ -6913,422 +9421,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2044</v>
+        <v>2880</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>2045</v>
+        <v>2881</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2046</v>
+        <v>2882</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>2047</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2048</v>
+        <v>2884</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2049</v>
+        <v>2885</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2050</v>
+        <v>2886</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>2051</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>2052</v>
+        <v>2888</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>2053</v>
+        <v>2889</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>2054</v>
+        <v>2890</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>2055</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>2056</v>
+        <v>2892</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>2057</v>
+        <v>2893</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>2058</v>
+        <v>2894</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>2059</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>2060</v>
+        <v>2896</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>2061</v>
+        <v>2897</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>2062</v>
+        <v>2898</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>2063</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>2064</v>
+        <v>2900</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>2065</v>
+        <v>2901</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>2066</v>
+        <v>2902</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>2067</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>2068</v>
+        <v>2904</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>2069</v>
+        <v>2905</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>2070</v>
+        <v>2906</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>2071</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>2072</v>
+        <v>2908</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>2073</v>
+        <v>2909</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>2074</v>
+        <v>2910</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>2075</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>2076</v>
+        <v>2912</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>2077</v>
+        <v>2913</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>2078</v>
+        <v>2914</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>2079</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>2080</v>
+        <v>2916</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>2081</v>
+        <v>2917</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>2082</v>
+        <v>2918</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>2083</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>2084</v>
+        <v>2920</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>2085</v>
+        <v>2921</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>2086</v>
+        <v>2922</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>2087</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>2088</v>
+        <v>2924</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>2089</v>
+        <v>2925</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>2090</v>
+        <v>2926</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>2091</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>2092</v>
+        <v>2928</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>2093</v>
+        <v>2929</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>2094</v>
+        <v>2930</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>2095</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>2096</v>
+        <v>2932</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>2097</v>
+        <v>2933</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>2098</v>
+        <v>2934</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>2099</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>2100</v>
+        <v>2936</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>2101</v>
+        <v>2937</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>2102</v>
+        <v>2938</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>2103</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>2104</v>
+        <v>2940</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>2105</v>
+        <v>2941</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>2106</v>
+        <v>2942</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>2107</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>2108</v>
+        <v>2944</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>2109</v>
+        <v>2945</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>2110</v>
+        <v>2946</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>2111</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>2112</v>
+        <v>2948</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>2113</v>
+        <v>2949</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>2114</v>
+        <v>2950</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>2115</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>2116</v>
+        <v>2952</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>2117</v>
+        <v>2953</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>2118</v>
+        <v>2954</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>2119</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>2120</v>
+        <v>2956</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>2121</v>
+        <v>2957</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>2122</v>
+        <v>2958</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>2123</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>2124</v>
+        <v>2960</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>2125</v>
+        <v>2961</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>2126</v>
+        <v>2962</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>2127</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>2128</v>
+        <v>2964</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>2129</v>
+        <v>2965</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>2130</v>
+        <v>2966</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>2131</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>2132</v>
+        <v>2968</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>2133</v>
+        <v>2969</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>2134</v>
+        <v>2970</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>2135</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>2136</v>
+        <v>2972</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>2137</v>
+        <v>2973</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>2138</v>
+        <v>2974</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>2139</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>2140</v>
+        <v>2976</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>2141</v>
+        <v>2977</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>2142</v>
+        <v>2978</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>2143</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>2144</v>
+        <v>2980</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>2145</v>
+        <v>2981</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>2146</v>
+        <v>2982</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>2147</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>2148</v>
+        <v>2984</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>2149</v>
+        <v>2985</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>2150</v>
+        <v>2986</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>2151</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>2152</v>
+        <v>2988</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>2153</v>
+        <v>2989</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>2154</v>
+        <v>2990</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>2155</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>2156</v>
+        <v>2992</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>2157</v>
+        <v>2993</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>2158</v>
+        <v>2994</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>2159</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>2160</v>
+        <v>2996</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>2161</v>
+        <v>2997</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>2162</v>
+        <v>2998</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>2163</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="3000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="3240">
   <si>
     <t>FirstName</t>
   </si>
@@ -9014,6 +9014,726 @@
   </si>
   <si>
     <t>15830</t>
+  </si>
+  <si>
+    <t>Proctor87673</t>
+  </si>
+  <si>
+    <t>Automation87673</t>
+  </si>
+  <si>
+    <t>proctorautomation87673@gmail.com</t>
+  </si>
+  <si>
+    <t>87673</t>
+  </si>
+  <si>
+    <t>Proctor64254</t>
+  </si>
+  <si>
+    <t>Automation64254</t>
+  </si>
+  <si>
+    <t>proctorautomation64254@gmail.com</t>
+  </si>
+  <si>
+    <t>64254</t>
+  </si>
+  <si>
+    <t>Proctor55135</t>
+  </si>
+  <si>
+    <t>Automation55135</t>
+  </si>
+  <si>
+    <t>proctorautomation55135@gmail.com</t>
+  </si>
+  <si>
+    <t>55135</t>
+  </si>
+  <si>
+    <t>Proctor42131</t>
+  </si>
+  <si>
+    <t>Automation42131</t>
+  </si>
+  <si>
+    <t>proctorautomation42131@gmail.com</t>
+  </si>
+  <si>
+    <t>42131</t>
+  </si>
+  <si>
+    <t>Proctor37442</t>
+  </si>
+  <si>
+    <t>Automation37442</t>
+  </si>
+  <si>
+    <t>proctorautomation37442@gmail.com</t>
+  </si>
+  <si>
+    <t>37442</t>
+  </si>
+  <si>
+    <t>Proctor65015</t>
+  </si>
+  <si>
+    <t>Automation65015</t>
+  </si>
+  <si>
+    <t>proctorautomation65015@gmail.com</t>
+  </si>
+  <si>
+    <t>65015</t>
+  </si>
+  <si>
+    <t>Proctor94210</t>
+  </si>
+  <si>
+    <t>Automation94210</t>
+  </si>
+  <si>
+    <t>proctorautomation94210@gmail.com</t>
+  </si>
+  <si>
+    <t>94210</t>
+  </si>
+  <si>
+    <t>Proctor99463</t>
+  </si>
+  <si>
+    <t>Automation99463</t>
+  </si>
+  <si>
+    <t>proctorautomation99463@gmail.com</t>
+  </si>
+  <si>
+    <t>99463</t>
+  </si>
+  <si>
+    <t>Proctor66790</t>
+  </si>
+  <si>
+    <t>Automation66790</t>
+  </si>
+  <si>
+    <t>proctorautomation66790@gmail.com</t>
+  </si>
+  <si>
+    <t>66790</t>
+  </si>
+  <si>
+    <t>Proctor78079</t>
+  </si>
+  <si>
+    <t>Automation78079</t>
+  </si>
+  <si>
+    <t>proctorautomation78079@gmail.com</t>
+  </si>
+  <si>
+    <t>78079</t>
+  </si>
+  <si>
+    <t>Proctor88392</t>
+  </si>
+  <si>
+    <t>Automation88392</t>
+  </si>
+  <si>
+    <t>proctorautomation88392@gmail.com</t>
+  </si>
+  <si>
+    <t>88392</t>
+  </si>
+  <si>
+    <t>Proctor24403</t>
+  </si>
+  <si>
+    <t>Automation24403</t>
+  </si>
+  <si>
+    <t>proctorautomation24403@gmail.com</t>
+  </si>
+  <si>
+    <t>24403</t>
+  </si>
+  <si>
+    <t>Proctor47990</t>
+  </si>
+  <si>
+    <t>Automation47990</t>
+  </si>
+  <si>
+    <t>proctorautomation47990@gmail.com</t>
+  </si>
+  <si>
+    <t>47990</t>
+  </si>
+  <si>
+    <t>Proctor14913</t>
+  </si>
+  <si>
+    <t>Automation14913</t>
+  </si>
+  <si>
+    <t>proctorautomation14913@gmail.com</t>
+  </si>
+  <si>
+    <t>14913</t>
+  </si>
+  <si>
+    <t>Proctor06224</t>
+  </si>
+  <si>
+    <t>Automation06224</t>
+  </si>
+  <si>
+    <t>proctorautomation06224@gmail.com</t>
+  </si>
+  <si>
+    <t>06224</t>
+  </si>
+  <si>
+    <t>Proctor52006</t>
+  </si>
+  <si>
+    <t>Automation52006</t>
+  </si>
+  <si>
+    <t>proctorautomation52006@gmail.com</t>
+  </si>
+  <si>
+    <t>52006</t>
+  </si>
+  <si>
+    <t>Proctor64085</t>
+  </si>
+  <si>
+    <t>Automation64085</t>
+  </si>
+  <si>
+    <t>proctorautomation64085@gmail.com</t>
+  </si>
+  <si>
+    <t>64085</t>
+  </si>
+  <si>
+    <t>Proctor01475</t>
+  </si>
+  <si>
+    <t>Automation01475</t>
+  </si>
+  <si>
+    <t>proctorautomation01475@gmail.com</t>
+  </si>
+  <si>
+    <t>01475</t>
+  </si>
+  <si>
+    <t>Proctor43535</t>
+  </si>
+  <si>
+    <t>Automation43535</t>
+  </si>
+  <si>
+    <t>proctorautomation43535@gmail.com</t>
+  </si>
+  <si>
+    <t>43535</t>
+  </si>
+  <si>
+    <t>Proctor06820</t>
+  </si>
+  <si>
+    <t>Automation06820</t>
+  </si>
+  <si>
+    <t>proctorautomation06820@gmail.com</t>
+  </si>
+  <si>
+    <t>06820</t>
+  </si>
+  <si>
+    <t>Proctor98745</t>
+  </si>
+  <si>
+    <t>Automation98745</t>
+  </si>
+  <si>
+    <t>proctorautomation98745@gmail.com</t>
+  </si>
+  <si>
+    <t>98745</t>
+  </si>
+  <si>
+    <t>Proctor86369</t>
+  </si>
+  <si>
+    <t>Automation86369</t>
+  </si>
+  <si>
+    <t>proctorautomation86369@gmail.com</t>
+  </si>
+  <si>
+    <t>86369</t>
+  </si>
+  <si>
+    <t>Proctor41243</t>
+  </si>
+  <si>
+    <t>Automation41243</t>
+  </si>
+  <si>
+    <t>proctorautomation41243@gmail.com</t>
+  </si>
+  <si>
+    <t>41243</t>
+  </si>
+  <si>
+    <t>Proctor89771</t>
+  </si>
+  <si>
+    <t>Automation89771</t>
+  </si>
+  <si>
+    <t>proctorautomation89771@gmail.com</t>
+  </si>
+  <si>
+    <t>89771</t>
+  </si>
+  <si>
+    <t>Proctor05762</t>
+  </si>
+  <si>
+    <t>Automation05762</t>
+  </si>
+  <si>
+    <t>proctorautomation05762@gmail.com</t>
+  </si>
+  <si>
+    <t>05762</t>
+  </si>
+  <si>
+    <t>Proctor27798</t>
+  </si>
+  <si>
+    <t>Automation27798</t>
+  </si>
+  <si>
+    <t>proctorautomation27798@gmail.com</t>
+  </si>
+  <si>
+    <t>27798</t>
+  </si>
+  <si>
+    <t>Proctor51616</t>
+  </si>
+  <si>
+    <t>Automation51616</t>
+  </si>
+  <si>
+    <t>proctorautomation51616@gmail.com</t>
+  </si>
+  <si>
+    <t>51616</t>
+  </si>
+  <si>
+    <t>Proctor69712</t>
+  </si>
+  <si>
+    <t>Automation69712</t>
+  </si>
+  <si>
+    <t>proctorautomation69712@gmail.com</t>
+  </si>
+  <si>
+    <t>69712</t>
+  </si>
+  <si>
+    <t>Proctor82231</t>
+  </si>
+  <si>
+    <t>Automation82231</t>
+  </si>
+  <si>
+    <t>proctorautomation82231@gmail.com</t>
+  </si>
+  <si>
+    <t>82231</t>
+  </si>
+  <si>
+    <t>Proctor17147</t>
+  </si>
+  <si>
+    <t>Automation17147</t>
+  </si>
+  <si>
+    <t>proctorautomation17147@gmail.com</t>
+  </si>
+  <si>
+    <t>17147</t>
+  </si>
+  <si>
+    <t>Proctor36689</t>
+  </si>
+  <si>
+    <t>Automation36689</t>
+  </si>
+  <si>
+    <t>proctorautomation36689@gmail.com</t>
+  </si>
+  <si>
+    <t>36689</t>
+  </si>
+  <si>
+    <t>Proctor74503</t>
+  </si>
+  <si>
+    <t>Automation74503</t>
+  </si>
+  <si>
+    <t>proctorautomation74503@gmail.com</t>
+  </si>
+  <si>
+    <t>74503</t>
+  </si>
+  <si>
+    <t>Proctor15843</t>
+  </si>
+  <si>
+    <t>Automation15843</t>
+  </si>
+  <si>
+    <t>proctorautomation15843@gmail.com</t>
+  </si>
+  <si>
+    <t>15843</t>
+  </si>
+  <si>
+    <t>Proctor60786</t>
+  </si>
+  <si>
+    <t>Automation60786</t>
+  </si>
+  <si>
+    <t>proctorautomation60786@gmail.com</t>
+  </si>
+  <si>
+    <t>60786</t>
+  </si>
+  <si>
+    <t>Proctor74661</t>
+  </si>
+  <si>
+    <t>Automation74661</t>
+  </si>
+  <si>
+    <t>proctorautomation74661@gmail.com</t>
+  </si>
+  <si>
+    <t>74661</t>
+  </si>
+  <si>
+    <t>Proctor93875</t>
+  </si>
+  <si>
+    <t>Automation93875</t>
+  </si>
+  <si>
+    <t>proctorautomation93875@gmail.com</t>
+  </si>
+  <si>
+    <t>93875</t>
+  </si>
+  <si>
+    <t>Proctor34693</t>
+  </si>
+  <si>
+    <t>Automation34693</t>
+  </si>
+  <si>
+    <t>proctorautomation34693@gmail.com</t>
+  </si>
+  <si>
+    <t>34693</t>
+  </si>
+  <si>
+    <t>Proctor05411</t>
+  </si>
+  <si>
+    <t>Automation05411</t>
+  </si>
+  <si>
+    <t>proctorautomation05411@gmail.com</t>
+  </si>
+  <si>
+    <t>05411</t>
+  </si>
+  <si>
+    <t>Proctor99427</t>
+  </si>
+  <si>
+    <t>Automation99427</t>
+  </si>
+  <si>
+    <t>proctorautomation99427@gmail.com</t>
+  </si>
+  <si>
+    <t>99427</t>
+  </si>
+  <si>
+    <t>Proctor77070</t>
+  </si>
+  <si>
+    <t>Automation77070</t>
+  </si>
+  <si>
+    <t>proctorautomation77070@gmail.com</t>
+  </si>
+  <si>
+    <t>77070</t>
+  </si>
+  <si>
+    <t>Proctor39957</t>
+  </si>
+  <si>
+    <t>Automation39957</t>
+  </si>
+  <si>
+    <t>proctorautomation39957@gmail.com</t>
+  </si>
+  <si>
+    <t>39957</t>
+  </si>
+  <si>
+    <t>Proctor22200</t>
+  </si>
+  <si>
+    <t>Automation22200</t>
+  </si>
+  <si>
+    <t>proctorautomation22200@gmail.com</t>
+  </si>
+  <si>
+    <t>22200</t>
+  </si>
+  <si>
+    <t>Proctor09059</t>
+  </si>
+  <si>
+    <t>Automation09059</t>
+  </si>
+  <si>
+    <t>proctorautomation09059@gmail.com</t>
+  </si>
+  <si>
+    <t>09059</t>
+  </si>
+  <si>
+    <t>Proctor01904</t>
+  </si>
+  <si>
+    <t>Automation01904</t>
+  </si>
+  <si>
+    <t>proctorautomation01904@gmail.com</t>
+  </si>
+  <si>
+    <t>01904</t>
+  </si>
+  <si>
+    <t>Proctor25294</t>
+  </si>
+  <si>
+    <t>Automation25294</t>
+  </si>
+  <si>
+    <t>proctorautomation25294@gmail.com</t>
+  </si>
+  <si>
+    <t>25294</t>
+  </si>
+  <si>
+    <t>Proctor09361</t>
+  </si>
+  <si>
+    <t>Automation09361</t>
+  </si>
+  <si>
+    <t>proctorautomation09361@gmail.com</t>
+  </si>
+  <si>
+    <t>09361</t>
+  </si>
+  <si>
+    <t>Proctor90814</t>
+  </si>
+  <si>
+    <t>Automation90814</t>
+  </si>
+  <si>
+    <t>proctorautomation90814@gmail.com</t>
+  </si>
+  <si>
+    <t>90814</t>
+  </si>
+  <si>
+    <t>Proctor18651</t>
+  </si>
+  <si>
+    <t>Automation18651</t>
+  </si>
+  <si>
+    <t>proctorautomation18651@gmail.com</t>
+  </si>
+  <si>
+    <t>18651</t>
+  </si>
+  <si>
+    <t>Proctor65538</t>
+  </si>
+  <si>
+    <t>Automation65538</t>
+  </si>
+  <si>
+    <t>proctorautomation65538@gmail.com</t>
+  </si>
+  <si>
+    <t>65538</t>
+  </si>
+  <si>
+    <t>Proctor44990</t>
+  </si>
+  <si>
+    <t>Automation44990</t>
+  </si>
+  <si>
+    <t>proctorautomation44990@gmail.com</t>
+  </si>
+  <si>
+    <t>44990</t>
+  </si>
+  <si>
+    <t>Proctor06478</t>
+  </si>
+  <si>
+    <t>Automation06478</t>
+  </si>
+  <si>
+    <t>proctorautomation06478@gmail.com</t>
+  </si>
+  <si>
+    <t>06478</t>
+  </si>
+  <si>
+    <t>Proctor71687</t>
+  </si>
+  <si>
+    <t>Automation71687</t>
+  </si>
+  <si>
+    <t>proctorautomation71687@gmail.com</t>
+  </si>
+  <si>
+    <t>71687</t>
+  </si>
+  <si>
+    <t>Proctor08181</t>
+  </si>
+  <si>
+    <t>Automation08181</t>
+  </si>
+  <si>
+    <t>proctorautomation08181@gmail.com</t>
+  </si>
+  <si>
+    <t>08181</t>
+  </si>
+  <si>
+    <t>Proctor43252</t>
+  </si>
+  <si>
+    <t>Automation43252</t>
+  </si>
+  <si>
+    <t>proctorautomation43252@gmail.com</t>
+  </si>
+  <si>
+    <t>43252</t>
+  </si>
+  <si>
+    <t>Proctor97386</t>
+  </si>
+  <si>
+    <t>Automation97386</t>
+  </si>
+  <si>
+    <t>proctorautomation97386@gmail.com</t>
+  </si>
+  <si>
+    <t>97386</t>
+  </si>
+  <si>
+    <t>Proctor07559</t>
+  </si>
+  <si>
+    <t>Automation07559</t>
+  </si>
+  <si>
+    <t>proctorautomation07559@gmail.com</t>
+  </si>
+  <si>
+    <t>07559</t>
+  </si>
+  <si>
+    <t>Proctor63357</t>
+  </si>
+  <si>
+    <t>Automation63357</t>
+  </si>
+  <si>
+    <t>proctorautomation63357@gmail.com</t>
+  </si>
+  <si>
+    <t>63357</t>
+  </si>
+  <si>
+    <t>Proctor32447</t>
+  </si>
+  <si>
+    <t>Automation32447</t>
+  </si>
+  <si>
+    <t>proctorautomation32447@gmail.com</t>
+  </si>
+  <si>
+    <t>32447</t>
+  </si>
+  <si>
+    <t>Proctor56378</t>
+  </si>
+  <si>
+    <t>Automation56378</t>
+  </si>
+  <si>
+    <t>proctorautomation56378@gmail.com</t>
+  </si>
+  <si>
+    <t>56378</t>
+  </si>
+  <si>
+    <t>Proctor29481</t>
+  </si>
+  <si>
+    <t>Automation29481</t>
+  </si>
+  <si>
+    <t>proctorautomation29481@gmail.com</t>
+  </si>
+  <si>
+    <t>29481</t>
   </si>
 </sst>
 </file>
@@ -9421,422 +10141,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2880</v>
+        <v>3120</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>2881</v>
+        <v>3121</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2882</v>
+        <v>3122</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>2883</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2884</v>
+        <v>3124</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2885</v>
+        <v>3125</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2886</v>
+        <v>3126</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>2887</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>2888</v>
+        <v>3128</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>2889</v>
+        <v>3129</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>2890</v>
+        <v>3130</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>2891</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>2892</v>
+        <v>3132</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>2893</v>
+        <v>3133</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>2894</v>
+        <v>3134</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>2895</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>2896</v>
+        <v>3136</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>2897</v>
+        <v>3137</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>2898</v>
+        <v>3138</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>2899</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>2900</v>
+        <v>3140</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>2901</v>
+        <v>3141</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>2902</v>
+        <v>3142</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>2903</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>2904</v>
+        <v>3144</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>2905</v>
+        <v>3145</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>2906</v>
+        <v>3146</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>2907</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>2908</v>
+        <v>3148</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>2909</v>
+        <v>3149</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>2910</v>
+        <v>3150</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>2911</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>2912</v>
+        <v>3152</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>2913</v>
+        <v>3153</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>2914</v>
+        <v>3154</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>2915</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>2916</v>
+        <v>3156</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>2917</v>
+        <v>3157</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>2918</v>
+        <v>3158</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>2919</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>2920</v>
+        <v>3160</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>2921</v>
+        <v>3161</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>2922</v>
+        <v>3162</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>2923</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>2924</v>
+        <v>3164</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>2925</v>
+        <v>3165</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>2926</v>
+        <v>3166</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>2927</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>2928</v>
+        <v>3168</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>2929</v>
+        <v>3169</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>2930</v>
+        <v>3170</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>2931</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>2932</v>
+        <v>3172</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>2933</v>
+        <v>3173</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>2934</v>
+        <v>3174</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>2935</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>2936</v>
+        <v>3176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>2937</v>
+        <v>3177</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>2938</v>
+        <v>3178</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>2939</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>2940</v>
+        <v>3180</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>2941</v>
+        <v>3181</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>2942</v>
+        <v>3182</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>2943</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>2944</v>
+        <v>3184</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>2945</v>
+        <v>3185</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>2946</v>
+        <v>3186</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>2947</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>2948</v>
+        <v>3188</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>2949</v>
+        <v>3189</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>2950</v>
+        <v>3190</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>2951</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>2952</v>
+        <v>3192</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>2953</v>
+        <v>3193</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>2954</v>
+        <v>3194</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>2955</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>2956</v>
+        <v>3196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>2957</v>
+        <v>3197</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>2958</v>
+        <v>3198</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>2959</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>2960</v>
+        <v>3200</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>2961</v>
+        <v>3201</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>2962</v>
+        <v>3202</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>2963</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>2964</v>
+        <v>3204</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>2965</v>
+        <v>3205</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>2966</v>
+        <v>3206</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>2967</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>2968</v>
+        <v>3208</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>2969</v>
+        <v>3209</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>2970</v>
+        <v>3210</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>2971</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>2972</v>
+        <v>3212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>2973</v>
+        <v>3213</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>2974</v>
+        <v>3214</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>2975</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>2976</v>
+        <v>3216</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>2977</v>
+        <v>3217</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>2978</v>
+        <v>3218</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>2979</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>2980</v>
+        <v>3220</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>2981</v>
+        <v>3221</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>2982</v>
+        <v>3222</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>2983</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>2984</v>
+        <v>3224</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>2985</v>
+        <v>3225</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>2986</v>
+        <v>3226</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>2987</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>2988</v>
+        <v>3228</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>2989</v>
+        <v>3229</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>2990</v>
+        <v>3230</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>2991</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>2992</v>
+        <v>3232</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>2993</v>
+        <v>3233</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>2994</v>
+        <v>3234</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>2995</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>2996</v>
+        <v>3236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>2997</v>
+        <v>3237</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>2998</v>
+        <v>3238</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>2999</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3248" uniqueCount="3240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="3356">
   <si>
     <t>FirstName</t>
   </si>
@@ -9734,6 +9734,354 @@
   </si>
   <si>
     <t>29481</t>
+  </si>
+  <si>
+    <t>Proctor73698</t>
+  </si>
+  <si>
+    <t>Automation73698</t>
+  </si>
+  <si>
+    <t>proctorautomation73698@gmail.com</t>
+  </si>
+  <si>
+    <t>73698</t>
+  </si>
+  <si>
+    <t>Proctor27831</t>
+  </si>
+  <si>
+    <t>Automation27831</t>
+  </si>
+  <si>
+    <t>proctorautomation27831@gmail.com</t>
+  </si>
+  <si>
+    <t>27831</t>
+  </si>
+  <si>
+    <t>Proctor22416</t>
+  </si>
+  <si>
+    <t>Automation22416</t>
+  </si>
+  <si>
+    <t>proctorautomation22416@gmail.com</t>
+  </si>
+  <si>
+    <t>22416</t>
+  </si>
+  <si>
+    <t>Proctor39760</t>
+  </si>
+  <si>
+    <t>Automation39760</t>
+  </si>
+  <si>
+    <t>proctorautomation39760@gmail.com</t>
+  </si>
+  <si>
+    <t>39760</t>
+  </si>
+  <si>
+    <t>Proctor06524</t>
+  </si>
+  <si>
+    <t>Automation06524</t>
+  </si>
+  <si>
+    <t>proctorautomation06524@gmail.com</t>
+  </si>
+  <si>
+    <t>06524</t>
+  </si>
+  <si>
+    <t>Proctor40560</t>
+  </si>
+  <si>
+    <t>Automation40560</t>
+  </si>
+  <si>
+    <t>proctorautomation40560@gmail.com</t>
+  </si>
+  <si>
+    <t>40560</t>
+  </si>
+  <si>
+    <t>Proctor92141</t>
+  </si>
+  <si>
+    <t>Automation92141</t>
+  </si>
+  <si>
+    <t>proctorautomation92141@gmail.com</t>
+  </si>
+  <si>
+    <t>92141</t>
+  </si>
+  <si>
+    <t>Proctor44095</t>
+  </si>
+  <si>
+    <t>Automation44095</t>
+  </si>
+  <si>
+    <t>proctorautomation44095@gmail.com</t>
+  </si>
+  <si>
+    <t>44095</t>
+  </si>
+  <si>
+    <t>Proctor16545</t>
+  </si>
+  <si>
+    <t>Automation16545</t>
+  </si>
+  <si>
+    <t>proctorautomation16545@gmail.com</t>
+  </si>
+  <si>
+    <t>16545</t>
+  </si>
+  <si>
+    <t>Proctor03599</t>
+  </si>
+  <si>
+    <t>Automation03599</t>
+  </si>
+  <si>
+    <t>proctorautomation03599@gmail.com</t>
+  </si>
+  <si>
+    <t>03599</t>
+  </si>
+  <si>
+    <t>Proctor25112</t>
+  </si>
+  <si>
+    <t>Automation25112</t>
+  </si>
+  <si>
+    <t>proctorautomation25112@gmail.com</t>
+  </si>
+  <si>
+    <t>25112</t>
+  </si>
+  <si>
+    <t>Proctor56116</t>
+  </si>
+  <si>
+    <t>Automation56116</t>
+  </si>
+  <si>
+    <t>proctorautomation56116@gmail.com</t>
+  </si>
+  <si>
+    <t>56116</t>
+  </si>
+  <si>
+    <t>Proctor78964</t>
+  </si>
+  <si>
+    <t>Automation78964</t>
+  </si>
+  <si>
+    <t>proctorautomation78964@gmail.com</t>
+  </si>
+  <si>
+    <t>78964</t>
+  </si>
+  <si>
+    <t>Proctor69936</t>
+  </si>
+  <si>
+    <t>Automation69936</t>
+  </si>
+  <si>
+    <t>proctorautomation69936@gmail.com</t>
+  </si>
+  <si>
+    <t>69936</t>
+  </si>
+  <si>
+    <t>Proctor14962</t>
+  </si>
+  <si>
+    <t>Automation14962</t>
+  </si>
+  <si>
+    <t>proctorautomation14962@gmail.com</t>
+  </si>
+  <si>
+    <t>14962</t>
+  </si>
+  <si>
+    <t>Proctor74739</t>
+  </si>
+  <si>
+    <t>Automation74739</t>
+  </si>
+  <si>
+    <t>proctorautomation74739@gmail.com</t>
+  </si>
+  <si>
+    <t>74739</t>
+  </si>
+  <si>
+    <t>Proctor18510</t>
+  </si>
+  <si>
+    <t>Automation18510</t>
+  </si>
+  <si>
+    <t>proctorautomation18510@gmail.com</t>
+  </si>
+  <si>
+    <t>18510</t>
+  </si>
+  <si>
+    <t>Proctor72967</t>
+  </si>
+  <si>
+    <t>Automation72967</t>
+  </si>
+  <si>
+    <t>proctorautomation72967@gmail.com</t>
+  </si>
+  <si>
+    <t>72967</t>
+  </si>
+  <si>
+    <t>Proctor26040</t>
+  </si>
+  <si>
+    <t>Automation26040</t>
+  </si>
+  <si>
+    <t>proctorautomation26040@gmail.com</t>
+  </si>
+  <si>
+    <t>26040</t>
+  </si>
+  <si>
+    <t>Proctor48172</t>
+  </si>
+  <si>
+    <t>Automation48172</t>
+  </si>
+  <si>
+    <t>proctorautomation48172@gmail.com</t>
+  </si>
+  <si>
+    <t>48172</t>
+  </si>
+  <si>
+    <t>Proctor88911</t>
+  </si>
+  <si>
+    <t>Automation88911</t>
+  </si>
+  <si>
+    <t>proctorautomation88911@gmail.com</t>
+  </si>
+  <si>
+    <t>88911</t>
+  </si>
+  <si>
+    <t>Proctor74578</t>
+  </si>
+  <si>
+    <t>Automation74578</t>
+  </si>
+  <si>
+    <t>proctorautomation74578@gmail.com</t>
+  </si>
+  <si>
+    <t>74578</t>
+  </si>
+  <si>
+    <t>Proctor47378</t>
+  </si>
+  <si>
+    <t>Automation47378</t>
+  </si>
+  <si>
+    <t>proctorautomation47378@gmail.com</t>
+  </si>
+  <si>
+    <t>47378</t>
+  </si>
+  <si>
+    <t>Proctor56279</t>
+  </si>
+  <si>
+    <t>Automation56279</t>
+  </si>
+  <si>
+    <t>proctorautomation56279@gmail.com</t>
+  </si>
+  <si>
+    <t>56279</t>
+  </si>
+  <si>
+    <t>Proctor76007</t>
+  </si>
+  <si>
+    <t>Automation76007</t>
+  </si>
+  <si>
+    <t>proctorautomation76007@gmail.com</t>
+  </si>
+  <si>
+    <t>76007</t>
+  </si>
+  <si>
+    <t>Proctor37242</t>
+  </si>
+  <si>
+    <t>Automation37242</t>
+  </si>
+  <si>
+    <t>proctorautomation37242@gmail.com</t>
+  </si>
+  <si>
+    <t>37242</t>
+  </si>
+  <si>
+    <t>Proctor70032</t>
+  </si>
+  <si>
+    <t>Automation70032</t>
+  </si>
+  <si>
+    <t>proctorautomation70032@gmail.com</t>
+  </si>
+  <si>
+    <t>70032</t>
+  </si>
+  <si>
+    <t>Proctor01571</t>
+  </si>
+  <si>
+    <t>Automation01571</t>
+  </si>
+  <si>
+    <t>proctorautomation01571@gmail.com</t>
+  </si>
+  <si>
+    <t>01571</t>
+  </si>
+  <si>
+    <t>Proctor72902</t>
+  </si>
+  <si>
+    <t>Automation72902</t>
+  </si>
+  <si>
+    <t>proctorautomation72902@gmail.com</t>
+  </si>
+  <si>
+    <t>72902</t>
   </si>
 </sst>
 </file>
@@ -10141,422 +10489,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3120</v>
+        <v>3240</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3121</v>
+        <v>3241</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3122</v>
+        <v>3242</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3123</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3124</v>
+        <v>3244</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3125</v>
+        <v>3245</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3126</v>
+        <v>3246</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3127</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3128</v>
+        <v>3248</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3129</v>
+        <v>3249</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3130</v>
+        <v>3250</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3131</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3132</v>
+        <v>3252</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3133</v>
+        <v>3253</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3134</v>
+        <v>3254</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3135</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3136</v>
+        <v>3256</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3137</v>
+        <v>3257</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3138</v>
+        <v>3258</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3139</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3140</v>
+        <v>3260</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3141</v>
+        <v>3261</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3142</v>
+        <v>3262</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3143</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3144</v>
+        <v>3264</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3145</v>
+        <v>3265</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3146</v>
+        <v>3266</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3147</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3148</v>
+        <v>3268</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3149</v>
+        <v>3269</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3150</v>
+        <v>3270</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3151</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>3152</v>
+        <v>3272</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3153</v>
+        <v>3273</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>3154</v>
+        <v>3274</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3155</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3156</v>
+        <v>3276</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3157</v>
+        <v>3277</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3158</v>
+        <v>3278</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3159</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3160</v>
+        <v>3280</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3161</v>
+        <v>3281</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3162</v>
+        <v>3282</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3163</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3164</v>
+        <v>3284</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3165</v>
+        <v>3285</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3166</v>
+        <v>3286</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3167</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3168</v>
+        <v>3288</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3169</v>
+        <v>3289</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3170</v>
+        <v>3290</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3171</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3172</v>
+        <v>3292</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3173</v>
+        <v>3293</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3174</v>
+        <v>3294</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3175</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3176</v>
+        <v>3296</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3177</v>
+        <v>3297</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3178</v>
+        <v>3298</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3179</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3180</v>
+        <v>3300</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3181</v>
+        <v>3301</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3182</v>
+        <v>3302</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3183</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3184</v>
+        <v>3304</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3185</v>
+        <v>3305</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3186</v>
+        <v>3306</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3187</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3188</v>
+        <v>1129</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3189</v>
+        <v>1130</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3190</v>
+        <v>1131</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3191</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3192</v>
+        <v>3308</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3193</v>
+        <v>3309</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3194</v>
+        <v>3310</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3195</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3196</v>
+        <v>3312</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3197</v>
+        <v>3313</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3198</v>
+        <v>3314</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3199</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3200</v>
+        <v>3316</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3201</v>
+        <v>3317</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3202</v>
+        <v>3318</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3203</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3204</v>
+        <v>3320</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3205</v>
+        <v>3321</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3206</v>
+        <v>3322</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3207</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3208</v>
+        <v>3324</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3209</v>
+        <v>3325</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3210</v>
+        <v>3326</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3211</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3212</v>
+        <v>3328</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3213</v>
+        <v>3329</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3214</v>
+        <v>3330</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3215</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3216</v>
+        <v>3332</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3217</v>
+        <v>3333</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3218</v>
+        <v>3334</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3219</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3220</v>
+        <v>3336</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3221</v>
+        <v>3337</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3222</v>
+        <v>3338</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3223</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3224</v>
+        <v>3340</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3225</v>
+        <v>3341</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3226</v>
+        <v>3342</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3227</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3228</v>
+        <v>3344</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3229</v>
+        <v>3345</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3230</v>
+        <v>3346</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3231</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3232</v>
+        <v>3348</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3233</v>
+        <v>3349</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3234</v>
+        <v>3350</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3235</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3236</v>
+        <v>3352</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3237</v>
+        <v>3353</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3238</v>
+        <v>3354</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3239</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3368" uniqueCount="3356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="3596">
   <si>
     <t>FirstName</t>
   </si>
@@ -10082,6 +10082,726 @@
   </si>
   <si>
     <t>72902</t>
+  </si>
+  <si>
+    <t>Proctor73456</t>
+  </si>
+  <si>
+    <t>Automation73456</t>
+  </si>
+  <si>
+    <t>proctorautomation73456@gmail.com</t>
+  </si>
+  <si>
+    <t>73456</t>
+  </si>
+  <si>
+    <t>Proctor60084</t>
+  </si>
+  <si>
+    <t>Automation60084</t>
+  </si>
+  <si>
+    <t>proctorautomation60084@gmail.com</t>
+  </si>
+  <si>
+    <t>60084</t>
+  </si>
+  <si>
+    <t>Proctor37901</t>
+  </si>
+  <si>
+    <t>Automation37901</t>
+  </si>
+  <si>
+    <t>proctorautomation37901@gmail.com</t>
+  </si>
+  <si>
+    <t>37901</t>
+  </si>
+  <si>
+    <t>Proctor53651</t>
+  </si>
+  <si>
+    <t>Automation53651</t>
+  </si>
+  <si>
+    <t>proctorautomation53651@gmail.com</t>
+  </si>
+  <si>
+    <t>53651</t>
+  </si>
+  <si>
+    <t>Proctor41556</t>
+  </si>
+  <si>
+    <t>Automation41556</t>
+  </si>
+  <si>
+    <t>proctorautomation41556@gmail.com</t>
+  </si>
+  <si>
+    <t>41556</t>
+  </si>
+  <si>
+    <t>Proctor04367</t>
+  </si>
+  <si>
+    <t>Automation04367</t>
+  </si>
+  <si>
+    <t>proctorautomation04367@gmail.com</t>
+  </si>
+  <si>
+    <t>04367</t>
+  </si>
+  <si>
+    <t>Proctor15878</t>
+  </si>
+  <si>
+    <t>Automation15878</t>
+  </si>
+  <si>
+    <t>proctorautomation15878@gmail.com</t>
+  </si>
+  <si>
+    <t>15878</t>
+  </si>
+  <si>
+    <t>Proctor65022</t>
+  </si>
+  <si>
+    <t>Automation65022</t>
+  </si>
+  <si>
+    <t>proctorautomation65022@gmail.com</t>
+  </si>
+  <si>
+    <t>65022</t>
+  </si>
+  <si>
+    <t>Proctor12060</t>
+  </si>
+  <si>
+    <t>Automation12060</t>
+  </si>
+  <si>
+    <t>proctorautomation12060@gmail.com</t>
+  </si>
+  <si>
+    <t>12060</t>
+  </si>
+  <si>
+    <t>Proctor85121</t>
+  </si>
+  <si>
+    <t>Automation85121</t>
+  </si>
+  <si>
+    <t>proctorautomation85121@gmail.com</t>
+  </si>
+  <si>
+    <t>85121</t>
+  </si>
+  <si>
+    <t>Proctor63639</t>
+  </si>
+  <si>
+    <t>Automation63639</t>
+  </si>
+  <si>
+    <t>proctorautomation63639@gmail.com</t>
+  </si>
+  <si>
+    <t>63639</t>
+  </si>
+  <si>
+    <t>Proctor49867</t>
+  </si>
+  <si>
+    <t>Automation49867</t>
+  </si>
+  <si>
+    <t>proctorautomation49867@gmail.com</t>
+  </si>
+  <si>
+    <t>49867</t>
+  </si>
+  <si>
+    <t>Proctor51760</t>
+  </si>
+  <si>
+    <t>Automation51760</t>
+  </si>
+  <si>
+    <t>proctorautomation51760@gmail.com</t>
+  </si>
+  <si>
+    <t>51760</t>
+  </si>
+  <si>
+    <t>Proctor07279</t>
+  </si>
+  <si>
+    <t>Automation07279</t>
+  </si>
+  <si>
+    <t>proctorautomation07279@gmail.com</t>
+  </si>
+  <si>
+    <t>07279</t>
+  </si>
+  <si>
+    <t>Proctor55095</t>
+  </si>
+  <si>
+    <t>Automation55095</t>
+  </si>
+  <si>
+    <t>proctorautomation55095@gmail.com</t>
+  </si>
+  <si>
+    <t>55095</t>
+  </si>
+  <si>
+    <t>Proctor37163</t>
+  </si>
+  <si>
+    <t>Automation37163</t>
+  </si>
+  <si>
+    <t>proctorautomation37163@gmail.com</t>
+  </si>
+  <si>
+    <t>37163</t>
+  </si>
+  <si>
+    <t>Proctor44026</t>
+  </si>
+  <si>
+    <t>Automation44026</t>
+  </si>
+  <si>
+    <t>proctorautomation44026@gmail.com</t>
+  </si>
+  <si>
+    <t>44026</t>
+  </si>
+  <si>
+    <t>Proctor22748</t>
+  </si>
+  <si>
+    <t>Automation22748</t>
+  </si>
+  <si>
+    <t>proctorautomation22748@gmail.com</t>
+  </si>
+  <si>
+    <t>22748</t>
+  </si>
+  <si>
+    <t>Proctor23016</t>
+  </si>
+  <si>
+    <t>Automation23016</t>
+  </si>
+  <si>
+    <t>proctorautomation23016@gmail.com</t>
+  </si>
+  <si>
+    <t>23016</t>
+  </si>
+  <si>
+    <t>Proctor16535</t>
+  </si>
+  <si>
+    <t>Automation16535</t>
+  </si>
+  <si>
+    <t>proctorautomation16535@gmail.com</t>
+  </si>
+  <si>
+    <t>16535</t>
+  </si>
+  <si>
+    <t>Proctor36565</t>
+  </si>
+  <si>
+    <t>Automation36565</t>
+  </si>
+  <si>
+    <t>proctorautomation36565@gmail.com</t>
+  </si>
+  <si>
+    <t>36565</t>
+  </si>
+  <si>
+    <t>Proctor31444</t>
+  </si>
+  <si>
+    <t>Automation31444</t>
+  </si>
+  <si>
+    <t>proctorautomation31444@gmail.com</t>
+  </si>
+  <si>
+    <t>31444</t>
+  </si>
+  <si>
+    <t>Proctor53635</t>
+  </si>
+  <si>
+    <t>Automation53635</t>
+  </si>
+  <si>
+    <t>proctorautomation53635@gmail.com</t>
+  </si>
+  <si>
+    <t>53635</t>
+  </si>
+  <si>
+    <t>Proctor22553</t>
+  </si>
+  <si>
+    <t>Automation22553</t>
+  </si>
+  <si>
+    <t>proctorautomation22553@gmail.com</t>
+  </si>
+  <si>
+    <t>22553</t>
+  </si>
+  <si>
+    <t>Proctor84449</t>
+  </si>
+  <si>
+    <t>Automation84449</t>
+  </si>
+  <si>
+    <t>proctorautomation84449@gmail.com</t>
+  </si>
+  <si>
+    <t>84449</t>
+  </si>
+  <si>
+    <t>Proctor67156</t>
+  </si>
+  <si>
+    <t>Automation67156</t>
+  </si>
+  <si>
+    <t>proctorautomation67156@gmail.com</t>
+  </si>
+  <si>
+    <t>67156</t>
+  </si>
+  <si>
+    <t>Proctor93196</t>
+  </si>
+  <si>
+    <t>Automation93196</t>
+  </si>
+  <si>
+    <t>proctorautomation93196@gmail.com</t>
+  </si>
+  <si>
+    <t>93196</t>
+  </si>
+  <si>
+    <t>Proctor29238</t>
+  </si>
+  <si>
+    <t>Automation29238</t>
+  </si>
+  <si>
+    <t>proctorautomation29238@gmail.com</t>
+  </si>
+  <si>
+    <t>29238</t>
+  </si>
+  <si>
+    <t>Proctor73632</t>
+  </si>
+  <si>
+    <t>Automation73632</t>
+  </si>
+  <si>
+    <t>proctorautomation73632@gmail.com</t>
+  </si>
+  <si>
+    <t>73632</t>
+  </si>
+  <si>
+    <t>Proctor42250</t>
+  </si>
+  <si>
+    <t>Automation42250</t>
+  </si>
+  <si>
+    <t>proctorautomation42250@gmail.com</t>
+  </si>
+  <si>
+    <t>42250</t>
+  </si>
+  <si>
+    <t>Proctor43546</t>
+  </si>
+  <si>
+    <t>Automation43546</t>
+  </si>
+  <si>
+    <t>proctorautomation43546@gmail.com</t>
+  </si>
+  <si>
+    <t>43546</t>
+  </si>
+  <si>
+    <t>Proctor48579</t>
+  </si>
+  <si>
+    <t>Automation48579</t>
+  </si>
+  <si>
+    <t>proctorautomation48579@gmail.com</t>
+  </si>
+  <si>
+    <t>48579</t>
+  </si>
+  <si>
+    <t>Proctor96487</t>
+  </si>
+  <si>
+    <t>Automation96487</t>
+  </si>
+  <si>
+    <t>proctorautomation96487@gmail.com</t>
+  </si>
+  <si>
+    <t>96487</t>
+  </si>
+  <si>
+    <t>Proctor48447</t>
+  </si>
+  <si>
+    <t>Automation48447</t>
+  </si>
+  <si>
+    <t>proctorautomation48447@gmail.com</t>
+  </si>
+  <si>
+    <t>48447</t>
+  </si>
+  <si>
+    <t>Proctor58548</t>
+  </si>
+  <si>
+    <t>Automation58548</t>
+  </si>
+  <si>
+    <t>proctorautomation58548@gmail.com</t>
+  </si>
+  <si>
+    <t>58548</t>
+  </si>
+  <si>
+    <t>Proctor42588</t>
+  </si>
+  <si>
+    <t>Automation42588</t>
+  </si>
+  <si>
+    <t>proctorautomation42588@gmail.com</t>
+  </si>
+  <si>
+    <t>42588</t>
+  </si>
+  <si>
+    <t>Proctor94481</t>
+  </si>
+  <si>
+    <t>Automation94481</t>
+  </si>
+  <si>
+    <t>proctorautomation94481@gmail.com</t>
+  </si>
+  <si>
+    <t>94481</t>
+  </si>
+  <si>
+    <t>Proctor92176</t>
+  </si>
+  <si>
+    <t>Automation92176</t>
+  </si>
+  <si>
+    <t>proctorautomation92176@gmail.com</t>
+  </si>
+  <si>
+    <t>92176</t>
+  </si>
+  <si>
+    <t>Proctor89610</t>
+  </si>
+  <si>
+    <t>Automation89610</t>
+  </si>
+  <si>
+    <t>proctorautomation89610@gmail.com</t>
+  </si>
+  <si>
+    <t>89610</t>
+  </si>
+  <si>
+    <t>Proctor45102</t>
+  </si>
+  <si>
+    <t>Automation45102</t>
+  </si>
+  <si>
+    <t>proctorautomation45102@gmail.com</t>
+  </si>
+  <si>
+    <t>45102</t>
+  </si>
+  <si>
+    <t>Proctor19076</t>
+  </si>
+  <si>
+    <t>Automation19076</t>
+  </si>
+  <si>
+    <t>proctorautomation19076@gmail.com</t>
+  </si>
+  <si>
+    <t>19076</t>
+  </si>
+  <si>
+    <t>Proctor39980</t>
+  </si>
+  <si>
+    <t>Automation39980</t>
+  </si>
+  <si>
+    <t>proctorautomation39980@gmail.com</t>
+  </si>
+  <si>
+    <t>39980</t>
+  </si>
+  <si>
+    <t>Proctor02013</t>
+  </si>
+  <si>
+    <t>Automation02013</t>
+  </si>
+  <si>
+    <t>proctorautomation02013@gmail.com</t>
+  </si>
+  <si>
+    <t>02013</t>
+  </si>
+  <si>
+    <t>Proctor30540</t>
+  </si>
+  <si>
+    <t>Automation30540</t>
+  </si>
+  <si>
+    <t>proctorautomation30540@gmail.com</t>
+  </si>
+  <si>
+    <t>30540</t>
+  </si>
+  <si>
+    <t>Proctor65100</t>
+  </si>
+  <si>
+    <t>Automation65100</t>
+  </si>
+  <si>
+    <t>proctorautomation65100@gmail.com</t>
+  </si>
+  <si>
+    <t>65100</t>
+  </si>
+  <si>
+    <t>Proctor72405</t>
+  </si>
+  <si>
+    <t>Automation72405</t>
+  </si>
+  <si>
+    <t>proctorautomation72405@gmail.com</t>
+  </si>
+  <si>
+    <t>72405</t>
+  </si>
+  <si>
+    <t>Proctor62121</t>
+  </si>
+  <si>
+    <t>Automation62121</t>
+  </si>
+  <si>
+    <t>proctorautomation62121@gmail.com</t>
+  </si>
+  <si>
+    <t>62121</t>
+  </si>
+  <si>
+    <t>Proctor40749</t>
+  </si>
+  <si>
+    <t>Automation40749</t>
+  </si>
+  <si>
+    <t>proctorautomation40749@gmail.com</t>
+  </si>
+  <si>
+    <t>40749</t>
+  </si>
+  <si>
+    <t>Proctor47476</t>
+  </si>
+  <si>
+    <t>Automation47476</t>
+  </si>
+  <si>
+    <t>proctorautomation47476@gmail.com</t>
+  </si>
+  <si>
+    <t>47476</t>
+  </si>
+  <si>
+    <t>Proctor72136</t>
+  </si>
+  <si>
+    <t>Automation72136</t>
+  </si>
+  <si>
+    <t>proctorautomation72136@gmail.com</t>
+  </si>
+  <si>
+    <t>72136</t>
+  </si>
+  <si>
+    <t>Proctor60048</t>
+  </si>
+  <si>
+    <t>Automation60048</t>
+  </si>
+  <si>
+    <t>proctorautomation60048@gmail.com</t>
+  </si>
+  <si>
+    <t>60048</t>
+  </si>
+  <si>
+    <t>Proctor56970</t>
+  </si>
+  <si>
+    <t>Automation56970</t>
+  </si>
+  <si>
+    <t>proctorautomation56970@gmail.com</t>
+  </si>
+  <si>
+    <t>56970</t>
+  </si>
+  <si>
+    <t>Proctor78188</t>
+  </si>
+  <si>
+    <t>Automation78188</t>
+  </si>
+  <si>
+    <t>proctorautomation78188@gmail.com</t>
+  </si>
+  <si>
+    <t>78188</t>
+  </si>
+  <si>
+    <t>Proctor40280</t>
+  </si>
+  <si>
+    <t>Automation40280</t>
+  </si>
+  <si>
+    <t>proctorautomation40280@gmail.com</t>
+  </si>
+  <si>
+    <t>40280</t>
+  </si>
+  <si>
+    <t>Proctor45735</t>
+  </si>
+  <si>
+    <t>Automation45735</t>
+  </si>
+  <si>
+    <t>proctorautomation45735@gmail.com</t>
+  </si>
+  <si>
+    <t>45735</t>
+  </si>
+  <si>
+    <t>Proctor90180</t>
+  </si>
+  <si>
+    <t>Automation90180</t>
+  </si>
+  <si>
+    <t>proctorautomation90180@gmail.com</t>
+  </si>
+  <si>
+    <t>90180</t>
+  </si>
+  <si>
+    <t>Proctor34609</t>
+  </si>
+  <si>
+    <t>Automation34609</t>
+  </si>
+  <si>
+    <t>proctorautomation34609@gmail.com</t>
+  </si>
+  <si>
+    <t>34609</t>
+  </si>
+  <si>
+    <t>Proctor05573</t>
+  </si>
+  <si>
+    <t>Automation05573</t>
+  </si>
+  <si>
+    <t>proctorautomation05573@gmail.com</t>
+  </si>
+  <si>
+    <t>05573</t>
+  </si>
+  <si>
+    <t>Proctor08240</t>
+  </si>
+  <si>
+    <t>Automation08240</t>
+  </si>
+  <si>
+    <t>proctorautomation08240@gmail.com</t>
+  </si>
+  <si>
+    <t>08240</t>
+  </si>
+  <si>
+    <t>Proctor76864</t>
+  </si>
+  <si>
+    <t>Automation76864</t>
+  </si>
+  <si>
+    <t>proctorautomation76864@gmail.com</t>
+  </si>
+  <si>
+    <t>76864</t>
   </si>
 </sst>
 </file>
@@ -10489,422 +11209,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3240</v>
+        <v>3476</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3241</v>
+        <v>3477</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3242</v>
+        <v>3478</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3243</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3244</v>
+        <v>3480</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3245</v>
+        <v>3481</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3246</v>
+        <v>3482</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3247</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3248</v>
+        <v>3484</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3249</v>
+        <v>3485</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3250</v>
+        <v>3486</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3251</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3252</v>
+        <v>3488</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3253</v>
+        <v>3489</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3254</v>
+        <v>3490</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3255</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3256</v>
+        <v>3492</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3257</v>
+        <v>3493</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3258</v>
+        <v>3494</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3259</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3260</v>
+        <v>3496</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3261</v>
+        <v>3497</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3262</v>
+        <v>3498</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3263</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3264</v>
+        <v>3500</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3265</v>
+        <v>3501</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3266</v>
+        <v>3502</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3267</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3268</v>
+        <v>3504</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3269</v>
+        <v>3505</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3270</v>
+        <v>3506</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3271</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>3272</v>
+        <v>3508</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3273</v>
+        <v>3509</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>3274</v>
+        <v>3510</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3275</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3276</v>
+        <v>3512</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3277</v>
+        <v>3513</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3278</v>
+        <v>3514</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3279</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3280</v>
+        <v>3516</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3281</v>
+        <v>3517</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3282</v>
+        <v>3518</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3283</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3284</v>
+        <v>3520</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3285</v>
+        <v>3521</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3286</v>
+        <v>3522</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3287</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3288</v>
+        <v>3524</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3289</v>
+        <v>3525</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3290</v>
+        <v>3526</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3291</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3292</v>
+        <v>3528</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3293</v>
+        <v>3529</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3294</v>
+        <v>3530</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3295</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3296</v>
+        <v>3532</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3297</v>
+        <v>3533</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3298</v>
+        <v>3534</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3299</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3300</v>
+        <v>3536</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3301</v>
+        <v>3537</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3302</v>
+        <v>3538</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3303</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3304</v>
+        <v>3540</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3305</v>
+        <v>3541</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3306</v>
+        <v>3542</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3307</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>1129</v>
+        <v>3544</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>1130</v>
+        <v>3545</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>1131</v>
+        <v>3546</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>1132</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3308</v>
+        <v>3548</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3309</v>
+        <v>3549</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3310</v>
+        <v>3550</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3311</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3312</v>
+        <v>3552</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3313</v>
+        <v>3553</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3314</v>
+        <v>3554</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3315</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3316</v>
+        <v>3556</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3317</v>
+        <v>3557</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3318</v>
+        <v>3558</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3319</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3320</v>
+        <v>3560</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3321</v>
+        <v>3561</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3322</v>
+        <v>3562</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3323</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3324</v>
+        <v>3564</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3325</v>
+        <v>3565</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3326</v>
+        <v>3566</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3327</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3328</v>
+        <v>3568</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3329</v>
+        <v>3569</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3330</v>
+        <v>3570</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3331</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3332</v>
+        <v>3572</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3333</v>
+        <v>3573</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3334</v>
+        <v>3574</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3335</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3336</v>
+        <v>3576</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3337</v>
+        <v>3577</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3338</v>
+        <v>3578</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3339</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3340</v>
+        <v>3580</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3341</v>
+        <v>3581</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3342</v>
+        <v>3582</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3343</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3344</v>
+        <v>3584</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3345</v>
+        <v>3585</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3346</v>
+        <v>3586</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3347</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3348</v>
+        <v>3588</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3349</v>
+        <v>3589</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3350</v>
+        <v>3590</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3351</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3352</v>
+        <v>3592</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3353</v>
+        <v>3593</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3354</v>
+        <v>3594</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3355</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3608" uniqueCount="3596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="3716">
   <si>
     <t>FirstName</t>
   </si>
@@ -10802,6 +10802,366 @@
   </si>
   <si>
     <t>76864</t>
+  </si>
+  <si>
+    <t>Proctor12304</t>
+  </si>
+  <si>
+    <t>Automation12304</t>
+  </si>
+  <si>
+    <t>proctorautomation12304@gmail.com</t>
+  </si>
+  <si>
+    <t>12304</t>
+  </si>
+  <si>
+    <t>Proctor03634</t>
+  </si>
+  <si>
+    <t>Automation03634</t>
+  </si>
+  <si>
+    <t>proctorautomation03634@gmail.com</t>
+  </si>
+  <si>
+    <t>03634</t>
+  </si>
+  <si>
+    <t>Proctor00074</t>
+  </si>
+  <si>
+    <t>Automation00074</t>
+  </si>
+  <si>
+    <t>proctorautomation00074@gmail.com</t>
+  </si>
+  <si>
+    <t>00074</t>
+  </si>
+  <si>
+    <t>Proctor64352</t>
+  </si>
+  <si>
+    <t>Automation64352</t>
+  </si>
+  <si>
+    <t>proctorautomation64352@gmail.com</t>
+  </si>
+  <si>
+    <t>64352</t>
+  </si>
+  <si>
+    <t>Proctor80087</t>
+  </si>
+  <si>
+    <t>Automation80087</t>
+  </si>
+  <si>
+    <t>proctorautomation80087@gmail.com</t>
+  </si>
+  <si>
+    <t>80087</t>
+  </si>
+  <si>
+    <t>Proctor22427</t>
+  </si>
+  <si>
+    <t>Automation22427</t>
+  </si>
+  <si>
+    <t>proctorautomation22427@gmail.com</t>
+  </si>
+  <si>
+    <t>22427</t>
+  </si>
+  <si>
+    <t>Proctor46781</t>
+  </si>
+  <si>
+    <t>Automation46781</t>
+  </si>
+  <si>
+    <t>proctorautomation46781@gmail.com</t>
+  </si>
+  <si>
+    <t>46781</t>
+  </si>
+  <si>
+    <t>Proctor38785</t>
+  </si>
+  <si>
+    <t>Automation38785</t>
+  </si>
+  <si>
+    <t>proctorautomation38785@gmail.com</t>
+  </si>
+  <si>
+    <t>38785</t>
+  </si>
+  <si>
+    <t>Proctor43883</t>
+  </si>
+  <si>
+    <t>Automation43883</t>
+  </si>
+  <si>
+    <t>proctorautomation43883@gmail.com</t>
+  </si>
+  <si>
+    <t>43883</t>
+  </si>
+  <si>
+    <t>Proctor00155</t>
+  </si>
+  <si>
+    <t>Automation00155</t>
+  </si>
+  <si>
+    <t>proctorautomation00155@gmail.com</t>
+  </si>
+  <si>
+    <t>00155</t>
+  </si>
+  <si>
+    <t>Proctor32756</t>
+  </si>
+  <si>
+    <t>Automation32756</t>
+  </si>
+  <si>
+    <t>proctorautomation32756@gmail.com</t>
+  </si>
+  <si>
+    <t>32756</t>
+  </si>
+  <si>
+    <t>Proctor35249</t>
+  </si>
+  <si>
+    <t>Automation35249</t>
+  </si>
+  <si>
+    <t>proctorautomation35249@gmail.com</t>
+  </si>
+  <si>
+    <t>35249</t>
+  </si>
+  <si>
+    <t>Proctor05023</t>
+  </si>
+  <si>
+    <t>Automation05023</t>
+  </si>
+  <si>
+    <t>proctorautomation05023@gmail.com</t>
+  </si>
+  <si>
+    <t>05023</t>
+  </si>
+  <si>
+    <t>Proctor26414</t>
+  </si>
+  <si>
+    <t>Automation26414</t>
+  </si>
+  <si>
+    <t>proctorautomation26414@gmail.com</t>
+  </si>
+  <si>
+    <t>26414</t>
+  </si>
+  <si>
+    <t>Proctor57625</t>
+  </si>
+  <si>
+    <t>Automation57625</t>
+  </si>
+  <si>
+    <t>proctorautomation57625@gmail.com</t>
+  </si>
+  <si>
+    <t>57625</t>
+  </si>
+  <si>
+    <t>Proctor27805</t>
+  </si>
+  <si>
+    <t>Automation27805</t>
+  </si>
+  <si>
+    <t>proctorautomation27805@gmail.com</t>
+  </si>
+  <si>
+    <t>27805</t>
+  </si>
+  <si>
+    <t>Proctor40765</t>
+  </si>
+  <si>
+    <t>Automation40765</t>
+  </si>
+  <si>
+    <t>proctorautomation40765@gmail.com</t>
+  </si>
+  <si>
+    <t>40765</t>
+  </si>
+  <si>
+    <t>Proctor79631</t>
+  </si>
+  <si>
+    <t>Automation79631</t>
+  </si>
+  <si>
+    <t>proctorautomation79631@gmail.com</t>
+  </si>
+  <si>
+    <t>79631</t>
+  </si>
+  <si>
+    <t>Proctor55778</t>
+  </si>
+  <si>
+    <t>Automation55778</t>
+  </si>
+  <si>
+    <t>proctorautomation55778@gmail.com</t>
+  </si>
+  <si>
+    <t>55778</t>
+  </si>
+  <si>
+    <t>Proctor15616</t>
+  </si>
+  <si>
+    <t>Automation15616</t>
+  </si>
+  <si>
+    <t>proctorautomation15616@gmail.com</t>
+  </si>
+  <si>
+    <t>15616</t>
+  </si>
+  <si>
+    <t>Proctor95953</t>
+  </si>
+  <si>
+    <t>Automation95953</t>
+  </si>
+  <si>
+    <t>proctorautomation95953@gmail.com</t>
+  </si>
+  <si>
+    <t>95953</t>
+  </si>
+  <si>
+    <t>Proctor40118</t>
+  </si>
+  <si>
+    <t>Automation40118</t>
+  </si>
+  <si>
+    <t>proctorautomation40118@gmail.com</t>
+  </si>
+  <si>
+    <t>40118</t>
+  </si>
+  <si>
+    <t>Proctor28657</t>
+  </si>
+  <si>
+    <t>Automation28657</t>
+  </si>
+  <si>
+    <t>proctorautomation28657@gmail.com</t>
+  </si>
+  <si>
+    <t>28657</t>
+  </si>
+  <si>
+    <t>Proctor12037</t>
+  </si>
+  <si>
+    <t>Automation12037</t>
+  </si>
+  <si>
+    <t>proctorautomation12037@gmail.com</t>
+  </si>
+  <si>
+    <t>12037</t>
+  </si>
+  <si>
+    <t>Proctor69894</t>
+  </si>
+  <si>
+    <t>Automation69894</t>
+  </si>
+  <si>
+    <t>proctorautomation69894@gmail.com</t>
+  </si>
+  <si>
+    <t>69894</t>
+  </si>
+  <si>
+    <t>Proctor28753</t>
+  </si>
+  <si>
+    <t>Automation28753</t>
+  </si>
+  <si>
+    <t>proctorautomation28753@gmail.com</t>
+  </si>
+  <si>
+    <t>28753</t>
+  </si>
+  <si>
+    <t>Proctor58311</t>
+  </si>
+  <si>
+    <t>Automation58311</t>
+  </si>
+  <si>
+    <t>proctorautomation58311@gmail.com</t>
+  </si>
+  <si>
+    <t>58311</t>
+  </si>
+  <si>
+    <t>Proctor54525</t>
+  </si>
+  <si>
+    <t>Automation54525</t>
+  </si>
+  <si>
+    <t>proctorautomation54525@gmail.com</t>
+  </si>
+  <si>
+    <t>54525</t>
+  </si>
+  <si>
+    <t>Proctor69624</t>
+  </si>
+  <si>
+    <t>Automation69624</t>
+  </si>
+  <si>
+    <t>proctorautomation69624@gmail.com</t>
+  </si>
+  <si>
+    <t>69624</t>
+  </si>
+  <si>
+    <t>Proctor79375</t>
+  </si>
+  <si>
+    <t>Automation79375</t>
+  </si>
+  <si>
+    <t>proctorautomation79375@gmail.com</t>
+  </si>
+  <si>
+    <t>79375</t>
   </si>
 </sst>
 </file>
@@ -11209,422 +11569,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3476</v>
+        <v>3596</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3477</v>
+        <v>3597</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3478</v>
+        <v>3598</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3479</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3480</v>
+        <v>3600</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3481</v>
+        <v>3601</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3482</v>
+        <v>3602</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3483</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3484</v>
+        <v>3604</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3485</v>
+        <v>3605</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3486</v>
+        <v>3606</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3487</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3488</v>
+        <v>3608</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3489</v>
+        <v>3609</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3490</v>
+        <v>3610</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3491</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3492</v>
+        <v>3612</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3493</v>
+        <v>3613</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3494</v>
+        <v>3614</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3495</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3496</v>
+        <v>3616</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3497</v>
+        <v>3617</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3498</v>
+        <v>3618</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3499</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3500</v>
+        <v>3620</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3501</v>
+        <v>3621</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3502</v>
+        <v>3622</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3503</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3504</v>
+        <v>3624</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3505</v>
+        <v>3625</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3506</v>
+        <v>3626</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3507</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>3508</v>
+        <v>3628</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3509</v>
+        <v>3629</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>3510</v>
+        <v>3630</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3511</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3512</v>
+        <v>3632</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3513</v>
+        <v>3633</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3514</v>
+        <v>3634</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3515</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3516</v>
+        <v>3636</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3517</v>
+        <v>3637</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3518</v>
+        <v>3638</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3519</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3520</v>
+        <v>3640</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3521</v>
+        <v>3641</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3522</v>
+        <v>3642</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3523</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3524</v>
+        <v>3644</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3525</v>
+        <v>3645</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3526</v>
+        <v>3646</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3527</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3528</v>
+        <v>3648</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3529</v>
+        <v>3649</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3530</v>
+        <v>3650</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3531</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3532</v>
+        <v>3652</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3533</v>
+        <v>3653</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3534</v>
+        <v>3654</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3535</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3536</v>
+        <v>3656</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3537</v>
+        <v>3657</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3538</v>
+        <v>3658</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3539</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3540</v>
+        <v>3660</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3541</v>
+        <v>3661</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3542</v>
+        <v>3662</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3543</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3544</v>
+        <v>3664</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3545</v>
+        <v>3665</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3546</v>
+        <v>3666</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3547</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3548</v>
+        <v>3668</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3549</v>
+        <v>3669</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3550</v>
+        <v>3670</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3551</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3552</v>
+        <v>3672</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3553</v>
+        <v>3673</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3554</v>
+        <v>3674</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3555</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3556</v>
+        <v>3676</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3557</v>
+        <v>3677</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3558</v>
+        <v>3678</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3559</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3560</v>
+        <v>3680</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3561</v>
+        <v>3681</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3562</v>
+        <v>3682</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3563</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3564</v>
+        <v>3684</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3565</v>
+        <v>3685</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3566</v>
+        <v>3686</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3567</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3568</v>
+        <v>3688</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3569</v>
+        <v>3689</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3570</v>
+        <v>3690</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3571</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3572</v>
+        <v>3692</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3573</v>
+        <v>3693</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3574</v>
+        <v>3694</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3575</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3576</v>
+        <v>3696</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3577</v>
+        <v>3697</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3578</v>
+        <v>3698</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3579</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3580</v>
+        <v>3700</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3581</v>
+        <v>3701</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3582</v>
+        <v>3702</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3583</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3584</v>
+        <v>3704</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3585</v>
+        <v>3705</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3586</v>
+        <v>3706</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3587</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3588</v>
+        <v>3708</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3589</v>
+        <v>3709</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3590</v>
+        <v>3710</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3591</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3592</v>
+        <v>3712</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3593</v>
+        <v>3713</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3594</v>
+        <v>3714</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3595</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="3716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="3836">
   <si>
     <t>FirstName</t>
   </si>
@@ -11162,6 +11162,366 @@
   </si>
   <si>
     <t>79375</t>
+  </si>
+  <si>
+    <t>Proctor25677</t>
+  </si>
+  <si>
+    <t>Automation25677</t>
+  </si>
+  <si>
+    <t>proctorautomation25677@gmail.com</t>
+  </si>
+  <si>
+    <t>25677</t>
+  </si>
+  <si>
+    <t>Proctor83890</t>
+  </si>
+  <si>
+    <t>Automation83890</t>
+  </si>
+  <si>
+    <t>proctorautomation83890@gmail.com</t>
+  </si>
+  <si>
+    <t>83890</t>
+  </si>
+  <si>
+    <t>Proctor43787</t>
+  </si>
+  <si>
+    <t>Automation43787</t>
+  </si>
+  <si>
+    <t>proctorautomation43787@gmail.com</t>
+  </si>
+  <si>
+    <t>43787</t>
+  </si>
+  <si>
+    <t>Proctor59639</t>
+  </si>
+  <si>
+    <t>Automation59639</t>
+  </si>
+  <si>
+    <t>proctorautomation59639@gmail.com</t>
+  </si>
+  <si>
+    <t>59639</t>
+  </si>
+  <si>
+    <t>Proctor28301</t>
+  </si>
+  <si>
+    <t>Automation28301</t>
+  </si>
+  <si>
+    <t>proctorautomation28301@gmail.com</t>
+  </si>
+  <si>
+    <t>28301</t>
+  </si>
+  <si>
+    <t>Proctor85156</t>
+  </si>
+  <si>
+    <t>Automation85156</t>
+  </si>
+  <si>
+    <t>proctorautomation85156@gmail.com</t>
+  </si>
+  <si>
+    <t>85156</t>
+  </si>
+  <si>
+    <t>Proctor41572</t>
+  </si>
+  <si>
+    <t>Automation41572</t>
+  </si>
+  <si>
+    <t>proctorautomation41572@gmail.com</t>
+  </si>
+  <si>
+    <t>41572</t>
+  </si>
+  <si>
+    <t>Proctor08329</t>
+  </si>
+  <si>
+    <t>Automation08329</t>
+  </si>
+  <si>
+    <t>proctorautomation08329@gmail.com</t>
+  </si>
+  <si>
+    <t>08329</t>
+  </si>
+  <si>
+    <t>Proctor08110</t>
+  </si>
+  <si>
+    <t>Automation08110</t>
+  </si>
+  <si>
+    <t>proctorautomation08110@gmail.com</t>
+  </si>
+  <si>
+    <t>08110</t>
+  </si>
+  <si>
+    <t>Proctor03339</t>
+  </si>
+  <si>
+    <t>Automation03339</t>
+  </si>
+  <si>
+    <t>proctorautomation03339@gmail.com</t>
+  </si>
+  <si>
+    <t>03339</t>
+  </si>
+  <si>
+    <t>Proctor89984</t>
+  </si>
+  <si>
+    <t>Automation89984</t>
+  </si>
+  <si>
+    <t>proctorautomation89984@gmail.com</t>
+  </si>
+  <si>
+    <t>89984</t>
+  </si>
+  <si>
+    <t>Proctor99971</t>
+  </si>
+  <si>
+    <t>Automation99971</t>
+  </si>
+  <si>
+    <t>proctorautomation99971@gmail.com</t>
+  </si>
+  <si>
+    <t>99971</t>
+  </si>
+  <si>
+    <t>Proctor64639</t>
+  </si>
+  <si>
+    <t>Automation64639</t>
+  </si>
+  <si>
+    <t>proctorautomation64639@gmail.com</t>
+  </si>
+  <si>
+    <t>64639</t>
+  </si>
+  <si>
+    <t>Proctor95984</t>
+  </si>
+  <si>
+    <t>Automation95984</t>
+  </si>
+  <si>
+    <t>proctorautomation95984@gmail.com</t>
+  </si>
+  <si>
+    <t>95984</t>
+  </si>
+  <si>
+    <t>Proctor35656</t>
+  </si>
+  <si>
+    <t>Automation35656</t>
+  </si>
+  <si>
+    <t>proctorautomation35656@gmail.com</t>
+  </si>
+  <si>
+    <t>35656</t>
+  </si>
+  <si>
+    <t>Proctor07433</t>
+  </si>
+  <si>
+    <t>Automation07433</t>
+  </si>
+  <si>
+    <t>proctorautomation07433@gmail.com</t>
+  </si>
+  <si>
+    <t>07433</t>
+  </si>
+  <si>
+    <t>Proctor88540</t>
+  </si>
+  <si>
+    <t>Automation88540</t>
+  </si>
+  <si>
+    <t>proctorautomation88540@gmail.com</t>
+  </si>
+  <si>
+    <t>88540</t>
+  </si>
+  <si>
+    <t>Proctor92445</t>
+  </si>
+  <si>
+    <t>Automation92445</t>
+  </si>
+  <si>
+    <t>proctorautomation92445@gmail.com</t>
+  </si>
+  <si>
+    <t>92445</t>
+  </si>
+  <si>
+    <t>Proctor34781</t>
+  </si>
+  <si>
+    <t>Automation34781</t>
+  </si>
+  <si>
+    <t>proctorautomation34781@gmail.com</t>
+  </si>
+  <si>
+    <t>34781</t>
+  </si>
+  <si>
+    <t>Proctor54785</t>
+  </si>
+  <si>
+    <t>Automation54785</t>
+  </si>
+  <si>
+    <t>proctorautomation54785@gmail.com</t>
+  </si>
+  <si>
+    <t>54785</t>
+  </si>
+  <si>
+    <t>Proctor40664</t>
+  </si>
+  <si>
+    <t>Automation40664</t>
+  </si>
+  <si>
+    <t>proctorautomation40664@gmail.com</t>
+  </si>
+  <si>
+    <t>40664</t>
+  </si>
+  <si>
+    <t>Proctor74442</t>
+  </si>
+  <si>
+    <t>Automation74442</t>
+  </si>
+  <si>
+    <t>proctorautomation74442@gmail.com</t>
+  </si>
+  <si>
+    <t>74442</t>
+  </si>
+  <si>
+    <t>Proctor75359</t>
+  </si>
+  <si>
+    <t>Automation75359</t>
+  </si>
+  <si>
+    <t>proctorautomation75359@gmail.com</t>
+  </si>
+  <si>
+    <t>75359</t>
+  </si>
+  <si>
+    <t>Proctor29266</t>
+  </si>
+  <si>
+    <t>Automation29266</t>
+  </si>
+  <si>
+    <t>proctorautomation29266@gmail.com</t>
+  </si>
+  <si>
+    <t>29266</t>
+  </si>
+  <si>
+    <t>Proctor86695</t>
+  </si>
+  <si>
+    <t>Automation86695</t>
+  </si>
+  <si>
+    <t>proctorautomation86695@gmail.com</t>
+  </si>
+  <si>
+    <t>86695</t>
+  </si>
+  <si>
+    <t>Proctor91619</t>
+  </si>
+  <si>
+    <t>Automation91619</t>
+  </si>
+  <si>
+    <t>proctorautomation91619@gmail.com</t>
+  </si>
+  <si>
+    <t>91619</t>
+  </si>
+  <si>
+    <t>Proctor54041</t>
+  </si>
+  <si>
+    <t>Automation54041</t>
+  </si>
+  <si>
+    <t>proctorautomation54041@gmail.com</t>
+  </si>
+  <si>
+    <t>54041</t>
+  </si>
+  <si>
+    <t>Proctor10263</t>
+  </si>
+  <si>
+    <t>Automation10263</t>
+  </si>
+  <si>
+    <t>proctorautomation10263@gmail.com</t>
+  </si>
+  <si>
+    <t>10263</t>
+  </si>
+  <si>
+    <t>Proctor77923</t>
+  </si>
+  <si>
+    <t>Automation77923</t>
+  </si>
+  <si>
+    <t>proctorautomation77923@gmail.com</t>
+  </si>
+  <si>
+    <t>77923</t>
+  </si>
+  <si>
+    <t>Proctor13622</t>
+  </si>
+  <si>
+    <t>Automation13622</t>
+  </si>
+  <si>
+    <t>proctorautomation13622@gmail.com</t>
+  </si>
+  <si>
+    <t>13622</t>
   </si>
 </sst>
 </file>
@@ -11569,422 +11929,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3596</v>
+        <v>3716</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3597</v>
+        <v>3717</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3598</v>
+        <v>3718</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3599</v>
+        <v>3719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3600</v>
+        <v>3720</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3601</v>
+        <v>3721</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3602</v>
+        <v>3722</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3603</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3604</v>
+        <v>3724</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3605</v>
+        <v>3725</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3606</v>
+        <v>3726</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3607</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3608</v>
+        <v>3728</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3609</v>
+        <v>3729</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3610</v>
+        <v>3730</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3611</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3612</v>
+        <v>3732</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3613</v>
+        <v>3733</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3614</v>
+        <v>3734</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3615</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3616</v>
+        <v>3736</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3617</v>
+        <v>3737</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3618</v>
+        <v>3738</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3619</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3620</v>
+        <v>3740</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3621</v>
+        <v>3741</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3622</v>
+        <v>3742</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3623</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3624</v>
+        <v>3744</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3625</v>
+        <v>3745</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3626</v>
+        <v>3746</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3627</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>3628</v>
+        <v>3748</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3629</v>
+        <v>3749</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>3630</v>
+        <v>3750</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3631</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3632</v>
+        <v>3752</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3633</v>
+        <v>3753</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3634</v>
+        <v>3754</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3635</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3636</v>
+        <v>3756</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3637</v>
+        <v>3757</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3638</v>
+        <v>3758</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3639</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3640</v>
+        <v>3760</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3641</v>
+        <v>3761</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3642</v>
+        <v>3762</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3643</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3644</v>
+        <v>3764</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3645</v>
+        <v>3765</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3646</v>
+        <v>3766</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3647</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3648</v>
+        <v>3768</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3649</v>
+        <v>3769</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3650</v>
+        <v>3770</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3651</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3652</v>
+        <v>3772</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3653</v>
+        <v>3773</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3654</v>
+        <v>3774</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3655</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3656</v>
+        <v>3776</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3657</v>
+        <v>3777</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3658</v>
+        <v>3778</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3659</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3660</v>
+        <v>3780</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3661</v>
+        <v>3781</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3662</v>
+        <v>3782</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3663</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3664</v>
+        <v>3784</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3665</v>
+        <v>3785</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3666</v>
+        <v>3786</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3667</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3668</v>
+        <v>3788</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3669</v>
+        <v>3789</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3670</v>
+        <v>3790</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3671</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3672</v>
+        <v>3792</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3673</v>
+        <v>3793</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3674</v>
+        <v>3794</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3675</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3676</v>
+        <v>3796</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3677</v>
+        <v>3797</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3678</v>
+        <v>3798</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3679</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3680</v>
+        <v>3800</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3681</v>
+        <v>3801</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3682</v>
+        <v>3802</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3683</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3684</v>
+        <v>3804</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3685</v>
+        <v>3805</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3686</v>
+        <v>3806</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3687</v>
+        <v>3807</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3688</v>
+        <v>3808</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3689</v>
+        <v>3809</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3690</v>
+        <v>3810</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3691</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3692</v>
+        <v>3812</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3693</v>
+        <v>3813</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3694</v>
+        <v>3814</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3695</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3696</v>
+        <v>3816</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3697</v>
+        <v>3817</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3698</v>
+        <v>3818</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3699</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3700</v>
+        <v>3820</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3701</v>
+        <v>3821</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3702</v>
+        <v>3822</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3703</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3704</v>
+        <v>3824</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3705</v>
+        <v>3825</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3706</v>
+        <v>3826</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3707</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3708</v>
+        <v>3828</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3709</v>
+        <v>3829</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3710</v>
+        <v>3830</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3711</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3712</v>
+        <v>3832</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3713</v>
+        <v>3833</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3714</v>
+        <v>3834</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3715</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="3836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4568" uniqueCount="4552">
   <si>
     <t>FirstName</t>
   </si>
@@ -11522,6 +11522,2154 @@
   </si>
   <si>
     <t>13622</t>
+  </si>
+  <si>
+    <t>Proctor15757</t>
+  </si>
+  <si>
+    <t>Automation15757</t>
+  </si>
+  <si>
+    <t>proctorautomation15757@gmail.com</t>
+  </si>
+  <si>
+    <t>15757</t>
+  </si>
+  <si>
+    <t>Proctor63487</t>
+  </si>
+  <si>
+    <t>Automation63487</t>
+  </si>
+  <si>
+    <t>proctorautomation63487@gmail.com</t>
+  </si>
+  <si>
+    <t>63487</t>
+  </si>
+  <si>
+    <t>Proctor48453</t>
+  </si>
+  <si>
+    <t>Automation48453</t>
+  </si>
+  <si>
+    <t>proctorautomation48453@gmail.com</t>
+  </si>
+  <si>
+    <t>48453</t>
+  </si>
+  <si>
+    <t>Proctor66768</t>
+  </si>
+  <si>
+    <t>Automation66768</t>
+  </si>
+  <si>
+    <t>proctorautomation66768@gmail.com</t>
+  </si>
+  <si>
+    <t>66768</t>
+  </si>
+  <si>
+    <t>Proctor56745</t>
+  </si>
+  <si>
+    <t>Automation56745</t>
+  </si>
+  <si>
+    <t>proctorautomation56745@gmail.com</t>
+  </si>
+  <si>
+    <t>56745</t>
+  </si>
+  <si>
+    <t>Proctor32425</t>
+  </si>
+  <si>
+    <t>Automation32425</t>
+  </si>
+  <si>
+    <t>proctorautomation32425@gmail.com</t>
+  </si>
+  <si>
+    <t>32425</t>
+  </si>
+  <si>
+    <t>Proctor60443</t>
+  </si>
+  <si>
+    <t>Automation60443</t>
+  </si>
+  <si>
+    <t>proctorautomation60443@gmail.com</t>
+  </si>
+  <si>
+    <t>60443</t>
+  </si>
+  <si>
+    <t>Proctor72363</t>
+  </si>
+  <si>
+    <t>Automation72363</t>
+  </si>
+  <si>
+    <t>proctorautomation72363@gmail.com</t>
+  </si>
+  <si>
+    <t>72363</t>
+  </si>
+  <si>
+    <t>Proctor41019</t>
+  </si>
+  <si>
+    <t>Automation41019</t>
+  </si>
+  <si>
+    <t>proctorautomation41019@gmail.com</t>
+  </si>
+  <si>
+    <t>41019</t>
+  </si>
+  <si>
+    <t>Proctor35920</t>
+  </si>
+  <si>
+    <t>Automation35920</t>
+  </si>
+  <si>
+    <t>proctorautomation35920@gmail.com</t>
+  </si>
+  <si>
+    <t>35920</t>
+  </si>
+  <si>
+    <t>Proctor77673</t>
+  </si>
+  <si>
+    <t>Automation77673</t>
+  </si>
+  <si>
+    <t>proctorautomation77673@gmail.com</t>
+  </si>
+  <si>
+    <t>77673</t>
+  </si>
+  <si>
+    <t>Proctor79493</t>
+  </si>
+  <si>
+    <t>Automation79493</t>
+  </si>
+  <si>
+    <t>proctorautomation79493@gmail.com</t>
+  </si>
+  <si>
+    <t>79493</t>
+  </si>
+  <si>
+    <t>Proctor69741</t>
+  </si>
+  <si>
+    <t>Automation69741</t>
+  </si>
+  <si>
+    <t>proctorautomation69741@gmail.com</t>
+  </si>
+  <si>
+    <t>69741</t>
+  </si>
+  <si>
+    <t>Proctor35753</t>
+  </si>
+  <si>
+    <t>Automation35753</t>
+  </si>
+  <si>
+    <t>proctorautomation35753@gmail.com</t>
+  </si>
+  <si>
+    <t>35753</t>
+  </si>
+  <si>
+    <t>Proctor87613</t>
+  </si>
+  <si>
+    <t>Automation87613</t>
+  </si>
+  <si>
+    <t>proctorautomation87613@gmail.com</t>
+  </si>
+  <si>
+    <t>87613</t>
+  </si>
+  <si>
+    <t>Proctor03760</t>
+  </si>
+  <si>
+    <t>Automation03760</t>
+  </si>
+  <si>
+    <t>proctorautomation03760@gmail.com</t>
+  </si>
+  <si>
+    <t>03760</t>
+  </si>
+  <si>
+    <t>Proctor45194</t>
+  </si>
+  <si>
+    <t>Automation45194</t>
+  </si>
+  <si>
+    <t>proctorautomation45194@gmail.com</t>
+  </si>
+  <si>
+    <t>45194</t>
+  </si>
+  <si>
+    <t>Proctor44144</t>
+  </si>
+  <si>
+    <t>Automation44144</t>
+  </si>
+  <si>
+    <t>proctorautomation44144@gmail.com</t>
+  </si>
+  <si>
+    <t>44144</t>
+  </si>
+  <si>
+    <t>Proctor81069</t>
+  </si>
+  <si>
+    <t>Automation81069</t>
+  </si>
+  <si>
+    <t>proctorautomation81069@gmail.com</t>
+  </si>
+  <si>
+    <t>81069</t>
+  </si>
+  <si>
+    <t>Proctor27946</t>
+  </si>
+  <si>
+    <t>Automation27946</t>
+  </si>
+  <si>
+    <t>proctorautomation27946@gmail.com</t>
+  </si>
+  <si>
+    <t>27946</t>
+  </si>
+  <si>
+    <t>Proctor85260</t>
+  </si>
+  <si>
+    <t>Automation85260</t>
+  </si>
+  <si>
+    <t>proctorautomation85260@gmail.com</t>
+  </si>
+  <si>
+    <t>85260</t>
+  </si>
+  <si>
+    <t>Proctor11130</t>
+  </si>
+  <si>
+    <t>Automation11130</t>
+  </si>
+  <si>
+    <t>proctorautomation11130@gmail.com</t>
+  </si>
+  <si>
+    <t>11130</t>
+  </si>
+  <si>
+    <t>Proctor17442</t>
+  </si>
+  <si>
+    <t>Automation17442</t>
+  </si>
+  <si>
+    <t>proctorautomation17442@gmail.com</t>
+  </si>
+  <si>
+    <t>17442</t>
+  </si>
+  <si>
+    <t>Proctor02957</t>
+  </si>
+  <si>
+    <t>Automation02957</t>
+  </si>
+  <si>
+    <t>proctorautomation02957@gmail.com</t>
+  </si>
+  <si>
+    <t>02957</t>
+  </si>
+  <si>
+    <t>Proctor99933</t>
+  </si>
+  <si>
+    <t>Automation99933</t>
+  </si>
+  <si>
+    <t>proctorautomation99933@gmail.com</t>
+  </si>
+  <si>
+    <t>99933</t>
+  </si>
+  <si>
+    <t>Proctor27722</t>
+  </si>
+  <si>
+    <t>Automation27722</t>
+  </si>
+  <si>
+    <t>proctorautomation27722@gmail.com</t>
+  </si>
+  <si>
+    <t>27722</t>
+  </si>
+  <si>
+    <t>Proctor69455</t>
+  </si>
+  <si>
+    <t>Automation69455</t>
+  </si>
+  <si>
+    <t>proctorautomation69455@gmail.com</t>
+  </si>
+  <si>
+    <t>69455</t>
+  </si>
+  <si>
+    <t>Proctor55276</t>
+  </si>
+  <si>
+    <t>Automation55276</t>
+  </si>
+  <si>
+    <t>proctorautomation55276@gmail.com</t>
+  </si>
+  <si>
+    <t>55276</t>
+  </si>
+  <si>
+    <t>Proctor06267</t>
+  </si>
+  <si>
+    <t>Automation06267</t>
+  </si>
+  <si>
+    <t>proctorautomation06267@gmail.com</t>
+  </si>
+  <si>
+    <t>06267</t>
+  </si>
+  <si>
+    <t>Proctor73080</t>
+  </si>
+  <si>
+    <t>Automation73080</t>
+  </si>
+  <si>
+    <t>proctorautomation73080@gmail.com</t>
+  </si>
+  <si>
+    <t>73080</t>
+  </si>
+  <si>
+    <t>Proctor26073</t>
+  </si>
+  <si>
+    <t>Automation26073</t>
+  </si>
+  <si>
+    <t>proctorautomation26073@gmail.com</t>
+  </si>
+  <si>
+    <t>26073</t>
+  </si>
+  <si>
+    <t>Proctor45883</t>
+  </si>
+  <si>
+    <t>Automation45883</t>
+  </si>
+  <si>
+    <t>proctorautomation45883@gmail.com</t>
+  </si>
+  <si>
+    <t>45883</t>
+  </si>
+  <si>
+    <t>Proctor00648</t>
+  </si>
+  <si>
+    <t>Automation00648</t>
+  </si>
+  <si>
+    <t>proctorautomation00648@gmail.com</t>
+  </si>
+  <si>
+    <t>00648</t>
+  </si>
+  <si>
+    <t>Proctor81426</t>
+  </si>
+  <si>
+    <t>Automation81426</t>
+  </si>
+  <si>
+    <t>proctorautomation81426@gmail.com</t>
+  </si>
+  <si>
+    <t>81426</t>
+  </si>
+  <si>
+    <t>Proctor02884</t>
+  </si>
+  <si>
+    <t>Automation02884</t>
+  </si>
+  <si>
+    <t>proctorautomation02884@gmail.com</t>
+  </si>
+  <si>
+    <t>02884</t>
+  </si>
+  <si>
+    <t>Proctor84105</t>
+  </si>
+  <si>
+    <t>Automation84105</t>
+  </si>
+  <si>
+    <t>proctorautomation84105@gmail.com</t>
+  </si>
+  <si>
+    <t>84105</t>
+  </si>
+  <si>
+    <t>Proctor29393</t>
+  </si>
+  <si>
+    <t>Automation29393</t>
+  </si>
+  <si>
+    <t>proctorautomation29393@gmail.com</t>
+  </si>
+  <si>
+    <t>29393</t>
+  </si>
+  <si>
+    <t>Proctor99136</t>
+  </si>
+  <si>
+    <t>Automation99136</t>
+  </si>
+  <si>
+    <t>proctorautomation99136@gmail.com</t>
+  </si>
+  <si>
+    <t>99136</t>
+  </si>
+  <si>
+    <t>Proctor19225</t>
+  </si>
+  <si>
+    <t>Automation19225</t>
+  </si>
+  <si>
+    <t>proctorautomation19225@gmail.com</t>
+  </si>
+  <si>
+    <t>19225</t>
+  </si>
+  <si>
+    <t>Proctor50685</t>
+  </si>
+  <si>
+    <t>Automation50685</t>
+  </si>
+  <si>
+    <t>proctorautomation50685@gmail.com</t>
+  </si>
+  <si>
+    <t>50685</t>
+  </si>
+  <si>
+    <t>Proctor78617</t>
+  </si>
+  <si>
+    <t>Automation78617</t>
+  </si>
+  <si>
+    <t>proctorautomation78617@gmail.com</t>
+  </si>
+  <si>
+    <t>78617</t>
+  </si>
+  <si>
+    <t>Proctor14253</t>
+  </si>
+  <si>
+    <t>Automation14253</t>
+  </si>
+  <si>
+    <t>proctorautomation14253@gmail.com</t>
+  </si>
+  <si>
+    <t>14253</t>
+  </si>
+  <si>
+    <t>Proctor00653</t>
+  </si>
+  <si>
+    <t>Automation00653</t>
+  </si>
+  <si>
+    <t>proctorautomation00653@gmail.com</t>
+  </si>
+  <si>
+    <t>00653</t>
+  </si>
+  <si>
+    <t>Proctor80306</t>
+  </si>
+  <si>
+    <t>Automation80306</t>
+  </si>
+  <si>
+    <t>proctorautomation80306@gmail.com</t>
+  </si>
+  <si>
+    <t>80306</t>
+  </si>
+  <si>
+    <t>Proctor56644</t>
+  </si>
+  <si>
+    <t>Automation56644</t>
+  </si>
+  <si>
+    <t>proctorautomation56644@gmail.com</t>
+  </si>
+  <si>
+    <t>56644</t>
+  </si>
+  <si>
+    <t>Proctor33542</t>
+  </si>
+  <si>
+    <t>Automation33542</t>
+  </si>
+  <si>
+    <t>proctorautomation33542@gmail.com</t>
+  </si>
+  <si>
+    <t>33542</t>
+  </si>
+  <si>
+    <t>Proctor51279</t>
+  </si>
+  <si>
+    <t>Automation51279</t>
+  </si>
+  <si>
+    <t>proctorautomation51279@gmail.com</t>
+  </si>
+  <si>
+    <t>51279</t>
+  </si>
+  <si>
+    <t>Proctor95573</t>
+  </si>
+  <si>
+    <t>Automation95573</t>
+  </si>
+  <si>
+    <t>proctorautomation95573@gmail.com</t>
+  </si>
+  <si>
+    <t>95573</t>
+  </si>
+  <si>
+    <t>Proctor98190</t>
+  </si>
+  <si>
+    <t>Automation98190</t>
+  </si>
+  <si>
+    <t>proctorautomation98190@gmail.com</t>
+  </si>
+  <si>
+    <t>98190</t>
+  </si>
+  <si>
+    <t>Proctor48327</t>
+  </si>
+  <si>
+    <t>Automation48327</t>
+  </si>
+  <si>
+    <t>proctorautomation48327@gmail.com</t>
+  </si>
+  <si>
+    <t>48327</t>
+  </si>
+  <si>
+    <t>Proctor30496</t>
+  </si>
+  <si>
+    <t>Automation30496</t>
+  </si>
+  <si>
+    <t>proctorautomation30496@gmail.com</t>
+  </si>
+  <si>
+    <t>30496</t>
+  </si>
+  <si>
+    <t>Proctor99461</t>
+  </si>
+  <si>
+    <t>Automation99461</t>
+  </si>
+  <si>
+    <t>proctorautomation99461@gmail.com</t>
+  </si>
+  <si>
+    <t>99461</t>
+  </si>
+  <si>
+    <t>Proctor85453</t>
+  </si>
+  <si>
+    <t>Automation85453</t>
+  </si>
+  <si>
+    <t>proctorautomation85453@gmail.com</t>
+  </si>
+  <si>
+    <t>85453</t>
+  </si>
+  <si>
+    <t>Proctor34486</t>
+  </si>
+  <si>
+    <t>Automation34486</t>
+  </si>
+  <si>
+    <t>proctorautomation34486@gmail.com</t>
+  </si>
+  <si>
+    <t>34486</t>
+  </si>
+  <si>
+    <t>Proctor28782</t>
+  </si>
+  <si>
+    <t>Automation28782</t>
+  </si>
+  <si>
+    <t>proctorautomation28782@gmail.com</t>
+  </si>
+  <si>
+    <t>28782</t>
+  </si>
+  <si>
+    <t>Proctor02819</t>
+  </si>
+  <si>
+    <t>Automation02819</t>
+  </si>
+  <si>
+    <t>proctorautomation02819@gmail.com</t>
+  </si>
+  <si>
+    <t>02819</t>
+  </si>
+  <si>
+    <t>Proctor26892</t>
+  </si>
+  <si>
+    <t>Automation26892</t>
+  </si>
+  <si>
+    <t>proctorautomation26892@gmail.com</t>
+  </si>
+  <si>
+    <t>26892</t>
+  </si>
+  <si>
+    <t>Proctor69843</t>
+  </si>
+  <si>
+    <t>Automation69843</t>
+  </si>
+  <si>
+    <t>proctorautomation69843@gmail.com</t>
+  </si>
+  <si>
+    <t>69843</t>
+  </si>
+  <si>
+    <t>Proctor22934</t>
+  </si>
+  <si>
+    <t>Automation22934</t>
+  </si>
+  <si>
+    <t>proctorautomation22934@gmail.com</t>
+  </si>
+  <si>
+    <t>22934</t>
+  </si>
+  <si>
+    <t>Proctor46158</t>
+  </si>
+  <si>
+    <t>Automation46158</t>
+  </si>
+  <si>
+    <t>proctorautomation46158@gmail.com</t>
+  </si>
+  <si>
+    <t>46158</t>
+  </si>
+  <si>
+    <t>Proctor69987</t>
+  </si>
+  <si>
+    <t>Automation69987</t>
+  </si>
+  <si>
+    <t>proctorautomation69987@gmail.com</t>
+  </si>
+  <si>
+    <t>69987</t>
+  </si>
+  <si>
+    <t>Proctor46056</t>
+  </si>
+  <si>
+    <t>Automation46056</t>
+  </si>
+  <si>
+    <t>proctorautomation46056@gmail.com</t>
+  </si>
+  <si>
+    <t>46056</t>
+  </si>
+  <si>
+    <t>Proctor69969</t>
+  </si>
+  <si>
+    <t>Automation69969</t>
+  </si>
+  <si>
+    <t>proctorautomation69969@gmail.com</t>
+  </si>
+  <si>
+    <t>69969</t>
+  </si>
+  <si>
+    <t>Proctor20976</t>
+  </si>
+  <si>
+    <t>Automation20976</t>
+  </si>
+  <si>
+    <t>proctorautomation20976@gmail.com</t>
+  </si>
+  <si>
+    <t>20976</t>
+  </si>
+  <si>
+    <t>Proctor96126</t>
+  </si>
+  <si>
+    <t>Automation96126</t>
+  </si>
+  <si>
+    <t>proctorautomation96126@gmail.com</t>
+  </si>
+  <si>
+    <t>96126</t>
+  </si>
+  <si>
+    <t>Proctor05700</t>
+  </si>
+  <si>
+    <t>Automation05700</t>
+  </si>
+  <si>
+    <t>proctorautomation05700@gmail.com</t>
+  </si>
+  <si>
+    <t>05700</t>
+  </si>
+  <si>
+    <t>Proctor12384</t>
+  </si>
+  <si>
+    <t>Automation12384</t>
+  </si>
+  <si>
+    <t>proctorautomation12384@gmail.com</t>
+  </si>
+  <si>
+    <t>12384</t>
+  </si>
+  <si>
+    <t>Proctor73652</t>
+  </si>
+  <si>
+    <t>Automation73652</t>
+  </si>
+  <si>
+    <t>proctorautomation73652@gmail.com</t>
+  </si>
+  <si>
+    <t>73652</t>
+  </si>
+  <si>
+    <t>Proctor38324</t>
+  </si>
+  <si>
+    <t>Automation38324</t>
+  </si>
+  <si>
+    <t>proctorautomation38324@gmail.com</t>
+  </si>
+  <si>
+    <t>38324</t>
+  </si>
+  <si>
+    <t>Proctor87335</t>
+  </si>
+  <si>
+    <t>Automation87335</t>
+  </si>
+  <si>
+    <t>proctorautomation87335@gmail.com</t>
+  </si>
+  <si>
+    <t>87335</t>
+  </si>
+  <si>
+    <t>Proctor22685</t>
+  </si>
+  <si>
+    <t>Automation22685</t>
+  </si>
+  <si>
+    <t>proctorautomation22685@gmail.com</t>
+  </si>
+  <si>
+    <t>22685</t>
+  </si>
+  <si>
+    <t>Proctor55178</t>
+  </si>
+  <si>
+    <t>Automation55178</t>
+  </si>
+  <si>
+    <t>proctorautomation55178@gmail.com</t>
+  </si>
+  <si>
+    <t>55178</t>
+  </si>
+  <si>
+    <t>Proctor77136</t>
+  </si>
+  <si>
+    <t>Automation77136</t>
+  </si>
+  <si>
+    <t>proctorautomation77136@gmail.com</t>
+  </si>
+  <si>
+    <t>77136</t>
+  </si>
+  <si>
+    <t>Proctor23413</t>
+  </si>
+  <si>
+    <t>Automation23413</t>
+  </si>
+  <si>
+    <t>proctorautomation23413@gmail.com</t>
+  </si>
+  <si>
+    <t>23413</t>
+  </si>
+  <si>
+    <t>Proctor22012</t>
+  </si>
+  <si>
+    <t>Automation22012</t>
+  </si>
+  <si>
+    <t>proctorautomation22012@gmail.com</t>
+  </si>
+  <si>
+    <t>22012</t>
+  </si>
+  <si>
+    <t>Proctor50336</t>
+  </si>
+  <si>
+    <t>Automation50336</t>
+  </si>
+  <si>
+    <t>proctorautomation50336@gmail.com</t>
+  </si>
+  <si>
+    <t>50336</t>
+  </si>
+  <si>
+    <t>Proctor98280</t>
+  </si>
+  <si>
+    <t>Automation98280</t>
+  </si>
+  <si>
+    <t>proctorautomation98280@gmail.com</t>
+  </si>
+  <si>
+    <t>98280</t>
+  </si>
+  <si>
+    <t>Proctor70893</t>
+  </si>
+  <si>
+    <t>Automation70893</t>
+  </si>
+  <si>
+    <t>proctorautomation70893@gmail.com</t>
+  </si>
+  <si>
+    <t>70893</t>
+  </si>
+  <si>
+    <t>Proctor57860</t>
+  </si>
+  <si>
+    <t>Automation57860</t>
+  </si>
+  <si>
+    <t>proctorautomation57860@gmail.com</t>
+  </si>
+  <si>
+    <t>57860</t>
+  </si>
+  <si>
+    <t>Proctor08602</t>
+  </si>
+  <si>
+    <t>Automation08602</t>
+  </si>
+  <si>
+    <t>proctorautomation08602@gmail.com</t>
+  </si>
+  <si>
+    <t>08602</t>
+  </si>
+  <si>
+    <t>Proctor82033</t>
+  </si>
+  <si>
+    <t>Automation82033</t>
+  </si>
+  <si>
+    <t>proctorautomation82033@gmail.com</t>
+  </si>
+  <si>
+    <t>82033</t>
+  </si>
+  <si>
+    <t>Proctor00843</t>
+  </si>
+  <si>
+    <t>Automation00843</t>
+  </si>
+  <si>
+    <t>proctorautomation00843@gmail.com</t>
+  </si>
+  <si>
+    <t>00843</t>
+  </si>
+  <si>
+    <t>Proctor04115</t>
+  </si>
+  <si>
+    <t>Automation04115</t>
+  </si>
+  <si>
+    <t>proctorautomation04115@gmail.com</t>
+  </si>
+  <si>
+    <t>04115</t>
+  </si>
+  <si>
+    <t>Proctor94150</t>
+  </si>
+  <si>
+    <t>Automation94150</t>
+  </si>
+  <si>
+    <t>proctorautomation94150@gmail.com</t>
+  </si>
+  <si>
+    <t>94150</t>
+  </si>
+  <si>
+    <t>Proctor05812</t>
+  </si>
+  <si>
+    <t>Automation05812</t>
+  </si>
+  <si>
+    <t>proctorautomation05812@gmail.com</t>
+  </si>
+  <si>
+    <t>05812</t>
+  </si>
+  <si>
+    <t>Proctor90877</t>
+  </si>
+  <si>
+    <t>Automation90877</t>
+  </si>
+  <si>
+    <t>proctorautomation90877@gmail.com</t>
+  </si>
+  <si>
+    <t>90877</t>
+  </si>
+  <si>
+    <t>Proctor99398</t>
+  </si>
+  <si>
+    <t>Automation99398</t>
+  </si>
+  <si>
+    <t>proctorautomation99398@gmail.com</t>
+  </si>
+  <si>
+    <t>99398</t>
+  </si>
+  <si>
+    <t>Proctor82678</t>
+  </si>
+  <si>
+    <t>Automation82678</t>
+  </si>
+  <si>
+    <t>proctorautomation82678@gmail.com</t>
+  </si>
+  <si>
+    <t>82678</t>
+  </si>
+  <si>
+    <t>Proctor09445</t>
+  </si>
+  <si>
+    <t>Automation09445</t>
+  </si>
+  <si>
+    <t>proctorautomation09445@gmail.com</t>
+  </si>
+  <si>
+    <t>09445</t>
+  </si>
+  <si>
+    <t>Proctor33935</t>
+  </si>
+  <si>
+    <t>Automation33935</t>
+  </si>
+  <si>
+    <t>proctorautomation33935@gmail.com</t>
+  </si>
+  <si>
+    <t>33935</t>
+  </si>
+  <si>
+    <t>Proctor49151</t>
+  </si>
+  <si>
+    <t>Automation49151</t>
+  </si>
+  <si>
+    <t>proctorautomation49151@gmail.com</t>
+  </si>
+  <si>
+    <t>49151</t>
+  </si>
+  <si>
+    <t>Proctor62761</t>
+  </si>
+  <si>
+    <t>Automation62761</t>
+  </si>
+  <si>
+    <t>proctorautomation62761@gmail.com</t>
+  </si>
+  <si>
+    <t>62761</t>
+  </si>
+  <si>
+    <t>Proctor39608</t>
+  </si>
+  <si>
+    <t>Automation39608</t>
+  </si>
+  <si>
+    <t>proctorautomation39608@gmail.com</t>
+  </si>
+  <si>
+    <t>39608</t>
+  </si>
+  <si>
+    <t>Proctor60956</t>
+  </si>
+  <si>
+    <t>Automation60956</t>
+  </si>
+  <si>
+    <t>proctorautomation60956@gmail.com</t>
+  </si>
+  <si>
+    <t>60956</t>
+  </si>
+  <si>
+    <t>Proctor53121</t>
+  </si>
+  <si>
+    <t>Automation53121</t>
+  </si>
+  <si>
+    <t>proctorautomation53121@gmail.com</t>
+  </si>
+  <si>
+    <t>53121</t>
+  </si>
+  <si>
+    <t>Proctor41771</t>
+  </si>
+  <si>
+    <t>Automation41771</t>
+  </si>
+  <si>
+    <t>proctorautomation41771@gmail.com</t>
+  </si>
+  <si>
+    <t>41771</t>
+  </si>
+  <si>
+    <t>Proctor92446</t>
+  </si>
+  <si>
+    <t>Automation92446</t>
+  </si>
+  <si>
+    <t>proctorautomation92446@gmail.com</t>
+  </si>
+  <si>
+    <t>92446</t>
+  </si>
+  <si>
+    <t>Proctor73901</t>
+  </si>
+  <si>
+    <t>Automation73901</t>
+  </si>
+  <si>
+    <t>proctorautomation73901@gmail.com</t>
+  </si>
+  <si>
+    <t>73901</t>
+  </si>
+  <si>
+    <t>Proctor29142</t>
+  </si>
+  <si>
+    <t>Automation29142</t>
+  </si>
+  <si>
+    <t>proctorautomation29142@gmail.com</t>
+  </si>
+  <si>
+    <t>29142</t>
+  </si>
+  <si>
+    <t>Proctor63372</t>
+  </si>
+  <si>
+    <t>Automation63372</t>
+  </si>
+  <si>
+    <t>proctorautomation63372@gmail.com</t>
+  </si>
+  <si>
+    <t>63372</t>
+  </si>
+  <si>
+    <t>Proctor45795</t>
+  </si>
+  <si>
+    <t>Automation45795</t>
+  </si>
+  <si>
+    <t>proctorautomation45795@gmail.com</t>
+  </si>
+  <si>
+    <t>45795</t>
+  </si>
+  <si>
+    <t>Proctor79049</t>
+  </si>
+  <si>
+    <t>Automation79049</t>
+  </si>
+  <si>
+    <t>proctorautomation79049@gmail.com</t>
+  </si>
+  <si>
+    <t>79049</t>
+  </si>
+  <si>
+    <t>Proctor82203</t>
+  </si>
+  <si>
+    <t>Automation82203</t>
+  </si>
+  <si>
+    <t>proctorautomation82203@gmail.com</t>
+  </si>
+  <si>
+    <t>82203</t>
+  </si>
+  <si>
+    <t>Proctor02874</t>
+  </si>
+  <si>
+    <t>Automation02874</t>
+  </si>
+  <si>
+    <t>proctorautomation02874@gmail.com</t>
+  </si>
+  <si>
+    <t>02874</t>
+  </si>
+  <si>
+    <t>Proctor95757</t>
+  </si>
+  <si>
+    <t>Automation95757</t>
+  </si>
+  <si>
+    <t>proctorautomation95757@gmail.com</t>
+  </si>
+  <si>
+    <t>95757</t>
+  </si>
+  <si>
+    <t>Proctor79229</t>
+  </si>
+  <si>
+    <t>Automation79229</t>
+  </si>
+  <si>
+    <t>proctorautomation79229@gmail.com</t>
+  </si>
+  <si>
+    <t>79229</t>
+  </si>
+  <si>
+    <t>Proctor33222</t>
+  </si>
+  <si>
+    <t>Automation33222</t>
+  </si>
+  <si>
+    <t>proctorautomation33222@gmail.com</t>
+  </si>
+  <si>
+    <t>33222</t>
+  </si>
+  <si>
+    <t>Proctor05099</t>
+  </si>
+  <si>
+    <t>Automation05099</t>
+  </si>
+  <si>
+    <t>proctorautomation05099@gmail.com</t>
+  </si>
+  <si>
+    <t>05099</t>
+  </si>
+  <si>
+    <t>Proctor98033</t>
+  </si>
+  <si>
+    <t>Automation98033</t>
+  </si>
+  <si>
+    <t>proctorautomation98033@gmail.com</t>
+  </si>
+  <si>
+    <t>98033</t>
+  </si>
+  <si>
+    <t>Proctor34417</t>
+  </si>
+  <si>
+    <t>Automation34417</t>
+  </si>
+  <si>
+    <t>proctorautomation34417@gmail.com</t>
+  </si>
+  <si>
+    <t>34417</t>
+  </si>
+  <si>
+    <t>Proctor18771</t>
+  </si>
+  <si>
+    <t>Automation18771</t>
+  </si>
+  <si>
+    <t>proctorautomation18771@gmail.com</t>
+  </si>
+  <si>
+    <t>18771</t>
+  </si>
+  <si>
+    <t>Proctor68932</t>
+  </si>
+  <si>
+    <t>Automation68932</t>
+  </si>
+  <si>
+    <t>proctorautomation68932@gmail.com</t>
+  </si>
+  <si>
+    <t>68932</t>
+  </si>
+  <si>
+    <t>Proctor57536</t>
+  </si>
+  <si>
+    <t>Automation57536</t>
+  </si>
+  <si>
+    <t>proctorautomation57536@gmail.com</t>
+  </si>
+  <si>
+    <t>57536</t>
+  </si>
+  <si>
+    <t>Proctor18241</t>
+  </si>
+  <si>
+    <t>Automation18241</t>
+  </si>
+  <si>
+    <t>proctorautomation18241@gmail.com</t>
+  </si>
+  <si>
+    <t>18241</t>
+  </si>
+  <si>
+    <t>Proctor23730</t>
+  </si>
+  <si>
+    <t>Automation23730</t>
+  </si>
+  <si>
+    <t>proctorautomation23730@gmail.com</t>
+  </si>
+  <si>
+    <t>23730</t>
+  </si>
+  <si>
+    <t>Proctor04927</t>
+  </si>
+  <si>
+    <t>Automation04927</t>
+  </si>
+  <si>
+    <t>proctorautomation04927@gmail.com</t>
+  </si>
+  <si>
+    <t>04927</t>
+  </si>
+  <si>
+    <t>Proctor26377</t>
+  </si>
+  <si>
+    <t>Automation26377</t>
+  </si>
+  <si>
+    <t>proctorautomation26377@gmail.com</t>
+  </si>
+  <si>
+    <t>26377</t>
+  </si>
+  <si>
+    <t>Proctor43011</t>
+  </si>
+  <si>
+    <t>Automation43011</t>
+  </si>
+  <si>
+    <t>proctorautomation43011@gmail.com</t>
+  </si>
+  <si>
+    <t>43011</t>
+  </si>
+  <si>
+    <t>Proctor23724</t>
+  </si>
+  <si>
+    <t>Automation23724</t>
+  </si>
+  <si>
+    <t>proctorautomation23724@gmail.com</t>
+  </si>
+  <si>
+    <t>23724</t>
+  </si>
+  <si>
+    <t>Proctor81596</t>
+  </si>
+  <si>
+    <t>Automation81596</t>
+  </si>
+  <si>
+    <t>proctorautomation81596@gmail.com</t>
+  </si>
+  <si>
+    <t>81596</t>
+  </si>
+  <si>
+    <t>Proctor60036</t>
+  </si>
+  <si>
+    <t>Automation60036</t>
+  </si>
+  <si>
+    <t>proctorautomation60036@gmail.com</t>
+  </si>
+  <si>
+    <t>60036</t>
+  </si>
+  <si>
+    <t>Proctor46220</t>
+  </si>
+  <si>
+    <t>Automation46220</t>
+  </si>
+  <si>
+    <t>proctorautomation46220@gmail.com</t>
+  </si>
+  <si>
+    <t>46220</t>
+  </si>
+  <si>
+    <t>Proctor27440</t>
+  </si>
+  <si>
+    <t>Automation27440</t>
+  </si>
+  <si>
+    <t>proctorautomation27440@gmail.com</t>
+  </si>
+  <si>
+    <t>27440</t>
+  </si>
+  <si>
+    <t>Proctor58389</t>
+  </si>
+  <si>
+    <t>Automation58389</t>
+  </si>
+  <si>
+    <t>proctorautomation58389@gmail.com</t>
+  </si>
+  <si>
+    <t>58389</t>
+  </si>
+  <si>
+    <t>Proctor11958</t>
+  </si>
+  <si>
+    <t>Automation11958</t>
+  </si>
+  <si>
+    <t>proctorautomation11958@gmail.com</t>
+  </si>
+  <si>
+    <t>11958</t>
+  </si>
+  <si>
+    <t>Proctor82228</t>
+  </si>
+  <si>
+    <t>Automation82228</t>
+  </si>
+  <si>
+    <t>proctorautomation82228@gmail.com</t>
+  </si>
+  <si>
+    <t>82228</t>
+  </si>
+  <si>
+    <t>Proctor67606</t>
+  </si>
+  <si>
+    <t>Automation67606</t>
+  </si>
+  <si>
+    <t>proctorautomation67606@gmail.com</t>
+  </si>
+  <si>
+    <t>67606</t>
+  </si>
+  <si>
+    <t>Proctor47077</t>
+  </si>
+  <si>
+    <t>Automation47077</t>
+  </si>
+  <si>
+    <t>proctorautomation47077@gmail.com</t>
+  </si>
+  <si>
+    <t>47077</t>
+  </si>
+  <si>
+    <t>Proctor51860</t>
+  </si>
+  <si>
+    <t>Automation51860</t>
+  </si>
+  <si>
+    <t>proctorautomation51860@gmail.com</t>
+  </si>
+  <si>
+    <t>51860</t>
+  </si>
+  <si>
+    <t>Proctor61609</t>
+  </si>
+  <si>
+    <t>Automation61609</t>
+  </si>
+  <si>
+    <t>proctorautomation61609@gmail.com</t>
+  </si>
+  <si>
+    <t>61609</t>
+  </si>
+  <si>
+    <t>Proctor57963</t>
+  </si>
+  <si>
+    <t>Automation57963</t>
+  </si>
+  <si>
+    <t>proctorautomation57963@gmail.com</t>
+  </si>
+  <si>
+    <t>57963</t>
+  </si>
+  <si>
+    <t>Proctor69084</t>
+  </si>
+  <si>
+    <t>Automation69084</t>
+  </si>
+  <si>
+    <t>proctorautomation69084@gmail.com</t>
+  </si>
+  <si>
+    <t>69084</t>
+  </si>
+  <si>
+    <t>Proctor59860</t>
+  </si>
+  <si>
+    <t>Automation59860</t>
+  </si>
+  <si>
+    <t>proctorautomation59860@gmail.com</t>
+  </si>
+  <si>
+    <t>59860</t>
+  </si>
+  <si>
+    <t>Proctor13755</t>
+  </si>
+  <si>
+    <t>Automation13755</t>
+  </si>
+  <si>
+    <t>proctorautomation13755@gmail.com</t>
+  </si>
+  <si>
+    <t>13755</t>
+  </si>
+  <si>
+    <t>Proctor98023</t>
+  </si>
+  <si>
+    <t>Automation98023</t>
+  </si>
+  <si>
+    <t>proctorautomation98023@gmail.com</t>
+  </si>
+  <si>
+    <t>98023</t>
+  </si>
+  <si>
+    <t>Proctor85684</t>
+  </si>
+  <si>
+    <t>Automation85684</t>
+  </si>
+  <si>
+    <t>proctorautomation85684@gmail.com</t>
+  </si>
+  <si>
+    <t>85684</t>
+  </si>
+  <si>
+    <t>Proctor57419</t>
+  </si>
+  <si>
+    <t>Automation57419</t>
+  </si>
+  <si>
+    <t>proctorautomation57419@gmail.com</t>
+  </si>
+  <si>
+    <t>57419</t>
+  </si>
+  <si>
+    <t>Proctor77794</t>
+  </si>
+  <si>
+    <t>Automation77794</t>
+  </si>
+  <si>
+    <t>proctorautomation77794@gmail.com</t>
+  </si>
+  <si>
+    <t>77794</t>
+  </si>
+  <si>
+    <t>Proctor47905</t>
+  </si>
+  <si>
+    <t>Automation47905</t>
+  </si>
+  <si>
+    <t>proctorautomation47905@gmail.com</t>
+  </si>
+  <si>
+    <t>47905</t>
+  </si>
+  <si>
+    <t>Proctor71354</t>
+  </si>
+  <si>
+    <t>Automation71354</t>
+  </si>
+  <si>
+    <t>proctorautomation71354@gmail.com</t>
+  </si>
+  <si>
+    <t>71354</t>
+  </si>
+  <si>
+    <t>Proctor47830</t>
+  </si>
+  <si>
+    <t>Automation47830</t>
+  </si>
+  <si>
+    <t>proctorautomation47830@gmail.com</t>
+  </si>
+  <si>
+    <t>47830</t>
+  </si>
+  <si>
+    <t>Proctor56458</t>
+  </si>
+  <si>
+    <t>Automation56458</t>
+  </si>
+  <si>
+    <t>proctorautomation56458@gmail.com</t>
+  </si>
+  <si>
+    <t>56458</t>
+  </si>
+  <si>
+    <t>Proctor00377</t>
+  </si>
+  <si>
+    <t>Automation00377</t>
+  </si>
+  <si>
+    <t>proctorautomation00377@gmail.com</t>
+  </si>
+  <si>
+    <t>00377</t>
+  </si>
+  <si>
+    <t>Proctor84095</t>
+  </si>
+  <si>
+    <t>Automation84095</t>
+  </si>
+  <si>
+    <t>proctorautomation84095@gmail.com</t>
+  </si>
+  <si>
+    <t>84095</t>
+  </si>
+  <si>
+    <t>Proctor41000</t>
+  </si>
+  <si>
+    <t>Automation41000</t>
+  </si>
+  <si>
+    <t>proctorautomation41000@gmail.com</t>
+  </si>
+  <si>
+    <t>41000</t>
+  </si>
+  <si>
+    <t>Proctor56178</t>
+  </si>
+  <si>
+    <t>Automation56178</t>
+  </si>
+  <si>
+    <t>proctorautomation56178@gmail.com</t>
+  </si>
+  <si>
+    <t>56178</t>
+  </si>
+  <si>
+    <t>Proctor85507</t>
+  </si>
+  <si>
+    <t>Automation85507</t>
+  </si>
+  <si>
+    <t>proctorautomation85507@gmail.com</t>
+  </si>
+  <si>
+    <t>85507</t>
+  </si>
+  <si>
+    <t>Proctor99549</t>
+  </si>
+  <si>
+    <t>Automation99549</t>
+  </si>
+  <si>
+    <t>proctorautomation99549@gmail.com</t>
+  </si>
+  <si>
+    <t>99549</t>
+  </si>
+  <si>
+    <t>Proctor41482</t>
+  </si>
+  <si>
+    <t>Automation41482</t>
+  </si>
+  <si>
+    <t>proctorautomation41482@gmail.com</t>
+  </si>
+  <si>
+    <t>41482</t>
+  </si>
+  <si>
+    <t>Proctor05136</t>
+  </si>
+  <si>
+    <t>Automation05136</t>
+  </si>
+  <si>
+    <t>proctorautomation05136@gmail.com</t>
+  </si>
+  <si>
+    <t>05136</t>
+  </si>
+  <si>
+    <t>Proctor19496</t>
+  </si>
+  <si>
+    <t>Automation19496</t>
+  </si>
+  <si>
+    <t>proctorautomation19496@gmail.com</t>
+  </si>
+  <si>
+    <t>19496</t>
+  </si>
+  <si>
+    <t>Proctor30006</t>
+  </si>
+  <si>
+    <t>Automation30006</t>
+  </si>
+  <si>
+    <t>proctorautomation30006@gmail.com</t>
+  </si>
+  <si>
+    <t>30006</t>
+  </si>
+  <si>
+    <t>Proctor02364</t>
+  </si>
+  <si>
+    <t>Automation02364</t>
+  </si>
+  <si>
+    <t>proctorautomation02364@gmail.com</t>
+  </si>
+  <si>
+    <t>02364</t>
+  </si>
+  <si>
+    <t>Proctor75742</t>
+  </si>
+  <si>
+    <t>Automation75742</t>
+  </si>
+  <si>
+    <t>proctorautomation75742@gmail.com</t>
+  </si>
+  <si>
+    <t>75742</t>
+  </si>
+  <si>
+    <t>Proctor88881</t>
+  </si>
+  <si>
+    <t>Automation88881</t>
+  </si>
+  <si>
+    <t>proctorautomation88881@gmail.com</t>
+  </si>
+  <si>
+    <t>88881</t>
+  </si>
+  <si>
+    <t>Proctor24846</t>
+  </si>
+  <si>
+    <t>Automation24846</t>
+  </si>
+  <si>
+    <t>proctorautomation24846@gmail.com</t>
+  </si>
+  <si>
+    <t>24846</t>
+  </si>
+  <si>
+    <t>Proctor58053</t>
+  </si>
+  <si>
+    <t>Automation58053</t>
+  </si>
+  <si>
+    <t>proctorautomation58053@gmail.com</t>
+  </si>
+  <si>
+    <t>58053</t>
+  </si>
+  <si>
+    <t>Proctor15454</t>
+  </si>
+  <si>
+    <t>Automation15454</t>
+  </si>
+  <si>
+    <t>proctorautomation15454@gmail.com</t>
+  </si>
+  <si>
+    <t>15454</t>
+  </si>
+  <si>
+    <t>Proctor09597</t>
+  </si>
+  <si>
+    <t>Automation09597</t>
+  </si>
+  <si>
+    <t>proctorautomation09597@gmail.com</t>
+  </si>
+  <si>
+    <t>09597</t>
+  </si>
+  <si>
+    <t>Proctor42840</t>
+  </si>
+  <si>
+    <t>Automation42840</t>
+  </si>
+  <si>
+    <t>proctorautomation42840@gmail.com</t>
+  </si>
+  <si>
+    <t>42840</t>
+  </si>
+  <si>
+    <t>Proctor70297</t>
+  </si>
+  <si>
+    <t>Automation70297</t>
+  </si>
+  <si>
+    <t>proctorautomation70297@gmail.com</t>
+  </si>
+  <si>
+    <t>70297</t>
+  </si>
+  <si>
+    <t>Proctor38734</t>
+  </si>
+  <si>
+    <t>Automation38734</t>
+  </si>
+  <si>
+    <t>proctorautomation38734@gmail.com</t>
+  </si>
+  <si>
+    <t>38734</t>
+  </si>
+  <si>
+    <t>Proctor67047</t>
+  </si>
+  <si>
+    <t>Automation67047</t>
+  </si>
+  <si>
+    <t>proctorautomation67047@gmail.com</t>
+  </si>
+  <si>
+    <t>67047</t>
+  </si>
+  <si>
+    <t>Proctor06631</t>
+  </si>
+  <si>
+    <t>Automation06631</t>
+  </si>
+  <si>
+    <t>proctorautomation06631@gmail.com</t>
+  </si>
+  <si>
+    <t>06631</t>
+  </si>
+  <si>
+    <t>Proctor80682</t>
+  </si>
+  <si>
+    <t>Automation80682</t>
+  </si>
+  <si>
+    <t>proctorautomation80682@gmail.com</t>
+  </si>
+  <si>
+    <t>80682</t>
+  </si>
+  <si>
+    <t>Proctor81295</t>
+  </si>
+  <si>
+    <t>Automation81295</t>
+  </si>
+  <si>
+    <t>proctorautomation81295@gmail.com</t>
+  </si>
+  <si>
+    <t>81295</t>
+  </si>
+  <si>
+    <t>Proctor07867</t>
+  </si>
+  <si>
+    <t>Automation07867</t>
+  </si>
+  <si>
+    <t>proctorautomation07867@gmail.com</t>
+  </si>
+  <si>
+    <t>07867</t>
+  </si>
+  <si>
+    <t>Proctor52279</t>
+  </si>
+  <si>
+    <t>Automation52279</t>
+  </si>
+  <si>
+    <t>proctorautomation52279@gmail.com</t>
+  </si>
+  <si>
+    <t>52279</t>
+  </si>
+  <si>
+    <t>Proctor93297</t>
+  </si>
+  <si>
+    <t>Automation93297</t>
+  </si>
+  <si>
+    <t>proctorautomation93297@gmail.com</t>
+  </si>
+  <si>
+    <t>93297</t>
+  </si>
+  <si>
+    <t>Proctor74177</t>
+  </si>
+  <si>
+    <t>Automation74177</t>
+  </si>
+  <si>
+    <t>proctorautomation74177@gmail.com</t>
+  </si>
+  <si>
+    <t>74177</t>
+  </si>
+  <si>
+    <t>Proctor02876</t>
+  </si>
+  <si>
+    <t>Automation02876</t>
+  </si>
+  <si>
+    <t>proctorautomation02876@gmail.com</t>
+  </si>
+  <si>
+    <t>02876</t>
+  </si>
+  <si>
+    <t>Proctor10438</t>
+  </si>
+  <si>
+    <t>Automation10438</t>
+  </si>
+  <si>
+    <t>proctorautomation10438@gmail.com</t>
+  </si>
+  <si>
+    <t>10438</t>
+  </si>
+  <si>
+    <t>Proctor14359</t>
+  </si>
+  <si>
+    <t>Automation14359</t>
+  </si>
+  <si>
+    <t>proctorautomation14359@gmail.com</t>
+  </si>
+  <si>
+    <t>14359</t>
+  </si>
+  <si>
+    <t>Proctor51956</t>
+  </si>
+  <si>
+    <t>Automation51956</t>
+  </si>
+  <si>
+    <t>proctorautomation51956@gmail.com</t>
+  </si>
+  <si>
+    <t>51956</t>
+  </si>
+  <si>
+    <t>Proctor80887</t>
+  </si>
+  <si>
+    <t>Automation80887</t>
+  </si>
+  <si>
+    <t>proctorautomation80887@gmail.com</t>
+  </si>
+  <si>
+    <t>80887</t>
+  </si>
+  <si>
+    <t>Proctor39761</t>
+  </si>
+  <si>
+    <t>Automation39761</t>
+  </si>
+  <si>
+    <t>proctorautomation39761@gmail.com</t>
+  </si>
+  <si>
+    <t>39761</t>
+  </si>
+  <si>
+    <t>Proctor79352</t>
+  </si>
+  <si>
+    <t>Automation79352</t>
+  </si>
+  <si>
+    <t>proctorautomation79352@gmail.com</t>
+  </si>
+  <si>
+    <t>79352</t>
+  </si>
+  <si>
+    <t>Proctor86901</t>
+  </si>
+  <si>
+    <t>Automation86901</t>
+  </si>
+  <si>
+    <t>proctorautomation86901@gmail.com</t>
+  </si>
+  <si>
+    <t>86901</t>
+  </si>
+  <si>
+    <t>Proctor28334</t>
+  </si>
+  <si>
+    <t>Automation28334</t>
+  </si>
+  <si>
+    <t>proctorautomation28334@gmail.com</t>
+  </si>
+  <si>
+    <t>28334</t>
   </si>
 </sst>
 </file>
@@ -11929,422 +14077,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3716</v>
+        <v>4436</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3717</v>
+        <v>4437</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>3718</v>
+        <v>4438</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3719</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3720</v>
+        <v>4440</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3721</v>
+        <v>4441</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>3722</v>
+        <v>4442</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>3723</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3724</v>
+        <v>4444</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3725</v>
+        <v>4445</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>3726</v>
+        <v>4446</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3727</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3728</v>
+        <v>4448</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3729</v>
+        <v>4449</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>3730</v>
+        <v>4450</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>3731</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>3732</v>
+        <v>4452</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>3733</v>
+        <v>4453</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>3734</v>
+        <v>4454</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3735</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>3736</v>
+        <v>4456</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>3737</v>
+        <v>4457</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>3738</v>
+        <v>4458</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3739</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>3740</v>
+        <v>4460</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>3741</v>
+        <v>4461</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>3742</v>
+        <v>4462</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>3743</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>3744</v>
+        <v>2472</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>3745</v>
+        <v>2473</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>3746</v>
+        <v>2474</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>3747</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>3748</v>
+        <v>4464</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>3749</v>
+        <v>4465</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>3750</v>
+        <v>4466</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>3751</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>3752</v>
+        <v>4468</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>3753</v>
+        <v>4469</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>3754</v>
+        <v>4470</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>3755</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>3756</v>
+        <v>4472</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>3757</v>
+        <v>4473</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>3758</v>
+        <v>4474</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>3759</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>3760</v>
+        <v>4476</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>3761</v>
+        <v>4477</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>3762</v>
+        <v>4478</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>3763</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>3764</v>
+        <v>4480</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>3765</v>
+        <v>4481</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>3766</v>
+        <v>4482</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>3767</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>3768</v>
+        <v>4484</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>3769</v>
+        <v>4485</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>3770</v>
+        <v>4486</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>3771</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>3772</v>
+        <v>4488</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>3773</v>
+        <v>4489</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>3774</v>
+        <v>4490</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>3775</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>3776</v>
+        <v>4492</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>3777</v>
+        <v>4493</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>3778</v>
+        <v>4494</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>3779</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>3780</v>
+        <v>4496</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>3781</v>
+        <v>4497</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>3782</v>
+        <v>4498</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>3783</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>3784</v>
+        <v>4500</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>3785</v>
+        <v>4501</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>3786</v>
+        <v>4502</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>3787</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>3788</v>
+        <v>4504</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>3789</v>
+        <v>4505</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>3790</v>
+        <v>4506</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>3791</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>3792</v>
+        <v>4508</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>3793</v>
+        <v>4509</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>3794</v>
+        <v>4510</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>3795</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>3796</v>
+        <v>4512</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>3797</v>
+        <v>4513</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>3798</v>
+        <v>4514</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>3799</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>3800</v>
+        <v>4516</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>3801</v>
+        <v>4517</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>3802</v>
+        <v>4518</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>3803</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>3804</v>
+        <v>4520</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>3805</v>
+        <v>4521</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>3806</v>
+        <v>4522</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>3807</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>3808</v>
+        <v>4524</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>3809</v>
+        <v>4525</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>3810</v>
+        <v>4526</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>3811</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>3812</v>
+        <v>4528</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3813</v>
+        <v>4529</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>3814</v>
+        <v>4530</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>3815</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>3816</v>
+        <v>4532</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>3817</v>
+        <v>4533</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>3818</v>
+        <v>4534</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>3819</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>3820</v>
+        <v>4536</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3821</v>
+        <v>4537</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>3822</v>
+        <v>4538</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>3823</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>3824</v>
+        <v>4540</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>3825</v>
+        <v>4541</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>3826</v>
+        <v>4542</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>3827</v>
+        <v>4543</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>3828</v>
+        <v>4544</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>3829</v>
+        <v>4545</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>3830</v>
+        <v>4546</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>3831</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>3832</v>
+        <v>4548</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>3833</v>
+        <v>4549</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>3834</v>
+        <v>4550</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>3835</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4568" uniqueCount="4552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="4672">
   <si>
     <t>FirstName</t>
   </si>
@@ -13670,6 +13670,366 @@
   </si>
   <si>
     <t>28334</t>
+  </si>
+  <si>
+    <t>Proctor56377</t>
+  </si>
+  <si>
+    <t>Automation56377</t>
+  </si>
+  <si>
+    <t>proctorautomation56377@gmail.com</t>
+  </si>
+  <si>
+    <t>56377</t>
+  </si>
+  <si>
+    <t>Proctor66939</t>
+  </si>
+  <si>
+    <t>Automation66939</t>
+  </si>
+  <si>
+    <t>proctorautomation66939@gmail.com</t>
+  </si>
+  <si>
+    <t>66939</t>
+  </si>
+  <si>
+    <t>Proctor65667</t>
+  </si>
+  <si>
+    <t>Automation65667</t>
+  </si>
+  <si>
+    <t>proctorautomation65667@gmail.com</t>
+  </si>
+  <si>
+    <t>65667</t>
+  </si>
+  <si>
+    <t>Proctor13039</t>
+  </si>
+  <si>
+    <t>Automation13039</t>
+  </si>
+  <si>
+    <t>proctorautomation13039@gmail.com</t>
+  </si>
+  <si>
+    <t>13039</t>
+  </si>
+  <si>
+    <t>Proctor67061</t>
+  </si>
+  <si>
+    <t>Automation67061</t>
+  </si>
+  <si>
+    <t>proctorautomation67061@gmail.com</t>
+  </si>
+  <si>
+    <t>67061</t>
+  </si>
+  <si>
+    <t>Proctor39776</t>
+  </si>
+  <si>
+    <t>Automation39776</t>
+  </si>
+  <si>
+    <t>proctorautomation39776@gmail.com</t>
+  </si>
+  <si>
+    <t>39776</t>
+  </si>
+  <si>
+    <t>Proctor87084</t>
+  </si>
+  <si>
+    <t>Automation87084</t>
+  </si>
+  <si>
+    <t>proctorautomation87084@gmail.com</t>
+  </si>
+  <si>
+    <t>87084</t>
+  </si>
+  <si>
+    <t>Proctor49678</t>
+  </si>
+  <si>
+    <t>Automation49678</t>
+  </si>
+  <si>
+    <t>proctorautomation49678@gmail.com</t>
+  </si>
+  <si>
+    <t>49678</t>
+  </si>
+  <si>
+    <t>Proctor40104</t>
+  </si>
+  <si>
+    <t>Automation40104</t>
+  </si>
+  <si>
+    <t>proctorautomation40104@gmail.com</t>
+  </si>
+  <si>
+    <t>40104</t>
+  </si>
+  <si>
+    <t>Proctor71201</t>
+  </si>
+  <si>
+    <t>Automation71201</t>
+  </si>
+  <si>
+    <t>proctorautomation71201@gmail.com</t>
+  </si>
+  <si>
+    <t>71201</t>
+  </si>
+  <si>
+    <t>Proctor44831</t>
+  </si>
+  <si>
+    <t>Automation44831</t>
+  </si>
+  <si>
+    <t>proctorautomation44831@gmail.com</t>
+  </si>
+  <si>
+    <t>44831</t>
+  </si>
+  <si>
+    <t>Proctor77108</t>
+  </si>
+  <si>
+    <t>Automation77108</t>
+  </si>
+  <si>
+    <t>proctorautomation77108@gmail.com</t>
+  </si>
+  <si>
+    <t>77108</t>
+  </si>
+  <si>
+    <t>Proctor43124</t>
+  </si>
+  <si>
+    <t>Automation43124</t>
+  </si>
+  <si>
+    <t>proctorautomation43124@gmail.com</t>
+  </si>
+  <si>
+    <t>43124</t>
+  </si>
+  <si>
+    <t>Proctor16623</t>
+  </si>
+  <si>
+    <t>Automation16623</t>
+  </si>
+  <si>
+    <t>proctorautomation16623@gmail.com</t>
+  </si>
+  <si>
+    <t>16623</t>
+  </si>
+  <si>
+    <t>Proctor48382</t>
+  </si>
+  <si>
+    <t>Automation48382</t>
+  </si>
+  <si>
+    <t>proctorautomation48382@gmail.com</t>
+  </si>
+  <si>
+    <t>48382</t>
+  </si>
+  <si>
+    <t>Proctor11190</t>
+  </si>
+  <si>
+    <t>Automation11190</t>
+  </si>
+  <si>
+    <t>proctorautomation11190@gmail.com</t>
+  </si>
+  <si>
+    <t>11190</t>
+  </si>
+  <si>
+    <t>Proctor33685</t>
+  </si>
+  <si>
+    <t>Automation33685</t>
+  </si>
+  <si>
+    <t>proctorautomation33685@gmail.com</t>
+  </si>
+  <si>
+    <t>33685</t>
+  </si>
+  <si>
+    <t>Proctor95960</t>
+  </si>
+  <si>
+    <t>Automation95960</t>
+  </si>
+  <si>
+    <t>proctorautomation95960@gmail.com</t>
+  </si>
+  <si>
+    <t>95960</t>
+  </si>
+  <si>
+    <t>Proctor49065</t>
+  </si>
+  <si>
+    <t>Automation49065</t>
+  </si>
+  <si>
+    <t>proctorautomation49065@gmail.com</t>
+  </si>
+  <si>
+    <t>49065</t>
+  </si>
+  <si>
+    <t>Proctor85793</t>
+  </si>
+  <si>
+    <t>Automation85793</t>
+  </si>
+  <si>
+    <t>proctorautomation85793@gmail.com</t>
+  </si>
+  <si>
+    <t>85793</t>
+  </si>
+  <si>
+    <t>Proctor22326</t>
+  </si>
+  <si>
+    <t>Automation22326</t>
+  </si>
+  <si>
+    <t>proctorautomation22326@gmail.com</t>
+  </si>
+  <si>
+    <t>22326</t>
+  </si>
+  <si>
+    <t>Proctor55351</t>
+  </si>
+  <si>
+    <t>Automation55351</t>
+  </si>
+  <si>
+    <t>proctorautomation55351@gmail.com</t>
+  </si>
+  <si>
+    <t>55351</t>
+  </si>
+  <si>
+    <t>Proctor74270</t>
+  </si>
+  <si>
+    <t>Automation74270</t>
+  </si>
+  <si>
+    <t>proctorautomation74270@gmail.com</t>
+  </si>
+  <si>
+    <t>74270</t>
+  </si>
+  <si>
+    <t>Proctor98075</t>
+  </si>
+  <si>
+    <t>Automation98075</t>
+  </si>
+  <si>
+    <t>proctorautomation98075@gmail.com</t>
+  </si>
+  <si>
+    <t>98075</t>
+  </si>
+  <si>
+    <t>Proctor84715</t>
+  </si>
+  <si>
+    <t>Automation84715</t>
+  </si>
+  <si>
+    <t>proctorautomation84715@gmail.com</t>
+  </si>
+  <si>
+    <t>84715</t>
+  </si>
+  <si>
+    <t>Proctor18454</t>
+  </si>
+  <si>
+    <t>Automation18454</t>
+  </si>
+  <si>
+    <t>proctorautomation18454@gmail.com</t>
+  </si>
+  <si>
+    <t>18454</t>
+  </si>
+  <si>
+    <t>Proctor85139</t>
+  </si>
+  <si>
+    <t>Automation85139</t>
+  </si>
+  <si>
+    <t>proctorautomation85139@gmail.com</t>
+  </si>
+  <si>
+    <t>85139</t>
+  </si>
+  <si>
+    <t>Proctor89528</t>
+  </si>
+  <si>
+    <t>Automation89528</t>
+  </si>
+  <si>
+    <t>proctorautomation89528@gmail.com</t>
+  </si>
+  <si>
+    <t>89528</t>
+  </si>
+  <si>
+    <t>Proctor42047</t>
+  </si>
+  <si>
+    <t>Automation42047</t>
+  </si>
+  <si>
+    <t>proctorautomation42047@gmail.com</t>
+  </si>
+  <si>
+    <t>42047</t>
+  </si>
+  <si>
+    <t>Proctor39367</t>
+  </si>
+  <si>
+    <t>Automation39367</t>
+  </si>
+  <si>
+    <t>proctorautomation39367@gmail.com</t>
+  </si>
+  <si>
+    <t>39367</t>
   </si>
 </sst>
 </file>
@@ -14077,422 +14437,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4436</v>
+        <v>4552</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4437</v>
+        <v>4553</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4438</v>
+        <v>4554</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4439</v>
+        <v>4555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4440</v>
+        <v>4556</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4441</v>
+        <v>4557</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>4442</v>
+        <v>4558</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4443</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4444</v>
+        <v>4560</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4445</v>
+        <v>4561</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>4446</v>
+        <v>4562</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4447</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4448</v>
+        <v>4564</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4449</v>
+        <v>4565</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>4450</v>
+        <v>4566</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4451</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4452</v>
+        <v>4568</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>4453</v>
+        <v>4569</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>4454</v>
+        <v>4570</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4455</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4456</v>
+        <v>4572</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>4457</v>
+        <v>4573</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>4458</v>
+        <v>4574</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>4459</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4460</v>
+        <v>4576</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>4461</v>
+        <v>4577</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4462</v>
+        <v>4578</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>4463</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>2472</v>
+        <v>4580</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>2473</v>
+        <v>4581</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>2474</v>
+        <v>4582</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>2475</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4464</v>
+        <v>4584</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>4465</v>
+        <v>4585</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>4466</v>
+        <v>4586</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>4467</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4468</v>
+        <v>4588</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>4469</v>
+        <v>4589</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>4470</v>
+        <v>4590</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>4471</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4472</v>
+        <v>4592</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>4473</v>
+        <v>4593</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>4474</v>
+        <v>4594</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>4475</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4476</v>
+        <v>4596</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>4477</v>
+        <v>4597</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>4478</v>
+        <v>4598</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4479</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4480</v>
+        <v>4600</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>4481</v>
+        <v>4601</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>4482</v>
+        <v>4602</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>4483</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4484</v>
+        <v>4604</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>4485</v>
+        <v>4605</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>4486</v>
+        <v>4606</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>4487</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>4488</v>
+        <v>4608</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>4489</v>
+        <v>4609</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>4490</v>
+        <v>4610</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>4491</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4492</v>
+        <v>4612</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>4493</v>
+        <v>4613</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>4494</v>
+        <v>4614</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>4495</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4496</v>
+        <v>4616</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>4497</v>
+        <v>4617</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>4498</v>
+        <v>4618</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>4499</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4500</v>
+        <v>4620</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>4501</v>
+        <v>4621</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>4502</v>
+        <v>4622</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4503</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>4504</v>
+        <v>4624</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>4505</v>
+        <v>4625</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>4506</v>
+        <v>4626</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>4507</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4508</v>
+        <v>4628</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>4509</v>
+        <v>4629</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>4510</v>
+        <v>4630</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>4511</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4512</v>
+        <v>4632</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>4513</v>
+        <v>4633</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>4514</v>
+        <v>4634</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>4515</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4516</v>
+        <v>4636</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>4517</v>
+        <v>4637</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>4518</v>
+        <v>4638</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>4519</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>4520</v>
+        <v>4640</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>4521</v>
+        <v>4641</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>4522</v>
+        <v>4642</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>4523</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4524</v>
+        <v>4644</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>4525</v>
+        <v>4645</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>4526</v>
+        <v>4646</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>4527</v>
+        <v>4647</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>4528</v>
+        <v>4648</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>4529</v>
+        <v>4649</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>4530</v>
+        <v>4650</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>4531</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>4532</v>
+        <v>4652</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>4533</v>
+        <v>4653</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>4534</v>
+        <v>4654</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>4535</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>4536</v>
+        <v>4656</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>4537</v>
+        <v>4657</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>4538</v>
+        <v>4658</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>4539</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>4540</v>
+        <v>4660</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>4541</v>
+        <v>4661</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>4542</v>
+        <v>4662</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>4543</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>4544</v>
+        <v>4664</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>4545</v>
+        <v>4665</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>4546</v>
+        <v>4666</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>4547</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>4548</v>
+        <v>4668</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>4549</v>
+        <v>4669</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>4550</v>
+        <v>4670</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>4551</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4688" uniqueCount="4672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="5032">
   <si>
     <t>FirstName</t>
   </si>
@@ -14030,6 +14030,1086 @@
   </si>
   <si>
     <t>39367</t>
+  </si>
+  <si>
+    <t>Proctor85409</t>
+  </si>
+  <si>
+    <t>Automation85409</t>
+  </si>
+  <si>
+    <t>proctorautomation85409@gmail.com</t>
+  </si>
+  <si>
+    <t>85409</t>
+  </si>
+  <si>
+    <t>Proctor75581</t>
+  </si>
+  <si>
+    <t>Automation75581</t>
+  </si>
+  <si>
+    <t>proctorautomation75581@gmail.com</t>
+  </si>
+  <si>
+    <t>75581</t>
+  </si>
+  <si>
+    <t>Proctor53478</t>
+  </si>
+  <si>
+    <t>Automation53478</t>
+  </si>
+  <si>
+    <t>proctorautomation53478@gmail.com</t>
+  </si>
+  <si>
+    <t>53478</t>
+  </si>
+  <si>
+    <t>Proctor71632</t>
+  </si>
+  <si>
+    <t>Automation71632</t>
+  </si>
+  <si>
+    <t>proctorautomation71632@gmail.com</t>
+  </si>
+  <si>
+    <t>71632</t>
+  </si>
+  <si>
+    <t>Proctor21067</t>
+  </si>
+  <si>
+    <t>Automation21067</t>
+  </si>
+  <si>
+    <t>proctorautomation21067@gmail.com</t>
+  </si>
+  <si>
+    <t>21067</t>
+  </si>
+  <si>
+    <t>Proctor16830</t>
+  </si>
+  <si>
+    <t>Automation16830</t>
+  </si>
+  <si>
+    <t>proctorautomation16830@gmail.com</t>
+  </si>
+  <si>
+    <t>16830</t>
+  </si>
+  <si>
+    <t>Proctor19719</t>
+  </si>
+  <si>
+    <t>Automation19719</t>
+  </si>
+  <si>
+    <t>proctorautomation19719@gmail.com</t>
+  </si>
+  <si>
+    <t>19719</t>
+  </si>
+  <si>
+    <t>Proctor42988</t>
+  </si>
+  <si>
+    <t>Automation42988</t>
+  </si>
+  <si>
+    <t>proctorautomation42988@gmail.com</t>
+  </si>
+  <si>
+    <t>42988</t>
+  </si>
+  <si>
+    <t>Proctor62608</t>
+  </si>
+  <si>
+    <t>Automation62608</t>
+  </si>
+  <si>
+    <t>proctorautomation62608@gmail.com</t>
+  </si>
+  <si>
+    <t>62608</t>
+  </si>
+  <si>
+    <t>Proctor95954</t>
+  </si>
+  <si>
+    <t>Automation95954</t>
+  </si>
+  <si>
+    <t>proctorautomation95954@gmail.com</t>
+  </si>
+  <si>
+    <t>95954</t>
+  </si>
+  <si>
+    <t>Proctor59765</t>
+  </si>
+  <si>
+    <t>Automation59765</t>
+  </si>
+  <si>
+    <t>proctorautomation59765@gmail.com</t>
+  </si>
+  <si>
+    <t>59765</t>
+  </si>
+  <si>
+    <t>Proctor99633</t>
+  </si>
+  <si>
+    <t>Automation99633</t>
+  </si>
+  <si>
+    <t>proctorautomation99633@gmail.com</t>
+  </si>
+  <si>
+    <t>99633</t>
+  </si>
+  <si>
+    <t>Proctor48358</t>
+  </si>
+  <si>
+    <t>Automation48358</t>
+  </si>
+  <si>
+    <t>proctorautomation48358@gmail.com</t>
+  </si>
+  <si>
+    <t>48358</t>
+  </si>
+  <si>
+    <t>Proctor65213</t>
+  </si>
+  <si>
+    <t>Automation65213</t>
+  </si>
+  <si>
+    <t>proctorautomation65213@gmail.com</t>
+  </si>
+  <si>
+    <t>65213</t>
+  </si>
+  <si>
+    <t>Proctor94847</t>
+  </si>
+  <si>
+    <t>Automation94847</t>
+  </si>
+  <si>
+    <t>proctorautomation94847@gmail.com</t>
+  </si>
+  <si>
+    <t>94847</t>
+  </si>
+  <si>
+    <t>Proctor74618</t>
+  </si>
+  <si>
+    <t>Automation74618</t>
+  </si>
+  <si>
+    <t>proctorautomation74618@gmail.com</t>
+  </si>
+  <si>
+    <t>74618</t>
+  </si>
+  <si>
+    <t>Proctor34926</t>
+  </si>
+  <si>
+    <t>Automation34926</t>
+  </si>
+  <si>
+    <t>proctorautomation34926@gmail.com</t>
+  </si>
+  <si>
+    <t>34926</t>
+  </si>
+  <si>
+    <t>Proctor12966</t>
+  </si>
+  <si>
+    <t>Automation12966</t>
+  </si>
+  <si>
+    <t>proctorautomation12966@gmail.com</t>
+  </si>
+  <si>
+    <t>12966</t>
+  </si>
+  <si>
+    <t>Proctor06459</t>
+  </si>
+  <si>
+    <t>Automation06459</t>
+  </si>
+  <si>
+    <t>proctorautomation06459@gmail.com</t>
+  </si>
+  <si>
+    <t>06459</t>
+  </si>
+  <si>
+    <t>Proctor57214</t>
+  </si>
+  <si>
+    <t>Automation57214</t>
+  </si>
+  <si>
+    <t>proctorautomation57214@gmail.com</t>
+  </si>
+  <si>
+    <t>57214</t>
+  </si>
+  <si>
+    <t>Proctor72408</t>
+  </si>
+  <si>
+    <t>Automation72408</t>
+  </si>
+  <si>
+    <t>proctorautomation72408@gmail.com</t>
+  </si>
+  <si>
+    <t>72408</t>
+  </si>
+  <si>
+    <t>Proctor65024</t>
+  </si>
+  <si>
+    <t>Automation65024</t>
+  </si>
+  <si>
+    <t>proctorautomation65024@gmail.com</t>
+  </si>
+  <si>
+    <t>65024</t>
+  </si>
+  <si>
+    <t>Proctor66823</t>
+  </si>
+  <si>
+    <t>Automation66823</t>
+  </si>
+  <si>
+    <t>proctorautomation66823@gmail.com</t>
+  </si>
+  <si>
+    <t>66823</t>
+  </si>
+  <si>
+    <t>Proctor47242</t>
+  </si>
+  <si>
+    <t>Automation47242</t>
+  </si>
+  <si>
+    <t>proctorautomation47242@gmail.com</t>
+  </si>
+  <si>
+    <t>47242</t>
+  </si>
+  <si>
+    <t>Proctor37837</t>
+  </si>
+  <si>
+    <t>Automation37837</t>
+  </si>
+  <si>
+    <t>proctorautomation37837@gmail.com</t>
+  </si>
+  <si>
+    <t>37837</t>
+  </si>
+  <si>
+    <t>Proctor22205</t>
+  </si>
+  <si>
+    <t>Automation22205</t>
+  </si>
+  <si>
+    <t>proctorautomation22205@gmail.com</t>
+  </si>
+  <si>
+    <t>22205</t>
+  </si>
+  <si>
+    <t>Proctor96857</t>
+  </si>
+  <si>
+    <t>Automation96857</t>
+  </si>
+  <si>
+    <t>proctorautomation96857@gmail.com</t>
+  </si>
+  <si>
+    <t>96857</t>
+  </si>
+  <si>
+    <t>Proctor39483</t>
+  </si>
+  <si>
+    <t>Automation39483</t>
+  </si>
+  <si>
+    <t>proctorautomation39483@gmail.com</t>
+  </si>
+  <si>
+    <t>39483</t>
+  </si>
+  <si>
+    <t>Proctor31199</t>
+  </si>
+  <si>
+    <t>Automation31199</t>
+  </si>
+  <si>
+    <t>proctorautomation31199@gmail.com</t>
+  </si>
+  <si>
+    <t>31199</t>
+  </si>
+  <si>
+    <t>Proctor24127</t>
+  </si>
+  <si>
+    <t>Automation24127</t>
+  </si>
+  <si>
+    <t>proctorautomation24127@gmail.com</t>
+  </si>
+  <si>
+    <t>24127</t>
+  </si>
+  <si>
+    <t>Proctor28126</t>
+  </si>
+  <si>
+    <t>Automation28126</t>
+  </si>
+  <si>
+    <t>proctorautomation28126@gmail.com</t>
+  </si>
+  <si>
+    <t>28126</t>
+  </si>
+  <si>
+    <t>Proctor22099</t>
+  </si>
+  <si>
+    <t>Automation22099</t>
+  </si>
+  <si>
+    <t>proctorautomation22099@gmail.com</t>
+  </si>
+  <si>
+    <t>22099</t>
+  </si>
+  <si>
+    <t>Proctor14830</t>
+  </si>
+  <si>
+    <t>Automation14830</t>
+  </si>
+  <si>
+    <t>proctorautomation14830@gmail.com</t>
+  </si>
+  <si>
+    <t>14830</t>
+  </si>
+  <si>
+    <t>Proctor09592</t>
+  </si>
+  <si>
+    <t>Automation09592</t>
+  </si>
+  <si>
+    <t>proctorautomation09592@gmail.com</t>
+  </si>
+  <si>
+    <t>09592</t>
+  </si>
+  <si>
+    <t>Proctor01361</t>
+  </si>
+  <si>
+    <t>Automation01361</t>
+  </si>
+  <si>
+    <t>proctorautomation01361@gmail.com</t>
+  </si>
+  <si>
+    <t>01361</t>
+  </si>
+  <si>
+    <t>Proctor55157</t>
+  </si>
+  <si>
+    <t>Automation55157</t>
+  </si>
+  <si>
+    <t>proctorautomation55157@gmail.com</t>
+  </si>
+  <si>
+    <t>55157</t>
+  </si>
+  <si>
+    <t>Proctor20451</t>
+  </si>
+  <si>
+    <t>Automation20451</t>
+  </si>
+  <si>
+    <t>proctorautomation20451@gmail.com</t>
+  </si>
+  <si>
+    <t>20451</t>
+  </si>
+  <si>
+    <t>Proctor04551</t>
+  </si>
+  <si>
+    <t>Automation04551</t>
+  </si>
+  <si>
+    <t>proctorautomation04551@gmail.com</t>
+  </si>
+  <si>
+    <t>04551</t>
+  </si>
+  <si>
+    <t>Proctor75930</t>
+  </si>
+  <si>
+    <t>Automation75930</t>
+  </si>
+  <si>
+    <t>proctorautomation75930@gmail.com</t>
+  </si>
+  <si>
+    <t>75930</t>
+  </si>
+  <si>
+    <t>Proctor64610</t>
+  </si>
+  <si>
+    <t>Automation64610</t>
+  </si>
+  <si>
+    <t>proctorautomation64610@gmail.com</t>
+  </si>
+  <si>
+    <t>64610</t>
+  </si>
+  <si>
+    <t>Proctor84254</t>
+  </si>
+  <si>
+    <t>Automation84254</t>
+  </si>
+  <si>
+    <t>proctorautomation84254@gmail.com</t>
+  </si>
+  <si>
+    <t>84254</t>
+  </si>
+  <si>
+    <t>Proctor79570</t>
+  </si>
+  <si>
+    <t>Automation79570</t>
+  </si>
+  <si>
+    <t>proctorautomation79570@gmail.com</t>
+  </si>
+  <si>
+    <t>79570</t>
+  </si>
+  <si>
+    <t>Proctor59318</t>
+  </si>
+  <si>
+    <t>Automation59318</t>
+  </si>
+  <si>
+    <t>proctorautomation59318@gmail.com</t>
+  </si>
+  <si>
+    <t>59318</t>
+  </si>
+  <si>
+    <t>Proctor74271</t>
+  </si>
+  <si>
+    <t>Automation74271</t>
+  </si>
+  <si>
+    <t>proctorautomation74271@gmail.com</t>
+  </si>
+  <si>
+    <t>74271</t>
+  </si>
+  <si>
+    <t>Proctor15715</t>
+  </si>
+  <si>
+    <t>Automation15715</t>
+  </si>
+  <si>
+    <t>proctorautomation15715@gmail.com</t>
+  </si>
+  <si>
+    <t>15715</t>
+  </si>
+  <si>
+    <t>Proctor57753</t>
+  </si>
+  <si>
+    <t>Automation57753</t>
+  </si>
+  <si>
+    <t>proctorautomation57753@gmail.com</t>
+  </si>
+  <si>
+    <t>57753</t>
+  </si>
+  <si>
+    <t>Proctor75403</t>
+  </si>
+  <si>
+    <t>Automation75403</t>
+  </si>
+  <si>
+    <t>proctorautomation75403@gmail.com</t>
+  </si>
+  <si>
+    <t>75403</t>
+  </si>
+  <si>
+    <t>Proctor54512</t>
+  </si>
+  <si>
+    <t>Automation54512</t>
+  </si>
+  <si>
+    <t>proctorautomation54512@gmail.com</t>
+  </si>
+  <si>
+    <t>54512</t>
+  </si>
+  <si>
+    <t>Proctor05134</t>
+  </si>
+  <si>
+    <t>Automation05134</t>
+  </si>
+  <si>
+    <t>proctorautomation05134@gmail.com</t>
+  </si>
+  <si>
+    <t>05134</t>
+  </si>
+  <si>
+    <t>Proctor32508</t>
+  </si>
+  <si>
+    <t>Automation32508</t>
+  </si>
+  <si>
+    <t>proctorautomation32508@gmail.com</t>
+  </si>
+  <si>
+    <t>32508</t>
+  </si>
+  <si>
+    <t>Proctor47878</t>
+  </si>
+  <si>
+    <t>Automation47878</t>
+  </si>
+  <si>
+    <t>proctorautomation47878@gmail.com</t>
+  </si>
+  <si>
+    <t>47878</t>
+  </si>
+  <si>
+    <t>Proctor49285</t>
+  </si>
+  <si>
+    <t>Automation49285</t>
+  </si>
+  <si>
+    <t>proctorautomation49285@gmail.com</t>
+  </si>
+  <si>
+    <t>49285</t>
+  </si>
+  <si>
+    <t>Proctor25785</t>
+  </si>
+  <si>
+    <t>Automation25785</t>
+  </si>
+  <si>
+    <t>proctorautomation25785@gmail.com</t>
+  </si>
+  <si>
+    <t>25785</t>
+  </si>
+  <si>
+    <t>Proctor06559</t>
+  </si>
+  <si>
+    <t>Automation06559</t>
+  </si>
+  <si>
+    <t>proctorautomation06559@gmail.com</t>
+  </si>
+  <si>
+    <t>06559</t>
+  </si>
+  <si>
+    <t>Proctor16893</t>
+  </si>
+  <si>
+    <t>Automation16893</t>
+  </si>
+  <si>
+    <t>proctorautomation16893@gmail.com</t>
+  </si>
+  <si>
+    <t>16893</t>
+  </si>
+  <si>
+    <t>Proctor75378</t>
+  </si>
+  <si>
+    <t>Automation75378</t>
+  </si>
+  <si>
+    <t>proctorautomation75378@gmail.com</t>
+  </si>
+  <si>
+    <t>75378</t>
+  </si>
+  <si>
+    <t>Proctor02752</t>
+  </si>
+  <si>
+    <t>Automation02752</t>
+  </si>
+  <si>
+    <t>proctorautomation02752@gmail.com</t>
+  </si>
+  <si>
+    <t>02752</t>
+  </si>
+  <si>
+    <t>Proctor64342</t>
+  </si>
+  <si>
+    <t>Automation64342</t>
+  </si>
+  <si>
+    <t>proctorautomation64342@gmail.com</t>
+  </si>
+  <si>
+    <t>64342</t>
+  </si>
+  <si>
+    <t>Proctor45982</t>
+  </si>
+  <si>
+    <t>Automation45982</t>
+  </si>
+  <si>
+    <t>proctorautomation45982@gmail.com</t>
+  </si>
+  <si>
+    <t>45982</t>
+  </si>
+  <si>
+    <t>Proctor94924</t>
+  </si>
+  <si>
+    <t>Automation94924</t>
+  </si>
+  <si>
+    <t>proctorautomation94924@gmail.com</t>
+  </si>
+  <si>
+    <t>94924</t>
+  </si>
+  <si>
+    <t>Proctor20456</t>
+  </si>
+  <si>
+    <t>Automation20456</t>
+  </si>
+  <si>
+    <t>proctorautomation20456@gmail.com</t>
+  </si>
+  <si>
+    <t>20456</t>
+  </si>
+  <si>
+    <t>Proctor92460</t>
+  </si>
+  <si>
+    <t>Automation92460</t>
+  </si>
+  <si>
+    <t>proctorautomation92460@gmail.com</t>
+  </si>
+  <si>
+    <t>92460</t>
+  </si>
+  <si>
+    <t>Proctor45037</t>
+  </si>
+  <si>
+    <t>Automation45037</t>
+  </si>
+  <si>
+    <t>proctorautomation45037@gmail.com</t>
+  </si>
+  <si>
+    <t>45037</t>
+  </si>
+  <si>
+    <t>Proctor67815</t>
+  </si>
+  <si>
+    <t>Automation67815</t>
+  </si>
+  <si>
+    <t>proctorautomation67815@gmail.com</t>
+  </si>
+  <si>
+    <t>67815</t>
+  </si>
+  <si>
+    <t>Proctor51305</t>
+  </si>
+  <si>
+    <t>Automation51305</t>
+  </si>
+  <si>
+    <t>proctorautomation51305@gmail.com</t>
+  </si>
+  <si>
+    <t>51305</t>
+  </si>
+  <si>
+    <t>Proctor98989</t>
+  </si>
+  <si>
+    <t>Automation98989</t>
+  </si>
+  <si>
+    <t>proctorautomation98989@gmail.com</t>
+  </si>
+  <si>
+    <t>98989</t>
+  </si>
+  <si>
+    <t>Proctor75474</t>
+  </si>
+  <si>
+    <t>Automation75474</t>
+  </si>
+  <si>
+    <t>proctorautomation75474@gmail.com</t>
+  </si>
+  <si>
+    <t>75474</t>
+  </si>
+  <si>
+    <t>Proctor21123</t>
+  </si>
+  <si>
+    <t>Automation21123</t>
+  </si>
+  <si>
+    <t>proctorautomation21123@gmail.com</t>
+  </si>
+  <si>
+    <t>21123</t>
+  </si>
+  <si>
+    <t>Proctor07092</t>
+  </si>
+  <si>
+    <t>Automation07092</t>
+  </si>
+  <si>
+    <t>proctorautomation07092@gmail.com</t>
+  </si>
+  <si>
+    <t>07092</t>
+  </si>
+  <si>
+    <t>Proctor61304</t>
+  </si>
+  <si>
+    <t>Automation61304</t>
+  </si>
+  <si>
+    <t>proctorautomation61304@gmail.com</t>
+  </si>
+  <si>
+    <t>61304</t>
+  </si>
+  <si>
+    <t>Proctor02353</t>
+  </si>
+  <si>
+    <t>Automation02353</t>
+  </si>
+  <si>
+    <t>proctorautomation02353@gmail.com</t>
+  </si>
+  <si>
+    <t>02353</t>
+  </si>
+  <si>
+    <t>Proctor11645</t>
+  </si>
+  <si>
+    <t>Automation11645</t>
+  </si>
+  <si>
+    <t>proctorautomation11645@gmail.com</t>
+  </si>
+  <si>
+    <t>11645</t>
+  </si>
+  <si>
+    <t>Proctor48950</t>
+  </si>
+  <si>
+    <t>Automation48950</t>
+  </si>
+  <si>
+    <t>proctorautomation48950@gmail.com</t>
+  </si>
+  <si>
+    <t>48950</t>
+  </si>
+  <si>
+    <t>Proctor29697</t>
+  </si>
+  <si>
+    <t>Automation29697</t>
+  </si>
+  <si>
+    <t>proctorautomation29697@gmail.com</t>
+  </si>
+  <si>
+    <t>29697</t>
+  </si>
+  <si>
+    <t>Proctor46194</t>
+  </si>
+  <si>
+    <t>Automation46194</t>
+  </si>
+  <si>
+    <t>proctorautomation46194@gmail.com</t>
+  </si>
+  <si>
+    <t>46194</t>
+  </si>
+  <si>
+    <t>Proctor58773</t>
+  </si>
+  <si>
+    <t>Automation58773</t>
+  </si>
+  <si>
+    <t>proctorautomation58773@gmail.com</t>
+  </si>
+  <si>
+    <t>58773</t>
+  </si>
+  <si>
+    <t>Proctor85778</t>
+  </si>
+  <si>
+    <t>Automation85778</t>
+  </si>
+  <si>
+    <t>proctorautomation85778@gmail.com</t>
+  </si>
+  <si>
+    <t>85778</t>
+  </si>
+  <si>
+    <t>Proctor08431</t>
+  </si>
+  <si>
+    <t>Automation08431</t>
+  </si>
+  <si>
+    <t>proctorautomation08431@gmail.com</t>
+  </si>
+  <si>
+    <t>08431</t>
+  </si>
+  <si>
+    <t>Proctor57848</t>
+  </si>
+  <si>
+    <t>Automation57848</t>
+  </si>
+  <si>
+    <t>proctorautomation57848@gmail.com</t>
+  </si>
+  <si>
+    <t>57848</t>
+  </si>
+  <si>
+    <t>Proctor48402</t>
+  </si>
+  <si>
+    <t>Automation48402</t>
+  </si>
+  <si>
+    <t>proctorautomation48402@gmail.com</t>
+  </si>
+  <si>
+    <t>48402</t>
+  </si>
+  <si>
+    <t>Proctor97825</t>
+  </si>
+  <si>
+    <t>Automation97825</t>
+  </si>
+  <si>
+    <t>proctorautomation97825@gmail.com</t>
+  </si>
+  <si>
+    <t>97825</t>
+  </si>
+  <si>
+    <t>Proctor24309</t>
+  </si>
+  <si>
+    <t>Automation24309</t>
+  </si>
+  <si>
+    <t>proctorautomation24309@gmail.com</t>
+  </si>
+  <si>
+    <t>24309</t>
+  </si>
+  <si>
+    <t>Proctor74981</t>
+  </si>
+  <si>
+    <t>Automation74981</t>
+  </si>
+  <si>
+    <t>proctorautomation74981@gmail.com</t>
+  </si>
+  <si>
+    <t>74981</t>
+  </si>
+  <si>
+    <t>Proctor23778</t>
+  </si>
+  <si>
+    <t>Automation23778</t>
+  </si>
+  <si>
+    <t>proctorautomation23778@gmail.com</t>
+  </si>
+  <si>
+    <t>23778</t>
+  </si>
+  <si>
+    <t>Proctor69229</t>
+  </si>
+  <si>
+    <t>Automation69229</t>
+  </si>
+  <si>
+    <t>proctorautomation69229@gmail.com</t>
+  </si>
+  <si>
+    <t>69229</t>
+  </si>
+  <si>
+    <t>Proctor45492</t>
+  </si>
+  <si>
+    <t>Automation45492</t>
+  </si>
+  <si>
+    <t>proctorautomation45492@gmail.com</t>
+  </si>
+  <si>
+    <t>45492</t>
+  </si>
+  <si>
+    <t>Proctor65018</t>
+  </si>
+  <si>
+    <t>Automation65018</t>
+  </si>
+  <si>
+    <t>proctorautomation65018@gmail.com</t>
+  </si>
+  <si>
+    <t>65018</t>
+  </si>
+  <si>
+    <t>Proctor83583</t>
+  </si>
+  <si>
+    <t>Automation83583</t>
+  </si>
+  <si>
+    <t>proctorautomation83583@gmail.com</t>
+  </si>
+  <si>
+    <t>83583</t>
+  </si>
+  <si>
+    <t>Proctor60634</t>
+  </si>
+  <si>
+    <t>Automation60634</t>
+  </si>
+  <si>
+    <t>proctorautomation60634@gmail.com</t>
+  </si>
+  <si>
+    <t>60634</t>
+  </si>
+  <si>
+    <t>Proctor24293</t>
+  </si>
+  <si>
+    <t>Automation24293</t>
+  </si>
+  <si>
+    <t>proctorautomation24293@gmail.com</t>
+  </si>
+  <si>
+    <t>24293</t>
   </si>
 </sst>
 </file>
@@ -14437,422 +15517,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4552</v>
+        <v>4912</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4553</v>
+        <v>4913</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4554</v>
+        <v>4914</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4555</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4556</v>
+        <v>4916</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4557</v>
+        <v>4917</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>4558</v>
+        <v>4918</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4559</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4560</v>
+        <v>4920</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4561</v>
+        <v>4921</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>4562</v>
+        <v>4922</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4563</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4564</v>
+        <v>4924</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4565</v>
+        <v>4925</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>4566</v>
+        <v>4926</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4567</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4568</v>
+        <v>4928</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>4569</v>
+        <v>4929</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>4570</v>
+        <v>4930</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4571</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4572</v>
+        <v>4932</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>4573</v>
+        <v>4933</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>4574</v>
+        <v>4934</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>4575</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4576</v>
+        <v>4936</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>4577</v>
+        <v>4937</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4578</v>
+        <v>4938</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>4579</v>
+        <v>4939</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>4580</v>
+        <v>4940</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>4581</v>
+        <v>4941</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>4582</v>
+        <v>4942</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>4583</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4584</v>
+        <v>4944</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>4585</v>
+        <v>4945</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>4586</v>
+        <v>4946</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>4587</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4588</v>
+        <v>4948</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>4589</v>
+        <v>4949</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>4590</v>
+        <v>4950</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>4591</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4592</v>
+        <v>4952</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>4593</v>
+        <v>4953</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>4594</v>
+        <v>4954</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>4595</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4596</v>
+        <v>4956</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>4597</v>
+        <v>4957</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>4598</v>
+        <v>4958</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4599</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4600</v>
+        <v>4960</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>4601</v>
+        <v>4961</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>4602</v>
+        <v>4962</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>4603</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4604</v>
+        <v>4964</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>4605</v>
+        <v>4965</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>4606</v>
+        <v>4966</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>4607</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>4608</v>
+        <v>4968</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>4609</v>
+        <v>4969</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>4610</v>
+        <v>4970</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>4611</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4612</v>
+        <v>4972</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>4613</v>
+        <v>4973</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>4614</v>
+        <v>4974</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>4615</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4616</v>
+        <v>4976</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>4617</v>
+        <v>4977</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>4618</v>
+        <v>4978</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>4619</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4620</v>
+        <v>4980</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>4621</v>
+        <v>4981</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>4622</v>
+        <v>4982</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4623</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>4624</v>
+        <v>4984</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>4625</v>
+        <v>4985</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>4626</v>
+        <v>4986</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>4627</v>
+        <v>4987</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4628</v>
+        <v>4988</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>4629</v>
+        <v>4989</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>4630</v>
+        <v>4990</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>4631</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4632</v>
+        <v>4992</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>4633</v>
+        <v>4993</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>4634</v>
+        <v>4994</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>4635</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4636</v>
+        <v>4996</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>4637</v>
+        <v>4997</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>4638</v>
+        <v>4998</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>4639</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>4640</v>
+        <v>5000</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>4641</v>
+        <v>5001</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>4642</v>
+        <v>5002</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>4643</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>4644</v>
+        <v>5004</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>4645</v>
+        <v>5005</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>4646</v>
+        <v>5006</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>4647</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>4648</v>
+        <v>5008</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>4649</v>
+        <v>5009</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>4650</v>
+        <v>5010</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>4651</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>4652</v>
+        <v>5012</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>4653</v>
+        <v>5013</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>4654</v>
+        <v>5014</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>4655</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>4656</v>
+        <v>5016</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>4657</v>
+        <v>5017</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>4658</v>
+        <v>5018</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>4659</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>4660</v>
+        <v>5020</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>4661</v>
+        <v>5021</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>4662</v>
+        <v>5022</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>4663</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>4664</v>
+        <v>5024</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>4665</v>
+        <v>5025</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>4666</v>
+        <v>5026</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>4667</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>4668</v>
+        <v>5028</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>4669</v>
+        <v>5029</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>4670</v>
+        <v>5030</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>4671</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5048" uniqueCount="5032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5168" uniqueCount="5152">
   <si>
     <t>FirstName</t>
   </si>
@@ -15110,6 +15110,366 @@
   </si>
   <si>
     <t>24293</t>
+  </si>
+  <si>
+    <t>Proctor70909</t>
+  </si>
+  <si>
+    <t>Automation70909</t>
+  </si>
+  <si>
+    <t>proctorautomation70909@gmail.com</t>
+  </si>
+  <si>
+    <t>70909</t>
+  </si>
+  <si>
+    <t>Proctor05280</t>
+  </si>
+  <si>
+    <t>Automation05280</t>
+  </si>
+  <si>
+    <t>proctorautomation05280@gmail.com</t>
+  </si>
+  <si>
+    <t>05280</t>
+  </si>
+  <si>
+    <t>Proctor75082</t>
+  </si>
+  <si>
+    <t>Automation75082</t>
+  </si>
+  <si>
+    <t>proctorautomation75082@gmail.com</t>
+  </si>
+  <si>
+    <t>75082</t>
+  </si>
+  <si>
+    <t>Proctor15299</t>
+  </si>
+  <si>
+    <t>Automation15299</t>
+  </si>
+  <si>
+    <t>proctorautomation15299@gmail.com</t>
+  </si>
+  <si>
+    <t>15299</t>
+  </si>
+  <si>
+    <t>Proctor11174</t>
+  </si>
+  <si>
+    <t>Automation11174</t>
+  </si>
+  <si>
+    <t>proctorautomation11174@gmail.com</t>
+  </si>
+  <si>
+    <t>11174</t>
+  </si>
+  <si>
+    <t>Proctor07661</t>
+  </si>
+  <si>
+    <t>Automation07661</t>
+  </si>
+  <si>
+    <t>proctorautomation07661@gmail.com</t>
+  </si>
+  <si>
+    <t>07661</t>
+  </si>
+  <si>
+    <t>Proctor57545</t>
+  </si>
+  <si>
+    <t>Automation57545</t>
+  </si>
+  <si>
+    <t>proctorautomation57545@gmail.com</t>
+  </si>
+  <si>
+    <t>57545</t>
+  </si>
+  <si>
+    <t>Proctor87841</t>
+  </si>
+  <si>
+    <t>Automation87841</t>
+  </si>
+  <si>
+    <t>proctorautomation87841@gmail.com</t>
+  </si>
+  <si>
+    <t>87841</t>
+  </si>
+  <si>
+    <t>Proctor37284</t>
+  </si>
+  <si>
+    <t>Automation37284</t>
+  </si>
+  <si>
+    <t>proctorautomation37284@gmail.com</t>
+  </si>
+  <si>
+    <t>37284</t>
+  </si>
+  <si>
+    <t>Proctor28592</t>
+  </si>
+  <si>
+    <t>Automation28592</t>
+  </si>
+  <si>
+    <t>proctorautomation28592@gmail.com</t>
+  </si>
+  <si>
+    <t>28592</t>
+  </si>
+  <si>
+    <t>Proctor96408</t>
+  </si>
+  <si>
+    <t>Automation96408</t>
+  </si>
+  <si>
+    <t>proctorautomation96408@gmail.com</t>
+  </si>
+  <si>
+    <t>96408</t>
+  </si>
+  <si>
+    <t>Proctor42276</t>
+  </si>
+  <si>
+    <t>Automation42276</t>
+  </si>
+  <si>
+    <t>proctorautomation42276@gmail.com</t>
+  </si>
+  <si>
+    <t>42276</t>
+  </si>
+  <si>
+    <t>Proctor64899</t>
+  </si>
+  <si>
+    <t>Automation64899</t>
+  </si>
+  <si>
+    <t>proctorautomation64899@gmail.com</t>
+  </si>
+  <si>
+    <t>64899</t>
+  </si>
+  <si>
+    <t>Proctor21299</t>
+  </si>
+  <si>
+    <t>Automation21299</t>
+  </si>
+  <si>
+    <t>proctorautomation21299@gmail.com</t>
+  </si>
+  <si>
+    <t>21299</t>
+  </si>
+  <si>
+    <t>Proctor66618</t>
+  </si>
+  <si>
+    <t>Automation66618</t>
+  </si>
+  <si>
+    <t>proctorautomation66618@gmail.com</t>
+  </si>
+  <si>
+    <t>66618</t>
+  </si>
+  <si>
+    <t>Proctor84933</t>
+  </si>
+  <si>
+    <t>Automation84933</t>
+  </si>
+  <si>
+    <t>proctorautomation84933@gmail.com</t>
+  </si>
+  <si>
+    <t>84933</t>
+  </si>
+  <si>
+    <t>Proctor52628</t>
+  </si>
+  <si>
+    <t>Automation52628</t>
+  </si>
+  <si>
+    <t>proctorautomation52628@gmail.com</t>
+  </si>
+  <si>
+    <t>52628</t>
+  </si>
+  <si>
+    <t>Proctor11072</t>
+  </si>
+  <si>
+    <t>Automation11072</t>
+  </si>
+  <si>
+    <t>proctorautomation11072@gmail.com</t>
+  </si>
+  <si>
+    <t>11072</t>
+  </si>
+  <si>
+    <t>Proctor59923</t>
+  </si>
+  <si>
+    <t>Automation59923</t>
+  </si>
+  <si>
+    <t>proctorautomation59923@gmail.com</t>
+  </si>
+  <si>
+    <t>59923</t>
+  </si>
+  <si>
+    <t>Proctor91490</t>
+  </si>
+  <si>
+    <t>Automation91490</t>
+  </si>
+  <si>
+    <t>proctorautomation91490@gmail.com</t>
+  </si>
+  <si>
+    <t>91490</t>
+  </si>
+  <si>
+    <t>Proctor32281</t>
+  </si>
+  <si>
+    <t>Automation32281</t>
+  </si>
+  <si>
+    <t>proctorautomation32281@gmail.com</t>
+  </si>
+  <si>
+    <t>32281</t>
+  </si>
+  <si>
+    <t>Proctor14105</t>
+  </si>
+  <si>
+    <t>Automation14105</t>
+  </si>
+  <si>
+    <t>proctorautomation14105@gmail.com</t>
+  </si>
+  <si>
+    <t>14105</t>
+  </si>
+  <si>
+    <t>Proctor86192</t>
+  </si>
+  <si>
+    <t>Automation86192</t>
+  </si>
+  <si>
+    <t>proctorautomation86192@gmail.com</t>
+  </si>
+  <si>
+    <t>86192</t>
+  </si>
+  <si>
+    <t>Proctor73249</t>
+  </si>
+  <si>
+    <t>Automation73249</t>
+  </si>
+  <si>
+    <t>proctorautomation73249@gmail.com</t>
+  </si>
+  <si>
+    <t>73249</t>
+  </si>
+  <si>
+    <t>Proctor13507</t>
+  </si>
+  <si>
+    <t>Automation13507</t>
+  </si>
+  <si>
+    <t>proctorautomation13507@gmail.com</t>
+  </si>
+  <si>
+    <t>13507</t>
+  </si>
+  <si>
+    <t>Proctor20531</t>
+  </si>
+  <si>
+    <t>Automation20531</t>
+  </si>
+  <si>
+    <t>proctorautomation20531@gmail.com</t>
+  </si>
+  <si>
+    <t>20531</t>
+  </si>
+  <si>
+    <t>Proctor82597</t>
+  </si>
+  <si>
+    <t>Automation82597</t>
+  </si>
+  <si>
+    <t>proctorautomation82597@gmail.com</t>
+  </si>
+  <si>
+    <t>82597</t>
+  </si>
+  <si>
+    <t>Proctor75542</t>
+  </si>
+  <si>
+    <t>Automation75542</t>
+  </si>
+  <si>
+    <t>proctorautomation75542@gmail.com</t>
+  </si>
+  <si>
+    <t>75542</t>
+  </si>
+  <si>
+    <t>Proctor58492</t>
+  </si>
+  <si>
+    <t>Automation58492</t>
+  </si>
+  <si>
+    <t>proctorautomation58492@gmail.com</t>
+  </si>
+  <si>
+    <t>58492</t>
+  </si>
+  <si>
+    <t>Proctor26968</t>
+  </si>
+  <si>
+    <t>Automation26968</t>
+  </si>
+  <si>
+    <t>proctorautomation26968@gmail.com</t>
+  </si>
+  <si>
+    <t>26968</t>
   </si>
 </sst>
 </file>
@@ -15517,422 +15877,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4912</v>
+        <v>5032</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4913</v>
+        <v>5033</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4914</v>
+        <v>5034</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4915</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4916</v>
+        <v>5036</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4917</v>
+        <v>5037</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>4918</v>
+        <v>5038</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4919</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4920</v>
+        <v>5040</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>4921</v>
+        <v>5041</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>4922</v>
+        <v>5042</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4923</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>4924</v>
+        <v>5044</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4925</v>
+        <v>5045</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>4926</v>
+        <v>5046</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4927</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4928</v>
+        <v>5048</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>4929</v>
+        <v>5049</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>4930</v>
+        <v>5050</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4931</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>4932</v>
+        <v>5052</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>4933</v>
+        <v>5053</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>4934</v>
+        <v>5054</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>4935</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4936</v>
+        <v>5056</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>4937</v>
+        <v>5057</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>4938</v>
+        <v>5058</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>4939</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>4940</v>
+        <v>5060</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>4941</v>
+        <v>5061</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>4942</v>
+        <v>5062</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>4943</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4944</v>
+        <v>5064</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>4945</v>
+        <v>5065</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>4946</v>
+        <v>5066</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>4947</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4948</v>
+        <v>5068</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>4949</v>
+        <v>5069</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>4950</v>
+        <v>5070</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>4951</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>4952</v>
+        <v>5072</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>4953</v>
+        <v>5073</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>4954</v>
+        <v>5074</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>4955</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>4956</v>
+        <v>5076</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>4957</v>
+        <v>5077</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>4958</v>
+        <v>5078</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4959</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>4960</v>
+        <v>5080</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>4961</v>
+        <v>5081</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>4962</v>
+        <v>5082</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>4963</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>4964</v>
+        <v>5084</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>4965</v>
+        <v>5085</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>4966</v>
+        <v>5086</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>4967</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>4968</v>
+        <v>5088</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>4969</v>
+        <v>5089</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>4970</v>
+        <v>5090</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>4971</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>4972</v>
+        <v>5092</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>4973</v>
+        <v>5093</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>4974</v>
+        <v>5094</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>4975</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>4976</v>
+        <v>5096</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>4977</v>
+        <v>5097</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>4978</v>
+        <v>5098</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>4979</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>4980</v>
+        <v>5100</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>4981</v>
+        <v>5101</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>4982</v>
+        <v>5102</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>4983</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>4984</v>
+        <v>5104</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>4985</v>
+        <v>5105</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>4986</v>
+        <v>5106</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>4987</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>4988</v>
+        <v>5108</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>4989</v>
+        <v>5109</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>4990</v>
+        <v>5110</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>4991</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>4992</v>
+        <v>5112</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>4993</v>
+        <v>5113</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>4994</v>
+        <v>5114</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>4995</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>4996</v>
+        <v>5116</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>4997</v>
+        <v>5117</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>4998</v>
+        <v>5118</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>4999</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>5000</v>
+        <v>5120</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>5001</v>
+        <v>5121</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>5002</v>
+        <v>5122</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>5003</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>5004</v>
+        <v>5124</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5005</v>
+        <v>5125</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>5006</v>
+        <v>5126</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>5007</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>5008</v>
+        <v>5128</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>5009</v>
+        <v>5129</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>5010</v>
+        <v>5130</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>5011</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>5012</v>
+        <v>5132</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5013</v>
+        <v>5133</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>5014</v>
+        <v>5134</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>5015</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>5016</v>
+        <v>5136</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>5017</v>
+        <v>5137</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>5018</v>
+        <v>5138</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>5019</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>5020</v>
+        <v>5140</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>5021</v>
+        <v>5141</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>5022</v>
+        <v>5142</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>5023</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>5024</v>
+        <v>5144</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>5025</v>
+        <v>5145</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>5026</v>
+        <v>5146</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>5027</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>5028</v>
+        <v>5148</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>5029</v>
+        <v>5149</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>5030</v>
+        <v>5150</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>5031</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="32"/>

--- a/src/test/resources/Files/Proctor Template.xlsx
+++ b/src/test/resources/Files/Proctor Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6038" uniqueCount="6006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6398" uniqueCount="6366">
   <si>
     <t>FirstName</t>
   </si>
@@ -18032,6 +18032,1086 @@
   </si>
   <si>
     <t>08290</t>
+  </si>
+  <si>
+    <t>Proctor99664</t>
+  </si>
+  <si>
+    <t>Automation99664</t>
+  </si>
+  <si>
+    <t>proctorautomation99664@gmail.com</t>
+  </si>
+  <si>
+    <t>99664</t>
+  </si>
+  <si>
+    <t>Proctor88098</t>
+  </si>
+  <si>
+    <t>Automation88098</t>
+  </si>
+  <si>
+    <t>proctorautomation88098@gmail.com</t>
+  </si>
+  <si>
+    <t>88098</t>
+  </si>
+  <si>
+    <t>Proctor05931</t>
+  </si>
+  <si>
+    <t>Automation05931</t>
+  </si>
+  <si>
+    <t>proctorautomation05931@gmail.com</t>
+  </si>
+  <si>
+    <t>05931</t>
+  </si>
+  <si>
+    <t>Proctor11213</t>
+  </si>
+  <si>
+    <t>Automation11213</t>
+  </si>
+  <si>
+    <t>proctorautomation11213@gmail.com</t>
+  </si>
+  <si>
+    <t>11213</t>
+  </si>
+  <si>
+    <t>Proctor82935</t>
+  </si>
+  <si>
+    <t>Automation82935</t>
+  </si>
+  <si>
+    <t>proctorautomation82935@gmail.com</t>
+  </si>
+  <si>
+    <t>82935</t>
+  </si>
+  <si>
+    <t>Proctor62952</t>
+  </si>
+  <si>
+    <t>Automation62952</t>
+  </si>
+  <si>
+    <t>proctorautomation62952@gmail.com</t>
+  </si>
+  <si>
+    <t>62952</t>
+  </si>
+  <si>
+    <t>Proctor51539</t>
+  </si>
+  <si>
+    <t>Automation51539</t>
+  </si>
+  <si>
+    <t>proctorautomation51539@gmail.com</t>
+  </si>
+  <si>
+    <t>51539</t>
+  </si>
+  <si>
+    <t>Proctor78794</t>
+  </si>
+  <si>
+    <t>Automation78794</t>
+  </si>
+  <si>
+    <t>proctorautomation78794@gmail.com</t>
+  </si>
+  <si>
+    <t>78794</t>
+  </si>
+  <si>
+    <t>Proctor59045</t>
+  </si>
+  <si>
+    <t>Automation59045</t>
+  </si>
+  <si>
+    <t>proctorautomation59045@gmail.com</t>
+  </si>
+  <si>
+    <t>59045</t>
+  </si>
+  <si>
+    <t>Proctor20143</t>
+  </si>
+  <si>
+    <t>Automation20143</t>
+  </si>
+  <si>
+    <t>proctorautomation20143@gmail.com</t>
+  </si>
+  <si>
+    <t>20143</t>
+  </si>
+  <si>
+    <t>Proctor49246</t>
+  </si>
+  <si>
+    <t>Automation49246</t>
+  </si>
+  <si>
+    <t>proctorautomation49246@gmail.com</t>
+  </si>
+  <si>
+    <t>49246</t>
+  </si>
+  <si>
+    <t>Proctor18533</t>
+  </si>
+  <si>
+    <t>Automation18533</t>
+  </si>
+  <si>
+    <t>proctorautomation18533@gmail.com</t>
+  </si>
+  <si>
+    <t>18533</t>
+  </si>
+  <si>
+    <t>Proctor59119</t>
+  </si>
+  <si>
+    <t>Automation59119</t>
+  </si>
+  <si>
+    <t>proctorautomation59119@gmail.com</t>
+  </si>
+  <si>
+    <t>59119</t>
+  </si>
+  <si>
+    <t>Proctor12831</t>
+  </si>
+  <si>
+    <t>Automation12831</t>
+  </si>
+  <si>
+    <t>proctorautomation12831@gmail.com</t>
+  </si>
+  <si>
+    <t>12831</t>
+  </si>
+  <si>
+    <t>Proctor94764</t>
+  </si>
+  <si>
+    <t>Automation94764</t>
+  </si>
+  <si>
+    <t>proctorautomation94764@gmail.com</t>
+  </si>
+  <si>
+    <t>94764</t>
+  </si>
+  <si>
+    <t>Proctor96484</t>
+  </si>
+  <si>
+    <t>Automation96484</t>
+  </si>
+  <si>
+    <t>proctorautomation96484@gmail.com</t>
+  </si>
+  <si>
+    <t>96484</t>
+  </si>
+  <si>
+    <t>Proctor77174</t>
+  </si>
+  <si>
+    <t>Automation77174</t>
+  </si>
+  <si>
+    <t>proctorautomation77174@gmail.com</t>
+  </si>
+  <si>
+    <t>77174</t>
+  </si>
+  <si>
+    <t>Proctor46151</t>
+  </si>
+  <si>
+    <t>Automation46151</t>
+  </si>
+  <si>
+    <t>proctorautomation46151@gmail.com</t>
+  </si>
+  <si>
+    <t>46151</t>
+  </si>
+  <si>
+    <t>Proctor37554</t>
+  </si>
+  <si>
+    <t>Automation37554</t>
+  </si>
+  <si>
+    <t>proctorautomation37554@gmail.com</t>
+  </si>
+  <si>
+    <t>37554</t>
+  </si>
+  <si>
+    <t>Proctor25327</t>
+  </si>
+  <si>
+    <t>Automation25327</t>
+  </si>
+  <si>
+    <t>proctorautomation25327@gmail.com</t>
+  </si>
+  <si>
+    <t>25327</t>
+  </si>
+  <si>
+    <t>Proctor22691</t>
+  </si>
+  <si>
+    <t>Automation22691</t>
+  </si>
+  <si>
+    <t>proctorautomation22691@gmail.com</t>
+  </si>
+  <si>
+    <t>22691</t>
+  </si>
+  <si>
+    <t>Proctor28406</t>
+  </si>
+  <si>
+    <t>Automation28406</t>
+  </si>
+  <si>
+    <t>proctorautomation28406@gmail.com</t>
+  </si>
+  <si>
+    <t>28406</t>
+  </si>
+  <si>
+    <t>Proctor98851</t>
+  </si>
+  <si>
+    <t>Automation98851</t>
+  </si>
+  <si>
+    <t>proctorautomation98851@gmail.com</t>
+  </si>
+  <si>
+    <t>98851</t>
+  </si>
+  <si>
+    <t>Proctor99603</t>
+  </si>
+  <si>
+    <t>Automation99603</t>
+  </si>
+  <si>
+    <t>proctorautomation99603@gmail.com</t>
+  </si>
+  <si>
+    <t>99603</t>
+  </si>
+  <si>
+    <t>Proctor41164</t>
+  </si>
+  <si>
+    <t>Automation41164</t>
+  </si>
+  <si>
+    <t>proctorautomation41164@gmail.com</t>
+  </si>
+  <si>
+    <t>41164</t>
+  </si>
+  <si>
+    <t>Proctor46047</t>
+  </si>
+  <si>
+    <t>Automation46047</t>
+  </si>
+  <si>
+    <t>proctorautomation46047@gmail.com</t>
+  </si>
+  <si>
+    <t>46047</t>
+  </si>
+  <si>
+    <t>Proctor52295</t>
+  </si>
+  <si>
+    <t>Automation52295</t>
+  </si>
+  <si>
+    <t>proctorautomation52295@gmail.com</t>
+  </si>
+  <si>
+    <t>52295</t>
+  </si>
+  <si>
+    <t>Proctor49605</t>
+  </si>
+  <si>
+    <t>Automation49605</t>
+  </si>
+  <si>
+    <t>proctorautomation49605@gmail.com</t>
+  </si>
+  <si>
+    <t>49605</t>
+  </si>
+  <si>
+    <t>Proctor77650</t>
+  </si>
+  <si>
+    <t>Automation77650</t>
+  </si>
+  <si>
+    <t>proctorautomation77650@gmail.com</t>
+  </si>
+  <si>
+    <t>77650</t>
+  </si>
+  <si>
+    <t>Proctor55279</t>
+  </si>
+  <si>
+    <t>Automation55279</t>
+  </si>
+  <si>
+    <t>proctorautomation55279@gmail.com</t>
+  </si>
+  <si>
+    <t>55279</t>
+  </si>
+  <si>
+    <t>Proctor80046</t>
+  </si>
+  <si>
+    <t>Automation80046</t>
+  </si>
+  <si>
+    <t>proctorautomation80046@gmail.com</t>
+  </si>
+  <si>
+    <t>80046</t>
+  </si>
+  <si>
+    <t>Proctor38423</t>
+  </si>
+  <si>
+    <t>Automation38423</t>
+  </si>
+  <si>
+    <t>proctorautomation38423@gmail.com</t>
+  </si>
+  <si>
+    <t>38423</t>
+  </si>
+  <si>
+    <t>Proctor91418</t>
+  </si>
+  <si>
+    <t>Automation91418</t>
+  </si>
+  <si>
+    <t>proctorautomation91418@gmail.com</t>
+  </si>
+  <si>
+    <t>91418</t>
+  </si>
+  <si>
+    <t>Proctor24297</t>
+  </si>
+  <si>
+    <t>Automation24297</t>
+  </si>
+  <si>
+    <t>proctorautomation24297@gmail.com</t>
+  </si>
+  <si>
+    <t>24297</t>
+  </si>
+  <si>
+    <t>Proctor21003</t>
+  </si>
+  <si>
+    <t>Automation21003</t>
+  </si>
+  <si>
+    <t>proctorautomation21003@gmail.com</t>
+  </si>
+  <si>
+    <t>21003</t>
+  </si>
+  <si>
+    <t>Proctor04877</t>
+  </si>
+  <si>
+    <t>Automation04877</t>
+  </si>
+  <si>
+    <t>proctorautomation04877@gmail.com</t>
+  </si>
+  <si>
+    <t>04877</t>
+  </si>
+  <si>
+    <t>Proctor29165</t>
+  </si>
+  <si>
+    <t>Automation29165</t>
+  </si>
+  <si>
+    <t>proctorautomation29165@gmail.com</t>
+  </si>
+  <si>
+    <t>29165</t>
+  </si>
+  <si>
+    <t>Proctor94805</t>
+  </si>
+  <si>
+    <t>Automation94805</t>
+  </si>
+  <si>
+    <t>proctorautomation94805@gmail.com</t>
+  </si>
+  <si>
+    <t>94805</t>
+  </si>
+  <si>
+    <t>Proctor83547</t>
+  </si>
+  <si>
+    <t>Automation83547</t>
+  </si>
+  <si>
+    <t>proctorautomation83547@gmail.com</t>
+  </si>
+  <si>
+    <t>83547</t>
+  </si>
+  <si>
+    <t>Proctor09109</t>
+  </si>
+  <si>
+    <t>Automation09109</t>
+  </si>
+  <si>
+    <t>proctorautomation09109@gmail.com</t>
+  </si>
+  <si>
+    <t>09109</t>
+  </si>
+  <si>
+    <t>Proctor57417</t>
+  </si>
+  <si>
+    <t>Automation57417</t>
+  </si>
+  <si>
+    <t>proctorautomation57417@gmail.com</t>
+  </si>
+  <si>
+    <t>57417</t>
+  </si>
+  <si>
+    <t>Proctor72060</t>
+  </si>
+  <si>
+    <t>Automation72060</t>
+  </si>
+  <si>
+    <t>proctorautomation72060@gmail.com</t>
+  </si>
+  <si>
+    <t>72060</t>
+  </si>
+  <si>
+    <t>Proctor16425</t>
+  </si>
+  <si>
+    <t>Automation16425</t>
+  </si>
+  <si>
+    <t>proctorautomation16425@gmail.com</t>
+  </si>
+  <si>
+    <t>16425</t>
+  </si>
+  <si>
+    <t>Proctor24498</t>
+  </si>
+  <si>
+    <t>Automation24498</t>
+  </si>
+  <si>
+    <t>proctorautomation24498@gmail.com</t>
+  </si>
+  <si>
+    <t>24498</t>
+  </si>
+  <si>
+    <t>Proctor05734</t>
+  </si>
+  <si>
+    <t>Automation05734</t>
+  </si>
+  <si>
+    <t>proctorautomation05734@gmail.com</t>
+  </si>
+  <si>
+    <t>05734</t>
+  </si>
+  <si>
+    <t>Proctor16414</t>
+  </si>
+  <si>
+    <t>Automation16414</t>
+  </si>
+  <si>
+    <t>proctorautomation16414@gmail.com</t>
+  </si>
+  <si>
+    <t>16414</t>
+  </si>
+  <si>
+    <t>Proctor29996</t>
+  </si>
+  <si>
+    <t>Automation29996</t>
+  </si>
+  <si>
+    <t>proctorautomation29996@gmail.com</t>
+  </si>
+  <si>
+    <t>29996</t>
+  </si>
+  <si>
+    <t>Proctor13630</t>
+  </si>
+  <si>
+    <t>Automation13630</t>
+  </si>
+  <si>
+    <t>proctorautomation13630@gmail.com</t>
+  </si>
+  <si>
+    <t>13630</t>
+  </si>
+  <si>
+    <t>Proctor13693</t>
+  </si>
+  <si>
+    <t>Automation13693</t>
+  </si>
+  <si>
+    <t>proctorautomation13693@gmail.com</t>
+  </si>
+  <si>
+    <t>13693</t>
+  </si>
+  <si>
+    <t>Proctor53959</t>
+  </si>
+  <si>
+    <t>Automation53959</t>
+  </si>
+  <si>
+    <t>proctorautomation53959@gmail.com</t>
+  </si>
+  <si>
+    <t>53959</t>
+  </si>
+  <si>
+    <t>Proctor34177</t>
+  </si>
+  <si>
+    <t>Automation34177</t>
+  </si>
+  <si>
+    <t>proctorautomation34177@gmail.com</t>
+  </si>
+  <si>
+    <t>34177</t>
+  </si>
+  <si>
+    <t>Proctor42419</t>
+  </si>
+  <si>
+    <t>Automation42419</t>
+  </si>
+  <si>
+    <t>proctorautomation42419@gmail.com</t>
+  </si>
+  <si>
+    <t>42419</t>
+  </si>
+  <si>
+    <t>Proctor13416</t>
+  </si>
+  <si>
+    <t>Automation13416</t>
+  </si>
+  <si>
+    <t>proctorautomation13416@gmail.com</t>
+  </si>
+  <si>
+    <t>13416</t>
+  </si>
+  <si>
+    <t>Proctor76330</t>
+  </si>
+  <si>
+    <t>Automation76330</t>
+  </si>
+  <si>
+    <t>proctorautomation76330@gmail.com</t>
+  </si>
+  <si>
+    <t>76330</t>
+  </si>
+  <si>
+    <t>Proctor43516</t>
+  </si>
+  <si>
+    <t>Automation43516</t>
+  </si>
+  <si>
+    <t>proctorautomation43516@gmail.com</t>
+  </si>
+  <si>
+    <t>43516</t>
+  </si>
+  <si>
+    <t>Proctor20218</t>
+  </si>
+  <si>
+    <t>Automation20218</t>
+  </si>
+  <si>
+    <t>proctorautomation20218@gmail.com</t>
+  </si>
+  <si>
+    <t>20218</t>
+  </si>
+  <si>
+    <t>Proctor72944</t>
+  </si>
+  <si>
+    <t>Automation72944</t>
+  </si>
+  <si>
+    <t>proctorautomation72944@gmail.com</t>
+  </si>
+  <si>
+    <t>72944</t>
+  </si>
+  <si>
+    <t>Proctor46979</t>
+  </si>
+  <si>
+    <t>Automation46979</t>
+  </si>
+  <si>
+    <t>proctorautomation46979@gmail.com</t>
+  </si>
+  <si>
+    <t>46979</t>
+  </si>
+  <si>
+    <t>Proctor55150</t>
+  </si>
+  <si>
+    <t>Automation55150</t>
+  </si>
+  <si>
+    <t>proctorautomation55150@gmail.com</t>
+  </si>
+  <si>
+    <t>55150</t>
+  </si>
+  <si>
+    <t>Proctor52741</t>
+  </si>
+  <si>
+    <t>Automation52741</t>
+  </si>
+  <si>
+    <t>proctorautomation52741@gmail.com</t>
+  </si>
+  <si>
+    <t>52741</t>
+  </si>
+  <si>
+    <t>Proctor97998</t>
+  </si>
+  <si>
+    <t>Automation97998</t>
+  </si>
+  <si>
+    <t>proctorautomation97998@gmail.com</t>
+  </si>
+  <si>
+    <t>97998</t>
+  </si>
+  <si>
+    <t>Proctor76074</t>
+  </si>
+  <si>
+    <t>Automation76074</t>
+  </si>
+  <si>
+    <t>proctorautomation76074@gmail.com</t>
+  </si>
+  <si>
+    <t>76074</t>
+  </si>
+  <si>
+    <t>Proctor53252</t>
+  </si>
+  <si>
+    <t>Automation53252</t>
+  </si>
+  <si>
+    <t>proctorautomation53252@gmail.com</t>
+  </si>
+  <si>
+    <t>53252</t>
+  </si>
+  <si>
+    <t>Proctor78247</t>
+  </si>
+  <si>
+    <t>Automation78247</t>
+  </si>
+  <si>
+    <t>proctorautomation78247@gmail.com</t>
+  </si>
+  <si>
+    <t>78247</t>
+  </si>
+  <si>
+    <t>Proctor64363</t>
+  </si>
+  <si>
+    <t>Automation64363</t>
+  </si>
+  <si>
+    <t>proctorautomation64363@gmail.com</t>
+  </si>
+  <si>
+    <t>64363</t>
+  </si>
+  <si>
+    <t>Proctor59592</t>
+  </si>
+  <si>
+    <t>Automation59592</t>
+  </si>
+  <si>
+    <t>proctorautomation59592@gmail.com</t>
+  </si>
+  <si>
+    <t>59592</t>
+  </si>
+  <si>
+    <t>Proctor40110</t>
+  </si>
+  <si>
+    <t>Automation40110</t>
+  </si>
+  <si>
+    <t>proctorautomation40110@gmail.com</t>
+  </si>
+  <si>
+    <t>40110</t>
+  </si>
+  <si>
+    <t>Proctor78443</t>
+  </si>
+  <si>
+    <t>Automation78443</t>
+  </si>
+  <si>
+    <t>proctorautomation78443@gmail.com</t>
+  </si>
+  <si>
+    <t>78443</t>
+  </si>
+  <si>
+    <t>Proctor80491</t>
+  </si>
+  <si>
+    <t>Automation80491</t>
+  </si>
+  <si>
+    <t>proctorautomation80491@gmail.com</t>
+  </si>
+  <si>
+    <t>80491</t>
+  </si>
+  <si>
+    <t>Proctor46067</t>
+  </si>
+  <si>
+    <t>Automation46067</t>
+  </si>
+  <si>
+    <t>proctorautomation46067@gmail.com</t>
+  </si>
+  <si>
+    <t>46067</t>
+  </si>
+  <si>
+    <t>Proctor77233</t>
+  </si>
+  <si>
+    <t>Automation77233</t>
+  </si>
+  <si>
+    <t>proctorautomation77233@gmail.com</t>
+  </si>
+  <si>
+    <t>77233</t>
+  </si>
+  <si>
+    <t>Proctor77490</t>
+  </si>
+  <si>
+    <t>Automation77490</t>
+  </si>
+  <si>
+    <t>proctorautomation77490@gmail.com</t>
+  </si>
+  <si>
+    <t>77490</t>
+  </si>
+  <si>
+    <t>Proctor48199</t>
+  </si>
+  <si>
+    <t>Automation48199</t>
+  </si>
+  <si>
+    <t>proctorautomation48199@gmail.com</t>
+  </si>
+  <si>
+    <t>48199</t>
+  </si>
+  <si>
+    <t>Proctor15436</t>
+  </si>
+  <si>
+    <t>Automation15436</t>
+  </si>
+  <si>
+    <t>proctorautomation15436@gmail.com</t>
+  </si>
+  <si>
+    <t>15436</t>
+  </si>
+  <si>
+    <t>Proctor86281</t>
+  </si>
+  <si>
+    <t>Automation86281</t>
+  </si>
+  <si>
+    <t>proctorautomation86281@gmail.com</t>
+  </si>
+  <si>
+    <t>86281</t>
+  </si>
+  <si>
+    <t>Proctor54836</t>
+  </si>
+  <si>
+    <t>Automation54836</t>
+  </si>
+  <si>
+    <t>proctorautomation54836@gmail.com</t>
+  </si>
+  <si>
+    <t>54836</t>
+  </si>
+  <si>
+    <t>Proctor00471</t>
+  </si>
+  <si>
+    <t>Automation00471</t>
+  </si>
+  <si>
+    <t>proctorautomation00471@gmail.com</t>
+  </si>
+  <si>
+    <t>00471</t>
+  </si>
+  <si>
+    <t>Proctor66885</t>
+  </si>
+  <si>
+    <t>Automation66885</t>
+  </si>
+  <si>
+    <t>proctorautomation66885@gmail.com</t>
+  </si>
+  <si>
+    <t>66885</t>
+  </si>
+  <si>
+    <t>Proctor24591</t>
+  </si>
+  <si>
+    <t>Automation24591</t>
+  </si>
+  <si>
+    <t>proctorautomation24591@gmail.com</t>
+  </si>
+  <si>
+    <t>24591</t>
+  </si>
+  <si>
+    <t>Proctor16625</t>
+  </si>
+  <si>
+    <t>Automation16625</t>
+  </si>
+  <si>
+    <t>proctorautomation16625@gmail.com</t>
+  </si>
+  <si>
+    <t>16625</t>
+  </si>
+  <si>
+    <t>Proctor99913</t>
+  </si>
+  <si>
+    <t>Automation99913</t>
+  </si>
+  <si>
+    <t>proctorautomation99913@gmail.com</t>
+  </si>
+  <si>
+    <t>99913</t>
+  </si>
+  <si>
+    <t>Proctor10454</t>
+  </si>
+  <si>
+    <t>Automation10454</t>
+  </si>
+  <si>
+    <t>proctorautomation10454@gmail.com</t>
+  </si>
+  <si>
+    <t>10454</t>
+  </si>
+  <si>
+    <t>Proctor00511</t>
+  </si>
+  <si>
+    <t>Automation00511</t>
+  </si>
+  <si>
+    <t>proctorautomation00511@gmail.com</t>
+  </si>
+  <si>
+    <t>00511</t>
+  </si>
+  <si>
+    <t>Proctor90070</t>
+  </si>
+  <si>
+    <t>Automation90070</t>
+  </si>
+  <si>
+    <t>proctorautomation90070@gmail.com</t>
+  </si>
+  <si>
+    <t>90070</t>
+  </si>
+  <si>
+    <t>Proctor87319</t>
+  </si>
+  <si>
+    <t>Automation87319</t>
+  </si>
+  <si>
+    <t>proctorautomation87319@gmail.com</t>
+  </si>
+  <si>
+    <t>87319</t>
+  </si>
+  <si>
+    <t>Proctor63714</t>
+  </si>
+  <si>
+    <t>Automation63714</t>
+  </si>
+  <si>
+    <t>proctorautomation63714@gmail.com</t>
+  </si>
+  <si>
+    <t>63714</t>
+  </si>
+  <si>
+    <t>Proctor92552</t>
+  </si>
+  <si>
+    <t>Automation92552</t>
+  </si>
+  <si>
+    <t>proctorautomation92552@gmail.com</t>
+  </si>
+  <si>
+    <t>92552</t>
+  </si>
+  <si>
+    <t>Proctor77271</t>
+  </si>
+  <si>
+    <t>Automation77271</t>
+  </si>
+  <si>
+    <t>proctorautomation77271@gmail.com</t>
+  </si>
+  <si>
+    <t>77271</t>
+  </si>
+  <si>
+    <t>Proctor72658</t>
+  </si>
+  <si>
+    <t>Automation72658</t>
+  </si>
+  <si>
+    <t>proctorautomation72658@gmail.com</t>
+  </si>
+  <si>
+    <t>72658</t>
+  </si>
+  <si>
+    <t>Proctor78061</t>
+  </si>
+  <si>
+    <t>Automation78061</t>
+  </si>
+  <si>
+    <t>proctorautomation78061@gmail.com</t>
+  </si>
+  <si>
+    <t>78061</t>
   </si>
 </sst>
 </file>
@@ -18439,422 +19519,422 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5886</v>
+        <v>6246</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5887</v>
+        <v>6247</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5888</v>
+        <v>6248</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>5889</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5890</v>
+        <v>6250</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5891</v>
+        <v>6251</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>5892</v>
+        <v>6252</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>5893</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5894</v>
+        <v>6254</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5895</v>
+        <v>6255</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>5896</v>
+        <v>6256</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>5897</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5898</v>
+        <v>6258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5899</v>
+        <v>6259</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>5900</v>
+        <v>6260</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>5901</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>5902</v>
+        <v>6262</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>5903</v>
+        <v>6263</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>5904</v>
+        <v>6264</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>5905</v>
+        <v>6265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5906</v>
+        <v>6266</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5907</v>
+        <v>6267</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>5908</v>
+        <v>6268</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>5909</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>5910</v>
+        <v>6270</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>5911</v>
+        <v>6271</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>5912</v>
+        <v>6272</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>5913</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>5914</v>
+        <v>6274</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>5915</v>
+        <v>6275</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>5916</v>
+        <v>6276</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>5917</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>5918</v>
+        <v>6278</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>5919</v>
+        <v>6279</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>5920</v>
+        <v>6280</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>5921</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5922</v>
+        <v>6282</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>5923</v>
+        <v>6283</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>5924</v>
+        <v>6284</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>5925</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>5926</v>
+        <v>6286</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5927</v>
+        <v>6287</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>5928</v>
+        <v>6288</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>5929</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>5930</v>
+        <v>6290</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>5931</v>
+        <v>6291</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>5932</v>
+        <v>6292</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>5933</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>5934</v>
+        <v>6294</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>5935</v>
+        <v>6295</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>5936</v>
+        <v>6296</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>5937</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>5938</v>
+        <v>6298</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>5939</v>
+        <v>6299</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>5940</v>
+        <v>6300</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>5941</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>5942</v>
+        <v>6302</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>5943</v>
+        <v>6303</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>5944</v>
+        <v>6304</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>5945</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>5946</v>
+        <v>6306</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>5947</v>
+        <v>6307</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>5948</v>
+        <v>6308</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>5949</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>5950</v>
+        <v>6310</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>5951</v>
+        <v>6311</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>5952</v>
+        <v>6312</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>5953</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>5954</v>
+        <v>6314</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>5955</v>
+        <v>6315</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>5956</v>
+        <v>6316</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>5957</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>5958</v>
+        <v>6318</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>5959</v>
+        <v>6319</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>5960</v>
+        <v>6320</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>5961</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>5962</v>
+        <v>6322</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>5963</v>
+        <v>6323</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>5964</v>
+        <v>6324</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>5965</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>5966</v>
+        <v>6326</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>5967</v>
+        <v>6327</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>5968</v>
+        <v>6328</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>5969</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>5970</v>
+        <v>6330</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>5971</v>
+        <v>6331</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>5972</v>
+        <v>6332</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>5973</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>5974</v>
+        <v>6334</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>5975</v>
+        <v>6335</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>5976</v>
+        <v>6336</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>5977</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>5978</v>
+        <v>6338</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5979</v>
+        <v>6339</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>5980</v>
+        <v>6340</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>5981</v>
+        <v>6341</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>5982</v>
+        <v>6342</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>5983</v>
+        <v>6343</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>5984</v>
+        <v>6344</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>5985</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>5986</v>
+        <v>6346</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>5987</v>
+        <v>6347</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>5988</v>
+        <v>6348</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>5989</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>5990</v>
+        <v>6350</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>5991</v>
+        <v>6351</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>5992</v>
+        <v>6352</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>5993</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>5994</v>
+        <v>6354</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>5995</v>
+        <v>6355</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>5996</v>
+        <v>6356</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>5997</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>5998</v>
+        <v>6358</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>5999</v>
+        <v>6359</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>6000</v>
+        <v>6360</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>6001</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6002</v>
+        <v>6362</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>6003</v>
+        <v>6363</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>6004</v>
+        <v>6364</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>6005</v>
+        <v>6365</v>
       </c>
     </row>
     <row r="32"/>
